--- a/BaremeJavaBaseTest2_GJ52.xlsx
+++ b/BaremeJavaBaseTest2_GJ52.xlsx
@@ -13,7 +13,6 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -23,30 +22,6 @@
     <author>Auteur</author>
   </authors>
   <commentList>
-    <comment ref="AF9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque contrôle isNull</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="AC10" authorId="0" shapeId="0">
       <text>
         <r>
@@ -67,11 +42,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-manque les collectionsUnmodifiable</t>
+manque les Collections.unmodifable</t>
         </r>
       </text>
     </comment>
-    <comment ref="AE10" authorId="0" shapeId="0">
+    <comment ref="AD10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -91,79 +66,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-manque l'appel pour le contrôle du regime alimentaire des repas</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque contrôle isNull</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque le collectionsUnmodifiable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-les listes ne sont pas initialisées</t>
+contructeur protected</t>
         </r>
       </text>
     </comment>
@@ -187,103 +90,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-manque les collectionsUnmodifiable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AI11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-on ne met pas les listes dans les toString</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AK11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-la liste n'est pas initialisé</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque le collectionsUnmodifiable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AP11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-on ne met pas les listes dans les toString</t>
+manque les Collections.unmodifable</t>
         </r>
       </text>
     </comment>
@@ -307,7 +114,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-les listes ne sont pas initialisées</t>
+listes non instanciées ni UUID</t>
         </r>
       </text>
     </comment>
@@ -331,7 +138,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-manque contrôle isNull</t>
+manque les Collections.unmodifable
+il n'y a pas de setters de liste</t>
         </r>
       </text>
     </comment>
@@ -355,11 +163,12 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-la signature ne correspond pas</t>
+contructeur protected
+pas d'appel aux setters</t>
         </r>
       </text>
     </comment>
-    <comment ref="AK12" authorId="0" shapeId="0">
+    <comment ref="AC13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +188,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-la liste n'est pas initialisé</t>
+manque les Collections.unmodifable</t>
         </r>
       </text>
     </comment>
@@ -403,1135 +212,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-la signature ne correspond pas</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AP13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-on ne met pas les listes dans les toString</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-type de retour des listes pas bon</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-la signature ne correspond pas</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque l'appel pour le contrôle du regime alimentaire des repas</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AK14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-la liste n'est pas initialisé</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque le collectionsUnmodifiable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB15" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-les listes ne sont pas initialisées</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC15" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque les controles null</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD15" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-le constructeur ne passe pas par les setters</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE15" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque l'appel pour le contrôle du regime alimentaire des repas</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AK15" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-la liste n'est pas initialisé</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AM15" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-le constructeur ne passe pas par les setters</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-les listes ne sont pas initialisées</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque l'appel pour le contrôle du regime alimentaire des repas</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque contrôle isNull</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AK16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-la liste n'est pas initialisé</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AN16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque contrôle isNull</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD17" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-la signature ne correspond pas</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE17" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque l'appel pour le contrôle du regime alimentaire des repas</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF17" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque contrôle isNull</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB18" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-les listes ne sont pas initialisées</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD18" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-la signature ne correspond pas</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AK18" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-la liste n'est pas initialisé</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AM18" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-le constructeur ne passe pas par les setters</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-le constructeur ne passe pas par les setters</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque l'appel pour le contrôle du regime alimentaire des repas</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AM19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-le constructeur ne passe pas par les setters</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB20" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-les listes ne sont pas initialisées</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC20" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque les controles null</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF20" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque le add</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AI20" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-on ne met pas les listes dans les toString</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AP20" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-on ne met pas les listes dans les toString</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD21" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-le constructeur ne passe pas par les setters</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE21" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque l'appel pour le contrôle du regime alimentaire des repas</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AI21" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-on ne met pas les listes dans les toString</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AP21" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-on ne met pas les listes dans les toString</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB22" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-les listes ne sont pas initialisées</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD22" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-le constructeur ne passe pas par les setters</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AK22" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-la liste n'est pas initialisé</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL22" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque le collectionsUnmodifiable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AP22" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-on ne met pas les listes dans les toString</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AC23" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque un collectionsUnmodifiable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD23" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-le constructeur ne passe pas par les setters</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE23" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque l'appel pour le contrôle du regime alimentaire des repas</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AK23" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-la liste n'est pas initialisé</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AP23" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-on ne met pas les listes dans les toString</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE24" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-manque l'appel pour le contrôle du regime alimentaire des repas</t>
+contructeur protected</t>
         </r>
       </text>
     </comment>
@@ -3618,22 +2299,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3648,142 +2353,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3810,7 +2380,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3819,25 +2395,133 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3847,9 +2531,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3885,14 +2566,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="197">
+  <dxfs count="200">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5571,11 +4273,11 @@
   <dimension ref="A1:CR68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3600" ySplit="2910" topLeftCell="G1" activePane="bottomRight"/>
+      <pane xSplit="3600" ySplit="2910" topLeftCell="G8" activePane="bottomRight"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="topRight" activeCell="Q6" sqref="Q6"/>
+      <selection pane="topRight" activeCell="AQ7" sqref="AQ7"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9:B23"/>
-      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomRight" activeCell="AI14" sqref="AI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -5623,102 +4325,102 @@
     <row r="1" spans="1:96" s="112" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
-      <c r="H1" s="129" t="s">
+      <c r="H1" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="160" t="s">
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="173" t="s">
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="173"/>
-      <c r="X1" s="173"/>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="173"/>
-      <c r="AB1" s="173"/>
-      <c r="AC1" s="173"/>
-      <c r="AD1" s="173"/>
-      <c r="AE1" s="173"/>
-      <c r="AF1" s="173"/>
-      <c r="AG1" s="173"/>
-      <c r="AH1" s="173"/>
-      <c r="AI1" s="173"/>
-      <c r="AJ1" s="173"/>
-      <c r="AK1" s="173"/>
-      <c r="AL1" s="173"/>
-      <c r="AM1" s="173"/>
-      <c r="AN1" s="173"/>
-      <c r="AO1" s="173"/>
-      <c r="AP1" s="173"/>
-      <c r="AQ1" s="173"/>
-      <c r="AR1" s="173"/>
-      <c r="AS1" s="173"/>
-      <c r="AT1" s="173"/>
-      <c r="AU1" s="173"/>
-      <c r="AV1" s="173"/>
-      <c r="AW1" s="173"/>
-      <c r="AX1" s="173"/>
-      <c r="AY1" s="173"/>
-      <c r="AZ1" s="173"/>
-      <c r="BA1" s="173"/>
-      <c r="BB1" s="173"/>
-      <c r="BC1" s="173"/>
-      <c r="BD1" s="173"/>
-      <c r="BE1" s="173"/>
-      <c r="BF1" s="173"/>
-      <c r="BG1" s="173"/>
-      <c r="BH1" s="173"/>
-      <c r="BI1" s="173"/>
-      <c r="BJ1" s="173"/>
-      <c r="BK1" s="173"/>
-      <c r="BL1" s="173"/>
-      <c r="BM1" s="173"/>
-      <c r="BN1" s="173"/>
-      <c r="BO1" s="173"/>
-      <c r="BP1" s="173"/>
-      <c r="BQ1" s="173"/>
-      <c r="BR1" s="173"/>
-      <c r="BS1" s="173"/>
-      <c r="BT1" s="173"/>
-      <c r="BU1" s="173"/>
-      <c r="BV1" s="173"/>
-      <c r="BW1" s="173" t="s">
+      <c r="W1" s="126"/>
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="126"/>
+      <c r="AL1" s="126"/>
+      <c r="AM1" s="126"/>
+      <c r="AN1" s="126"/>
+      <c r="AO1" s="126"/>
+      <c r="AP1" s="126"/>
+      <c r="AQ1" s="126"/>
+      <c r="AR1" s="126"/>
+      <c r="AS1" s="126"/>
+      <c r="AT1" s="126"/>
+      <c r="AU1" s="126"/>
+      <c r="AV1" s="126"/>
+      <c r="AW1" s="126"/>
+      <c r="AX1" s="126"/>
+      <c r="AY1" s="126"/>
+      <c r="AZ1" s="126"/>
+      <c r="BA1" s="126"/>
+      <c r="BB1" s="126"/>
+      <c r="BC1" s="126"/>
+      <c r="BD1" s="126"/>
+      <c r="BE1" s="126"/>
+      <c r="BF1" s="126"/>
+      <c r="BG1" s="126"/>
+      <c r="BH1" s="126"/>
+      <c r="BI1" s="126"/>
+      <c r="BJ1" s="126"/>
+      <c r="BK1" s="126"/>
+      <c r="BL1" s="126"/>
+      <c r="BM1" s="126"/>
+      <c r="BN1" s="126"/>
+      <c r="BO1" s="126"/>
+      <c r="BP1" s="126"/>
+      <c r="BQ1" s="126"/>
+      <c r="BR1" s="126"/>
+      <c r="BS1" s="126"/>
+      <c r="BT1" s="126"/>
+      <c r="BU1" s="126"/>
+      <c r="BV1" s="126"/>
+      <c r="BW1" s="126" t="s">
         <v>97</v>
       </c>
-      <c r="BX1" s="173"/>
-      <c r="BY1" s="173"/>
-      <c r="BZ1" s="173"/>
-      <c r="CA1" s="173"/>
-      <c r="CB1" s="173"/>
-      <c r="CC1" s="173" t="s">
+      <c r="BX1" s="126"/>
+      <c r="BY1" s="126"/>
+      <c r="BZ1" s="126"/>
+      <c r="CA1" s="126"/>
+      <c r="CB1" s="126"/>
+      <c r="CC1" s="126" t="s">
         <v>99</v>
       </c>
-      <c r="CD1" s="173"/>
-      <c r="CE1" s="173"/>
-      <c r="CF1" s="173"/>
-      <c r="CG1" s="173"/>
-      <c r="CH1" s="173"/>
-      <c r="CI1" s="173"/>
-      <c r="CJ1" s="173"/>
-      <c r="CK1" s="173"/>
-      <c r="CL1" s="173"/>
-      <c r="CM1" s="173"/>
-      <c r="CN1" s="173"/>
-      <c r="CO1" s="173"/>
+      <c r="CD1" s="126"/>
+      <c r="CE1" s="126"/>
+      <c r="CF1" s="126"/>
+      <c r="CG1" s="126"/>
+      <c r="CH1" s="126"/>
+      <c r="CI1" s="126"/>
+      <c r="CJ1" s="126"/>
+      <c r="CK1" s="126"/>
+      <c r="CL1" s="126"/>
+      <c r="CM1" s="126"/>
+      <c r="CN1" s="126"/>
+      <c r="CO1" s="126"/>
       <c r="CP1" s="115"/>
     </row>
     <row r="2" spans="1:96" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5729,117 +4431,117 @@
       <c r="E2" s="52"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
-      <c r="V2" s="165" t="s">
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="168"/>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="168"/>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="168"/>
-      <c r="AH2" s="168"/>
-      <c r="AI2" s="168"/>
-      <c r="AJ2" s="168"/>
-      <c r="AK2" s="168"/>
-      <c r="AL2" s="168"/>
-      <c r="AM2" s="168"/>
-      <c r="AN2" s="168"/>
-      <c r="AO2" s="168"/>
-      <c r="AP2" s="168"/>
-      <c r="AQ2" s="177"/>
-      <c r="AR2" s="174" t="s">
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="129"/>
+      <c r="AA2" s="129"/>
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="129"/>
+      <c r="AD2" s="129"/>
+      <c r="AE2" s="129"/>
+      <c r="AF2" s="129"/>
+      <c r="AG2" s="129"/>
+      <c r="AH2" s="129"/>
+      <c r="AI2" s="129"/>
+      <c r="AJ2" s="129"/>
+      <c r="AK2" s="129"/>
+      <c r="AL2" s="129"/>
+      <c r="AM2" s="129"/>
+      <c r="AN2" s="129"/>
+      <c r="AO2" s="129"/>
+      <c r="AP2" s="129"/>
+      <c r="AQ2" s="131"/>
+      <c r="AR2" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="AS2" s="172"/>
-      <c r="AT2" s="172"/>
-      <c r="AU2" s="175"/>
-      <c r="AV2" s="180" t="s">
+      <c r="AS2" s="125"/>
+      <c r="AT2" s="125"/>
+      <c r="AU2" s="128"/>
+      <c r="AV2" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="AW2" s="172"/>
-      <c r="AX2" s="172"/>
-      <c r="AY2" s="172"/>
-      <c r="AZ2" s="172"/>
-      <c r="BA2" s="172"/>
-      <c r="BB2" s="128" t="s">
+      <c r="AW2" s="125"/>
+      <c r="AX2" s="125"/>
+      <c r="AY2" s="125"/>
+      <c r="AZ2" s="125"/>
+      <c r="BA2" s="125"/>
+      <c r="BB2" s="137" t="s">
         <v>96</v>
       </c>
-      <c r="BC2" s="129"/>
-      <c r="BD2" s="129"/>
-      <c r="BE2" s="129"/>
-      <c r="BF2" s="129"/>
-      <c r="BG2" s="129"/>
-      <c r="BH2" s="129"/>
-      <c r="BI2" s="129"/>
-      <c r="BJ2" s="129"/>
-      <c r="BK2" s="129"/>
-      <c r="BL2" s="129"/>
-      <c r="BM2" s="130"/>
-      <c r="BN2" s="128" t="s">
+      <c r="BC2" s="124"/>
+      <c r="BD2" s="124"/>
+      <c r="BE2" s="124"/>
+      <c r="BF2" s="124"/>
+      <c r="BG2" s="124"/>
+      <c r="BH2" s="124"/>
+      <c r="BI2" s="124"/>
+      <c r="BJ2" s="124"/>
+      <c r="BK2" s="124"/>
+      <c r="BL2" s="124"/>
+      <c r="BM2" s="138"/>
+      <c r="BN2" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="BO2" s="129"/>
-      <c r="BP2" s="129"/>
-      <c r="BQ2" s="129"/>
-      <c r="BR2" s="129"/>
-      <c r="BS2" s="129"/>
-      <c r="BT2" s="129"/>
-      <c r="BU2" s="129"/>
-      <c r="BV2" s="130"/>
-      <c r="BW2" s="164" t="s">
+      <c r="BO2" s="124"/>
+      <c r="BP2" s="124"/>
+      <c r="BQ2" s="124"/>
+      <c r="BR2" s="124"/>
+      <c r="BS2" s="124"/>
+      <c r="BT2" s="124"/>
+      <c r="BU2" s="124"/>
+      <c r="BV2" s="138"/>
+      <c r="BW2" s="179" t="s">
         <v>101</v>
       </c>
-      <c r="BX2" s="168" t="s">
+      <c r="BX2" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="BY2" s="168"/>
-      <c r="BZ2" s="167" t="s">
+      <c r="BY2" s="129"/>
+      <c r="BZ2" s="180" t="s">
         <v>103</v>
       </c>
-      <c r="CA2" s="168" t="s">
+      <c r="CA2" s="129" t="s">
         <v>104</v>
       </c>
-      <c r="CB2" s="177"/>
-      <c r="CC2" s="128" t="s">
+      <c r="CB2" s="131"/>
+      <c r="CC2" s="137" t="s">
         <v>105</v>
       </c>
-      <c r="CD2" s="129"/>
-      <c r="CE2" s="129"/>
-      <c r="CF2" s="129"/>
-      <c r="CG2" s="129"/>
-      <c r="CH2" s="129"/>
-      <c r="CI2" s="129"/>
-      <c r="CJ2" s="129"/>
-      <c r="CK2" s="129"/>
-      <c r="CL2" s="129"/>
-      <c r="CM2" s="129"/>
-      <c r="CN2" s="129"/>
-      <c r="CO2" s="130"/>
+      <c r="CD2" s="124"/>
+      <c r="CE2" s="124"/>
+      <c r="CF2" s="124"/>
+      <c r="CG2" s="124"/>
+      <c r="CH2" s="124"/>
+      <c r="CI2" s="124"/>
+      <c r="CJ2" s="124"/>
+      <c r="CK2" s="124"/>
+      <c r="CL2" s="124"/>
+      <c r="CM2" s="124"/>
+      <c r="CN2" s="124"/>
+      <c r="CO2" s="138"/>
       <c r="CP2" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="CQ2" s="124"/>
-      <c r="CR2" s="124"/>
+      <c r="CQ2" s="187"/>
+      <c r="CR2" s="187"/>
     </row>
     <row r="3" spans="1:96" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -5849,141 +4551,141 @@
       <c r="E3" s="52"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="184" t="s">
+      <c r="H3" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="187" t="s">
+      <c r="I3" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="187" t="s">
+      <c r="J3" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="184" t="s">
+      <c r="K3" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="184" t="s">
+      <c r="L3" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="187" t="s">
+      <c r="M3" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="181" t="s">
+      <c r="N3" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="O3" s="187" t="s">
+      <c r="O3" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="129"/>
-      <c r="R3" s="129"/>
-      <c r="S3" s="129"/>
-      <c r="T3" s="129"/>
-      <c r="U3" s="129"/>
-      <c r="V3" s="150" t="s">
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="142" t="s">
         <v>92</v>
       </c>
-      <c r="W3" s="151"/>
-      <c r="X3" s="151"/>
-      <c r="Y3" s="151"/>
-      <c r="Z3" s="151"/>
-      <c r="AA3" s="151"/>
-      <c r="AB3" s="147" t="s">
+      <c r="W3" s="135"/>
+      <c r="X3" s="135"/>
+      <c r="Y3" s="135"/>
+      <c r="Z3" s="135"/>
+      <c r="AA3" s="135"/>
+      <c r="AB3" s="182" t="s">
         <v>107</v>
       </c>
-      <c r="AC3" s="152"/>
-      <c r="AD3" s="132"/>
-      <c r="AE3" s="132"/>
-      <c r="AF3" s="132"/>
-      <c r="AG3" s="132"/>
-      <c r="AH3" s="132"/>
-      <c r="AI3" s="132"/>
-      <c r="AJ3" s="132"/>
-      <c r="AK3" s="190" t="s">
+      <c r="AC3" s="162"/>
+      <c r="AD3" s="140"/>
+      <c r="AE3" s="140"/>
+      <c r="AF3" s="140"/>
+      <c r="AG3" s="140"/>
+      <c r="AH3" s="140"/>
+      <c r="AI3" s="140"/>
+      <c r="AJ3" s="140"/>
+      <c r="AK3" s="155" t="s">
         <v>108</v>
       </c>
-      <c r="AL3" s="151"/>
-      <c r="AM3" s="151"/>
-      <c r="AN3" s="151"/>
-      <c r="AO3" s="151"/>
-      <c r="AP3" s="151"/>
-      <c r="AQ3" s="179"/>
-      <c r="AR3" s="150" t="s">
+      <c r="AL3" s="135"/>
+      <c r="AM3" s="135"/>
+      <c r="AN3" s="135"/>
+      <c r="AO3" s="135"/>
+      <c r="AP3" s="135"/>
+      <c r="AQ3" s="136"/>
+      <c r="AR3" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="AS3" s="151"/>
-      <c r="AT3" s="151"/>
-      <c r="AU3" s="147" t="s">
+      <c r="AS3" s="135"/>
+      <c r="AT3" s="135"/>
+      <c r="AU3" s="182" t="s">
         <v>150</v>
       </c>
-      <c r="AV3" s="187" t="s">
+      <c r="AV3" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="AW3" s="160"/>
-      <c r="AX3" s="160"/>
-      <c r="AY3" s="160" t="s">
+      <c r="AW3" s="133"/>
+      <c r="AX3" s="133"/>
+      <c r="AY3" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="AZ3" s="160" t="s">
+      <c r="AZ3" s="133" t="s">
         <v>151</v>
       </c>
-      <c r="BA3" s="162" t="s">
+      <c r="BA3" s="177" t="s">
         <v>48</v>
       </c>
-      <c r="BB3" s="170" t="s">
+      <c r="BB3" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="BC3" s="171" t="s">
+      <c r="BC3" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="BD3" s="169" t="s">
+      <c r="BD3" s="134" t="s">
         <v>116</v>
       </c>
-      <c r="BE3" s="151"/>
-      <c r="BF3" s="151"/>
-      <c r="BG3" s="151"/>
-      <c r="BH3" s="152"/>
-      <c r="BI3" s="169" t="s">
+      <c r="BE3" s="135"/>
+      <c r="BF3" s="135"/>
+      <c r="BG3" s="135"/>
+      <c r="BH3" s="162"/>
+      <c r="BI3" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="BJ3" s="151"/>
-      <c r="BK3" s="151"/>
-      <c r="BL3" s="151"/>
-      <c r="BM3" s="179"/>
-      <c r="BN3" s="131" t="s">
+      <c r="BJ3" s="135"/>
+      <c r="BK3" s="135"/>
+      <c r="BL3" s="135"/>
+      <c r="BM3" s="136"/>
+      <c r="BN3" s="139" t="s">
         <v>70</v>
       </c>
-      <c r="BO3" s="132"/>
-      <c r="BP3" s="132"/>
-      <c r="BQ3" s="132"/>
-      <c r="BR3" s="132"/>
-      <c r="BS3" s="132"/>
-      <c r="BT3" s="132"/>
-      <c r="BU3" s="169"/>
-      <c r="BV3" s="133"/>
-      <c r="BW3" s="165"/>
-      <c r="BX3" s="176"/>
-      <c r="BY3" s="176"/>
-      <c r="BZ3" s="168"/>
-      <c r="CA3" s="176"/>
-      <c r="CB3" s="178"/>
-      <c r="CC3" s="131" t="s">
+      <c r="BO3" s="140"/>
+      <c r="BP3" s="140"/>
+      <c r="BQ3" s="140"/>
+      <c r="BR3" s="140"/>
+      <c r="BS3" s="140"/>
+      <c r="BT3" s="140"/>
+      <c r="BU3" s="134"/>
+      <c r="BV3" s="141"/>
+      <c r="BW3" s="153"/>
+      <c r="BX3" s="130"/>
+      <c r="BY3" s="130"/>
+      <c r="BZ3" s="129"/>
+      <c r="CA3" s="130"/>
+      <c r="CB3" s="132"/>
+      <c r="CC3" s="139" t="s">
         <v>106</v>
       </c>
-      <c r="CD3" s="132"/>
-      <c r="CE3" s="132"/>
-      <c r="CF3" s="132"/>
-      <c r="CG3" s="132"/>
-      <c r="CH3" s="132"/>
-      <c r="CI3" s="132"/>
-      <c r="CJ3" s="132"/>
-      <c r="CK3" s="132"/>
-      <c r="CL3" s="132"/>
-      <c r="CM3" s="132"/>
-      <c r="CN3" s="132"/>
-      <c r="CO3" s="133"/>
-      <c r="CP3" s="125"/>
-      <c r="CQ3" s="124"/>
-      <c r="CR3" s="124"/>
+      <c r="CD3" s="140"/>
+      <c r="CE3" s="140"/>
+      <c r="CF3" s="140"/>
+      <c r="CG3" s="140"/>
+      <c r="CH3" s="140"/>
+      <c r="CI3" s="140"/>
+      <c r="CJ3" s="140"/>
+      <c r="CK3" s="140"/>
+      <c r="CL3" s="140"/>
+      <c r="CM3" s="140"/>
+      <c r="CN3" s="140"/>
+      <c r="CO3" s="141"/>
+      <c r="CP3" s="188"/>
+      <c r="CQ3" s="187"/>
+      <c r="CR3" s="187"/>
     </row>
     <row r="4" spans="1:96" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -5997,29 +4699,29 @@
       </c>
       <c r="D4" s="17" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G6,")")</f>
-        <v>Note/20 ( sur 221)</v>
+        <v>Note/20 ( sur 212)</v>
       </c>
       <c r="E4" s="18" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G7,")")</f>
-        <v>Note/20 ( sur 76)</v>
+        <v>Note/20 ( sur 68)</v>
       </c>
       <c r="F4" s="7" t="str">
         <f>CONCATENATE("Note/",G7)</f>
-        <v>Note/76</v>
+        <v>Note/68</v>
       </c>
       <c r="G4" s="7" t="str">
         <f>CONCATENATE("Note/",G6)</f>
-        <v>Note/221</v>
-      </c>
-      <c r="H4" s="185"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="185"/>
-      <c r="L4" s="185"/>
-      <c r="M4" s="157"/>
-      <c r="N4" s="182"/>
-      <c r="O4" s="157"/>
-      <c r="P4" s="158" t="s">
+        <v>Note/212</v>
+      </c>
+      <c r="H4" s="148"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="170" t="s">
         <v>133</v>
       </c>
       <c r="Q4" s="82" t="s">
@@ -6037,201 +4739,201 @@
       <c r="U4" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="V4" s="153" t="s">
+      <c r="V4" s="185" t="s">
         <v>146</v>
       </c>
-      <c r="W4" s="145" t="s">
+      <c r="W4" s="174" t="s">
         <v>51</v>
       </c>
-      <c r="X4" s="145" t="s">
+      <c r="X4" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="Y4" s="136" t="s">
+      <c r="Y4" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="143" t="s">
+      <c r="Z4" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="AA4" s="136" t="s">
+      <c r="AA4" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="AB4" s="155" t="s">
+      <c r="AB4" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="AC4" s="145" t="s">
+      <c r="AC4" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="AD4" s="145" t="s">
+      <c r="AD4" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="AE4" s="143" t="s">
+      <c r="AE4" s="169" t="s">
         <v>147</v>
       </c>
-      <c r="AF4" s="143" t="s">
+      <c r="AF4" s="169" t="s">
         <v>148</v>
       </c>
-      <c r="AG4" s="143" t="s">
+      <c r="AG4" s="169" t="s">
         <v>149</v>
       </c>
-      <c r="AH4" s="143" t="s">
+      <c r="AH4" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="AI4" s="143" t="s">
+      <c r="AI4" s="169" t="s">
         <v>73</v>
       </c>
-      <c r="AJ4" s="136" t="s">
+      <c r="AJ4" s="158" t="s">
         <v>72</v>
       </c>
-      <c r="AK4" s="155" t="s">
+      <c r="AK4" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="AL4" s="145" t="s">
+      <c r="AL4" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="AM4" s="145" t="s">
+      <c r="AM4" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="AN4" s="143" t="s">
+      <c r="AN4" s="169" t="s">
         <v>148</v>
       </c>
-      <c r="AO4" s="143" t="s">
+      <c r="AO4" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="AP4" s="136" t="s">
+      <c r="AP4" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="AQ4" s="138" t="s">
+      <c r="AQ4" s="160" t="s">
         <v>72</v>
       </c>
-      <c r="AR4" s="134" t="s">
+      <c r="AR4" s="156" t="s">
         <v>109</v>
       </c>
-      <c r="AS4" s="140" t="s">
+      <c r="AS4" s="167" t="s">
         <v>110</v>
       </c>
-      <c r="AT4" s="141"/>
-      <c r="AU4" s="148"/>
-      <c r="AV4" s="157"/>
-      <c r="AW4" s="129"/>
-      <c r="AX4" s="129"/>
-      <c r="AY4" s="129"/>
-      <c r="AZ4" s="129"/>
-      <c r="BA4" s="130"/>
-      <c r="BB4" s="165"/>
-      <c r="BC4" s="168"/>
-      <c r="BD4" s="136" t="s">
+      <c r="AT4" s="168"/>
+      <c r="AU4" s="183"/>
+      <c r="AV4" s="151"/>
+      <c r="AW4" s="124"/>
+      <c r="AX4" s="124"/>
+      <c r="AY4" s="124"/>
+      <c r="AZ4" s="124"/>
+      <c r="BA4" s="138"/>
+      <c r="BB4" s="153"/>
+      <c r="BC4" s="129"/>
+      <c r="BD4" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="BE4" s="136" t="s">
+      <c r="BE4" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="BF4" s="136" t="s">
+      <c r="BF4" s="158" t="s">
         <v>117</v>
       </c>
-      <c r="BG4" s="136" t="s">
+      <c r="BG4" s="158" t="s">
         <v>119</v>
       </c>
-      <c r="BH4" s="136" t="s">
+      <c r="BH4" s="158" t="s">
         <v>115</v>
       </c>
-      <c r="BI4" s="136" t="s">
+      <c r="BI4" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="BJ4" s="136" t="s">
+      <c r="BJ4" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="BK4" s="136" t="s">
+      <c r="BK4" s="158" t="s">
         <v>117</v>
       </c>
-      <c r="BL4" s="136" t="s">
+      <c r="BL4" s="158" t="s">
         <v>119</v>
       </c>
-      <c r="BM4" s="136" t="s">
+      <c r="BM4" s="158" t="s">
         <v>115</v>
       </c>
-      <c r="BN4" s="134" t="s">
+      <c r="BN4" s="156" t="s">
         <v>120</v>
       </c>
-      <c r="BO4" s="136" t="s">
+      <c r="BO4" s="158" t="s">
         <v>127</v>
       </c>
-      <c r="BP4" s="136" t="s">
+      <c r="BP4" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="BQ4" s="136" t="s">
+      <c r="BQ4" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="BR4" s="136" t="s">
+      <c r="BR4" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="BS4" s="136" t="s">
+      <c r="BS4" s="158" t="s">
         <v>124</v>
       </c>
-      <c r="BT4" s="136" t="s">
+      <c r="BT4" s="158" t="s">
         <v>125</v>
       </c>
-      <c r="BU4" s="136" t="s">
+      <c r="BU4" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="BV4" s="138" t="s">
+      <c r="BV4" s="160" t="s">
         <v>126</v>
       </c>
-      <c r="BW4" s="165"/>
-      <c r="BX4" s="136" t="s">
+      <c r="BW4" s="153"/>
+      <c r="BX4" s="158" t="s">
         <v>152</v>
       </c>
-      <c r="BY4" s="136" t="s">
+      <c r="BY4" s="158" t="s">
         <v>153</v>
       </c>
-      <c r="BZ4" s="168"/>
-      <c r="CA4" s="136" t="s">
+      <c r="BZ4" s="129"/>
+      <c r="CA4" s="158" t="s">
         <v>152</v>
       </c>
-      <c r="CB4" s="136" t="s">
+      <c r="CB4" s="158" t="s">
         <v>153</v>
       </c>
-      <c r="CC4" s="134" t="s">
+      <c r="CC4" s="156" t="s">
         <v>134</v>
       </c>
-      <c r="CD4" s="136" t="s">
+      <c r="CD4" s="158" t="s">
         <v>135</v>
       </c>
-      <c r="CE4" s="136" t="s">
+      <c r="CE4" s="158" t="s">
         <v>136</v>
       </c>
-      <c r="CF4" s="136" t="s">
+      <c r="CF4" s="158" t="s">
         <v>137</v>
       </c>
-      <c r="CG4" s="136" t="s">
+      <c r="CG4" s="158" t="s">
         <v>138</v>
       </c>
-      <c r="CH4" s="136" t="s">
+      <c r="CH4" s="158" t="s">
         <v>139</v>
       </c>
-      <c r="CI4" s="136" t="s">
+      <c r="CI4" s="158" t="s">
         <v>140</v>
       </c>
-      <c r="CJ4" s="136" t="s">
+      <c r="CJ4" s="158" t="s">
         <v>130</v>
       </c>
-      <c r="CK4" s="136" t="s">
+      <c r="CK4" s="158" t="s">
         <v>141</v>
       </c>
-      <c r="CL4" s="136" t="s">
+      <c r="CL4" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="CM4" s="136" t="s">
+      <c r="CM4" s="158" t="s">
         <v>143</v>
       </c>
-      <c r="CN4" s="136" t="s">
+      <c r="CN4" s="158" t="s">
         <v>144</v>
       </c>
-      <c r="CO4" s="138" t="s">
+      <c r="CO4" s="160" t="s">
         <v>145</v>
       </c>
-      <c r="CP4" s="126"/>
-      <c r="CQ4" s="124"/>
-      <c r="CR4" s="124"/>
+      <c r="CP4" s="189"/>
+      <c r="CQ4" s="187"/>
+      <c r="CR4" s="187"/>
     </row>
     <row r="5" spans="1:96" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -6241,15 +4943,15 @@
       <c r="E5" s="18"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="188"/>
-      <c r="J5" s="188"/>
-      <c r="K5" s="186"/>
-      <c r="L5" s="186"/>
-      <c r="M5" s="188"/>
-      <c r="N5" s="183"/>
-      <c r="O5" s="180"/>
-      <c r="P5" s="159"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="152"/>
+      <c r="N5" s="146"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="171"/>
       <c r="Q5" s="96" t="s">
         <v>129</v>
       </c>
@@ -6265,36 +4967,36 @@
       <c r="U5" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="V5" s="154"/>
-      <c r="W5" s="146"/>
-      <c r="X5" s="146"/>
-      <c r="Y5" s="137"/>
-      <c r="Z5" s="144"/>
-      <c r="AA5" s="137"/>
-      <c r="AB5" s="156"/>
-      <c r="AC5" s="146"/>
-      <c r="AD5" s="146"/>
-      <c r="AE5" s="144"/>
-      <c r="AF5" s="144"/>
-      <c r="AG5" s="144"/>
-      <c r="AH5" s="144"/>
-      <c r="AI5" s="144"/>
-      <c r="AJ5" s="137"/>
-      <c r="AK5" s="156"/>
-      <c r="AL5" s="146"/>
-      <c r="AM5" s="146"/>
-      <c r="AN5" s="144"/>
-      <c r="AO5" s="144"/>
-      <c r="AP5" s="137"/>
-      <c r="AQ5" s="139"/>
-      <c r="AR5" s="135"/>
+      <c r="V5" s="186"/>
+      <c r="W5" s="175"/>
+      <c r="X5" s="175"/>
+      <c r="Y5" s="159"/>
+      <c r="Z5" s="166"/>
+      <c r="AA5" s="159"/>
+      <c r="AB5" s="173"/>
+      <c r="AC5" s="175"/>
+      <c r="AD5" s="175"/>
+      <c r="AE5" s="166"/>
+      <c r="AF5" s="166"/>
+      <c r="AG5" s="166"/>
+      <c r="AH5" s="166"/>
+      <c r="AI5" s="166"/>
+      <c r="AJ5" s="159"/>
+      <c r="AK5" s="173"/>
+      <c r="AL5" s="175"/>
+      <c r="AM5" s="175"/>
+      <c r="AN5" s="166"/>
+      <c r="AO5" s="166"/>
+      <c r="AP5" s="159"/>
+      <c r="AQ5" s="161"/>
+      <c r="AR5" s="157"/>
       <c r="AS5" s="97" t="s">
         <v>93</v>
       </c>
       <c r="AT5" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="AU5" s="149"/>
+      <c r="AU5" s="184"/>
       <c r="AV5" s="105" t="s">
         <v>95</v>
       </c>
@@ -6304,52 +5006,52 @@
       <c r="AX5" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="AY5" s="161"/>
-      <c r="AZ5" s="161"/>
-      <c r="BA5" s="163"/>
-      <c r="BB5" s="166"/>
-      <c r="BC5" s="144"/>
-      <c r="BD5" s="137"/>
-      <c r="BE5" s="137"/>
-      <c r="BF5" s="137"/>
-      <c r="BG5" s="137"/>
-      <c r="BH5" s="137"/>
-      <c r="BI5" s="137"/>
-      <c r="BJ5" s="137"/>
-      <c r="BK5" s="137"/>
-      <c r="BL5" s="137"/>
-      <c r="BM5" s="137"/>
-      <c r="BN5" s="135"/>
-      <c r="BO5" s="137"/>
-      <c r="BP5" s="137"/>
-      <c r="BQ5" s="137"/>
-      <c r="BR5" s="137"/>
-      <c r="BS5" s="137"/>
-      <c r="BT5" s="137"/>
-      <c r="BU5" s="137"/>
-      <c r="BV5" s="139"/>
-      <c r="BW5" s="166"/>
-      <c r="BX5" s="137"/>
-      <c r="BY5" s="137"/>
-      <c r="BZ5" s="144"/>
-      <c r="CA5" s="137"/>
-      <c r="CB5" s="137"/>
-      <c r="CC5" s="135"/>
-      <c r="CD5" s="137"/>
-      <c r="CE5" s="137"/>
-      <c r="CF5" s="137"/>
-      <c r="CG5" s="137"/>
-      <c r="CH5" s="137"/>
-      <c r="CI5" s="137"/>
-      <c r="CJ5" s="137"/>
-      <c r="CK5" s="137"/>
-      <c r="CL5" s="137"/>
-      <c r="CM5" s="137"/>
-      <c r="CN5" s="137"/>
-      <c r="CO5" s="139"/>
-      <c r="CP5" s="127"/>
-      <c r="CQ5" s="124"/>
-      <c r="CR5" s="124"/>
+      <c r="AY5" s="176"/>
+      <c r="AZ5" s="176"/>
+      <c r="BA5" s="178"/>
+      <c r="BB5" s="164"/>
+      <c r="BC5" s="166"/>
+      <c r="BD5" s="159"/>
+      <c r="BE5" s="159"/>
+      <c r="BF5" s="159"/>
+      <c r="BG5" s="159"/>
+      <c r="BH5" s="159"/>
+      <c r="BI5" s="159"/>
+      <c r="BJ5" s="159"/>
+      <c r="BK5" s="159"/>
+      <c r="BL5" s="159"/>
+      <c r="BM5" s="159"/>
+      <c r="BN5" s="157"/>
+      <c r="BO5" s="159"/>
+      <c r="BP5" s="159"/>
+      <c r="BQ5" s="159"/>
+      <c r="BR5" s="159"/>
+      <c r="BS5" s="159"/>
+      <c r="BT5" s="159"/>
+      <c r="BU5" s="159"/>
+      <c r="BV5" s="161"/>
+      <c r="BW5" s="164"/>
+      <c r="BX5" s="159"/>
+      <c r="BY5" s="159"/>
+      <c r="BZ5" s="166"/>
+      <c r="CA5" s="159"/>
+      <c r="CB5" s="159"/>
+      <c r="CC5" s="157"/>
+      <c r="CD5" s="159"/>
+      <c r="CE5" s="159"/>
+      <c r="CF5" s="159"/>
+      <c r="CG5" s="159"/>
+      <c r="CH5" s="159"/>
+      <c r="CI5" s="159"/>
+      <c r="CJ5" s="159"/>
+      <c r="CK5" s="159"/>
+      <c r="CL5" s="159"/>
+      <c r="CM5" s="159"/>
+      <c r="CN5" s="159"/>
+      <c r="CO5" s="161"/>
+      <c r="CP5" s="190"/>
+      <c r="CQ5" s="187"/>
+      <c r="CR5" s="187"/>
     </row>
     <row r="6" spans="1:96" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -6360,7 +5062,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7">
         <f>SUM(H6:CP6)</f>
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="H6" s="60">
         <v>2</v>
@@ -6405,22 +5107,22 @@
         <v>3</v>
       </c>
       <c r="V6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="16">
         <v>4</v>
@@ -6447,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="AJ6" s="78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="16">
         <v>2</v>
@@ -6468,7 +5170,7 @@
         <v>1</v>
       </c>
       <c r="AQ6" s="77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6" s="16">
         <v>1</v>
@@ -6639,7 +5341,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="7">
         <f>SUM(H7:CP7)</f>
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H7" s="61">
         <v>1</v>
@@ -6684,22 +5386,22 @@
         <v>1</v>
       </c>
       <c r="V7" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="58">
         <v>1</v>
@@ -6726,7 +5428,7 @@
         <v>1</v>
       </c>
       <c r="AJ7" s="57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="58">
         <v>1</v>
@@ -6747,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="AQ7" s="59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7" s="58">
         <v>1</v>
@@ -6925,114 +5627,114 @@
       <c r="M8" s="9"/>
       <c r="N8" s="51"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="157">
+      <c r="P8" s="151">
         <f>SUM(P6:U6)</f>
         <v>21</v>
       </c>
-      <c r="Q8" s="129"/>
-      <c r="R8" s="129"/>
-      <c r="S8" s="129"/>
-      <c r="T8" s="129"/>
-      <c r="U8" s="129"/>
-      <c r="V8" s="140">
+      <c r="Q8" s="124"/>
+      <c r="R8" s="124"/>
+      <c r="S8" s="124"/>
+      <c r="T8" s="124"/>
+      <c r="U8" s="124"/>
+      <c r="V8" s="167">
         <f>SUM(V6:AA6)</f>
-        <v>7</v>
-      </c>
-      <c r="W8" s="141"/>
-      <c r="X8" s="141"/>
-      <c r="Y8" s="141"/>
-      <c r="Z8" s="141"/>
-      <c r="AA8" s="141"/>
-      <c r="AB8" s="140">
+        <v>0</v>
+      </c>
+      <c r="W8" s="168"/>
+      <c r="X8" s="168"/>
+      <c r="Y8" s="168"/>
+      <c r="Z8" s="168"/>
+      <c r="AA8" s="168"/>
+      <c r="AB8" s="167">
         <f>SUM(AB6:AJ6)</f>
-        <v>32</v>
-      </c>
-      <c r="AC8" s="141"/>
-      <c r="AD8" s="141"/>
-      <c r="AE8" s="141"/>
-      <c r="AF8" s="141"/>
-      <c r="AG8" s="141"/>
-      <c r="AH8" s="141"/>
-      <c r="AI8" s="141"/>
-      <c r="AJ8" s="141"/>
-      <c r="AK8" s="140">
+        <v>31</v>
+      </c>
+      <c r="AC8" s="168"/>
+      <c r="AD8" s="168"/>
+      <c r="AE8" s="168"/>
+      <c r="AF8" s="168"/>
+      <c r="AG8" s="168"/>
+      <c r="AH8" s="168"/>
+      <c r="AI8" s="168"/>
+      <c r="AJ8" s="168"/>
+      <c r="AK8" s="167">
         <f>SUM(AK6:AQ6)</f>
-        <v>15</v>
-      </c>
-      <c r="AL8" s="141"/>
-      <c r="AM8" s="141"/>
-      <c r="AN8" s="141"/>
-      <c r="AO8" s="141"/>
-      <c r="AP8" s="141"/>
-      <c r="AQ8" s="142"/>
-      <c r="AR8" s="140">
+        <v>14</v>
+      </c>
+      <c r="AL8" s="168"/>
+      <c r="AM8" s="168"/>
+      <c r="AN8" s="168"/>
+      <c r="AO8" s="168"/>
+      <c r="AP8" s="168"/>
+      <c r="AQ8" s="181"/>
+      <c r="AR8" s="167">
         <f>SUM(AR6:AT6)</f>
         <v>6</v>
       </c>
-      <c r="AS8" s="141"/>
-      <c r="AT8" s="141"/>
+      <c r="AS8" s="168"/>
+      <c r="AT8" s="168"/>
       <c r="AU8" s="104"/>
-      <c r="AV8" s="140">
+      <c r="AV8" s="167">
         <f>SUM(AV6:BA6)</f>
         <v>11</v>
       </c>
-      <c r="AW8" s="141"/>
-      <c r="AX8" s="141"/>
-      <c r="AY8" s="141"/>
-      <c r="AZ8" s="141"/>
-      <c r="BA8" s="141"/>
-      <c r="BB8" s="140">
+      <c r="AW8" s="168"/>
+      <c r="AX8" s="168"/>
+      <c r="AY8" s="168"/>
+      <c r="AZ8" s="168"/>
+      <c r="BA8" s="168"/>
+      <c r="BB8" s="167">
         <f>SUM(BB6:BM6)</f>
         <v>36</v>
       </c>
-      <c r="BC8" s="141"/>
-      <c r="BD8" s="141"/>
-      <c r="BE8" s="141"/>
-      <c r="BF8" s="141"/>
-      <c r="BG8" s="141"/>
-      <c r="BH8" s="141"/>
-      <c r="BI8" s="141"/>
-      <c r="BJ8" s="141"/>
-      <c r="BK8" s="141"/>
-      <c r="BL8" s="141"/>
-      <c r="BM8" s="141"/>
-      <c r="BN8" s="140">
+      <c r="BC8" s="168"/>
+      <c r="BD8" s="168"/>
+      <c r="BE8" s="168"/>
+      <c r="BF8" s="168"/>
+      <c r="BG8" s="168"/>
+      <c r="BH8" s="168"/>
+      <c r="BI8" s="168"/>
+      <c r="BJ8" s="168"/>
+      <c r="BK8" s="168"/>
+      <c r="BL8" s="168"/>
+      <c r="BM8" s="168"/>
+      <c r="BN8" s="167">
         <f>SUM(BN6:BV6)</f>
         <v>29</v>
       </c>
-      <c r="BO8" s="141"/>
-      <c r="BP8" s="141"/>
-      <c r="BQ8" s="141"/>
-      <c r="BR8" s="141"/>
-      <c r="BS8" s="141"/>
-      <c r="BT8" s="141"/>
-      <c r="BU8" s="141"/>
-      <c r="BV8" s="141"/>
-      <c r="BW8" s="140">
+      <c r="BO8" s="168"/>
+      <c r="BP8" s="168"/>
+      <c r="BQ8" s="168"/>
+      <c r="BR8" s="168"/>
+      <c r="BS8" s="168"/>
+      <c r="BT8" s="168"/>
+      <c r="BU8" s="168"/>
+      <c r="BV8" s="168"/>
+      <c r="BW8" s="167">
         <f>SUM(BW6:CB6)</f>
         <v>0</v>
       </c>
-      <c r="BX8" s="141"/>
-      <c r="BY8" s="141"/>
-      <c r="BZ8" s="141"/>
-      <c r="CA8" s="141"/>
-      <c r="CB8" s="141"/>
-      <c r="CC8" s="140">
+      <c r="BX8" s="168"/>
+      <c r="BY8" s="168"/>
+      <c r="BZ8" s="168"/>
+      <c r="CA8" s="168"/>
+      <c r="CB8" s="168"/>
+      <c r="CC8" s="167">
         <f>SUM(CC6:CO6)</f>
         <v>36</v>
       </c>
-      <c r="CD8" s="141"/>
-      <c r="CE8" s="141"/>
-      <c r="CF8" s="141"/>
-      <c r="CG8" s="141"/>
-      <c r="CH8" s="141"/>
-      <c r="CI8" s="141"/>
-      <c r="CJ8" s="141"/>
-      <c r="CK8" s="141"/>
-      <c r="CL8" s="141"/>
-      <c r="CM8" s="141"/>
-      <c r="CN8" s="141"/>
-      <c r="CO8" s="141"/>
+      <c r="CD8" s="168"/>
+      <c r="CE8" s="168"/>
+      <c r="CF8" s="168"/>
+      <c r="CG8" s="168"/>
+      <c r="CH8" s="168"/>
+      <c r="CI8" s="168"/>
+      <c r="CJ8" s="168"/>
+      <c r="CK8" s="168"/>
+      <c r="CL8" s="168"/>
+      <c r="CM8" s="168"/>
+      <c r="CN8" s="168"/>
+      <c r="CO8" s="168"/>
       <c r="CP8" s="2">
         <f>CP6</f>
         <v>0</v>
@@ -7048,19 +5750,19 @@
       <c r="C9" s="4"/>
       <c r="D9" s="111">
         <f t="shared" ref="D9:D25" si="0">G9/$G$6*20+CR9*$CR$6</f>
-        <v>0</v>
+        <v>2.8301886792452828</v>
       </c>
       <c r="E9" s="22">
         <f t="shared" ref="E9:E25" si="1">F9/$G$7*20+CR9*$CR$7</f>
-        <v>0</v>
+        <v>2.0588235294117645</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" ref="F9:F24" si="2">G50</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" ref="G9:G24" si="3">G28</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H9" s="113"/>
       <c r="I9" s="9"/>
@@ -7076,28 +5778,60 @@
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="119"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="75"/>
-      <c r="AF9" s="116"/>
-      <c r="AG9" s="116"/>
-      <c r="AH9" s="116"/>
-      <c r="AI9" s="68"/>
-      <c r="AJ9" s="10"/>
+      <c r="V9" s="9">
+        <v>99</v>
+      </c>
+      <c r="W9" s="119">
+        <v>99</v>
+      </c>
+      <c r="X9" s="70">
+        <v>99</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>99</v>
+      </c>
+      <c r="Z9" s="56">
+        <v>99</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>99</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="66">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="75">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="116">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="116">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="116">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="68">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="10">
+        <v>99</v>
+      </c>
       <c r="AK9" s="14"/>
       <c r="AL9" s="66"/>
       <c r="AM9" s="13"/>
       <c r="AN9" s="116"/>
       <c r="AO9" s="116"/>
       <c r="AP9" s="26"/>
-      <c r="AQ9" s="56"/>
+      <c r="AQ9" s="56">
+        <v>99</v>
+      </c>
       <c r="AR9" s="64"/>
       <c r="AS9" s="81"/>
       <c r="AT9" s="84"/>
@@ -7178,19 +5912,19 @@
       <c r="C10" s="89"/>
       <c r="D10" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6509433962264151</v>
       </c>
       <c r="E10" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.3602941176470587</v>
       </c>
       <c r="F10" s="90">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.625</v>
       </c>
       <c r="G10" s="90">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="H10" s="113"/>
       <c r="I10" s="91"/>
@@ -7206,28 +5940,60 @@
       <c r="S10" s="91"/>
       <c r="T10" s="91"/>
       <c r="U10" s="91"/>
-      <c r="V10" s="91"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="94"/>
-      <c r="Z10" s="94"/>
-      <c r="AA10" s="94"/>
-      <c r="AB10" s="91"/>
-      <c r="AC10" s="93"/>
-      <c r="AD10" s="94"/>
-      <c r="AE10" s="94"/>
-      <c r="AF10" s="116"/>
-      <c r="AG10" s="94"/>
-      <c r="AH10" s="94"/>
-      <c r="AI10" s="94"/>
-      <c r="AJ10" s="94"/>
+      <c r="V10" s="91">
+        <v>99</v>
+      </c>
+      <c r="W10" s="93">
+        <v>99</v>
+      </c>
+      <c r="X10" s="93">
+        <v>99</v>
+      </c>
+      <c r="Y10" s="94">
+        <v>99</v>
+      </c>
+      <c r="Z10" s="94">
+        <v>99</v>
+      </c>
+      <c r="AA10" s="94">
+        <v>99</v>
+      </c>
+      <c r="AB10" s="91">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="93">
+        <v>0.75</v>
+      </c>
+      <c r="AD10" s="94">
+        <v>0.75</v>
+      </c>
+      <c r="AE10" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="AF10" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="AG10" s="94">
+        <v>0.125</v>
+      </c>
+      <c r="AH10" s="94">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="94">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="94">
+        <v>99</v>
+      </c>
       <c r="AK10" s="91"/>
       <c r="AL10" s="93"/>
       <c r="AM10" s="94"/>
       <c r="AN10" s="94"/>
       <c r="AO10" s="94"/>
       <c r="AP10" s="94"/>
-      <c r="AQ10" s="94"/>
+      <c r="AQ10" s="94">
+        <v>99</v>
+      </c>
       <c r="AR10" s="91"/>
       <c r="AS10" s="91"/>
       <c r="AT10" s="91"/>
@@ -7308,19 +6074,19 @@
       <c r="C11" s="4"/>
       <c r="D11" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5707547169811322</v>
       </c>
       <c r="E11" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0220588235294117</v>
       </c>
       <c r="F11" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.875</v>
       </c>
       <c r="G11" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>27.25</v>
       </c>
       <c r="H11" s="113"/>
       <c r="I11" s="70"/>
@@ -7336,28 +6102,60 @@
       <c r="S11" s="70"/>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="86"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="75"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="93"/>
-      <c r="AD11" s="75"/>
-      <c r="AE11" s="75"/>
-      <c r="AF11" s="116"/>
-      <c r="AG11" s="116"/>
-      <c r="AH11" s="116"/>
-      <c r="AI11" s="68"/>
-      <c r="AJ11" s="10"/>
+      <c r="V11" s="9">
+        <v>99</v>
+      </c>
+      <c r="W11" s="86">
+        <v>99</v>
+      </c>
+      <c r="X11" s="66">
+        <v>99</v>
+      </c>
+      <c r="Y11" s="75">
+        <v>99</v>
+      </c>
+      <c r="Z11" s="56">
+        <v>99</v>
+      </c>
+      <c r="AA11" s="10">
+        <v>99</v>
+      </c>
+      <c r="AB11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="93">
+        <v>0.75</v>
+      </c>
+      <c r="AD11" s="75">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="75">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="116">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="116">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="116">
+        <v>0.125</v>
+      </c>
+      <c r="AI11" s="68">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="10">
+        <v>99</v>
+      </c>
       <c r="AK11" s="119"/>
       <c r="AL11" s="93"/>
       <c r="AM11" s="13"/>
       <c r="AN11" s="116"/>
       <c r="AO11" s="116"/>
       <c r="AP11" s="116"/>
-      <c r="AQ11" s="56"/>
+      <c r="AQ11" s="56">
+        <v>99</v>
+      </c>
       <c r="AR11" s="64"/>
       <c r="AS11" s="81"/>
       <c r="AT11" s="84"/>
@@ -7438,19 +6236,19 @@
       <c r="C12" s="5"/>
       <c r="D12" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0377358490566038</v>
       </c>
       <c r="E12" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.1029411764705883</v>
       </c>
       <c r="F12" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="G12" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H12" s="113"/>
       <c r="I12" s="70"/>
@@ -7466,28 +6264,60 @@
       <c r="S12" s="70"/>
       <c r="T12" s="70"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="119"/>
-      <c r="AC12" s="116"/>
-      <c r="AD12" s="94"/>
-      <c r="AE12" s="75"/>
-      <c r="AF12" s="116"/>
-      <c r="AG12" s="116"/>
-      <c r="AH12" s="116"/>
-      <c r="AI12" s="68"/>
-      <c r="AJ12" s="10"/>
+      <c r="V12" s="9">
+        <v>99</v>
+      </c>
+      <c r="W12" s="86">
+        <v>99</v>
+      </c>
+      <c r="X12" s="66">
+        <v>99</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>99</v>
+      </c>
+      <c r="Z12" s="56">
+        <v>99</v>
+      </c>
+      <c r="AA12" s="10">
+        <v>99</v>
+      </c>
+      <c r="AB12" s="119">
+        <v>0.75</v>
+      </c>
+      <c r="AC12" s="93">
+        <v>0.5</v>
+      </c>
+      <c r="AD12" s="94">
+        <v>0.5</v>
+      </c>
+      <c r="AE12" s="75">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="116">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="116">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="116">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="68">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="10">
+        <v>99</v>
+      </c>
       <c r="AK12" s="119"/>
       <c r="AL12" s="66"/>
       <c r="AM12" s="13"/>
       <c r="AN12" s="116"/>
       <c r="AO12" s="116"/>
       <c r="AP12" s="26"/>
-      <c r="AQ12" s="56"/>
+      <c r="AQ12" s="56">
+        <v>99</v>
+      </c>
       <c r="AR12" s="64"/>
       <c r="AS12" s="81"/>
       <c r="AT12" s="84"/>
@@ -7568,19 +6398,19 @@
       <c r="C13" s="89"/>
       <c r="D13" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5943396226415096</v>
       </c>
       <c r="E13" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.9117647058823528</v>
       </c>
       <c r="F13" s="90">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="G13" s="90">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="H13" s="113"/>
       <c r="I13" s="91"/>
@@ -7596,28 +6426,60 @@
       <c r="S13" s="91"/>
       <c r="T13" s="91"/>
       <c r="U13" s="91"/>
-      <c r="V13" s="91"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="94"/>
-      <c r="Z13" s="94"/>
-      <c r="AA13" s="94"/>
-      <c r="AB13" s="81"/>
-      <c r="AC13" s="86"/>
-      <c r="AD13" s="94"/>
-      <c r="AE13" s="94"/>
-      <c r="AF13" s="94"/>
-      <c r="AG13" s="94"/>
-      <c r="AH13" s="94"/>
-      <c r="AI13" s="94"/>
-      <c r="AJ13" s="94"/>
+      <c r="V13" s="91">
+        <v>99</v>
+      </c>
+      <c r="W13" s="93">
+        <v>99</v>
+      </c>
+      <c r="X13" s="93">
+        <v>99</v>
+      </c>
+      <c r="Y13" s="94">
+        <v>99</v>
+      </c>
+      <c r="Z13" s="94">
+        <v>99</v>
+      </c>
+      <c r="AA13" s="94">
+        <v>99</v>
+      </c>
+      <c r="AB13" s="81">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="93">
+        <v>0.75</v>
+      </c>
+      <c r="AD13" s="94">
+        <v>0.75</v>
+      </c>
+      <c r="AE13" s="94">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="94">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="94">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="94">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="94">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="94">
+        <v>99</v>
+      </c>
       <c r="AK13" s="91"/>
       <c r="AL13" s="93"/>
       <c r="AM13" s="94"/>
       <c r="AN13" s="94"/>
       <c r="AO13" s="94"/>
       <c r="AP13" s="116"/>
-      <c r="AQ13" s="94"/>
+      <c r="AQ13" s="94">
+        <v>99</v>
+      </c>
       <c r="AR13" s="91"/>
       <c r="AS13" s="91"/>
       <c r="AT13" s="91"/>
@@ -7726,12 +6588,24 @@
       <c r="S14" s="70"/>
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="10"/>
+      <c r="V14" s="9">
+        <v>99</v>
+      </c>
+      <c r="W14" s="93">
+        <v>99</v>
+      </c>
+      <c r="X14" s="93">
+        <v>99</v>
+      </c>
+      <c r="Y14" s="10">
+        <v>99</v>
+      </c>
+      <c r="Z14" s="56">
+        <v>99</v>
+      </c>
+      <c r="AA14" s="10">
+        <v>99</v>
+      </c>
       <c r="AB14" s="9"/>
       <c r="AC14" s="86"/>
       <c r="AD14" s="94"/>
@@ -7740,14 +6614,18 @@
       <c r="AG14" s="116"/>
       <c r="AH14" s="116"/>
       <c r="AI14" s="68"/>
-      <c r="AJ14" s="10"/>
+      <c r="AJ14" s="10">
+        <v>99</v>
+      </c>
       <c r="AK14" s="119"/>
       <c r="AL14" s="93"/>
       <c r="AM14" s="68"/>
       <c r="AN14" s="116"/>
       <c r="AO14" s="116"/>
       <c r="AP14" s="68"/>
-      <c r="AQ14" s="68"/>
+      <c r="AQ14" s="68">
+        <v>99</v>
+      </c>
       <c r="AR14" s="64"/>
       <c r="AS14" s="81"/>
       <c r="AT14" s="84"/>
@@ -7856,12 +6734,24 @@
       <c r="S15" s="70"/>
       <c r="T15" s="70"/>
       <c r="U15" s="70"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="10"/>
+      <c r="V15" s="9">
+        <v>99</v>
+      </c>
+      <c r="W15" s="93">
+        <v>99</v>
+      </c>
+      <c r="X15" s="93">
+        <v>99</v>
+      </c>
+      <c r="Y15" s="10">
+        <v>99</v>
+      </c>
+      <c r="Z15" s="56">
+        <v>99</v>
+      </c>
+      <c r="AA15" s="10">
+        <v>99</v>
+      </c>
       <c r="AB15" s="119"/>
       <c r="AC15" s="86"/>
       <c r="AD15" s="85"/>
@@ -7870,14 +6760,18 @@
       <c r="AG15" s="86"/>
       <c r="AH15" s="116"/>
       <c r="AI15" s="68"/>
-      <c r="AJ15" s="10"/>
+      <c r="AJ15" s="10">
+        <v>99</v>
+      </c>
       <c r="AK15" s="119"/>
       <c r="AL15" s="66"/>
       <c r="AM15" s="116"/>
       <c r="AN15" s="116"/>
       <c r="AO15" s="116"/>
       <c r="AP15" s="26"/>
-      <c r="AQ15" s="56"/>
+      <c r="AQ15" s="56">
+        <v>99</v>
+      </c>
       <c r="AR15" s="64"/>
       <c r="AS15" s="81"/>
       <c r="AT15" s="84"/>
@@ -7986,12 +6880,24 @@
       <c r="S16" s="70"/>
       <c r="T16" s="70"/>
       <c r="U16" s="70"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="10"/>
+      <c r="V16" s="9">
+        <v>99</v>
+      </c>
+      <c r="W16" s="93">
+        <v>99</v>
+      </c>
+      <c r="X16" s="93">
+        <v>99</v>
+      </c>
+      <c r="Y16" s="10">
+        <v>99</v>
+      </c>
+      <c r="Z16" s="56">
+        <v>99</v>
+      </c>
+      <c r="AA16" s="10">
+        <v>99</v>
+      </c>
       <c r="AB16" s="119"/>
       <c r="AC16" s="86"/>
       <c r="AD16" s="10"/>
@@ -8000,14 +6906,18 @@
       <c r="AG16" s="116"/>
       <c r="AH16" s="116"/>
       <c r="AI16" s="68"/>
-      <c r="AJ16" s="10"/>
+      <c r="AJ16" s="10">
+        <v>99</v>
+      </c>
       <c r="AK16" s="119"/>
       <c r="AL16" s="66"/>
       <c r="AM16" s="13"/>
       <c r="AN16" s="116"/>
       <c r="AO16" s="116"/>
       <c r="AP16" s="26"/>
-      <c r="AQ16" s="56"/>
+      <c r="AQ16" s="56">
+        <v>99</v>
+      </c>
       <c r="AR16" s="64"/>
       <c r="AS16" s="81"/>
       <c r="AT16" s="84"/>
@@ -8116,12 +7026,24 @@
       <c r="S17" s="70"/>
       <c r="T17" s="70"/>
       <c r="U17" s="70"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="93"/>
-      <c r="X17" s="93"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="10"/>
+      <c r="V17" s="9">
+        <v>99</v>
+      </c>
+      <c r="W17" s="93">
+        <v>99</v>
+      </c>
+      <c r="X17" s="93">
+        <v>99</v>
+      </c>
+      <c r="Y17" s="10">
+        <v>99</v>
+      </c>
+      <c r="Z17" s="56">
+        <v>99</v>
+      </c>
+      <c r="AA17" s="10">
+        <v>99</v>
+      </c>
       <c r="AB17" s="9"/>
       <c r="AC17" s="86"/>
       <c r="AD17" s="94"/>
@@ -8130,14 +7052,18 @@
       <c r="AG17" s="116"/>
       <c r="AH17" s="116"/>
       <c r="AI17" s="68"/>
-      <c r="AJ17" s="10"/>
+      <c r="AJ17" s="10">
+        <v>99</v>
+      </c>
       <c r="AK17" s="14"/>
       <c r="AL17" s="66"/>
       <c r="AM17" s="13"/>
       <c r="AN17" s="116"/>
       <c r="AO17" s="116"/>
       <c r="AP17" s="26"/>
-      <c r="AQ17" s="56"/>
+      <c r="AQ17" s="56">
+        <v>99</v>
+      </c>
       <c r="AR17" s="64"/>
       <c r="AS17" s="81"/>
       <c r="AT17" s="84"/>
@@ -8246,12 +7172,24 @@
       <c r="S18" s="70"/>
       <c r="T18" s="70"/>
       <c r="U18" s="70"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="86"/>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="10"/>
+      <c r="V18" s="9">
+        <v>99</v>
+      </c>
+      <c r="W18" s="86">
+        <v>99</v>
+      </c>
+      <c r="X18" s="66">
+        <v>99</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>99</v>
+      </c>
+      <c r="Z18" s="56">
+        <v>99</v>
+      </c>
+      <c r="AA18" s="10">
+        <v>99</v>
+      </c>
       <c r="AB18" s="119"/>
       <c r="AC18" s="86"/>
       <c r="AD18" s="94"/>
@@ -8260,14 +7198,18 @@
       <c r="AG18" s="116"/>
       <c r="AH18" s="116"/>
       <c r="AI18" s="68"/>
-      <c r="AJ18" s="10"/>
+      <c r="AJ18" s="10">
+        <v>99</v>
+      </c>
       <c r="AK18" s="119"/>
       <c r="AL18" s="66"/>
       <c r="AM18" s="116"/>
       <c r="AN18" s="116"/>
       <c r="AO18" s="116"/>
       <c r="AP18" s="26"/>
-      <c r="AQ18" s="56"/>
+      <c r="AQ18" s="56">
+        <v>99</v>
+      </c>
       <c r="AR18" s="64"/>
       <c r="AS18" s="81"/>
       <c r="AT18" s="84"/>
@@ -8373,12 +7315,24 @@
       <c r="S19" s="91"/>
       <c r="T19" s="91"/>
       <c r="U19" s="91"/>
-      <c r="V19" s="91"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="94"/>
-      <c r="Z19" s="94"/>
-      <c r="AA19" s="94"/>
+      <c r="V19" s="91">
+        <v>99</v>
+      </c>
+      <c r="W19" s="93">
+        <v>99</v>
+      </c>
+      <c r="X19" s="93">
+        <v>99</v>
+      </c>
+      <c r="Y19" s="94">
+        <v>99</v>
+      </c>
+      <c r="Z19" s="94">
+        <v>99</v>
+      </c>
+      <c r="AA19" s="94">
+        <v>99</v>
+      </c>
       <c r="AB19" s="91"/>
       <c r="AC19" s="93"/>
       <c r="AD19" s="116"/>
@@ -8387,14 +7341,18 @@
       <c r="AG19" s="94"/>
       <c r="AH19" s="94"/>
       <c r="AI19" s="94"/>
-      <c r="AJ19" s="94"/>
+      <c r="AJ19" s="94">
+        <v>99</v>
+      </c>
       <c r="AK19" s="91"/>
       <c r="AL19" s="93"/>
       <c r="AM19" s="116"/>
       <c r="AN19" s="94"/>
       <c r="AO19" s="94"/>
       <c r="AP19" s="94"/>
-      <c r="AQ19" s="94"/>
+      <c r="AQ19" s="94">
+        <v>99</v>
+      </c>
       <c r="AR19" s="91"/>
       <c r="AS19" s="91"/>
       <c r="AT19" s="91"/>
@@ -8503,12 +7461,24 @@
       <c r="S20" s="70"/>
       <c r="T20" s="70"/>
       <c r="U20" s="70"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="86"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="10"/>
+      <c r="V20" s="9">
+        <v>99</v>
+      </c>
+      <c r="W20" s="86">
+        <v>99</v>
+      </c>
+      <c r="X20" s="66">
+        <v>99</v>
+      </c>
+      <c r="Y20" s="10">
+        <v>99</v>
+      </c>
+      <c r="Z20" s="56">
+        <v>99</v>
+      </c>
+      <c r="AA20" s="10">
+        <v>99</v>
+      </c>
       <c r="AB20" s="119"/>
       <c r="AC20" s="86"/>
       <c r="AD20" s="10"/>
@@ -8517,14 +7487,18 @@
       <c r="AG20" s="116"/>
       <c r="AH20" s="116"/>
       <c r="AI20" s="116"/>
-      <c r="AJ20" s="10"/>
+      <c r="AJ20" s="10">
+        <v>99</v>
+      </c>
       <c r="AK20" s="14"/>
       <c r="AL20" s="66"/>
       <c r="AM20" s="13"/>
       <c r="AN20" s="116"/>
       <c r="AO20" s="116"/>
       <c r="AP20" s="116"/>
-      <c r="AQ20" s="56"/>
+      <c r="AQ20" s="56">
+        <v>99</v>
+      </c>
       <c r="AR20" s="64"/>
       <c r="AS20" s="84"/>
       <c r="AT20" s="84"/>
@@ -8633,12 +7607,24 @@
       <c r="S21" s="70"/>
       <c r="T21" s="70"/>
       <c r="U21" s="70"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="10"/>
+      <c r="V21" s="9">
+        <v>99</v>
+      </c>
+      <c r="W21" s="86">
+        <v>99</v>
+      </c>
+      <c r="X21" s="66">
+        <v>99</v>
+      </c>
+      <c r="Y21" s="10">
+        <v>99</v>
+      </c>
+      <c r="Z21" s="56">
+        <v>99</v>
+      </c>
+      <c r="AA21" s="10">
+        <v>99</v>
+      </c>
       <c r="AB21" s="9"/>
       <c r="AC21" s="66"/>
       <c r="AD21" s="116"/>
@@ -8647,14 +7633,18 @@
       <c r="AG21" s="116"/>
       <c r="AH21" s="116"/>
       <c r="AI21" s="116"/>
-      <c r="AJ21" s="10"/>
+      <c r="AJ21" s="10">
+        <v>99</v>
+      </c>
       <c r="AK21" s="14"/>
       <c r="AL21" s="66"/>
       <c r="AM21" s="75"/>
       <c r="AN21" s="116"/>
       <c r="AO21" s="116"/>
       <c r="AP21" s="116"/>
-      <c r="AQ21" s="56"/>
+      <c r="AQ21" s="56">
+        <v>99</v>
+      </c>
       <c r="AR21" s="64"/>
       <c r="AS21" s="81"/>
       <c r="AT21" s="84"/>
@@ -8763,12 +7753,24 @@
       <c r="S22" s="70"/>
       <c r="T22" s="70"/>
       <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="86"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="75"/>
-      <c r="Z22" s="68"/>
-      <c r="AA22" s="68"/>
+      <c r="V22" s="70">
+        <v>99</v>
+      </c>
+      <c r="W22" s="86">
+        <v>99</v>
+      </c>
+      <c r="X22" s="66">
+        <v>99</v>
+      </c>
+      <c r="Y22" s="75">
+        <v>99</v>
+      </c>
+      <c r="Z22" s="68">
+        <v>99</v>
+      </c>
+      <c r="AA22" s="68">
+        <v>99</v>
+      </c>
       <c r="AB22" s="119"/>
       <c r="AC22" s="86"/>
       <c r="AD22" s="116"/>
@@ -8777,14 +7779,18 @@
       <c r="AG22" s="116"/>
       <c r="AH22" s="116"/>
       <c r="AI22" s="68"/>
-      <c r="AJ22" s="68"/>
+      <c r="AJ22" s="68">
+        <v>99</v>
+      </c>
       <c r="AK22" s="119"/>
       <c r="AL22" s="93"/>
       <c r="AM22" s="75"/>
       <c r="AN22" s="116"/>
       <c r="AO22" s="116"/>
       <c r="AP22" s="116"/>
-      <c r="AQ22" s="68"/>
+      <c r="AQ22" s="68">
+        <v>99</v>
+      </c>
       <c r="AR22" s="70"/>
       <c r="AS22" s="81"/>
       <c r="AT22" s="84"/>
@@ -8893,12 +7899,24 @@
       <c r="S23" s="91"/>
       <c r="T23" s="91"/>
       <c r="U23" s="91"/>
-      <c r="V23" s="91"/>
-      <c r="W23" s="93"/>
-      <c r="X23" s="93"/>
-      <c r="Y23" s="75"/>
-      <c r="Z23" s="94"/>
-      <c r="AA23" s="94"/>
+      <c r="V23" s="91">
+        <v>99</v>
+      </c>
+      <c r="W23" s="93">
+        <v>99</v>
+      </c>
+      <c r="X23" s="93">
+        <v>99</v>
+      </c>
+      <c r="Y23" s="75">
+        <v>99</v>
+      </c>
+      <c r="Z23" s="94">
+        <v>99</v>
+      </c>
+      <c r="AA23" s="94">
+        <v>99</v>
+      </c>
       <c r="AB23" s="91"/>
       <c r="AC23" s="93"/>
       <c r="AD23" s="116"/>
@@ -8907,14 +7925,18 @@
       <c r="AG23" s="94"/>
       <c r="AH23" s="94"/>
       <c r="AI23" s="94"/>
-      <c r="AJ23" s="94"/>
+      <c r="AJ23" s="94">
+        <v>99</v>
+      </c>
       <c r="AK23" s="119"/>
       <c r="AL23" s="93"/>
       <c r="AM23" s="75"/>
       <c r="AN23" s="94"/>
       <c r="AO23" s="94"/>
       <c r="AP23" s="116"/>
-      <c r="AQ23" s="94"/>
+      <c r="AQ23" s="94">
+        <v>99</v>
+      </c>
       <c r="AR23" s="91"/>
       <c r="AS23" s="91"/>
       <c r="AT23" s="91"/>
@@ -9019,12 +8041,24 @@
       <c r="S24" s="91"/>
       <c r="T24" s="91"/>
       <c r="U24" s="91"/>
-      <c r="V24" s="91"/>
-      <c r="W24" s="86"/>
-      <c r="X24" s="76"/>
-      <c r="Y24" s="94"/>
-      <c r="Z24" s="94"/>
-      <c r="AA24" s="94"/>
+      <c r="V24" s="91">
+        <v>99</v>
+      </c>
+      <c r="W24" s="86">
+        <v>99</v>
+      </c>
+      <c r="X24" s="76">
+        <v>99</v>
+      </c>
+      <c r="Y24" s="94">
+        <v>99</v>
+      </c>
+      <c r="Z24" s="94">
+        <v>99</v>
+      </c>
+      <c r="AA24" s="94">
+        <v>99</v>
+      </c>
       <c r="AB24" s="91"/>
       <c r="AC24" s="93"/>
       <c r="AD24" s="94"/>
@@ -9033,14 +8067,18 @@
       <c r="AG24" s="94"/>
       <c r="AH24" s="94"/>
       <c r="AI24" s="94"/>
-      <c r="AJ24" s="94"/>
+      <c r="AJ24" s="94">
+        <v>99</v>
+      </c>
       <c r="AK24" s="91"/>
       <c r="AL24" s="93"/>
       <c r="AM24" s="94"/>
       <c r="AN24" s="94"/>
       <c r="AO24" s="94"/>
       <c r="AP24" s="94"/>
-      <c r="AQ24" s="94"/>
+      <c r="AQ24" s="94">
+        <v>99</v>
+      </c>
       <c r="AR24" s="91"/>
       <c r="AS24" s="84"/>
       <c r="AT24" s="84"/>
@@ -9125,11 +8163,11 @@
       </c>
       <c r="F25" s="15">
         <f>G67</f>
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G25" s="15">
         <f>G45</f>
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="H25" s="70">
         <v>1</v>
@@ -9456,65 +8494,65 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V26" s="72" t="e">
+      <c r="V26" s="72">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W26" s="118" t="e">
+        <v>99</v>
+      </c>
+      <c r="W26" s="118">
         <f>AVERAGE(W9:W24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X26" s="72" t="e">
+        <v>99</v>
+      </c>
+      <c r="X26" s="72">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y26" s="72" t="e">
+        <v>99</v>
+      </c>
+      <c r="Y26" s="72">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z26" s="72" t="e">
+        <v>99</v>
+      </c>
+      <c r="Z26" s="72">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA26" s="72" t="e">
+        <v>99</v>
+      </c>
+      <c r="AA26" s="72">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB26" s="72" t="e">
+        <v>99</v>
+      </c>
+      <c r="AB26" s="72">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC26" s="72" t="e">
+        <v>0.95</v>
+      </c>
+      <c r="AC26" s="72">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD26" s="72" t="e">
+        <v>0.75</v>
+      </c>
+      <c r="AD26" s="72">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE26" s="80" t="e">
+        <v>0.8</v>
+      </c>
+      <c r="AE26" s="80">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF26" s="118" t="e">
+        <v>0.7</v>
+      </c>
+      <c r="AF26" s="118">
         <f>AVERAGE(AF9:AF24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG26" s="118" t="e">
+        <v>0.7</v>
+      </c>
+      <c r="AG26" s="118">
         <f>AVERAGE(AG9:AG24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH26" s="118" t="e">
+        <v>0.625</v>
+      </c>
+      <c r="AH26" s="118">
         <f>AVERAGE(AH9:AH24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI26" s="72" t="e">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="AI26" s="72">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AJ26" s="72" t="e">
+        <v>0.4</v>
+      </c>
+      <c r="AJ26" s="72">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>99</v>
       </c>
       <c r="AK26" s="72" t="e">
         <f t="shared" si="4"/>
@@ -9540,9 +8578,9 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ26" s="72" t="e">
+      <c r="AQ26" s="72">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>99</v>
       </c>
       <c r="AR26" s="72" t="e">
         <f t="shared" si="5"/>
@@ -9760,7 +8798,7 @@
     <row r="28" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G28" s="2">
         <f t="shared" ref="G28:G45" si="9">SUM(H28:CP28)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" ref="H28:AK28" si="10">H9*H$6</f>
@@ -9844,31 +8882,31 @@
       </c>
       <c r="AB28" s="72">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC28" s="72">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD28" s="72">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE28" s="80">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF28" s="118">
         <f t="shared" ref="AF28:AH43" si="12">AF9*AF$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG28" s="118">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH28" s="118">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI28" s="72">
         <f t="shared" si="10"/>
@@ -10122,7 +9160,7 @@
     <row r="29" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G29" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" ref="H29:AK29" si="21">H10*H$6</f>
@@ -10206,31 +9244,31 @@
       </c>
       <c r="AB29" s="69">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC29" s="69">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD29" s="69">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE29" s="80">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF29" s="118">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG29" s="118">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH29" s="118">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI29" s="69">
         <f t="shared" si="21"/>
@@ -10484,7 +9522,7 @@
     <row r="30" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G30" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>27.25</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" ref="H30:AK30" si="26">H11*H$6</f>
@@ -10568,35 +9606,35 @@
       </c>
       <c r="AB30" s="69">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC30" s="69">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD30" s="69">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE30" s="80">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF30" s="118">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG30" s="118">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH30" s="118">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AI30" s="69">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ30" s="69">
         <f t="shared" si="26"/>
@@ -10846,7 +9884,7 @@
     <row r="31" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G31" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" ref="H31:AK31" si="31">H12*H$6</f>
@@ -10930,15 +9968,15 @@
       </c>
       <c r="AB31" s="69">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC31" s="69">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD31" s="69">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE31" s="80">
         <f t="shared" si="31"/>
@@ -10954,11 +9992,11 @@
       </c>
       <c r="AH31" s="118">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI31" s="69">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ31" s="69">
         <f t="shared" si="31"/>
@@ -11208,7 +10246,7 @@
     <row r="32" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G32" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" ref="H32:AK32" si="36">H13*H$6</f>
@@ -11292,31 +10330,31 @@
       </c>
       <c r="AB32" s="69">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC32" s="69">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD32" s="69">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE32" s="80">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF32" s="118">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG32" s="118">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH32" s="118">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI32" s="69">
         <f t="shared" si="36"/>
@@ -15922,7 +14960,7 @@
       <c r="E45" s="19"/>
       <c r="G45" s="72">
         <f t="shared" si="9"/>
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="H45" s="72">
         <f t="shared" ref="H45:N45" si="96">H25*H$6</f>
@@ -15982,27 +15020,27 @@
       </c>
       <c r="V45" s="72">
         <f t="shared" si="97"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W45" s="118">
         <f>W25*W$6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X45" s="72">
         <f t="shared" si="97"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="72">
         <f t="shared" si="97"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="72">
         <f t="shared" si="97"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="72">
         <f t="shared" si="97"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="72">
         <f t="shared" si="97"/>
@@ -16038,7 +15076,7 @@
       </c>
       <c r="AJ45" s="72">
         <f t="shared" si="97"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK45" s="72">
         <f t="shared" si="97"/>
@@ -16066,7 +15104,7 @@
       </c>
       <c r="AQ45" s="72">
         <f t="shared" si="98"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="72">
         <f t="shared" si="98"/>
@@ -16400,7 +15438,7 @@
     <row r="50" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G50" s="2">
         <f t="shared" ref="G50:G67" si="102">SUM(H50:CP50)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" ref="H50:AK50" si="103">H9*H$7</f>
@@ -16484,31 +15522,31 @@
       </c>
       <c r="AB50" s="69">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC50" s="69">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD50" s="69">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE50" s="80">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF50" s="118">
         <f t="shared" ref="AF50:AH65" si="105">AF9*AF$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG50" s="118">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH50" s="118">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI50" s="69">
         <f t="shared" si="103"/>
@@ -16762,7 +15800,7 @@
     <row r="51" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G51" s="2">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>4.625</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" ref="H51:AK51" si="114">H10*H$7</f>
@@ -16846,31 +15884,31 @@
       </c>
       <c r="AB51" s="69">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC51" s="69">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AD51" s="69">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AE51" s="80">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF51" s="118">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG51" s="118">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AH51" s="118">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI51" s="69">
         <f t="shared" si="114"/>
@@ -17124,7 +16162,7 @@
     <row r="52" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G52" s="2">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>6.875</v>
       </c>
       <c r="H52" s="2">
         <f t="shared" ref="H52:AK52" si="119">H11*H$7</f>
@@ -17208,35 +16246,35 @@
       </c>
       <c r="AB52" s="69">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC52" s="69">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AD52" s="69">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE52" s="80">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF52" s="118">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG52" s="118">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH52" s="118">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AI52" s="69">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ52" s="69">
         <f t="shared" si="119"/>
@@ -17486,7 +16524,7 @@
     <row r="53" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G53" s="2">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H53" s="2">
         <f t="shared" ref="H53:AK53" si="124">H12*H$7</f>
@@ -17570,15 +16608,15 @@
       </c>
       <c r="AB53" s="69">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC53" s="69">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD53" s="69">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE53" s="80">
         <f t="shared" si="124"/>
@@ -17594,11 +16632,11 @@
       </c>
       <c r="AH53" s="118">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI53" s="69">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ53" s="69">
         <f t="shared" si="124"/>
@@ -17848,7 +16886,7 @@
     <row r="54" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G54" s="2">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" ref="H54:AK54" si="129">H13*H$7</f>
@@ -17932,31 +16970,31 @@
       </c>
       <c r="AB54" s="69">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC54" s="69">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AD54" s="69">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AE54" s="80">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF54" s="118">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG54" s="118">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH54" s="118">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI54" s="69">
         <f t="shared" si="129"/>
@@ -22554,7 +21592,7 @@
     <row r="67" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G67" s="72">
         <f t="shared" si="102"/>
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H67" s="72">
         <f t="shared" ref="H67:N67" si="189">H25*H$7</f>
@@ -22614,27 +21652,27 @@
       </c>
       <c r="V67" s="72">
         <f t="shared" si="190"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W67" s="118">
         <f>W25*W$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X67" s="72">
         <f t="shared" si="190"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y67" s="72">
         <f t="shared" si="190"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z67" s="72">
         <f t="shared" si="190"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA67" s="72">
         <f t="shared" si="190"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB67" s="72">
         <f t="shared" si="190"/>
@@ -22670,7 +21708,7 @@
       </c>
       <c r="AJ67" s="72">
         <f t="shared" si="190"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK67" s="72">
         <f t="shared" si="190"/>
@@ -22698,7 +21736,7 @@
       </c>
       <c r="AQ67" s="72">
         <f t="shared" si="191"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR67" s="72">
         <f t="shared" si="191"/>
@@ -22943,6 +21981,94 @@
     </row>
   </sheetData>
   <mergeCells count="112">
+    <mergeCell ref="CR2:CR5"/>
+    <mergeCell ref="CP3:CP5"/>
+    <mergeCell ref="CC2:CO2"/>
+    <mergeCell ref="CC3:CO3"/>
+    <mergeCell ref="CC4:CC5"/>
+    <mergeCell ref="CN4:CN5"/>
+    <mergeCell ref="CO4:CO5"/>
+    <mergeCell ref="CD4:CD5"/>
+    <mergeCell ref="CE4:CE5"/>
+    <mergeCell ref="CF4:CF5"/>
+    <mergeCell ref="CQ2:CQ5"/>
+    <mergeCell ref="CG4:CG5"/>
+    <mergeCell ref="CH4:CH5"/>
+    <mergeCell ref="CI4:CI5"/>
+    <mergeCell ref="CJ4:CJ5"/>
+    <mergeCell ref="CK4:CK5"/>
+    <mergeCell ref="CL4:CL5"/>
+    <mergeCell ref="CM4:CM5"/>
+    <mergeCell ref="AR8:AT8"/>
+    <mergeCell ref="AK8:AQ8"/>
+    <mergeCell ref="AB8:AJ8"/>
+    <mergeCell ref="V8:AA8"/>
+    <mergeCell ref="CA4:CA5"/>
+    <mergeCell ref="CB4:CB5"/>
+    <mergeCell ref="BB8:BM8"/>
+    <mergeCell ref="BN8:BV8"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AU3:AU5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AM4:AM5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AB3:AJ3"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="CC8:CO8"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="AV8:BA8"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="AY3:AY5"/>
+    <mergeCell ref="AZ3:AZ5"/>
+    <mergeCell ref="BA3:BA5"/>
+    <mergeCell ref="BW2:BW5"/>
+    <mergeCell ref="BZ2:BZ5"/>
+    <mergeCell ref="BW8:CB8"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BB2:BM2"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="BI4:BI5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BD3:BH3"/>
+    <mergeCell ref="BB3:BB5"/>
+    <mergeCell ref="BC3:BC5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BK4:BK5"/>
     <mergeCell ref="H1:O2"/>
     <mergeCell ref="V1:BV1"/>
     <mergeCell ref="CC1:CO1"/>
@@ -22967,131 +22093,56 @@
     <mergeCell ref="V2:AQ2"/>
     <mergeCell ref="AK3:AQ3"/>
     <mergeCell ref="AV3:AX4"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="BB2:BM2"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="BI4:BI5"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BD3:BH3"/>
-    <mergeCell ref="BB3:BB5"/>
-    <mergeCell ref="BC3:BC5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="CC8:CO8"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="AV8:BA8"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="AY3:AY5"/>
-    <mergeCell ref="AZ3:AZ5"/>
-    <mergeCell ref="BA3:BA5"/>
-    <mergeCell ref="BW2:BW5"/>
-    <mergeCell ref="BZ2:BZ5"/>
-    <mergeCell ref="BW8:CB8"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="BY4:BY5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AR8:AT8"/>
-    <mergeCell ref="AK8:AQ8"/>
-    <mergeCell ref="AB8:AJ8"/>
-    <mergeCell ref="V8:AA8"/>
-    <mergeCell ref="CA4:CA5"/>
-    <mergeCell ref="CB4:CB5"/>
-    <mergeCell ref="BB8:BM8"/>
-    <mergeCell ref="BN8:BV8"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AU3:AU5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AB3:AJ3"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="CR2:CR5"/>
-    <mergeCell ref="CP3:CP5"/>
-    <mergeCell ref="CC2:CO2"/>
-    <mergeCell ref="CC3:CO3"/>
-    <mergeCell ref="CC4:CC5"/>
-    <mergeCell ref="CN4:CN5"/>
-    <mergeCell ref="CO4:CO5"/>
-    <mergeCell ref="CD4:CD5"/>
-    <mergeCell ref="CE4:CE5"/>
-    <mergeCell ref="CF4:CF5"/>
-    <mergeCell ref="CQ2:CQ5"/>
-    <mergeCell ref="CG4:CG5"/>
-    <mergeCell ref="CH4:CH5"/>
-    <mergeCell ref="CI4:CI5"/>
-    <mergeCell ref="CJ4:CJ5"/>
-    <mergeCell ref="CK4:CK5"/>
-    <mergeCell ref="CL4:CL5"/>
-    <mergeCell ref="CM4:CM5"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:E25">
-    <cfRule type="cellIs" dxfId="196" priority="315" operator="between">
+    <cfRule type="cellIs" dxfId="199" priority="318" operator="between">
       <formula>8</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="316" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="319" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CR9:CR21 CF9:CH25 AR22:AR25 AU9:AW25 I9:V25 CN9:CP25 X9:AD11 X12:AB12 AD12 X13:AD25 AI9:AM25 AP9:AQ25 BA9:BA25 CC9:CD25">
-    <cfRule type="cellIs" dxfId="194" priority="310" operator="equal">
+  <conditionalFormatting sqref="CR9:CR21 CF9:CH25 AR22:AR25 AU9:AW25 I9:V25 CN9:CP25 X12:AB12 AI9:AM25 AP9:AQ25 BA9:BA25 CC9:CD25 X9:AD11 AD12:AD13 X13:AD25">
+    <cfRule type="cellIs" dxfId="197" priority="313" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="311" operator="between">
+    <cfRule type="cellIs" dxfId="196" priority="314" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="312" operator="between">
+    <cfRule type="cellIs" dxfId="195" priority="315" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR9:AR21">
-    <cfRule type="cellIs" dxfId="191" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="307" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="305" operator="between">
+    <cfRule type="cellIs" dxfId="193" priority="308" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="306" operator="between">
+    <cfRule type="cellIs" dxfId="192" priority="309" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS9:AS19 AS21">
+    <cfRule type="cellIs" dxfId="191" priority="289" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="290" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="291" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS22:AS23 AS25">
     <cfRule type="cellIs" dxfId="188" priority="286" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23104,46 +22155,46 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS22:AS23 AS25">
-    <cfRule type="cellIs" dxfId="185" priority="283" operator="equal">
+  <conditionalFormatting sqref="AE18 AE9:AE14 AE20 AE22 AE25">
+    <cfRule type="cellIs" dxfId="185" priority="262" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="284" operator="between">
+    <cfRule type="cellIs" dxfId="184" priority="263" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="285" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE18 AE9:AE14 AE20 AE22 AE25">
-    <cfRule type="cellIs" dxfId="182" priority="259" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="260" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="261" operator="between">
+    <cfRule type="cellIs" dxfId="183" priority="264" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE9:CE23 CE25">
-    <cfRule type="cellIs" dxfId="179" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="247" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="245" operator="between">
+    <cfRule type="cellIs" dxfId="181" priority="248" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="246" operator="between">
+    <cfRule type="cellIs" dxfId="180" priority="249" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT9:AT19 AT21">
+    <cfRule type="cellIs" dxfId="179" priority="232" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="233" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="234" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT22:AT23 AT25">
     <cfRule type="cellIs" dxfId="176" priority="229" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23156,85 +22207,85 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT22:AT23 AT25">
-    <cfRule type="cellIs" dxfId="173" priority="226" operator="equal">
+  <conditionalFormatting sqref="AS20">
+    <cfRule type="cellIs" dxfId="173" priority="202" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="227" operator="between">
+    <cfRule type="cellIs" dxfId="172" priority="203" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="228" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS20">
-    <cfRule type="cellIs" dxfId="170" priority="199" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="200" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="201" operator="between">
+    <cfRule type="cellIs" dxfId="171" priority="204" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT20">
-    <cfRule type="cellIs" dxfId="167" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="196" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="194" operator="between">
+    <cfRule type="cellIs" dxfId="169" priority="197" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="195" operator="between">
+    <cfRule type="cellIs" dxfId="168" priority="198" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS24">
-    <cfRule type="cellIs" dxfId="164" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="190" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="188" operator="between">
+    <cfRule type="cellIs" dxfId="166" priority="191" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="189" operator="between">
+    <cfRule type="cellIs" dxfId="165" priority="192" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT24">
-    <cfRule type="cellIs" dxfId="161" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="184" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="182" operator="between">
+    <cfRule type="cellIs" dxfId="163" priority="185" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="183" operator="between">
+    <cfRule type="cellIs" dxfId="162" priority="186" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ9:CQ21">
-    <cfRule type="cellIs" dxfId="158" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="166" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="164" operator="between">
+    <cfRule type="cellIs" dxfId="160" priority="167" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="165" operator="between">
+    <cfRule type="cellIs" dxfId="159" priority="168" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE24">
+    <cfRule type="cellIs" dxfId="158" priority="160" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="161" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="162" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH9:BJ25 BB9:BB25 BL9:BM25 BE9:BE25">
     <cfRule type="cellIs" dxfId="155" priority="157" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23247,7 +22298,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH9:BJ25 BB9:BB25 BL9:BM25 BE9:BE25">
+  <conditionalFormatting sqref="BF9:BF23 BF25">
     <cfRule type="cellIs" dxfId="152" priority="154" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23260,7 +22311,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF9:BF23 BF25">
+  <conditionalFormatting sqref="BF24">
     <cfRule type="cellIs" dxfId="149" priority="151" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23273,7 +22324,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF24">
+  <conditionalFormatting sqref="BQ9:BT21 BN9:BO21 BV9:BV21 BV24:BV25 BN24:BO25 BQ24:BT25">
     <cfRule type="cellIs" dxfId="146" priority="148" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23286,7 +22337,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ9:BT21 BN9:BO21 BV9:BV21 BV24:BV25 BN24:BO25 BQ24:BT25">
+  <conditionalFormatting sqref="BP9:BP21 BP25">
     <cfRule type="cellIs" dxfId="143" priority="145" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23299,7 +22350,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP9:BP21 BP25">
+  <conditionalFormatting sqref="BP24">
     <cfRule type="cellIs" dxfId="140" priority="142" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23312,7 +22363,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP24">
+  <conditionalFormatting sqref="BZ9:CB9 BW9:BX9 BW25:BX25 BZ25:CB25">
     <cfRule type="cellIs" dxfId="137" priority="139" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23325,7 +22376,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ9:CB9 BW9:BX9 BW25:BX25 BZ25:CB25">
+  <conditionalFormatting sqref="BY9 BY25">
     <cfRule type="cellIs" dxfId="134" priority="136" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23338,20 +22389,20 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY9 BY25">
-    <cfRule type="cellIs" dxfId="131" priority="133" operator="equal">
+  <conditionalFormatting sqref="BG9:BG25">
+    <cfRule type="cellIs" dxfId="131" priority="130" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="134" operator="between">
+    <cfRule type="cellIs" dxfId="130" priority="131" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="135" operator="between">
+    <cfRule type="cellIs" dxfId="129" priority="132" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG9:BG25">
+  <conditionalFormatting sqref="BK9:BK25">
     <cfRule type="cellIs" dxfId="128" priority="127" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23364,7 +22415,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK9:BK25">
+  <conditionalFormatting sqref="BU9:BU21 BU24:BU25">
     <cfRule type="cellIs" dxfId="125" priority="124" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23377,7 +22428,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU9:BU21 BU24:BU25">
+  <conditionalFormatting sqref="BD9:BD25">
     <cfRule type="cellIs" dxfId="122" priority="121" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23390,7 +22441,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD9:BD25">
+  <conditionalFormatting sqref="BC9:BC25">
     <cfRule type="cellIs" dxfId="119" priority="118" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23403,7 +22454,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC9:BC25">
+  <conditionalFormatting sqref="CI9:CI25">
     <cfRule type="cellIs" dxfId="116" priority="115" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23416,7 +22467,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CI9:CI25">
+  <conditionalFormatting sqref="CJ9:CJ25">
     <cfRule type="cellIs" dxfId="113" priority="112" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23429,7 +22480,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CJ9:CJ25">
+  <conditionalFormatting sqref="CK9:CK25">
     <cfRule type="cellIs" dxfId="110" priority="109" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23442,7 +22493,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK9:CK25">
+  <conditionalFormatting sqref="CL9:CL25">
     <cfRule type="cellIs" dxfId="107" priority="106" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23455,7 +22506,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL9:CL25">
+  <conditionalFormatting sqref="CM9:CM25">
     <cfRule type="cellIs" dxfId="104" priority="103" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23468,7 +22519,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM9:CM25">
+  <conditionalFormatting sqref="CR22:CR24">
     <cfRule type="cellIs" dxfId="101" priority="100" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23481,7 +22532,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CR22:CR24">
+  <conditionalFormatting sqref="CQ22:CQ24">
     <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23494,7 +22545,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CQ22:CQ24">
+  <conditionalFormatting sqref="H9:H24">
     <cfRule type="cellIs" dxfId="95" priority="94" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23507,7 +22558,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H24">
+  <conditionalFormatting sqref="AH9:AH25">
     <cfRule type="cellIs" dxfId="92" priority="91" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23520,7 +22571,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH9:AH25">
+  <conditionalFormatting sqref="AO9:AO25">
     <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23533,7 +22584,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO9:AO25">
+  <conditionalFormatting sqref="W9:W25">
     <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23546,7 +22597,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W9:W25">
+  <conditionalFormatting sqref="AG9:AG14 AG16:AG25">
     <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23559,7 +22610,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG9:AG14 AG16:AG25">
+  <conditionalFormatting sqref="AG15">
     <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23572,7 +22623,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG15">
+  <conditionalFormatting sqref="AF9:AF14 AF16:AF25">
     <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23585,7 +22636,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF9:AF14 AF16:AF25">
+  <conditionalFormatting sqref="AF15">
     <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23598,7 +22649,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF15">
+  <conditionalFormatting sqref="AN9:AN15 AN17:AN25">
     <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23611,20 +22662,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN9:AN15 AN17:AN25">
-    <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="68" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="69" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC12">
+  <conditionalFormatting sqref="AE15">
     <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23637,7 +22675,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE15">
+  <conditionalFormatting sqref="AE16">
     <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23650,7 +22688,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE16">
+  <conditionalFormatting sqref="AE17">
     <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23663,7 +22701,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE17">
+  <conditionalFormatting sqref="AE19">
     <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23676,7 +22714,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE19">
+  <conditionalFormatting sqref="AE21">
     <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23689,7 +22727,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE21">
+  <conditionalFormatting sqref="AE23">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23702,7 +22740,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE23">
+  <conditionalFormatting sqref="AE24">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23715,7 +22753,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE24">
+  <conditionalFormatting sqref="AN16">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23728,7 +22766,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN16">
+  <conditionalFormatting sqref="BQ22:BT22 BN22:BO22 BV22">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23741,7 +22779,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ22:BT22 BN22:BO22 BV22">
+  <conditionalFormatting sqref="BP22">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23754,7 +22792,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP22">
+  <conditionalFormatting sqref="BU22">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23767,7 +22805,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU22">
+  <conditionalFormatting sqref="BQ23:BT23 BN23:BO23 BV23">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23780,7 +22818,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ23:BT23 BN23:BO23 BV23">
+  <conditionalFormatting sqref="BP23">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23793,7 +22831,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP23">
+  <conditionalFormatting sqref="BU23">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23806,7 +22844,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU23">
+  <conditionalFormatting sqref="AX9:AX25">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23819,7 +22857,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX9:AX25">
+  <conditionalFormatting sqref="AY9:AY25">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23832,7 +22870,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY9:AY25">
+  <conditionalFormatting sqref="AZ9:AZ25">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23845,7 +22883,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ9:AZ25">
+  <conditionalFormatting sqref="BZ10:CB10 BW10:BX10">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23858,7 +22896,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ10:CB10 BW10:BX10">
+  <conditionalFormatting sqref="BY10">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23871,7 +22909,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY10">
+  <conditionalFormatting sqref="BZ11:CB24 BW11:BX24">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23884,7 +22922,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ11:CB24 BW11:BX24">
+  <conditionalFormatting sqref="BY11:BY24">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23897,7 +22935,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY11:BY24">
+  <conditionalFormatting sqref="AC12">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24069,35 +23107,35 @@
       <c r="C1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="191" t="s">
+      <c r="D1" s="195" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="192"/>
-      <c r="F1" s="191" t="s">
+      <c r="E1" s="197"/>
+      <c r="F1" s="195" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="201"/>
-      <c r="P1" s="201"/>
-      <c r="Q1" s="201"/>
-      <c r="R1" s="201"/>
-      <c r="S1" s="201"/>
-      <c r="T1" s="201"/>
-      <c r="U1" s="201"/>
-      <c r="V1" s="201"/>
-      <c r="W1" s="201"/>
-      <c r="X1" s="201"/>
-      <c r="Y1" s="201"/>
-      <c r="Z1" s="201"/>
-      <c r="AA1" s="201"/>
-      <c r="AB1" s="201"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
+      <c r="O1" s="196"/>
+      <c r="P1" s="196"/>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="196"/>
+      <c r="S1" s="196"/>
+      <c r="T1" s="196"/>
+      <c r="U1" s="196"/>
+      <c r="V1" s="196"/>
+      <c r="W1" s="196"/>
+      <c r="X1" s="196"/>
+      <c r="Y1" s="196"/>
+      <c r="Z1" s="196"/>
+      <c r="AA1" s="196"/>
+      <c r="AB1" s="196"/>
       <c r="AC1" s="202"/>
       <c r="AD1" s="202"/>
       <c r="AE1" s="202"/>
@@ -24106,19 +23144,19 @@
       <c r="AH1" s="202"/>
       <c r="AI1" s="202"/>
       <c r="AJ1" s="203"/>
-      <c r="AK1" s="198" t="s">
+      <c r="AK1" s="199" t="s">
         <v>50</v>
       </c>
-      <c r="AL1" s="199"/>
-      <c r="AM1" s="199"/>
-      <c r="AN1" s="199"/>
-      <c r="AO1" s="199"/>
-      <c r="AP1" s="199"/>
-      <c r="AQ1" s="200"/>
-      <c r="AR1" s="191" t="s">
+      <c r="AL1" s="200"/>
+      <c r="AM1" s="200"/>
+      <c r="AN1" s="200"/>
+      <c r="AO1" s="200"/>
+      <c r="AP1" s="200"/>
+      <c r="AQ1" s="201"/>
+      <c r="AR1" s="195" t="s">
         <v>49</v>
       </c>
-      <c r="AS1" s="192"/>
+      <c r="AS1" s="197"/>
     </row>
     <row r="2" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="29"/>
@@ -24184,29 +23222,29 @@
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B3" s="29"/>
-      <c r="C3" s="193" t="s">
+      <c r="C3" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="197" t="s">
+      <c r="D3" s="192" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="191" t="s">
+      <c r="F3" s="195" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="191" t="s">
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="197"/>
+      <c r="L3" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="201"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="192"/>
+      <c r="M3" s="196"/>
+      <c r="N3" s="196"/>
+      <c r="O3" s="197"/>
       <c r="P3" s="32" t="s">
         <v>26</v>
       </c>
@@ -24242,10 +23280,10 @@
       <c r="AF3" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AG3" s="197" t="s">
+      <c r="AG3" s="192" t="s">
         <v>34</v>
       </c>
-      <c r="AH3" s="195"/>
+      <c r="AH3" s="193"/>
       <c r="AI3" s="194"/>
       <c r="AJ3" s="33" t="s">
         <v>7</v>
@@ -24276,72 +23314,72 @@
     </row>
     <row r="4" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="29"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="197"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="192"/>
       <c r="E4" s="194"/>
-      <c r="F4" s="197" t="s">
+      <c r="F4" s="192" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="195" t="s">
+      <c r="G4" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="195" t="s">
+      <c r="H4" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="195" t="s">
+      <c r="I4" s="193" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="195" t="s">
+      <c r="J4" s="193" t="s">
         <v>54</v>
       </c>
       <c r="K4" s="194"/>
-      <c r="L4" s="197" t="s">
+      <c r="L4" s="192" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="195" t="s">
+      <c r="M4" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="195" t="s">
+      <c r="N4" s="193" t="s">
         <v>52</v>
       </c>
       <c r="O4" s="194" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="193" t="s">
+      <c r="P4" s="191" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="193" t="s">
+      <c r="Q4" s="191" t="s">
         <v>55</v>
       </c>
-      <c r="R4" s="193" t="s">
+      <c r="R4" s="191" t="s">
         <v>55</v>
       </c>
-      <c r="S4" s="197" t="s">
+      <c r="S4" s="192" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="195" t="s">
+      <c r="T4" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="195" t="s">
+      <c r="U4" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="V4" s="195" t="s">
+      <c r="V4" s="193" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="213" t="s">
+      <c r="W4" s="198" t="s">
         <v>54</v>
       </c>
       <c r="X4" s="194"/>
-      <c r="Y4" s="197" t="s">
+      <c r="Y4" s="192" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="195" t="s">
+      <c r="Z4" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="AA4" s="195" t="s">
+      <c r="AA4" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="196" t="s">
+      <c r="AB4" s="213" t="s">
         <v>53</v>
       </c>
       <c r="AC4" s="36"/>
@@ -24370,40 +23408,40 @@
     </row>
     <row r="5" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="29"/>
-      <c r="C5" s="193"/>
-      <c r="D5" s="197"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="192"/>
       <c r="E5" s="194"/>
-      <c r="F5" s="197"/>
-      <c r="G5" s="195"/>
-      <c r="H5" s="195"/>
-      <c r="I5" s="195"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="193"/>
+      <c r="I5" s="193"/>
       <c r="J5" s="27" t="s">
         <v>56</v>
       </c>
       <c r="K5" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="197"/>
-      <c r="M5" s="195"/>
-      <c r="N5" s="195"/>
+      <c r="L5" s="192"/>
+      <c r="M5" s="193"/>
+      <c r="N5" s="193"/>
       <c r="O5" s="194"/>
-      <c r="P5" s="193"/>
-      <c r="Q5" s="193"/>
-      <c r="R5" s="193"/>
-      <c r="S5" s="197"/>
-      <c r="T5" s="195"/>
-      <c r="U5" s="195"/>
-      <c r="V5" s="195"/>
+      <c r="P5" s="191"/>
+      <c r="Q5" s="191"/>
+      <c r="R5" s="191"/>
+      <c r="S5" s="192"/>
+      <c r="T5" s="193"/>
+      <c r="U5" s="193"/>
+      <c r="V5" s="193"/>
       <c r="W5" s="30" t="s">
         <v>58</v>
       </c>
       <c r="X5" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="Y5" s="197"/>
-      <c r="Z5" s="195"/>
-      <c r="AA5" s="195"/>
-      <c r="AB5" s="196"/>
+      <c r="Y5" s="192"/>
+      <c r="Z5" s="193"/>
+      <c r="AA5" s="193"/>
+      <c r="AB5" s="213"/>
       <c r="AC5" s="36"/>
       <c r="AD5" s="37"/>
       <c r="AE5" s="36"/>
@@ -24850,6 +23888,32 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="AK1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="F1:AJ1"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="F2:AB2"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AK2:AM2"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="L4:L5"/>
@@ -24864,32 +23928,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
-    <mergeCell ref="AK1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="F1:AJ1"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="Y3:AB3"/>
-    <mergeCell ref="F2:AB2"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BaremeJavaBaseTest2_GJ52.xlsx
+++ b/BaremeJavaBaseTest2_GJ52.xlsx
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC11" authorId="0" shapeId="0">
+    <comment ref="AC12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB12" authorId="0" shapeId="0">
+    <comment ref="AB13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC12" authorId="0" shapeId="0">
+    <comment ref="AC13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD12" authorId="0" shapeId="0">
+    <comment ref="AD13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC13" authorId="0" shapeId="0">
+    <comment ref="AC14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD13" authorId="0" shapeId="0">
+    <comment ref="AD14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -821,7 +821,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -851,6 +851,9 @@
         <fgColor indexed="65"/>
         <bgColor indexed="64"/>
       </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp"/>
     </fill>
   </fills>
   <borders count="86">
@@ -1928,7 +1931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2299,6 +2302,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2569,11 +2578,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="200">
+  <dxfs count="203">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4273,11 +4321,11 @@
   <dimension ref="A1:CR68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3600" ySplit="2910" topLeftCell="G8" activePane="bottomRight"/>
+      <pane xSplit="3600" ySplit="2910" topLeftCell="AH12" activePane="bottomRight"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="topRight" activeCell="AQ7" sqref="AQ7"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:B23"/>
-      <selection pane="bottomRight" activeCell="AI14" sqref="AI14"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17:CR17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -4325,102 +4373,102 @@
     <row r="1" spans="1:96" s="112" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
-      <c r="H1" s="124" t="s">
+      <c r="H1" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="133" t="s">
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="126" t="s">
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
+      <c r="U1" s="135"/>
+      <c r="V1" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
-      <c r="AA1" s="126"/>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="126"/>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="126"/>
-      <c r="AG1" s="126"/>
-      <c r="AH1" s="126"/>
-      <c r="AI1" s="126"/>
-      <c r="AJ1" s="126"/>
-      <c r="AK1" s="126"/>
-      <c r="AL1" s="126"/>
-      <c r="AM1" s="126"/>
-      <c r="AN1" s="126"/>
-      <c r="AO1" s="126"/>
-      <c r="AP1" s="126"/>
-      <c r="AQ1" s="126"/>
-      <c r="AR1" s="126"/>
-      <c r="AS1" s="126"/>
-      <c r="AT1" s="126"/>
-      <c r="AU1" s="126"/>
-      <c r="AV1" s="126"/>
-      <c r="AW1" s="126"/>
-      <c r="AX1" s="126"/>
-      <c r="AY1" s="126"/>
-      <c r="AZ1" s="126"/>
-      <c r="BA1" s="126"/>
-      <c r="BB1" s="126"/>
-      <c r="BC1" s="126"/>
-      <c r="BD1" s="126"/>
-      <c r="BE1" s="126"/>
-      <c r="BF1" s="126"/>
-      <c r="BG1" s="126"/>
-      <c r="BH1" s="126"/>
-      <c r="BI1" s="126"/>
-      <c r="BJ1" s="126"/>
-      <c r="BK1" s="126"/>
-      <c r="BL1" s="126"/>
-      <c r="BM1" s="126"/>
-      <c r="BN1" s="126"/>
-      <c r="BO1" s="126"/>
-      <c r="BP1" s="126"/>
-      <c r="BQ1" s="126"/>
-      <c r="BR1" s="126"/>
-      <c r="BS1" s="126"/>
-      <c r="BT1" s="126"/>
-      <c r="BU1" s="126"/>
-      <c r="BV1" s="126"/>
-      <c r="BW1" s="126" t="s">
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="128"/>
+      <c r="AA1" s="128"/>
+      <c r="AB1" s="128"/>
+      <c r="AC1" s="128"/>
+      <c r="AD1" s="128"/>
+      <c r="AE1" s="128"/>
+      <c r="AF1" s="128"/>
+      <c r="AG1" s="128"/>
+      <c r="AH1" s="128"/>
+      <c r="AI1" s="128"/>
+      <c r="AJ1" s="128"/>
+      <c r="AK1" s="128"/>
+      <c r="AL1" s="128"/>
+      <c r="AM1" s="128"/>
+      <c r="AN1" s="128"/>
+      <c r="AO1" s="128"/>
+      <c r="AP1" s="128"/>
+      <c r="AQ1" s="128"/>
+      <c r="AR1" s="128"/>
+      <c r="AS1" s="128"/>
+      <c r="AT1" s="128"/>
+      <c r="AU1" s="128"/>
+      <c r="AV1" s="128"/>
+      <c r="AW1" s="128"/>
+      <c r="AX1" s="128"/>
+      <c r="AY1" s="128"/>
+      <c r="AZ1" s="128"/>
+      <c r="BA1" s="128"/>
+      <c r="BB1" s="128"/>
+      <c r="BC1" s="128"/>
+      <c r="BD1" s="128"/>
+      <c r="BE1" s="128"/>
+      <c r="BF1" s="128"/>
+      <c r="BG1" s="128"/>
+      <c r="BH1" s="128"/>
+      <c r="BI1" s="128"/>
+      <c r="BJ1" s="128"/>
+      <c r="BK1" s="128"/>
+      <c r="BL1" s="128"/>
+      <c r="BM1" s="128"/>
+      <c r="BN1" s="128"/>
+      <c r="BO1" s="128"/>
+      <c r="BP1" s="128"/>
+      <c r="BQ1" s="128"/>
+      <c r="BR1" s="128"/>
+      <c r="BS1" s="128"/>
+      <c r="BT1" s="128"/>
+      <c r="BU1" s="128"/>
+      <c r="BV1" s="128"/>
+      <c r="BW1" s="128" t="s">
         <v>97</v>
       </c>
-      <c r="BX1" s="126"/>
-      <c r="BY1" s="126"/>
-      <c r="BZ1" s="126"/>
-      <c r="CA1" s="126"/>
-      <c r="CB1" s="126"/>
-      <c r="CC1" s="126" t="s">
+      <c r="BX1" s="128"/>
+      <c r="BY1" s="128"/>
+      <c r="BZ1" s="128"/>
+      <c r="CA1" s="128"/>
+      <c r="CB1" s="128"/>
+      <c r="CC1" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="CD1" s="126"/>
-      <c r="CE1" s="126"/>
-      <c r="CF1" s="126"/>
-      <c r="CG1" s="126"/>
-      <c r="CH1" s="126"/>
-      <c r="CI1" s="126"/>
-      <c r="CJ1" s="126"/>
-      <c r="CK1" s="126"/>
-      <c r="CL1" s="126"/>
-      <c r="CM1" s="126"/>
-      <c r="CN1" s="126"/>
-      <c r="CO1" s="126"/>
+      <c r="CD1" s="128"/>
+      <c r="CE1" s="128"/>
+      <c r="CF1" s="128"/>
+      <c r="CG1" s="128"/>
+      <c r="CH1" s="128"/>
+      <c r="CI1" s="128"/>
+      <c r="CJ1" s="128"/>
+      <c r="CK1" s="128"/>
+      <c r="CL1" s="128"/>
+      <c r="CM1" s="128"/>
+      <c r="CN1" s="128"/>
+      <c r="CO1" s="128"/>
       <c r="CP1" s="115"/>
     </row>
     <row r="2" spans="1:96" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4431,117 +4479,117 @@
       <c r="E2" s="52"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="153" t="s">
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="129"/>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="129"/>
-      <c r="AE2" s="129"/>
-      <c r="AF2" s="129"/>
-      <c r="AG2" s="129"/>
-      <c r="AH2" s="129"/>
-      <c r="AI2" s="129"/>
-      <c r="AJ2" s="129"/>
-      <c r="AK2" s="129"/>
-      <c r="AL2" s="129"/>
-      <c r="AM2" s="129"/>
-      <c r="AN2" s="129"/>
-      <c r="AO2" s="129"/>
-      <c r="AP2" s="129"/>
-      <c r="AQ2" s="131"/>
-      <c r="AR2" s="127" t="s">
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="131"/>
+      <c r="AG2" s="131"/>
+      <c r="AH2" s="131"/>
+      <c r="AI2" s="131"/>
+      <c r="AJ2" s="131"/>
+      <c r="AK2" s="131"/>
+      <c r="AL2" s="131"/>
+      <c r="AM2" s="131"/>
+      <c r="AN2" s="131"/>
+      <c r="AO2" s="131"/>
+      <c r="AP2" s="131"/>
+      <c r="AQ2" s="133"/>
+      <c r="AR2" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="AS2" s="125"/>
-      <c r="AT2" s="125"/>
-      <c r="AU2" s="128"/>
-      <c r="AV2" s="143" t="s">
+      <c r="AS2" s="127"/>
+      <c r="AT2" s="127"/>
+      <c r="AU2" s="130"/>
+      <c r="AV2" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="AW2" s="125"/>
-      <c r="AX2" s="125"/>
-      <c r="AY2" s="125"/>
-      <c r="AZ2" s="125"/>
-      <c r="BA2" s="125"/>
-      <c r="BB2" s="137" t="s">
+      <c r="AW2" s="127"/>
+      <c r="AX2" s="127"/>
+      <c r="AY2" s="127"/>
+      <c r="AZ2" s="127"/>
+      <c r="BA2" s="127"/>
+      <c r="BB2" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="BC2" s="124"/>
-      <c r="BD2" s="124"/>
-      <c r="BE2" s="124"/>
-      <c r="BF2" s="124"/>
-      <c r="BG2" s="124"/>
-      <c r="BH2" s="124"/>
-      <c r="BI2" s="124"/>
-      <c r="BJ2" s="124"/>
-      <c r="BK2" s="124"/>
-      <c r="BL2" s="124"/>
-      <c r="BM2" s="138"/>
-      <c r="BN2" s="137" t="s">
+      <c r="BC2" s="126"/>
+      <c r="BD2" s="126"/>
+      <c r="BE2" s="126"/>
+      <c r="BF2" s="126"/>
+      <c r="BG2" s="126"/>
+      <c r="BH2" s="126"/>
+      <c r="BI2" s="126"/>
+      <c r="BJ2" s="126"/>
+      <c r="BK2" s="126"/>
+      <c r="BL2" s="126"/>
+      <c r="BM2" s="140"/>
+      <c r="BN2" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="BO2" s="124"/>
-      <c r="BP2" s="124"/>
-      <c r="BQ2" s="124"/>
-      <c r="BR2" s="124"/>
-      <c r="BS2" s="124"/>
-      <c r="BT2" s="124"/>
-      <c r="BU2" s="124"/>
-      <c r="BV2" s="138"/>
-      <c r="BW2" s="179" t="s">
+      <c r="BO2" s="126"/>
+      <c r="BP2" s="126"/>
+      <c r="BQ2" s="126"/>
+      <c r="BR2" s="126"/>
+      <c r="BS2" s="126"/>
+      <c r="BT2" s="126"/>
+      <c r="BU2" s="126"/>
+      <c r="BV2" s="140"/>
+      <c r="BW2" s="181" t="s">
         <v>101</v>
       </c>
-      <c r="BX2" s="129" t="s">
+      <c r="BX2" s="131" t="s">
         <v>102</v>
       </c>
-      <c r="BY2" s="129"/>
-      <c r="BZ2" s="180" t="s">
+      <c r="BY2" s="131"/>
+      <c r="BZ2" s="182" t="s">
         <v>103</v>
       </c>
-      <c r="CA2" s="129" t="s">
+      <c r="CA2" s="131" t="s">
         <v>104</v>
       </c>
-      <c r="CB2" s="131"/>
-      <c r="CC2" s="137" t="s">
+      <c r="CB2" s="133"/>
+      <c r="CC2" s="139" t="s">
         <v>105</v>
       </c>
-      <c r="CD2" s="124"/>
-      <c r="CE2" s="124"/>
-      <c r="CF2" s="124"/>
-      <c r="CG2" s="124"/>
-      <c r="CH2" s="124"/>
-      <c r="CI2" s="124"/>
-      <c r="CJ2" s="124"/>
-      <c r="CK2" s="124"/>
-      <c r="CL2" s="124"/>
-      <c r="CM2" s="124"/>
-      <c r="CN2" s="124"/>
-      <c r="CO2" s="138"/>
+      <c r="CD2" s="126"/>
+      <c r="CE2" s="126"/>
+      <c r="CF2" s="126"/>
+      <c r="CG2" s="126"/>
+      <c r="CH2" s="126"/>
+      <c r="CI2" s="126"/>
+      <c r="CJ2" s="126"/>
+      <c r="CK2" s="126"/>
+      <c r="CL2" s="126"/>
+      <c r="CM2" s="126"/>
+      <c r="CN2" s="126"/>
+      <c r="CO2" s="140"/>
       <c r="CP2" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="CQ2" s="187"/>
-      <c r="CR2" s="187"/>
+      <c r="CQ2" s="189"/>
+      <c r="CR2" s="189"/>
     </row>
     <row r="3" spans="1:96" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -4551,141 +4599,141 @@
       <c r="E3" s="52"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="147" t="s">
+      <c r="H3" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="150" t="s">
+      <c r="I3" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="150" t="s">
+      <c r="J3" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="147" t="s">
+      <c r="K3" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="147" t="s">
+      <c r="L3" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="150" t="s">
+      <c r="M3" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="144" t="s">
+      <c r="N3" s="146" t="s">
         <v>71</v>
       </c>
-      <c r="O3" s="150" t="s">
+      <c r="O3" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="124"/>
-      <c r="U3" s="124"/>
-      <c r="V3" s="142" t="s">
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="144" t="s">
         <v>92</v>
       </c>
-      <c r="W3" s="135"/>
-      <c r="X3" s="135"/>
-      <c r="Y3" s="135"/>
-      <c r="Z3" s="135"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="182" t="s">
+      <c r="W3" s="137"/>
+      <c r="X3" s="137"/>
+      <c r="Y3" s="137"/>
+      <c r="Z3" s="137"/>
+      <c r="AA3" s="137"/>
+      <c r="AB3" s="184" t="s">
         <v>107</v>
       </c>
-      <c r="AC3" s="162"/>
-      <c r="AD3" s="140"/>
-      <c r="AE3" s="140"/>
-      <c r="AF3" s="140"/>
-      <c r="AG3" s="140"/>
-      <c r="AH3" s="140"/>
-      <c r="AI3" s="140"/>
-      <c r="AJ3" s="140"/>
-      <c r="AK3" s="155" t="s">
+      <c r="AC3" s="164"/>
+      <c r="AD3" s="142"/>
+      <c r="AE3" s="142"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="142"/>
+      <c r="AH3" s="142"/>
+      <c r="AI3" s="142"/>
+      <c r="AJ3" s="142"/>
+      <c r="AK3" s="157" t="s">
         <v>108</v>
       </c>
-      <c r="AL3" s="135"/>
-      <c r="AM3" s="135"/>
-      <c r="AN3" s="135"/>
-      <c r="AO3" s="135"/>
-      <c r="AP3" s="135"/>
-      <c r="AQ3" s="136"/>
-      <c r="AR3" s="142" t="s">
+      <c r="AL3" s="137"/>
+      <c r="AM3" s="137"/>
+      <c r="AN3" s="137"/>
+      <c r="AO3" s="137"/>
+      <c r="AP3" s="137"/>
+      <c r="AQ3" s="138"/>
+      <c r="AR3" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="AS3" s="135"/>
-      <c r="AT3" s="135"/>
-      <c r="AU3" s="182" t="s">
+      <c r="AS3" s="137"/>
+      <c r="AT3" s="137"/>
+      <c r="AU3" s="184" t="s">
         <v>150</v>
       </c>
-      <c r="AV3" s="150" t="s">
+      <c r="AV3" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="AW3" s="133"/>
-      <c r="AX3" s="133"/>
-      <c r="AY3" s="133" t="s">
+      <c r="AW3" s="135"/>
+      <c r="AX3" s="135"/>
+      <c r="AY3" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="AZ3" s="133" t="s">
+      <c r="AZ3" s="135" t="s">
         <v>151</v>
       </c>
-      <c r="BA3" s="177" t="s">
+      <c r="BA3" s="179" t="s">
         <v>48</v>
       </c>
-      <c r="BB3" s="163" t="s">
+      <c r="BB3" s="165" t="s">
         <v>128</v>
       </c>
-      <c r="BC3" s="165" t="s">
+      <c r="BC3" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="BD3" s="134" t="s">
+      <c r="BD3" s="136" t="s">
         <v>116</v>
       </c>
-      <c r="BE3" s="135"/>
-      <c r="BF3" s="135"/>
-      <c r="BG3" s="135"/>
-      <c r="BH3" s="162"/>
-      <c r="BI3" s="134" t="s">
+      <c r="BE3" s="137"/>
+      <c r="BF3" s="137"/>
+      <c r="BG3" s="137"/>
+      <c r="BH3" s="164"/>
+      <c r="BI3" s="136" t="s">
         <v>118</v>
       </c>
-      <c r="BJ3" s="135"/>
-      <c r="BK3" s="135"/>
-      <c r="BL3" s="135"/>
-      <c r="BM3" s="136"/>
-      <c r="BN3" s="139" t="s">
+      <c r="BJ3" s="137"/>
+      <c r="BK3" s="137"/>
+      <c r="BL3" s="137"/>
+      <c r="BM3" s="138"/>
+      <c r="BN3" s="141" t="s">
         <v>70</v>
       </c>
-      <c r="BO3" s="140"/>
-      <c r="BP3" s="140"/>
-      <c r="BQ3" s="140"/>
-      <c r="BR3" s="140"/>
-      <c r="BS3" s="140"/>
-      <c r="BT3" s="140"/>
-      <c r="BU3" s="134"/>
-      <c r="BV3" s="141"/>
-      <c r="BW3" s="153"/>
-      <c r="BX3" s="130"/>
-      <c r="BY3" s="130"/>
-      <c r="BZ3" s="129"/>
-      <c r="CA3" s="130"/>
-      <c r="CB3" s="132"/>
-      <c r="CC3" s="139" t="s">
+      <c r="BO3" s="142"/>
+      <c r="BP3" s="142"/>
+      <c r="BQ3" s="142"/>
+      <c r="BR3" s="142"/>
+      <c r="BS3" s="142"/>
+      <c r="BT3" s="142"/>
+      <c r="BU3" s="136"/>
+      <c r="BV3" s="143"/>
+      <c r="BW3" s="155"/>
+      <c r="BX3" s="132"/>
+      <c r="BY3" s="132"/>
+      <c r="BZ3" s="131"/>
+      <c r="CA3" s="132"/>
+      <c r="CB3" s="134"/>
+      <c r="CC3" s="141" t="s">
         <v>106</v>
       </c>
-      <c r="CD3" s="140"/>
-      <c r="CE3" s="140"/>
-      <c r="CF3" s="140"/>
-      <c r="CG3" s="140"/>
-      <c r="CH3" s="140"/>
-      <c r="CI3" s="140"/>
-      <c r="CJ3" s="140"/>
-      <c r="CK3" s="140"/>
-      <c r="CL3" s="140"/>
-      <c r="CM3" s="140"/>
-      <c r="CN3" s="140"/>
-      <c r="CO3" s="141"/>
-      <c r="CP3" s="188"/>
-      <c r="CQ3" s="187"/>
-      <c r="CR3" s="187"/>
+      <c r="CD3" s="142"/>
+      <c r="CE3" s="142"/>
+      <c r="CF3" s="142"/>
+      <c r="CG3" s="142"/>
+      <c r="CH3" s="142"/>
+      <c r="CI3" s="142"/>
+      <c r="CJ3" s="142"/>
+      <c r="CK3" s="142"/>
+      <c r="CL3" s="142"/>
+      <c r="CM3" s="142"/>
+      <c r="CN3" s="142"/>
+      <c r="CO3" s="143"/>
+      <c r="CP3" s="190"/>
+      <c r="CQ3" s="189"/>
+      <c r="CR3" s="189"/>
     </row>
     <row r="4" spans="1:96" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -4713,15 +4761,15 @@
         <f>CONCATENATE("Note/",G6)</f>
         <v>Note/212</v>
       </c>
-      <c r="H4" s="148"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="151"/>
-      <c r="N4" s="145"/>
-      <c r="O4" s="151"/>
-      <c r="P4" s="170" t="s">
+      <c r="H4" s="150"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="172" t="s">
         <v>133</v>
       </c>
       <c r="Q4" s="82" t="s">
@@ -4739,201 +4787,201 @@
       <c r="U4" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="V4" s="185" t="s">
+      <c r="V4" s="187" t="s">
         <v>146</v>
       </c>
-      <c r="W4" s="174" t="s">
+      <c r="W4" s="176" t="s">
         <v>51</v>
       </c>
-      <c r="X4" s="174" t="s">
+      <c r="X4" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="Y4" s="158" t="s">
+      <c r="Y4" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="169" t="s">
+      <c r="Z4" s="171" t="s">
         <v>69</v>
       </c>
-      <c r="AA4" s="158" t="s">
+      <c r="AA4" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="AB4" s="172" t="s">
+      <c r="AB4" s="174" t="s">
         <v>51</v>
       </c>
-      <c r="AC4" s="174" t="s">
+      <c r="AC4" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="AD4" s="174" t="s">
+      <c r="AD4" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="AE4" s="169" t="s">
+      <c r="AE4" s="171" t="s">
         <v>147</v>
       </c>
-      <c r="AF4" s="169" t="s">
+      <c r="AF4" s="171" t="s">
         <v>148</v>
       </c>
-      <c r="AG4" s="169" t="s">
+      <c r="AG4" s="171" t="s">
         <v>149</v>
       </c>
-      <c r="AH4" s="169" t="s">
+      <c r="AH4" s="171" t="s">
         <v>69</v>
       </c>
-      <c r="AI4" s="169" t="s">
+      <c r="AI4" s="171" t="s">
         <v>73</v>
       </c>
-      <c r="AJ4" s="158" t="s">
+      <c r="AJ4" s="160" t="s">
         <v>72</v>
       </c>
-      <c r="AK4" s="172" t="s">
+      <c r="AK4" s="174" t="s">
         <v>51</v>
       </c>
-      <c r="AL4" s="174" t="s">
+      <c r="AL4" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="AM4" s="174" t="s">
+      <c r="AM4" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="AN4" s="169" t="s">
+      <c r="AN4" s="171" t="s">
         <v>148</v>
       </c>
-      <c r="AO4" s="169" t="s">
+      <c r="AO4" s="171" t="s">
         <v>69</v>
       </c>
-      <c r="AP4" s="158" t="s">
+      <c r="AP4" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="AQ4" s="160" t="s">
+      <c r="AQ4" s="162" t="s">
         <v>72</v>
       </c>
-      <c r="AR4" s="156" t="s">
+      <c r="AR4" s="158" t="s">
         <v>109</v>
       </c>
-      <c r="AS4" s="167" t="s">
+      <c r="AS4" s="169" t="s">
         <v>110</v>
       </c>
-      <c r="AT4" s="168"/>
-      <c r="AU4" s="183"/>
-      <c r="AV4" s="151"/>
-      <c r="AW4" s="124"/>
-      <c r="AX4" s="124"/>
-      <c r="AY4" s="124"/>
-      <c r="AZ4" s="124"/>
-      <c r="BA4" s="138"/>
-      <c r="BB4" s="153"/>
-      <c r="BC4" s="129"/>
-      <c r="BD4" s="158" t="s">
+      <c r="AT4" s="170"/>
+      <c r="AU4" s="185"/>
+      <c r="AV4" s="153"/>
+      <c r="AW4" s="126"/>
+      <c r="AX4" s="126"/>
+      <c r="AY4" s="126"/>
+      <c r="AZ4" s="126"/>
+      <c r="BA4" s="140"/>
+      <c r="BB4" s="155"/>
+      <c r="BC4" s="131"/>
+      <c r="BD4" s="160" t="s">
         <v>94</v>
       </c>
-      <c r="BE4" s="158" t="s">
+      <c r="BE4" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="BF4" s="158" t="s">
+      <c r="BF4" s="160" t="s">
         <v>117</v>
       </c>
-      <c r="BG4" s="158" t="s">
+      <c r="BG4" s="160" t="s">
         <v>119</v>
       </c>
-      <c r="BH4" s="158" t="s">
+      <c r="BH4" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="BI4" s="158" t="s">
+      <c r="BI4" s="160" t="s">
         <v>94</v>
       </c>
-      <c r="BJ4" s="158" t="s">
+      <c r="BJ4" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="BK4" s="158" t="s">
+      <c r="BK4" s="160" t="s">
         <v>117</v>
       </c>
-      <c r="BL4" s="158" t="s">
+      <c r="BL4" s="160" t="s">
         <v>119</v>
       </c>
-      <c r="BM4" s="158" t="s">
+      <c r="BM4" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="BN4" s="156" t="s">
+      <c r="BN4" s="158" t="s">
         <v>120</v>
       </c>
-      <c r="BO4" s="158" t="s">
+      <c r="BO4" s="160" t="s">
         <v>127</v>
       </c>
-      <c r="BP4" s="158" t="s">
+      <c r="BP4" s="160" t="s">
         <v>121</v>
       </c>
-      <c r="BQ4" s="158" t="s">
+      <c r="BQ4" s="160" t="s">
         <v>122</v>
       </c>
-      <c r="BR4" s="158" t="s">
+      <c r="BR4" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="BS4" s="158" t="s">
+      <c r="BS4" s="160" t="s">
         <v>124</v>
       </c>
-      <c r="BT4" s="158" t="s">
+      <c r="BT4" s="160" t="s">
         <v>125</v>
       </c>
-      <c r="BU4" s="158" t="s">
+      <c r="BU4" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="BV4" s="160" t="s">
+      <c r="BV4" s="162" t="s">
         <v>126</v>
       </c>
-      <c r="BW4" s="153"/>
-      <c r="BX4" s="158" t="s">
+      <c r="BW4" s="155"/>
+      <c r="BX4" s="160" t="s">
         <v>152</v>
       </c>
-      <c r="BY4" s="158" t="s">
+      <c r="BY4" s="160" t="s">
         <v>153</v>
       </c>
-      <c r="BZ4" s="129"/>
-      <c r="CA4" s="158" t="s">
+      <c r="BZ4" s="131"/>
+      <c r="CA4" s="160" t="s">
         <v>152</v>
       </c>
-      <c r="CB4" s="158" t="s">
+      <c r="CB4" s="160" t="s">
         <v>153</v>
       </c>
-      <c r="CC4" s="156" t="s">
+      <c r="CC4" s="158" t="s">
         <v>134</v>
       </c>
-      <c r="CD4" s="158" t="s">
+      <c r="CD4" s="160" t="s">
         <v>135</v>
       </c>
-      <c r="CE4" s="158" t="s">
+      <c r="CE4" s="160" t="s">
         <v>136</v>
       </c>
-      <c r="CF4" s="158" t="s">
+      <c r="CF4" s="160" t="s">
         <v>137</v>
       </c>
-      <c r="CG4" s="158" t="s">
+      <c r="CG4" s="160" t="s">
         <v>138</v>
       </c>
-      <c r="CH4" s="158" t="s">
+      <c r="CH4" s="160" t="s">
         <v>139</v>
       </c>
-      <c r="CI4" s="158" t="s">
+      <c r="CI4" s="160" t="s">
         <v>140</v>
       </c>
-      <c r="CJ4" s="158" t="s">
+      <c r="CJ4" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="CK4" s="158" t="s">
+      <c r="CK4" s="160" t="s">
         <v>141</v>
       </c>
-      <c r="CL4" s="158" t="s">
+      <c r="CL4" s="160" t="s">
         <v>142</v>
       </c>
-      <c r="CM4" s="158" t="s">
+      <c r="CM4" s="160" t="s">
         <v>143</v>
       </c>
-      <c r="CN4" s="158" t="s">
+      <c r="CN4" s="160" t="s">
         <v>144</v>
       </c>
-      <c r="CO4" s="160" t="s">
+      <c r="CO4" s="162" t="s">
         <v>145</v>
       </c>
-      <c r="CP4" s="189"/>
-      <c r="CQ4" s="187"/>
-      <c r="CR4" s="187"/>
+      <c r="CP4" s="191"/>
+      <c r="CQ4" s="189"/>
+      <c r="CR4" s="189"/>
     </row>
     <row r="5" spans="1:96" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -4943,15 +4991,15 @@
       <c r="E5" s="18"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="152"/>
-      <c r="N5" s="146"/>
-      <c r="O5" s="143"/>
-      <c r="P5" s="171"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="154"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="173"/>
       <c r="Q5" s="96" t="s">
         <v>129</v>
       </c>
@@ -4967,36 +5015,36 @@
       <c r="U5" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="V5" s="186"/>
-      <c r="W5" s="175"/>
-      <c r="X5" s="175"/>
-      <c r="Y5" s="159"/>
-      <c r="Z5" s="166"/>
-      <c r="AA5" s="159"/>
-      <c r="AB5" s="173"/>
-      <c r="AC5" s="175"/>
-      <c r="AD5" s="175"/>
-      <c r="AE5" s="166"/>
-      <c r="AF5" s="166"/>
-      <c r="AG5" s="166"/>
-      <c r="AH5" s="166"/>
-      <c r="AI5" s="166"/>
-      <c r="AJ5" s="159"/>
-      <c r="AK5" s="173"/>
-      <c r="AL5" s="175"/>
-      <c r="AM5" s="175"/>
-      <c r="AN5" s="166"/>
-      <c r="AO5" s="166"/>
-      <c r="AP5" s="159"/>
-      <c r="AQ5" s="161"/>
-      <c r="AR5" s="157"/>
+      <c r="V5" s="188"/>
+      <c r="W5" s="177"/>
+      <c r="X5" s="177"/>
+      <c r="Y5" s="161"/>
+      <c r="Z5" s="168"/>
+      <c r="AA5" s="161"/>
+      <c r="AB5" s="175"/>
+      <c r="AC5" s="177"/>
+      <c r="AD5" s="177"/>
+      <c r="AE5" s="168"/>
+      <c r="AF5" s="168"/>
+      <c r="AG5" s="168"/>
+      <c r="AH5" s="168"/>
+      <c r="AI5" s="168"/>
+      <c r="AJ5" s="161"/>
+      <c r="AK5" s="175"/>
+      <c r="AL5" s="177"/>
+      <c r="AM5" s="177"/>
+      <c r="AN5" s="168"/>
+      <c r="AO5" s="168"/>
+      <c r="AP5" s="161"/>
+      <c r="AQ5" s="163"/>
+      <c r="AR5" s="159"/>
       <c r="AS5" s="97" t="s">
         <v>93</v>
       </c>
       <c r="AT5" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="AU5" s="184"/>
+      <c r="AU5" s="186"/>
       <c r="AV5" s="105" t="s">
         <v>95</v>
       </c>
@@ -5006,52 +5054,52 @@
       <c r="AX5" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="AY5" s="176"/>
-      <c r="AZ5" s="176"/>
-      <c r="BA5" s="178"/>
-      <c r="BB5" s="164"/>
-      <c r="BC5" s="166"/>
-      <c r="BD5" s="159"/>
-      <c r="BE5" s="159"/>
-      <c r="BF5" s="159"/>
-      <c r="BG5" s="159"/>
-      <c r="BH5" s="159"/>
-      <c r="BI5" s="159"/>
-      <c r="BJ5" s="159"/>
-      <c r="BK5" s="159"/>
-      <c r="BL5" s="159"/>
-      <c r="BM5" s="159"/>
-      <c r="BN5" s="157"/>
-      <c r="BO5" s="159"/>
-      <c r="BP5" s="159"/>
-      <c r="BQ5" s="159"/>
-      <c r="BR5" s="159"/>
-      <c r="BS5" s="159"/>
-      <c r="BT5" s="159"/>
-      <c r="BU5" s="159"/>
-      <c r="BV5" s="161"/>
-      <c r="BW5" s="164"/>
-      <c r="BX5" s="159"/>
-      <c r="BY5" s="159"/>
-      <c r="BZ5" s="166"/>
-      <c r="CA5" s="159"/>
-      <c r="CB5" s="159"/>
-      <c r="CC5" s="157"/>
-      <c r="CD5" s="159"/>
-      <c r="CE5" s="159"/>
-      <c r="CF5" s="159"/>
-      <c r="CG5" s="159"/>
-      <c r="CH5" s="159"/>
-      <c r="CI5" s="159"/>
-      <c r="CJ5" s="159"/>
-      <c r="CK5" s="159"/>
-      <c r="CL5" s="159"/>
-      <c r="CM5" s="159"/>
-      <c r="CN5" s="159"/>
-      <c r="CO5" s="161"/>
-      <c r="CP5" s="190"/>
-      <c r="CQ5" s="187"/>
-      <c r="CR5" s="187"/>
+      <c r="AY5" s="178"/>
+      <c r="AZ5" s="178"/>
+      <c r="BA5" s="180"/>
+      <c r="BB5" s="166"/>
+      <c r="BC5" s="168"/>
+      <c r="BD5" s="161"/>
+      <c r="BE5" s="161"/>
+      <c r="BF5" s="161"/>
+      <c r="BG5" s="161"/>
+      <c r="BH5" s="161"/>
+      <c r="BI5" s="161"/>
+      <c r="BJ5" s="161"/>
+      <c r="BK5" s="161"/>
+      <c r="BL5" s="161"/>
+      <c r="BM5" s="161"/>
+      <c r="BN5" s="159"/>
+      <c r="BO5" s="161"/>
+      <c r="BP5" s="161"/>
+      <c r="BQ5" s="161"/>
+      <c r="BR5" s="161"/>
+      <c r="BS5" s="161"/>
+      <c r="BT5" s="161"/>
+      <c r="BU5" s="161"/>
+      <c r="BV5" s="163"/>
+      <c r="BW5" s="166"/>
+      <c r="BX5" s="161"/>
+      <c r="BY5" s="161"/>
+      <c r="BZ5" s="168"/>
+      <c r="CA5" s="161"/>
+      <c r="CB5" s="161"/>
+      <c r="CC5" s="159"/>
+      <c r="CD5" s="161"/>
+      <c r="CE5" s="161"/>
+      <c r="CF5" s="161"/>
+      <c r="CG5" s="161"/>
+      <c r="CH5" s="161"/>
+      <c r="CI5" s="161"/>
+      <c r="CJ5" s="161"/>
+      <c r="CK5" s="161"/>
+      <c r="CL5" s="161"/>
+      <c r="CM5" s="161"/>
+      <c r="CN5" s="161"/>
+      <c r="CO5" s="163"/>
+      <c r="CP5" s="192"/>
+      <c r="CQ5" s="189"/>
+      <c r="CR5" s="189"/>
     </row>
     <row r="6" spans="1:96" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -5627,114 +5675,114 @@
       <c r="M8" s="9"/>
       <c r="N8" s="51"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="151">
+      <c r="P8" s="153">
         <f>SUM(P6:U6)</f>
         <v>21</v>
       </c>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="124"/>
-      <c r="S8" s="124"/>
-      <c r="T8" s="124"/>
-      <c r="U8" s="124"/>
-      <c r="V8" s="167">
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
+      <c r="T8" s="126"/>
+      <c r="U8" s="126"/>
+      <c r="V8" s="169">
         <f>SUM(V6:AA6)</f>
         <v>0</v>
       </c>
-      <c r="W8" s="168"/>
-      <c r="X8" s="168"/>
-      <c r="Y8" s="168"/>
-      <c r="Z8" s="168"/>
-      <c r="AA8" s="168"/>
-      <c r="AB8" s="167">
+      <c r="W8" s="170"/>
+      <c r="X8" s="170"/>
+      <c r="Y8" s="170"/>
+      <c r="Z8" s="170"/>
+      <c r="AA8" s="170"/>
+      <c r="AB8" s="169">
         <f>SUM(AB6:AJ6)</f>
         <v>31</v>
       </c>
-      <c r="AC8" s="168"/>
-      <c r="AD8" s="168"/>
-      <c r="AE8" s="168"/>
-      <c r="AF8" s="168"/>
-      <c r="AG8" s="168"/>
-      <c r="AH8" s="168"/>
-      <c r="AI8" s="168"/>
-      <c r="AJ8" s="168"/>
-      <c r="AK8" s="167">
+      <c r="AC8" s="170"/>
+      <c r="AD8" s="170"/>
+      <c r="AE8" s="170"/>
+      <c r="AF8" s="170"/>
+      <c r="AG8" s="170"/>
+      <c r="AH8" s="170"/>
+      <c r="AI8" s="170"/>
+      <c r="AJ8" s="170"/>
+      <c r="AK8" s="169">
         <f>SUM(AK6:AQ6)</f>
         <v>14</v>
       </c>
-      <c r="AL8" s="168"/>
-      <c r="AM8" s="168"/>
-      <c r="AN8" s="168"/>
-      <c r="AO8" s="168"/>
-      <c r="AP8" s="168"/>
-      <c r="AQ8" s="181"/>
-      <c r="AR8" s="167">
+      <c r="AL8" s="170"/>
+      <c r="AM8" s="170"/>
+      <c r="AN8" s="170"/>
+      <c r="AO8" s="170"/>
+      <c r="AP8" s="170"/>
+      <c r="AQ8" s="183"/>
+      <c r="AR8" s="169">
         <f>SUM(AR6:AT6)</f>
         <v>6</v>
       </c>
-      <c r="AS8" s="168"/>
-      <c r="AT8" s="168"/>
+      <c r="AS8" s="170"/>
+      <c r="AT8" s="170"/>
       <c r="AU8" s="104"/>
-      <c r="AV8" s="167">
+      <c r="AV8" s="169">
         <f>SUM(AV6:BA6)</f>
         <v>11</v>
       </c>
-      <c r="AW8" s="168"/>
-      <c r="AX8" s="168"/>
-      <c r="AY8" s="168"/>
-      <c r="AZ8" s="168"/>
-      <c r="BA8" s="168"/>
-      <c r="BB8" s="167">
+      <c r="AW8" s="170"/>
+      <c r="AX8" s="170"/>
+      <c r="AY8" s="170"/>
+      <c r="AZ8" s="170"/>
+      <c r="BA8" s="170"/>
+      <c r="BB8" s="169">
         <f>SUM(BB6:BM6)</f>
         <v>36</v>
       </c>
-      <c r="BC8" s="168"/>
-      <c r="BD8" s="168"/>
-      <c r="BE8" s="168"/>
-      <c r="BF8" s="168"/>
-      <c r="BG8" s="168"/>
-      <c r="BH8" s="168"/>
-      <c r="BI8" s="168"/>
-      <c r="BJ8" s="168"/>
-      <c r="BK8" s="168"/>
-      <c r="BL8" s="168"/>
-      <c r="BM8" s="168"/>
-      <c r="BN8" s="167">
+      <c r="BC8" s="170"/>
+      <c r="BD8" s="170"/>
+      <c r="BE8" s="170"/>
+      <c r="BF8" s="170"/>
+      <c r="BG8" s="170"/>
+      <c r="BH8" s="170"/>
+      <c r="BI8" s="170"/>
+      <c r="BJ8" s="170"/>
+      <c r="BK8" s="170"/>
+      <c r="BL8" s="170"/>
+      <c r="BM8" s="170"/>
+      <c r="BN8" s="169">
         <f>SUM(BN6:BV6)</f>
         <v>29</v>
       </c>
-      <c r="BO8" s="168"/>
-      <c r="BP8" s="168"/>
-      <c r="BQ8" s="168"/>
-      <c r="BR8" s="168"/>
-      <c r="BS8" s="168"/>
-      <c r="BT8" s="168"/>
-      <c r="BU8" s="168"/>
-      <c r="BV8" s="168"/>
-      <c r="BW8" s="167">
+      <c r="BO8" s="170"/>
+      <c r="BP8" s="170"/>
+      <c r="BQ8" s="170"/>
+      <c r="BR8" s="170"/>
+      <c r="BS8" s="170"/>
+      <c r="BT8" s="170"/>
+      <c r="BU8" s="170"/>
+      <c r="BV8" s="170"/>
+      <c r="BW8" s="169">
         <f>SUM(BW6:CB6)</f>
         <v>0</v>
       </c>
-      <c r="BX8" s="168"/>
-      <c r="BY8" s="168"/>
-      <c r="BZ8" s="168"/>
-      <c r="CA8" s="168"/>
-      <c r="CB8" s="168"/>
-      <c r="CC8" s="167">
+      <c r="BX8" s="170"/>
+      <c r="BY8" s="170"/>
+      <c r="BZ8" s="170"/>
+      <c r="CA8" s="170"/>
+      <c r="CB8" s="170"/>
+      <c r="CC8" s="169">
         <f>SUM(CC6:CO6)</f>
         <v>36</v>
       </c>
-      <c r="CD8" s="168"/>
-      <c r="CE8" s="168"/>
-      <c r="CF8" s="168"/>
-      <c r="CG8" s="168"/>
-      <c r="CH8" s="168"/>
-      <c r="CI8" s="168"/>
-      <c r="CJ8" s="168"/>
-      <c r="CK8" s="168"/>
-      <c r="CL8" s="168"/>
-      <c r="CM8" s="168"/>
-      <c r="CN8" s="168"/>
-      <c r="CO8" s="168"/>
+      <c r="CD8" s="170"/>
+      <c r="CE8" s="170"/>
+      <c r="CF8" s="170"/>
+      <c r="CG8" s="170"/>
+      <c r="CH8" s="170"/>
+      <c r="CI8" s="170"/>
+      <c r="CJ8" s="170"/>
+      <c r="CK8" s="170"/>
+      <c r="CL8" s="170"/>
+      <c r="CM8" s="170"/>
+      <c r="CN8" s="170"/>
+      <c r="CO8" s="170"/>
       <c r="CP8" s="2">
         <f>CP6</f>
         <v>0</v>
@@ -6074,155 +6122,139 @@
       <c r="C11" s="4"/>
       <c r="D11" s="111">
         <f t="shared" si="0"/>
-        <v>2.5707547169811322</v>
+        <v>0</v>
       </c>
       <c r="E11" s="22">
         <f t="shared" si="1"/>
-        <v>2.0220588235294117</v>
+        <v>0</v>
       </c>
       <c r="F11" s="15">
         <f t="shared" si="2"/>
-        <v>6.875</v>
+        <v>0</v>
       </c>
       <c r="G11" s="15">
         <f t="shared" si="3"/>
-        <v>27.25</v>
-      </c>
-      <c r="H11" s="113"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="216"/>
+      <c r="I11" s="216"/>
+      <c r="J11" s="216"/>
+      <c r="K11" s="216"/>
+      <c r="L11" s="216"/>
+      <c r="M11" s="216"/>
+      <c r="N11" s="217"/>
+      <c r="O11" s="216"/>
+      <c r="P11" s="216"/>
+      <c r="Q11" s="216"/>
+      <c r="R11" s="216"/>
+      <c r="S11" s="216"/>
+      <c r="T11" s="216"/>
+      <c r="U11" s="216"/>
+      <c r="V11" s="216">
         <v>99</v>
       </c>
-      <c r="W11" s="86">
+      <c r="W11" s="218">
         <v>99</v>
       </c>
-      <c r="X11" s="66">
+      <c r="X11" s="218">
         <v>99</v>
       </c>
-      <c r="Y11" s="75">
+      <c r="Y11" s="219">
         <v>99</v>
       </c>
-      <c r="Z11" s="56">
+      <c r="Z11" s="219">
         <v>99</v>
       </c>
-      <c r="AA11" s="10">
+      <c r="AA11" s="219">
         <v>99</v>
       </c>
-      <c r="AB11" s="9">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="93">
-        <v>0.75</v>
-      </c>
-      <c r="AD11" s="75">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="75">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="116">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="116">
-        <v>1</v>
-      </c>
-      <c r="AH11" s="116">
-        <v>0.125</v>
-      </c>
-      <c r="AI11" s="68">
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="10">
+      <c r="AB11" s="216"/>
+      <c r="AC11" s="218"/>
+      <c r="AD11" s="219"/>
+      <c r="AE11" s="219"/>
+      <c r="AF11" s="219"/>
+      <c r="AG11" s="219"/>
+      <c r="AH11" s="219"/>
+      <c r="AI11" s="219"/>
+      <c r="AJ11" s="219">
         <v>99</v>
       </c>
-      <c r="AK11" s="119"/>
-      <c r="AL11" s="93"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="116"/>
-      <c r="AO11" s="116"/>
-      <c r="AP11" s="116"/>
-      <c r="AQ11" s="56">
+      <c r="AK11" s="216"/>
+      <c r="AL11" s="218"/>
+      <c r="AM11" s="219"/>
+      <c r="AN11" s="219"/>
+      <c r="AO11" s="219"/>
+      <c r="AP11" s="219"/>
+      <c r="AQ11" s="219">
         <v>99</v>
       </c>
-      <c r="AR11" s="64"/>
-      <c r="AS11" s="81"/>
-      <c r="AT11" s="84"/>
-      <c r="AU11" s="70"/>
-      <c r="AV11" s="100"/>
-      <c r="AW11" s="102"/>
-      <c r="AX11" s="121"/>
-      <c r="AY11" s="121"/>
-      <c r="AZ11" s="121"/>
-      <c r="BA11" s="100"/>
-      <c r="BB11" s="113"/>
-      <c r="BC11" s="113"/>
-      <c r="BD11" s="113"/>
-      <c r="BE11" s="113"/>
-      <c r="BF11" s="113"/>
-      <c r="BG11" s="113"/>
-      <c r="BH11" s="113"/>
-      <c r="BI11" s="113"/>
-      <c r="BJ11" s="113"/>
-      <c r="BK11" s="113"/>
-      <c r="BL11" s="113"/>
-      <c r="BM11" s="113"/>
-      <c r="BN11" s="113"/>
-      <c r="BO11" s="113"/>
-      <c r="BP11" s="113"/>
-      <c r="BQ11" s="113"/>
-      <c r="BR11" s="113"/>
-      <c r="BS11" s="113"/>
-      <c r="BT11" s="113"/>
-      <c r="BU11" s="113"/>
-      <c r="BV11" s="113"/>
-      <c r="BW11" s="123">
+      <c r="AR11" s="216"/>
+      <c r="AS11" s="216"/>
+      <c r="AT11" s="216"/>
+      <c r="AU11" s="216"/>
+      <c r="AV11" s="216"/>
+      <c r="AW11" s="216"/>
+      <c r="AX11" s="216"/>
+      <c r="AY11" s="216"/>
+      <c r="AZ11" s="216"/>
+      <c r="BA11" s="216"/>
+      <c r="BB11" s="216"/>
+      <c r="BC11" s="216"/>
+      <c r="BD11" s="216"/>
+      <c r="BE11" s="216"/>
+      <c r="BF11" s="216"/>
+      <c r="BG11" s="216"/>
+      <c r="BH11" s="216"/>
+      <c r="BI11" s="216"/>
+      <c r="BJ11" s="216"/>
+      <c r="BK11" s="216"/>
+      <c r="BL11" s="216"/>
+      <c r="BM11" s="216"/>
+      <c r="BN11" s="216"/>
+      <c r="BO11" s="216"/>
+      <c r="BP11" s="216"/>
+      <c r="BQ11" s="216"/>
+      <c r="BR11" s="216"/>
+      <c r="BS11" s="216"/>
+      <c r="BT11" s="216"/>
+      <c r="BU11" s="216"/>
+      <c r="BV11" s="216"/>
+      <c r="BW11" s="216">
         <v>99</v>
       </c>
-      <c r="BX11" s="123">
+      <c r="BX11" s="216">
         <v>99</v>
       </c>
-      <c r="BY11" s="123">
+      <c r="BY11" s="216">
         <v>99</v>
       </c>
-      <c r="BZ11" s="123">
+      <c r="BZ11" s="216">
         <v>99</v>
       </c>
-      <c r="CA11" s="123">
+      <c r="CA11" s="216">
         <v>99</v>
       </c>
-      <c r="CB11" s="123">
+      <c r="CB11" s="216">
         <v>99</v>
       </c>
-      <c r="CC11" s="49"/>
-      <c r="CD11" s="81"/>
-      <c r="CE11" s="81"/>
-      <c r="CF11" s="81"/>
-      <c r="CG11" s="81"/>
-      <c r="CH11" s="108"/>
-      <c r="CI11" s="113"/>
-      <c r="CJ11" s="113"/>
-      <c r="CK11" s="113"/>
-      <c r="CL11" s="113"/>
-      <c r="CM11" s="113"/>
-      <c r="CN11" s="81"/>
-      <c r="CO11" s="70"/>
-      <c r="CP11" s="70"/>
-      <c r="CQ11" s="103">
-        <v>0</v>
-      </c>
-      <c r="CR11" s="2">
+      <c r="CC11" s="216"/>
+      <c r="CD11" s="216"/>
+      <c r="CE11" s="216"/>
+      <c r="CF11" s="216"/>
+      <c r="CG11" s="216"/>
+      <c r="CH11" s="216"/>
+      <c r="CI11" s="216"/>
+      <c r="CJ11" s="216"/>
+      <c r="CK11" s="216"/>
+      <c r="CL11" s="216"/>
+      <c r="CM11" s="216"/>
+      <c r="CN11" s="216"/>
+      <c r="CO11" s="216"/>
+      <c r="CP11" s="216"/>
+      <c r="CQ11" s="220">
+        <v>0</v>
+      </c>
+      <c r="CR11" s="220">
         <v>0</v>
       </c>
     </row>
@@ -6236,19 +6268,19 @@
       <c r="C12" s="5"/>
       <c r="D12" s="111">
         <f t="shared" si="0"/>
-        <v>1.0377358490566038</v>
+        <v>2.5707547169811322</v>
       </c>
       <c r="E12" s="22">
         <f t="shared" si="1"/>
-        <v>1.1029411764705883</v>
+        <v>2.0220588235294117</v>
       </c>
       <c r="F12" s="15">
         <f t="shared" si="2"/>
-        <v>3.75</v>
+        <v>6.875</v>
       </c>
       <c r="G12" s="15">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>27.25</v>
       </c>
       <c r="H12" s="113"/>
       <c r="I12" s="70"/>
@@ -6282,28 +6314,28 @@
       <c r="AA12" s="10">
         <v>99</v>
       </c>
-      <c r="AB12" s="119">
+      <c r="AB12" s="125">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="93">
         <v>0.75</v>
       </c>
-      <c r="AC12" s="93">
-        <v>0.5</v>
-      </c>
-      <c r="AD12" s="94">
-        <v>0.5</v>
-      </c>
-      <c r="AE12" s="75">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="116">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="116">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="116">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="68">
+      <c r="AD12" s="124">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="124">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="124">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="124">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="124">
+        <v>0.125</v>
+      </c>
+      <c r="AI12" s="124">
         <v>1</v>
       </c>
       <c r="AJ12" s="10">
@@ -6398,19 +6430,19 @@
       <c r="C13" s="89"/>
       <c r="D13" s="111">
         <f t="shared" si="0"/>
-        <v>2.5943396226415096</v>
+        <v>1.0377358490566038</v>
       </c>
       <c r="E13" s="22">
         <f t="shared" si="1"/>
-        <v>1.9117647058823528</v>
+        <v>1.1029411764705883</v>
       </c>
       <c r="F13" s="90">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="G13" s="90">
         <f t="shared" si="3"/>
-        <v>27.5</v>
+        <v>11</v>
       </c>
       <c r="H13" s="113"/>
       <c r="I13" s="91"/>
@@ -6444,29 +6476,29 @@
       <c r="AA13" s="94">
         <v>99</v>
       </c>
-      <c r="AB13" s="81">
-        <v>1</v>
+      <c r="AB13" s="125">
+        <v>0.75</v>
       </c>
       <c r="AC13" s="93">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AD13" s="94">
-        <v>0.75</v>
-      </c>
-      <c r="AE13" s="94">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="94">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="94">
-        <v>1</v>
-      </c>
-      <c r="AH13" s="94">
-        <v>1</v>
-      </c>
-      <c r="AI13" s="94">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="AE13" s="124">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="124">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="124">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="124">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="124">
+        <v>1</v>
       </c>
       <c r="AJ13" s="94">
         <v>99</v>
@@ -6560,19 +6592,19 @@
       <c r="C14" s="4"/>
       <c r="D14" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5943396226415096</v>
       </c>
       <c r="E14" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.9117647058823528</v>
       </c>
       <c r="F14" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="G14" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="H14" s="113"/>
       <c r="I14" s="70"/>
@@ -6606,14 +6638,30 @@
       <c r="AA14" s="10">
         <v>99</v>
       </c>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="86"/>
-      <c r="AD14" s="94"/>
-      <c r="AE14" s="94"/>
-      <c r="AF14" s="116"/>
-      <c r="AG14" s="116"/>
-      <c r="AH14" s="116"/>
-      <c r="AI14" s="68"/>
+      <c r="AB14" s="125">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="93">
+        <v>0.75</v>
+      </c>
+      <c r="AD14" s="94">
+        <v>0.75</v>
+      </c>
+      <c r="AE14" s="94">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="94">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="94">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="94">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="94">
+        <v>0</v>
+      </c>
       <c r="AJ14" s="10">
         <v>99</v>
       </c>
@@ -6866,125 +6914,125 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H16" s="113"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="9">
+      <c r="H16" s="216"/>
+      <c r="I16" s="216"/>
+      <c r="J16" s="216"/>
+      <c r="K16" s="216"/>
+      <c r="L16" s="216"/>
+      <c r="M16" s="216"/>
+      <c r="N16" s="217"/>
+      <c r="O16" s="221"/>
+      <c r="P16" s="216"/>
+      <c r="Q16" s="216"/>
+      <c r="R16" s="216"/>
+      <c r="S16" s="216"/>
+      <c r="T16" s="216"/>
+      <c r="U16" s="216"/>
+      <c r="V16" s="216">
         <v>99</v>
       </c>
-      <c r="W16" s="93">
+      <c r="W16" s="218">
         <v>99</v>
       </c>
-      <c r="X16" s="93">
+      <c r="X16" s="218">
         <v>99</v>
       </c>
-      <c r="Y16" s="10">
+      <c r="Y16" s="219">
         <v>99</v>
       </c>
-      <c r="Z16" s="56">
+      <c r="Z16" s="219">
         <v>99</v>
       </c>
-      <c r="AA16" s="10">
+      <c r="AA16" s="219">
         <v>99</v>
       </c>
-      <c r="AB16" s="119"/>
-      <c r="AC16" s="86"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="94"/>
-      <c r="AF16" s="116"/>
-      <c r="AG16" s="116"/>
-      <c r="AH16" s="116"/>
-      <c r="AI16" s="68"/>
-      <c r="AJ16" s="10">
+      <c r="AB16" s="216"/>
+      <c r="AC16" s="218"/>
+      <c r="AD16" s="219"/>
+      <c r="AE16" s="219"/>
+      <c r="AF16" s="219"/>
+      <c r="AG16" s="219"/>
+      <c r="AH16" s="219"/>
+      <c r="AI16" s="219"/>
+      <c r="AJ16" s="219">
         <v>99</v>
       </c>
-      <c r="AK16" s="119"/>
-      <c r="AL16" s="66"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="116"/>
-      <c r="AO16" s="116"/>
-      <c r="AP16" s="26"/>
-      <c r="AQ16" s="56">
+      <c r="AK16" s="216"/>
+      <c r="AL16" s="218"/>
+      <c r="AM16" s="219"/>
+      <c r="AN16" s="219"/>
+      <c r="AO16" s="219"/>
+      <c r="AP16" s="219"/>
+      <c r="AQ16" s="219">
         <v>99</v>
       </c>
-      <c r="AR16" s="64"/>
-      <c r="AS16" s="81"/>
-      <c r="AT16" s="84"/>
-      <c r="AU16" s="70"/>
-      <c r="AV16" s="100"/>
-      <c r="AW16" s="102"/>
-      <c r="AX16" s="121"/>
-      <c r="AY16" s="121"/>
-      <c r="AZ16" s="121"/>
-      <c r="BA16" s="100"/>
-      <c r="BB16" s="113"/>
-      <c r="BC16" s="113"/>
-      <c r="BD16" s="113"/>
-      <c r="BE16" s="113"/>
-      <c r="BF16" s="113"/>
-      <c r="BG16" s="113"/>
-      <c r="BH16" s="113"/>
-      <c r="BI16" s="113"/>
-      <c r="BJ16" s="113"/>
-      <c r="BK16" s="113"/>
-      <c r="BL16" s="113"/>
-      <c r="BM16" s="113"/>
-      <c r="BN16" s="113"/>
-      <c r="BO16" s="113"/>
-      <c r="BP16" s="113"/>
-      <c r="BQ16" s="113"/>
-      <c r="BR16" s="113"/>
-      <c r="BS16" s="113"/>
-      <c r="BT16" s="113"/>
-      <c r="BU16" s="113"/>
-      <c r="BV16" s="113"/>
-      <c r="BW16" s="123">
+      <c r="AR16" s="216"/>
+      <c r="AS16" s="216"/>
+      <c r="AT16" s="216"/>
+      <c r="AU16" s="216"/>
+      <c r="AV16" s="216"/>
+      <c r="AW16" s="216"/>
+      <c r="AX16" s="216"/>
+      <c r="AY16" s="216"/>
+      <c r="AZ16" s="216"/>
+      <c r="BA16" s="216"/>
+      <c r="BB16" s="216"/>
+      <c r="BC16" s="216"/>
+      <c r="BD16" s="216"/>
+      <c r="BE16" s="216"/>
+      <c r="BF16" s="216"/>
+      <c r="BG16" s="216"/>
+      <c r="BH16" s="216"/>
+      <c r="BI16" s="216"/>
+      <c r="BJ16" s="216"/>
+      <c r="BK16" s="216"/>
+      <c r="BL16" s="216"/>
+      <c r="BM16" s="216"/>
+      <c r="BN16" s="216"/>
+      <c r="BO16" s="216"/>
+      <c r="BP16" s="216"/>
+      <c r="BQ16" s="216"/>
+      <c r="BR16" s="216"/>
+      <c r="BS16" s="216"/>
+      <c r="BT16" s="216"/>
+      <c r="BU16" s="216"/>
+      <c r="BV16" s="216"/>
+      <c r="BW16" s="216">
         <v>99</v>
       </c>
-      <c r="BX16" s="123">
+      <c r="BX16" s="216">
         <v>99</v>
       </c>
-      <c r="BY16" s="123">
+      <c r="BY16" s="216">
         <v>99</v>
       </c>
-      <c r="BZ16" s="123">
+      <c r="BZ16" s="216">
         <v>99</v>
       </c>
-      <c r="CA16" s="123">
+      <c r="CA16" s="216">
         <v>99</v>
       </c>
-      <c r="CB16" s="123">
+      <c r="CB16" s="216">
         <v>99</v>
       </c>
-      <c r="CC16" s="49"/>
-      <c r="CD16" s="81"/>
-      <c r="CE16" s="81"/>
-      <c r="CF16" s="81"/>
-      <c r="CG16" s="81"/>
-      <c r="CH16" s="107"/>
-      <c r="CI16" s="113"/>
-      <c r="CJ16" s="113"/>
-      <c r="CK16" s="113"/>
-      <c r="CL16" s="113"/>
-      <c r="CM16" s="113"/>
-      <c r="CN16" s="81"/>
-      <c r="CO16" s="70"/>
-      <c r="CP16" s="70"/>
-      <c r="CQ16" s="103">
-        <v>0</v>
-      </c>
-      <c r="CR16" s="2">
+      <c r="CC16" s="216"/>
+      <c r="CD16" s="216"/>
+      <c r="CE16" s="216"/>
+      <c r="CF16" s="216"/>
+      <c r="CG16" s="216"/>
+      <c r="CH16" s="216"/>
+      <c r="CI16" s="216"/>
+      <c r="CJ16" s="216"/>
+      <c r="CK16" s="216"/>
+      <c r="CL16" s="216"/>
+      <c r="CM16" s="216"/>
+      <c r="CN16" s="216"/>
+      <c r="CO16" s="216"/>
+      <c r="CP16" s="216"/>
+      <c r="CQ16" s="220">
+        <v>0</v>
+      </c>
+      <c r="CR16" s="220">
         <v>0</v>
       </c>
     </row>
@@ -7012,125 +7060,125 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H17" s="113"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="9">
+      <c r="H17" s="216"/>
+      <c r="I17" s="216"/>
+      <c r="J17" s="216"/>
+      <c r="K17" s="216"/>
+      <c r="L17" s="216"/>
+      <c r="M17" s="216"/>
+      <c r="N17" s="217"/>
+      <c r="O17" s="221"/>
+      <c r="P17" s="216"/>
+      <c r="Q17" s="216"/>
+      <c r="R17" s="216"/>
+      <c r="S17" s="216"/>
+      <c r="T17" s="216"/>
+      <c r="U17" s="216"/>
+      <c r="V17" s="216">
         <v>99</v>
       </c>
-      <c r="W17" s="93">
+      <c r="W17" s="218">
         <v>99</v>
       </c>
-      <c r="X17" s="93">
+      <c r="X17" s="218">
         <v>99</v>
       </c>
-      <c r="Y17" s="10">
+      <c r="Y17" s="219">
         <v>99</v>
       </c>
-      <c r="Z17" s="56">
+      <c r="Z17" s="219">
         <v>99</v>
       </c>
-      <c r="AA17" s="10">
+      <c r="AA17" s="219">
         <v>99</v>
       </c>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="86"/>
-      <c r="AD17" s="94"/>
-      <c r="AE17" s="94"/>
-      <c r="AF17" s="116"/>
-      <c r="AG17" s="116"/>
-      <c r="AH17" s="116"/>
-      <c r="AI17" s="68"/>
-      <c r="AJ17" s="10">
+      <c r="AB17" s="216"/>
+      <c r="AC17" s="218"/>
+      <c r="AD17" s="219"/>
+      <c r="AE17" s="219"/>
+      <c r="AF17" s="219"/>
+      <c r="AG17" s="219"/>
+      <c r="AH17" s="219"/>
+      <c r="AI17" s="219"/>
+      <c r="AJ17" s="219">
         <v>99</v>
       </c>
-      <c r="AK17" s="14"/>
-      <c r="AL17" s="66"/>
-      <c r="AM17" s="13"/>
-      <c r="AN17" s="116"/>
-      <c r="AO17" s="116"/>
-      <c r="AP17" s="26"/>
-      <c r="AQ17" s="56">
+      <c r="AK17" s="216"/>
+      <c r="AL17" s="218"/>
+      <c r="AM17" s="219"/>
+      <c r="AN17" s="219"/>
+      <c r="AO17" s="219"/>
+      <c r="AP17" s="219"/>
+      <c r="AQ17" s="219">
         <v>99</v>
       </c>
-      <c r="AR17" s="64"/>
-      <c r="AS17" s="81"/>
-      <c r="AT17" s="84"/>
-      <c r="AU17" s="70"/>
-      <c r="AV17" s="100"/>
-      <c r="AW17" s="102"/>
-      <c r="AX17" s="121"/>
-      <c r="AY17" s="121"/>
-      <c r="AZ17" s="121"/>
-      <c r="BA17" s="100"/>
-      <c r="BB17" s="113"/>
-      <c r="BC17" s="113"/>
-      <c r="BD17" s="113"/>
-      <c r="BE17" s="113"/>
-      <c r="BF17" s="113"/>
-      <c r="BG17" s="113"/>
-      <c r="BH17" s="113"/>
-      <c r="BI17" s="113"/>
-      <c r="BJ17" s="113"/>
-      <c r="BK17" s="113"/>
-      <c r="BL17" s="113"/>
-      <c r="BM17" s="113"/>
-      <c r="BN17" s="113"/>
-      <c r="BO17" s="113"/>
-      <c r="BP17" s="113"/>
-      <c r="BQ17" s="113"/>
-      <c r="BR17" s="113"/>
-      <c r="BS17" s="113"/>
-      <c r="BT17" s="113"/>
-      <c r="BU17" s="113"/>
-      <c r="BV17" s="91"/>
-      <c r="BW17" s="123">
+      <c r="AR17" s="216"/>
+      <c r="AS17" s="216"/>
+      <c r="AT17" s="216"/>
+      <c r="AU17" s="216"/>
+      <c r="AV17" s="216"/>
+      <c r="AW17" s="216"/>
+      <c r="AX17" s="216"/>
+      <c r="AY17" s="216"/>
+      <c r="AZ17" s="216"/>
+      <c r="BA17" s="216"/>
+      <c r="BB17" s="216"/>
+      <c r="BC17" s="216"/>
+      <c r="BD17" s="216"/>
+      <c r="BE17" s="216"/>
+      <c r="BF17" s="216"/>
+      <c r="BG17" s="216"/>
+      <c r="BH17" s="216"/>
+      <c r="BI17" s="216"/>
+      <c r="BJ17" s="216"/>
+      <c r="BK17" s="216"/>
+      <c r="BL17" s="216"/>
+      <c r="BM17" s="216"/>
+      <c r="BN17" s="216"/>
+      <c r="BO17" s="216"/>
+      <c r="BP17" s="216"/>
+      <c r="BQ17" s="216"/>
+      <c r="BR17" s="216"/>
+      <c r="BS17" s="216"/>
+      <c r="BT17" s="216"/>
+      <c r="BU17" s="216"/>
+      <c r="BV17" s="216"/>
+      <c r="BW17" s="216">
         <v>99</v>
       </c>
-      <c r="BX17" s="123">
+      <c r="BX17" s="216">
         <v>99</v>
       </c>
-      <c r="BY17" s="123">
+      <c r="BY17" s="216">
         <v>99</v>
       </c>
-      <c r="BZ17" s="123">
+      <c r="BZ17" s="216">
         <v>99</v>
       </c>
-      <c r="CA17" s="123">
+      <c r="CA17" s="216">
         <v>99</v>
       </c>
-      <c r="CB17" s="123">
+      <c r="CB17" s="216">
         <v>99</v>
       </c>
-      <c r="CC17" s="49"/>
-      <c r="CD17" s="81"/>
-      <c r="CE17" s="81"/>
-      <c r="CF17" s="81"/>
-      <c r="CG17" s="81"/>
-      <c r="CH17" s="107"/>
-      <c r="CI17" s="113"/>
-      <c r="CJ17" s="113"/>
-      <c r="CK17" s="113"/>
-      <c r="CL17" s="113"/>
-      <c r="CM17" s="113"/>
-      <c r="CN17" s="81"/>
-      <c r="CO17" s="70"/>
-      <c r="CP17" s="70"/>
-      <c r="CQ17" s="103">
-        <v>0</v>
-      </c>
-      <c r="CR17" s="2">
+      <c r="CC17" s="216"/>
+      <c r="CD17" s="216"/>
+      <c r="CE17" s="216"/>
+      <c r="CF17" s="216"/>
+      <c r="CG17" s="216"/>
+      <c r="CH17" s="216"/>
+      <c r="CI17" s="216"/>
+      <c r="CJ17" s="216"/>
+      <c r="CK17" s="216"/>
+      <c r="CL17" s="216"/>
+      <c r="CM17" s="216"/>
+      <c r="CN17" s="216"/>
+      <c r="CO17" s="216"/>
+      <c r="CP17" s="216"/>
+      <c r="CQ17" s="220">
+        <v>0</v>
+      </c>
+      <c r="CR17" s="220">
         <v>0</v>
       </c>
     </row>
@@ -9522,7 +9570,7 @@
     <row r="30" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G30" s="2">
         <f t="shared" si="9"/>
-        <v>27.25</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" ref="H30:AK30" si="26">H11*H$6</f>
@@ -9606,35 +9654,35 @@
       </c>
       <c r="AB30" s="69">
         <f t="shared" si="26"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="69">
         <f t="shared" si="26"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="69">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="80">
         <f t="shared" si="26"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="118">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="118">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AH30" s="118">
         <f t="shared" si="12"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AI30" s="69">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ30" s="69">
         <f t="shared" si="26"/>
@@ -9884,7 +9932,7 @@
     <row r="31" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G31" s="2">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>27.25</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" ref="H31:AK31" si="31">H12*H$6</f>
@@ -9968,31 +10016,31 @@
       </c>
       <c r="AB31" s="69">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC31" s="69">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AD31" s="69">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE31" s="80">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF31" s="118">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG31" s="118">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH31" s="118">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="AI31" s="69">
         <f t="shared" si="31"/>
@@ -10246,7 +10294,7 @@
     <row r="32" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G32" s="2">
         <f t="shared" si="9"/>
-        <v>27.5</v>
+        <v>11</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" ref="H32:AK32" si="36">H13*H$6</f>
@@ -10330,27 +10378,27 @@
       </c>
       <c r="AB32" s="69">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC32" s="69">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD32" s="69">
         <f t="shared" si="36"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AE32" s="80">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="118">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="118">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="118">
         <f t="shared" si="12"/>
@@ -10358,7 +10406,7 @@
       </c>
       <c r="AI32" s="69">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ32" s="69">
         <f t="shared" si="36"/>
@@ -10608,7 +10656,7 @@
     <row r="33" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G33" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" ref="H33:AK33" si="41">H14*H$6</f>
@@ -10692,31 +10740,31 @@
       </c>
       <c r="AB33" s="69">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC33" s="69">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD33" s="69">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE33" s="80">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF33" s="118">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG33" s="118">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH33" s="118">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI33" s="69">
         <f t="shared" si="41"/>
@@ -16162,7 +16210,7 @@
     <row r="52" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G52" s="2">
         <f t="shared" si="102"/>
-        <v>6.875</v>
+        <v>0</v>
       </c>
       <c r="H52" s="2">
         <f t="shared" ref="H52:AK52" si="119">H11*H$7</f>
@@ -16246,35 +16294,35 @@
       </c>
       <c r="AB52" s="69">
         <f t="shared" si="119"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="69">
         <f t="shared" si="119"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AD52" s="69">
         <f t="shared" si="119"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE52" s="80">
         <f t="shared" si="119"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF52" s="118">
         <f t="shared" si="105"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG52" s="118">
         <f t="shared" si="105"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH52" s="118">
         <f t="shared" si="105"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="AI52" s="69">
         <f t="shared" si="119"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ52" s="69">
         <f t="shared" si="119"/>
@@ -16524,7 +16572,7 @@
     <row r="53" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G53" s="2">
         <f t="shared" si="102"/>
-        <v>3.75</v>
+        <v>6.875</v>
       </c>
       <c r="H53" s="2">
         <f t="shared" ref="H53:AK53" si="124">H12*H$7</f>
@@ -16608,31 +16656,31 @@
       </c>
       <c r="AB53" s="69">
         <f t="shared" si="124"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC53" s="69">
         <f t="shared" si="124"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AD53" s="69">
         <f t="shared" si="124"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AE53" s="80">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF53" s="118">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG53" s="118">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH53" s="118">
         <f t="shared" si="105"/>
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="AI53" s="69">
         <f t="shared" si="124"/>
@@ -16886,7 +16934,7 @@
     <row r="54" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G54" s="2">
         <f t="shared" si="102"/>
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" ref="H54:AK54" si="129">H13*H$7</f>
@@ -16970,27 +17018,27 @@
       </c>
       <c r="AB54" s="69">
         <f t="shared" si="129"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC54" s="69">
         <f t="shared" si="129"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AD54" s="69">
         <f t="shared" si="129"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AE54" s="80">
         <f t="shared" si="129"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF54" s="118">
         <f t="shared" si="105"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG54" s="118">
         <f t="shared" si="105"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH54" s="118">
         <f t="shared" si="105"/>
@@ -16998,7 +17046,7 @@
       </c>
       <c r="AI54" s="69">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ54" s="69">
         <f t="shared" si="129"/>
@@ -17248,7 +17296,7 @@
     <row r="55" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G55" s="2">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="H55" s="2">
         <f t="shared" ref="H55:AK55" si="134">H14*H$7</f>
@@ -17332,31 +17380,31 @@
       </c>
       <c r="AB55" s="69">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC55" s="69">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AD55" s="69">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AE55" s="80">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF55" s="118">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG55" s="118">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH55" s="118">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI55" s="69">
         <f t="shared" si="134"/>
@@ -22095,41 +22143,54 @@
     <mergeCell ref="AV3:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:E25">
-    <cfRule type="cellIs" dxfId="199" priority="318" operator="between">
+    <cfRule type="cellIs" dxfId="202" priority="321" operator="between">
       <formula>8</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="319" operator="lessThan">
+    <cfRule type="cellIs" dxfId="201" priority="322" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CR9:CR21 CF9:CH25 AR22:AR25 AU9:AW25 I9:V25 CN9:CP25 X12:AB12 AI9:AM25 AP9:AQ25 BA9:BA25 CC9:CD25 X9:AD11 AD12:AD13 X13:AD25">
-    <cfRule type="cellIs" dxfId="197" priority="313" operator="equal">
+  <conditionalFormatting sqref="CR9:CR21 CF9:CH25 AR22:AR25 AU9:AW25 I9:V25 CN9:CP25 AP9:AQ25 BA9:BA25 CC9:CD25 AI9:AM25 X9:AD25">
+    <cfRule type="cellIs" dxfId="200" priority="316" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="314" operator="between">
+    <cfRule type="cellIs" dxfId="199" priority="317" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="315" operator="between">
+    <cfRule type="cellIs" dxfId="198" priority="318" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR9:AR21">
-    <cfRule type="cellIs" dxfId="194" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="310" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="308" operator="between">
+    <cfRule type="cellIs" dxfId="196" priority="311" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="309" operator="between">
+    <cfRule type="cellIs" dxfId="195" priority="312" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS9:AS19 AS21">
+    <cfRule type="cellIs" dxfId="194" priority="292" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="293" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="294" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS22:AS23 AS25">
     <cfRule type="cellIs" dxfId="191" priority="289" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22142,46 +22203,46 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS22:AS23 AS25">
-    <cfRule type="cellIs" dxfId="188" priority="286" operator="equal">
+  <conditionalFormatting sqref="AE18 AE20 AE22 AE25 AE9:AE14">
+    <cfRule type="cellIs" dxfId="188" priority="265" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="287" operator="between">
+    <cfRule type="cellIs" dxfId="187" priority="266" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="288" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE18 AE9:AE14 AE20 AE22 AE25">
-    <cfRule type="cellIs" dxfId="185" priority="262" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="263" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="264" operator="between">
+    <cfRule type="cellIs" dxfId="186" priority="267" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE9:CE23 CE25">
-    <cfRule type="cellIs" dxfId="182" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="250" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="248" operator="between">
+    <cfRule type="cellIs" dxfId="184" priority="251" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="249" operator="between">
+    <cfRule type="cellIs" dxfId="183" priority="252" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT9:AT19 AT21">
+    <cfRule type="cellIs" dxfId="182" priority="235" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="236" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="237" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT22:AT23 AT25">
     <cfRule type="cellIs" dxfId="179" priority="232" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22194,85 +22255,85 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT22:AT23 AT25">
-    <cfRule type="cellIs" dxfId="176" priority="229" operator="equal">
+  <conditionalFormatting sqref="AS20">
+    <cfRule type="cellIs" dxfId="176" priority="205" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="230" operator="between">
+    <cfRule type="cellIs" dxfId="175" priority="206" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="231" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS20">
-    <cfRule type="cellIs" dxfId="173" priority="202" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="203" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="204" operator="between">
+    <cfRule type="cellIs" dxfId="174" priority="207" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT20">
-    <cfRule type="cellIs" dxfId="170" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="199" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="197" operator="between">
+    <cfRule type="cellIs" dxfId="172" priority="200" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="198" operator="between">
+    <cfRule type="cellIs" dxfId="171" priority="201" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS24">
-    <cfRule type="cellIs" dxfId="167" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="193" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="191" operator="between">
+    <cfRule type="cellIs" dxfId="169" priority="194" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="192" operator="between">
+    <cfRule type="cellIs" dxfId="168" priority="195" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT24">
-    <cfRule type="cellIs" dxfId="164" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="187" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="185" operator="between">
+    <cfRule type="cellIs" dxfId="166" priority="188" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="186" operator="between">
+    <cfRule type="cellIs" dxfId="165" priority="189" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ9:CQ21">
-    <cfRule type="cellIs" dxfId="161" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="169" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="167" operator="between">
+    <cfRule type="cellIs" dxfId="163" priority="170" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="168" operator="between">
+    <cfRule type="cellIs" dxfId="162" priority="171" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE24">
+    <cfRule type="cellIs" dxfId="161" priority="163" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="164" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="165" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH9:BJ25 BB9:BB25 BL9:BM25 BE9:BE25">
     <cfRule type="cellIs" dxfId="158" priority="160" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22285,7 +22346,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH9:BJ25 BB9:BB25 BL9:BM25 BE9:BE25">
+  <conditionalFormatting sqref="BF9:BF23 BF25">
     <cfRule type="cellIs" dxfId="155" priority="157" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22298,7 +22359,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF9:BF23 BF25">
+  <conditionalFormatting sqref="BF24">
     <cfRule type="cellIs" dxfId="152" priority="154" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22311,7 +22372,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF24">
+  <conditionalFormatting sqref="BQ9:BT21 BN9:BO21 BV9:BV21 BV24:BV25 BN24:BO25 BQ24:BT25">
     <cfRule type="cellIs" dxfId="149" priority="151" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22324,7 +22385,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ9:BT21 BN9:BO21 BV9:BV21 BV24:BV25 BN24:BO25 BQ24:BT25">
+  <conditionalFormatting sqref="BP9:BP21 BP25">
     <cfRule type="cellIs" dxfId="146" priority="148" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22337,7 +22398,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP9:BP21 BP25">
+  <conditionalFormatting sqref="BP24">
     <cfRule type="cellIs" dxfId="143" priority="145" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22350,7 +22411,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP24">
+  <conditionalFormatting sqref="BZ9:CB9 BW9:BX9 BW25:BX25 BZ25:CB25">
     <cfRule type="cellIs" dxfId="140" priority="142" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22363,7 +22424,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ9:CB9 BW9:BX9 BW25:BX25 BZ25:CB25">
+  <conditionalFormatting sqref="BY9 BY25">
     <cfRule type="cellIs" dxfId="137" priority="139" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22376,20 +22437,20 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY9 BY25">
-    <cfRule type="cellIs" dxfId="134" priority="136" operator="equal">
+  <conditionalFormatting sqref="BG9:BG25">
+    <cfRule type="cellIs" dxfId="134" priority="133" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="137" operator="between">
+    <cfRule type="cellIs" dxfId="133" priority="134" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="138" operator="between">
+    <cfRule type="cellIs" dxfId="132" priority="135" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG9:BG25">
+  <conditionalFormatting sqref="BK9:BK25">
     <cfRule type="cellIs" dxfId="131" priority="130" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22402,7 +22463,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK9:BK25">
+  <conditionalFormatting sqref="BU9:BU21 BU24:BU25">
     <cfRule type="cellIs" dxfId="128" priority="127" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22415,7 +22476,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU9:BU21 BU24:BU25">
+  <conditionalFormatting sqref="BD9:BD25">
     <cfRule type="cellIs" dxfId="125" priority="124" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22428,7 +22489,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD9:BD25">
+  <conditionalFormatting sqref="BC9:BC25">
     <cfRule type="cellIs" dxfId="122" priority="121" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22441,7 +22502,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC9:BC25">
+  <conditionalFormatting sqref="CI9:CI25">
     <cfRule type="cellIs" dxfId="119" priority="118" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22454,7 +22515,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CI9:CI25">
+  <conditionalFormatting sqref="CJ9:CJ25">
     <cfRule type="cellIs" dxfId="116" priority="115" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22467,7 +22528,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CJ9:CJ25">
+  <conditionalFormatting sqref="CK9:CK25">
     <cfRule type="cellIs" dxfId="113" priority="112" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22480,7 +22541,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK9:CK25">
+  <conditionalFormatting sqref="CL9:CL25">
     <cfRule type="cellIs" dxfId="110" priority="109" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22493,7 +22554,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL9:CL25">
+  <conditionalFormatting sqref="CM9:CM25">
     <cfRule type="cellIs" dxfId="107" priority="106" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22506,7 +22567,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM9:CM25">
+  <conditionalFormatting sqref="CR22:CR24">
     <cfRule type="cellIs" dxfId="104" priority="103" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22519,7 +22580,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CR22:CR24">
+  <conditionalFormatting sqref="CQ22:CQ24">
     <cfRule type="cellIs" dxfId="101" priority="100" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22532,7 +22593,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CQ22:CQ24">
+  <conditionalFormatting sqref="H9:H24">
     <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22545,7 +22606,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H24">
+  <conditionalFormatting sqref="AH9:AH25">
     <cfRule type="cellIs" dxfId="95" priority="94" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22558,7 +22619,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH9:AH25">
+  <conditionalFormatting sqref="AO9:AO25">
     <cfRule type="cellIs" dxfId="92" priority="91" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22571,7 +22632,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO9:AO25">
+  <conditionalFormatting sqref="W9:W25">
     <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22584,7 +22645,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W9:W25">
+  <conditionalFormatting sqref="AG16:AG25 AG9:AG14">
     <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22597,7 +22658,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG9:AG14 AG16:AG25">
+  <conditionalFormatting sqref="AG15">
     <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22610,7 +22671,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG15">
+  <conditionalFormatting sqref="AF16:AF25 AF9:AF14">
     <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22623,7 +22684,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF9:AF14 AF16:AF25">
+  <conditionalFormatting sqref="AF15">
     <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22636,7 +22697,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF15">
+  <conditionalFormatting sqref="AN9:AN15 AN17:AN25">
     <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22649,20 +22710,20 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN9:AN15 AN17:AN25">
-    <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
+  <conditionalFormatting sqref="AE15">
+    <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="71" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="68" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="72" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="69" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE15">
+  <conditionalFormatting sqref="AE16">
     <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22675,7 +22736,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE16">
+  <conditionalFormatting sqref="AE17">
     <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22688,7 +22749,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE17">
+  <conditionalFormatting sqref="AE19">
     <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22701,7 +22762,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE19">
+  <conditionalFormatting sqref="AE21">
     <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22714,7 +22775,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE21">
+  <conditionalFormatting sqref="AE23">
     <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22727,7 +22788,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE23">
+  <conditionalFormatting sqref="AE24">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22740,7 +22801,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE24">
+  <conditionalFormatting sqref="AN16">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22753,7 +22814,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN16">
+  <conditionalFormatting sqref="BQ22:BT22 BN22:BO22 BV22">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22766,7 +22827,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ22:BT22 BN22:BO22 BV22">
+  <conditionalFormatting sqref="BP22">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22779,7 +22840,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP22">
+  <conditionalFormatting sqref="BU22">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22792,7 +22853,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU22">
+  <conditionalFormatting sqref="BQ23:BT23 BN23:BO23 BV23">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22805,7 +22866,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ23:BT23 BN23:BO23 BV23">
+  <conditionalFormatting sqref="BP23">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22818,7 +22879,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP23">
+  <conditionalFormatting sqref="BU23">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22831,7 +22892,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU23">
+  <conditionalFormatting sqref="AX9:AX25">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22844,7 +22905,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX9:AX25">
+  <conditionalFormatting sqref="AY9:AY25">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22857,7 +22918,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY9:AY25">
+  <conditionalFormatting sqref="AZ9:AZ25">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22870,7 +22931,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ9:AZ25">
+  <conditionalFormatting sqref="BZ10:CB10 BW10:BX10">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22883,7 +22944,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ10:CB10 BW10:BX10">
+  <conditionalFormatting sqref="BY10">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22896,7 +22957,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY10">
+  <conditionalFormatting sqref="BZ11:CB24 BW11:BX24">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22909,7 +22970,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ11:CB24 BW11:BX24">
+  <conditionalFormatting sqref="BY11:BY24">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22922,7 +22983,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY11:BY24">
+  <conditionalFormatting sqref="AC12">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22935,7 +22996,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC12">
+  <conditionalFormatting sqref="AC13">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23107,144 +23168,144 @@
       <c r="C1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="195" t="s">
+      <c r="D1" s="197" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="197"/>
-      <c r="F1" s="195" t="s">
+      <c r="E1" s="199"/>
+      <c r="F1" s="197" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="196"/>
-      <c r="K1" s="196"/>
-      <c r="L1" s="196"/>
-      <c r="M1" s="196"/>
-      <c r="N1" s="196"/>
-      <c r="O1" s="196"/>
-      <c r="P1" s="196"/>
-      <c r="Q1" s="196"/>
-      <c r="R1" s="196"/>
-      <c r="S1" s="196"/>
-      <c r="T1" s="196"/>
-      <c r="U1" s="196"/>
-      <c r="V1" s="196"/>
-      <c r="W1" s="196"/>
-      <c r="X1" s="196"/>
-      <c r="Y1" s="196"/>
-      <c r="Z1" s="196"/>
-      <c r="AA1" s="196"/>
-      <c r="AB1" s="196"/>
-      <c r="AC1" s="202"/>
-      <c r="AD1" s="202"/>
-      <c r="AE1" s="202"/>
-      <c r="AF1" s="202"/>
-      <c r="AG1" s="202"/>
-      <c r="AH1" s="202"/>
-      <c r="AI1" s="202"/>
-      <c r="AJ1" s="203"/>
-      <c r="AK1" s="199" t="s">
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="198"/>
+      <c r="S1" s="198"/>
+      <c r="T1" s="198"/>
+      <c r="U1" s="198"/>
+      <c r="V1" s="198"/>
+      <c r="W1" s="198"/>
+      <c r="X1" s="198"/>
+      <c r="Y1" s="198"/>
+      <c r="Z1" s="198"/>
+      <c r="AA1" s="198"/>
+      <c r="AB1" s="198"/>
+      <c r="AC1" s="204"/>
+      <c r="AD1" s="204"/>
+      <c r="AE1" s="204"/>
+      <c r="AF1" s="204"/>
+      <c r="AG1" s="204"/>
+      <c r="AH1" s="204"/>
+      <c r="AI1" s="204"/>
+      <c r="AJ1" s="205"/>
+      <c r="AK1" s="201" t="s">
         <v>50</v>
       </c>
-      <c r="AL1" s="200"/>
-      <c r="AM1" s="200"/>
-      <c r="AN1" s="200"/>
-      <c r="AO1" s="200"/>
-      <c r="AP1" s="200"/>
-      <c r="AQ1" s="201"/>
-      <c r="AR1" s="195" t="s">
+      <c r="AL1" s="202"/>
+      <c r="AM1" s="202"/>
+      <c r="AN1" s="202"/>
+      <c r="AO1" s="202"/>
+      <c r="AP1" s="202"/>
+      <c r="AQ1" s="203"/>
+      <c r="AR1" s="197" t="s">
         <v>49</v>
       </c>
-      <c r="AS1" s="197"/>
+      <c r="AS1" s="199"/>
     </row>
     <row r="2" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="29"/>
       <c r="C2" s="33"/>
       <c r="D2" s="36"/>
       <c r="E2" s="37"/>
-      <c r="F2" s="210" t="s">
+      <c r="F2" s="212" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="211"/>
-      <c r="M2" s="211"/>
-      <c r="N2" s="211"/>
-      <c r="O2" s="211"/>
-      <c r="P2" s="211"/>
-      <c r="Q2" s="211"/>
-      <c r="R2" s="211"/>
-      <c r="S2" s="211"/>
-      <c r="T2" s="211"/>
-      <c r="U2" s="211"/>
-      <c r="V2" s="211"/>
-      <c r="W2" s="211"/>
-      <c r="X2" s="211"/>
-      <c r="Y2" s="211"/>
-      <c r="Z2" s="211"/>
-      <c r="AA2" s="211"/>
-      <c r="AB2" s="211"/>
-      <c r="AC2" s="208" t="s">
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="213"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="213"/>
+      <c r="X2" s="213"/>
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="213"/>
+      <c r="AA2" s="213"/>
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="210" t="s">
         <v>35</v>
       </c>
-      <c r="AD2" s="212"/>
-      <c r="AE2" s="208" t="s">
+      <c r="AD2" s="214"/>
+      <c r="AE2" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="212"/>
-      <c r="AG2" s="208" t="s">
+      <c r="AF2" s="214"/>
+      <c r="AG2" s="210" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" s="209"/>
-      <c r="AI2" s="212"/>
+      <c r="AH2" s="211"/>
+      <c r="AI2" s="214"/>
       <c r="AJ2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="208" t="s">
+      <c r="AK2" s="210" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="209"/>
-      <c r="AM2" s="212"/>
+      <c r="AL2" s="211"/>
+      <c r="AM2" s="214"/>
       <c r="AN2" s="32"/>
       <c r="AO2" s="32"/>
       <c r="AP2" s="32"/>
       <c r="AQ2" s="44"/>
-      <c r="AR2" s="204" t="s">
+      <c r="AR2" s="206" t="s">
         <v>47</v>
       </c>
-      <c r="AS2" s="206" t="s">
+      <c r="AS2" s="208" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B3" s="29"/>
-      <c r="C3" s="191" t="s">
+      <c r="C3" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="192" t="s">
+      <c r="D3" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="194" t="s">
+      <c r="E3" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="195" t="s">
+      <c r="F3" s="197" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="196"/>
-      <c r="H3" s="196"/>
-      <c r="I3" s="196"/>
-      <c r="J3" s="196"/>
-      <c r="K3" s="197"/>
-      <c r="L3" s="195" t="s">
+      <c r="G3" s="198"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="198"/>
+      <c r="J3" s="198"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="196"/>
-      <c r="N3" s="196"/>
-      <c r="O3" s="197"/>
+      <c r="M3" s="198"/>
+      <c r="N3" s="198"/>
+      <c r="O3" s="199"/>
       <c r="P3" s="32" t="s">
         <v>26</v>
       </c>
@@ -23254,20 +23315,20 @@
       <c r="R3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="208" t="s">
+      <c r="S3" s="210" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="212"/>
-      <c r="Y3" s="208" t="s">
+      <c r="T3" s="211"/>
+      <c r="U3" s="211"/>
+      <c r="V3" s="211"/>
+      <c r="W3" s="211"/>
+      <c r="X3" s="214"/>
+      <c r="Y3" s="210" t="s">
         <v>28</v>
       </c>
-      <c r="Z3" s="209"/>
-      <c r="AA3" s="209"/>
-      <c r="AB3" s="209"/>
+      <c r="Z3" s="211"/>
+      <c r="AA3" s="211"/>
+      <c r="AB3" s="211"/>
       <c r="AC3" s="36" t="s">
         <v>36</v>
       </c>
@@ -23280,11 +23341,11 @@
       <c r="AF3" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AG3" s="192" t="s">
+      <c r="AG3" s="194" t="s">
         <v>34</v>
       </c>
-      <c r="AH3" s="193"/>
-      <c r="AI3" s="194"/>
+      <c r="AH3" s="195"/>
+      <c r="AI3" s="196"/>
       <c r="AJ3" s="33" t="s">
         <v>7</v>
       </c>
@@ -23309,77 +23370,77 @@
       <c r="AQ3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AR3" s="205"/>
-      <c r="AS3" s="207"/>
+      <c r="AR3" s="207"/>
+      <c r="AS3" s="209"/>
     </row>
     <row r="4" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="29"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="192"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="192" t="s">
+      <c r="C4" s="193"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="196"/>
+      <c r="F4" s="194" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="193" t="s">
+      <c r="G4" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="193" t="s">
+      <c r="H4" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="193" t="s">
+      <c r="I4" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="193" t="s">
+      <c r="J4" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="194"/>
-      <c r="L4" s="192" t="s">
+      <c r="K4" s="196"/>
+      <c r="L4" s="194" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="193" t="s">
+      <c r="M4" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="193" t="s">
+      <c r="N4" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="194" t="s">
+      <c r="O4" s="196" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="191" t="s">
+      <c r="P4" s="193" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="191" t="s">
+      <c r="Q4" s="193" t="s">
         <v>55</v>
       </c>
-      <c r="R4" s="191" t="s">
+      <c r="R4" s="193" t="s">
         <v>55</v>
       </c>
-      <c r="S4" s="192" t="s">
+      <c r="S4" s="194" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="193" t="s">
+      <c r="T4" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="193" t="s">
+      <c r="U4" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="V4" s="193" t="s">
+      <c r="V4" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="198" t="s">
+      <c r="W4" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="X4" s="194"/>
-      <c r="Y4" s="192" t="s">
+      <c r="X4" s="196"/>
+      <c r="Y4" s="194" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="193" t="s">
+      <c r="Z4" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="AA4" s="193" t="s">
+      <c r="AA4" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="213" t="s">
+      <c r="AB4" s="215" t="s">
         <v>53</v>
       </c>
       <c r="AC4" s="36"/>
@@ -23408,40 +23469,40 @@
     </row>
     <row r="5" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="29"/>
-      <c r="C5" s="191"/>
-      <c r="D5" s="192"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="192"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="193"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="196"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="195"/>
+      <c r="H5" s="195"/>
+      <c r="I5" s="195"/>
       <c r="J5" s="27" t="s">
         <v>56</v>
       </c>
       <c r="K5" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="192"/>
-      <c r="M5" s="193"/>
-      <c r="N5" s="193"/>
-      <c r="O5" s="194"/>
-      <c r="P5" s="191"/>
-      <c r="Q5" s="191"/>
-      <c r="R5" s="191"/>
-      <c r="S5" s="192"/>
-      <c r="T5" s="193"/>
-      <c r="U5" s="193"/>
-      <c r="V5" s="193"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="195"/>
+      <c r="N5" s="195"/>
+      <c r="O5" s="196"/>
+      <c r="P5" s="193"/>
+      <c r="Q5" s="193"/>
+      <c r="R5" s="193"/>
+      <c r="S5" s="194"/>
+      <c r="T5" s="195"/>
+      <c r="U5" s="195"/>
+      <c r="V5" s="195"/>
       <c r="W5" s="30" t="s">
         <v>58</v>
       </c>
       <c r="X5" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="Y5" s="192"/>
-      <c r="Z5" s="193"/>
-      <c r="AA5" s="193"/>
-      <c r="AB5" s="213"/>
+      <c r="Y5" s="194"/>
+      <c r="Z5" s="195"/>
+      <c r="AA5" s="195"/>
+      <c r="AB5" s="215"/>
       <c r="AC5" s="36"/>
       <c r="AD5" s="37"/>
       <c r="AE5" s="36"/>

--- a/BaremeJavaBaseTest2_GJ52.xlsx
+++ b/BaremeJavaBaseTest2_GJ52.xlsx
@@ -237,6 +237,175 @@
           </rPr>
           <t xml:space="preserve">
 contructeur protected</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les Collections.unmodifable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque le add()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque l'initialisation de l'UUID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les Collections.unmodifable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les Collections.unmodifable
+manque des controles</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les Collections.unmodifable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les Collections.unmodifable</t>
         </r>
       </text>
     </comment>
@@ -2329,7 +2498,166 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2344,9 +2672,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2356,34 +2681,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2410,13 +2708,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2425,133 +2717,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2561,6 +2745,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2596,53 +2783,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="203">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="200">
     <dxf>
       <fill>
         <patternFill>
@@ -4342,11 +4490,11 @@
   <dimension ref="A1:CR68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3600" ySplit="2910" topLeftCell="M9" activePane="bottomRight"/>
+      <pane xSplit="3600" ySplit="2910" topLeftCell="M16" activePane="bottomRight"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="topRight" activeCell="AQ7" sqref="AQ7"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AF15" sqref="AF15"/>
+      <selection pane="bottomRight" activeCell="AH22" sqref="AH22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -4394,102 +4542,102 @@
     <row r="1" spans="1:96" s="111" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
-      <c r="H1" s="125" t="s">
+      <c r="H1" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="134" t="s">
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="127" t="s">
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="180" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="127"/>
-      <c r="AD1" s="127"/>
-      <c r="AE1" s="127"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="127"/>
-      <c r="AH1" s="127"/>
-      <c r="AI1" s="127"/>
-      <c r="AJ1" s="127"/>
-      <c r="AK1" s="127"/>
-      <c r="AL1" s="127"/>
-      <c r="AM1" s="127"/>
-      <c r="AN1" s="127"/>
-      <c r="AO1" s="127"/>
-      <c r="AP1" s="127"/>
-      <c r="AQ1" s="127"/>
-      <c r="AR1" s="127"/>
-      <c r="AS1" s="127"/>
-      <c r="AT1" s="127"/>
-      <c r="AU1" s="127"/>
-      <c r="AV1" s="127"/>
-      <c r="AW1" s="127"/>
-      <c r="AX1" s="127"/>
-      <c r="AY1" s="127"/>
-      <c r="AZ1" s="127"/>
-      <c r="BA1" s="127"/>
-      <c r="BB1" s="127"/>
-      <c r="BC1" s="127"/>
-      <c r="BD1" s="127"/>
-      <c r="BE1" s="127"/>
-      <c r="BF1" s="127"/>
-      <c r="BG1" s="127"/>
-      <c r="BH1" s="127"/>
-      <c r="BI1" s="127"/>
-      <c r="BJ1" s="127"/>
-      <c r="BK1" s="127"/>
-      <c r="BL1" s="127"/>
-      <c r="BM1" s="127"/>
-      <c r="BN1" s="127"/>
-      <c r="BO1" s="127"/>
-      <c r="BP1" s="127"/>
-      <c r="BQ1" s="127"/>
-      <c r="BR1" s="127"/>
-      <c r="BS1" s="127"/>
-      <c r="BT1" s="127"/>
-      <c r="BU1" s="127"/>
-      <c r="BV1" s="127"/>
-      <c r="BW1" s="127" t="s">
+      <c r="W1" s="180"/>
+      <c r="X1" s="180"/>
+      <c r="Y1" s="180"/>
+      <c r="Z1" s="180"/>
+      <c r="AA1" s="180"/>
+      <c r="AB1" s="180"/>
+      <c r="AC1" s="180"/>
+      <c r="AD1" s="180"/>
+      <c r="AE1" s="180"/>
+      <c r="AF1" s="180"/>
+      <c r="AG1" s="180"/>
+      <c r="AH1" s="180"/>
+      <c r="AI1" s="180"/>
+      <c r="AJ1" s="180"/>
+      <c r="AK1" s="180"/>
+      <c r="AL1" s="180"/>
+      <c r="AM1" s="180"/>
+      <c r="AN1" s="180"/>
+      <c r="AO1" s="180"/>
+      <c r="AP1" s="180"/>
+      <c r="AQ1" s="180"/>
+      <c r="AR1" s="180"/>
+      <c r="AS1" s="180"/>
+      <c r="AT1" s="180"/>
+      <c r="AU1" s="180"/>
+      <c r="AV1" s="180"/>
+      <c r="AW1" s="180"/>
+      <c r="AX1" s="180"/>
+      <c r="AY1" s="180"/>
+      <c r="AZ1" s="180"/>
+      <c r="BA1" s="180"/>
+      <c r="BB1" s="180"/>
+      <c r="BC1" s="180"/>
+      <c r="BD1" s="180"/>
+      <c r="BE1" s="180"/>
+      <c r="BF1" s="180"/>
+      <c r="BG1" s="180"/>
+      <c r="BH1" s="180"/>
+      <c r="BI1" s="180"/>
+      <c r="BJ1" s="180"/>
+      <c r="BK1" s="180"/>
+      <c r="BL1" s="180"/>
+      <c r="BM1" s="180"/>
+      <c r="BN1" s="180"/>
+      <c r="BO1" s="180"/>
+      <c r="BP1" s="180"/>
+      <c r="BQ1" s="180"/>
+      <c r="BR1" s="180"/>
+      <c r="BS1" s="180"/>
+      <c r="BT1" s="180"/>
+      <c r="BU1" s="180"/>
+      <c r="BV1" s="180"/>
+      <c r="BW1" s="180" t="s">
         <v>97</v>
       </c>
-      <c r="BX1" s="127"/>
-      <c r="BY1" s="127"/>
-      <c r="BZ1" s="127"/>
-      <c r="CA1" s="127"/>
-      <c r="CB1" s="127"/>
-      <c r="CC1" s="127" t="s">
+      <c r="BX1" s="180"/>
+      <c r="BY1" s="180"/>
+      <c r="BZ1" s="180"/>
+      <c r="CA1" s="180"/>
+      <c r="CB1" s="180"/>
+      <c r="CC1" s="180" t="s">
         <v>99</v>
       </c>
-      <c r="CD1" s="127"/>
-      <c r="CE1" s="127"/>
-      <c r="CF1" s="127"/>
-      <c r="CG1" s="127"/>
-      <c r="CH1" s="127"/>
-      <c r="CI1" s="127"/>
-      <c r="CJ1" s="127"/>
-      <c r="CK1" s="127"/>
-      <c r="CL1" s="127"/>
-      <c r="CM1" s="127"/>
-      <c r="CN1" s="127"/>
-      <c r="CO1" s="127"/>
+      <c r="CD1" s="180"/>
+      <c r="CE1" s="180"/>
+      <c r="CF1" s="180"/>
+      <c r="CG1" s="180"/>
+      <c r="CH1" s="180"/>
+      <c r="CI1" s="180"/>
+      <c r="CJ1" s="180"/>
+      <c r="CK1" s="180"/>
+      <c r="CL1" s="180"/>
+      <c r="CM1" s="180"/>
+      <c r="CN1" s="180"/>
+      <c r="CO1" s="180"/>
       <c r="CP1" s="114"/>
     </row>
     <row r="2" spans="1:96" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4500,117 +4648,117 @@
       <c r="E2" s="52"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="154" t="s">
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
+      <c r="J2" s="179"/>
+      <c r="K2" s="179"/>
+      <c r="L2" s="179"/>
+      <c r="M2" s="179"/>
+      <c r="N2" s="179"/>
+      <c r="O2" s="179"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="155"/>
-      <c r="X2" s="155"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
-      <c r="AA2" s="130"/>
-      <c r="AB2" s="130"/>
-      <c r="AC2" s="130"/>
-      <c r="AD2" s="130"/>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="130"/>
-      <c r="AG2" s="130"/>
-      <c r="AH2" s="130"/>
-      <c r="AI2" s="130"/>
-      <c r="AJ2" s="130"/>
-      <c r="AK2" s="130"/>
-      <c r="AL2" s="130"/>
-      <c r="AM2" s="130"/>
-      <c r="AN2" s="130"/>
-      <c r="AO2" s="130"/>
-      <c r="AP2" s="130"/>
-      <c r="AQ2" s="132"/>
-      <c r="AR2" s="128" t="s">
+      <c r="W2" s="196"/>
+      <c r="X2" s="196"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="175"/>
+      <c r="AA2" s="175"/>
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="175"/>
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="175"/>
+      <c r="AG2" s="175"/>
+      <c r="AH2" s="175"/>
+      <c r="AI2" s="175"/>
+      <c r="AJ2" s="175"/>
+      <c r="AK2" s="175"/>
+      <c r="AL2" s="175"/>
+      <c r="AM2" s="175"/>
+      <c r="AN2" s="175"/>
+      <c r="AO2" s="175"/>
+      <c r="AP2" s="175"/>
+      <c r="AQ2" s="184"/>
+      <c r="AR2" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="AS2" s="126"/>
-      <c r="AT2" s="126"/>
-      <c r="AU2" s="129"/>
-      <c r="AV2" s="144" t="s">
+      <c r="AS2" s="179"/>
+      <c r="AT2" s="179"/>
+      <c r="AU2" s="182"/>
+      <c r="AV2" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="AW2" s="126"/>
-      <c r="AX2" s="126"/>
-      <c r="AY2" s="126"/>
-      <c r="AZ2" s="126"/>
-      <c r="BA2" s="126"/>
-      <c r="BB2" s="138" t="s">
+      <c r="AW2" s="179"/>
+      <c r="AX2" s="179"/>
+      <c r="AY2" s="179"/>
+      <c r="AZ2" s="179"/>
+      <c r="BA2" s="179"/>
+      <c r="BB2" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="BC2" s="125"/>
-      <c r="BD2" s="125"/>
-      <c r="BE2" s="125"/>
-      <c r="BF2" s="125"/>
-      <c r="BG2" s="125"/>
-      <c r="BH2" s="125"/>
-      <c r="BI2" s="125"/>
-      <c r="BJ2" s="125"/>
-      <c r="BK2" s="125"/>
-      <c r="BL2" s="125"/>
-      <c r="BM2" s="139"/>
-      <c r="BN2" s="138" t="s">
+      <c r="BC2" s="136"/>
+      <c r="BD2" s="136"/>
+      <c r="BE2" s="136"/>
+      <c r="BF2" s="136"/>
+      <c r="BG2" s="136"/>
+      <c r="BH2" s="136"/>
+      <c r="BI2" s="136"/>
+      <c r="BJ2" s="136"/>
+      <c r="BK2" s="136"/>
+      <c r="BL2" s="136"/>
+      <c r="BM2" s="137"/>
+      <c r="BN2" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="BO2" s="125"/>
-      <c r="BP2" s="125"/>
-      <c r="BQ2" s="125"/>
-      <c r="BR2" s="125"/>
-      <c r="BS2" s="125"/>
-      <c r="BT2" s="125"/>
-      <c r="BU2" s="125"/>
-      <c r="BV2" s="139"/>
-      <c r="BW2" s="180" t="s">
+      <c r="BO2" s="136"/>
+      <c r="BP2" s="136"/>
+      <c r="BQ2" s="136"/>
+      <c r="BR2" s="136"/>
+      <c r="BS2" s="136"/>
+      <c r="BT2" s="136"/>
+      <c r="BU2" s="136"/>
+      <c r="BV2" s="137"/>
+      <c r="BW2" s="171" t="s">
         <v>101</v>
       </c>
-      <c r="BX2" s="130" t="s">
+      <c r="BX2" s="175" t="s">
         <v>102</v>
       </c>
-      <c r="BY2" s="130"/>
-      <c r="BZ2" s="181" t="s">
+      <c r="BY2" s="175"/>
+      <c r="BZ2" s="174" t="s">
         <v>103</v>
       </c>
-      <c r="CA2" s="130" t="s">
+      <c r="CA2" s="175" t="s">
         <v>104</v>
       </c>
-      <c r="CB2" s="132"/>
-      <c r="CC2" s="138" t="s">
+      <c r="CB2" s="184"/>
+      <c r="CC2" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="CD2" s="125"/>
-      <c r="CE2" s="125"/>
-      <c r="CF2" s="125"/>
-      <c r="CG2" s="125"/>
-      <c r="CH2" s="125"/>
-      <c r="CI2" s="125"/>
-      <c r="CJ2" s="125"/>
-      <c r="CK2" s="125"/>
-      <c r="CL2" s="125"/>
-      <c r="CM2" s="125"/>
-      <c r="CN2" s="125"/>
-      <c r="CO2" s="139"/>
+      <c r="CD2" s="136"/>
+      <c r="CE2" s="136"/>
+      <c r="CF2" s="136"/>
+      <c r="CG2" s="136"/>
+      <c r="CH2" s="136"/>
+      <c r="CI2" s="136"/>
+      <c r="CJ2" s="136"/>
+      <c r="CK2" s="136"/>
+      <c r="CL2" s="136"/>
+      <c r="CM2" s="136"/>
+      <c r="CN2" s="136"/>
+      <c r="CO2" s="137"/>
       <c r="CP2" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="CQ2" s="188"/>
-      <c r="CR2" s="188"/>
+      <c r="CQ2" s="131"/>
+      <c r="CR2" s="131"/>
     </row>
     <row r="3" spans="1:96" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -4620,141 +4768,141 @@
       <c r="E3" s="52"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="148" t="s">
+      <c r="H3" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="151" t="s">
+      <c r="I3" s="194" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="151" t="s">
+      <c r="J3" s="194" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="148" t="s">
+      <c r="K3" s="191" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="148" t="s">
+      <c r="L3" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="151" t="s">
+      <c r="M3" s="194" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="145" t="s">
+      <c r="N3" s="188" t="s">
         <v>71</v>
       </c>
-      <c r="O3" s="151" t="s">
+      <c r="O3" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="143" t="s">
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="157" t="s">
         <v>92</v>
       </c>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="183" t="s">
+      <c r="W3" s="158"/>
+      <c r="X3" s="158"/>
+      <c r="Y3" s="158"/>
+      <c r="Z3" s="158"/>
+      <c r="AA3" s="158"/>
+      <c r="AB3" s="154" t="s">
         <v>107</v>
       </c>
-      <c r="AC3" s="163"/>
-      <c r="AD3" s="141"/>
-      <c r="AE3" s="141"/>
-      <c r="AF3" s="141"/>
-      <c r="AG3" s="141"/>
-      <c r="AH3" s="141"/>
-      <c r="AI3" s="141"/>
-      <c r="AJ3" s="141"/>
-      <c r="AK3" s="156" t="s">
+      <c r="AC3" s="159"/>
+      <c r="AD3" s="139"/>
+      <c r="AE3" s="139"/>
+      <c r="AF3" s="139"/>
+      <c r="AG3" s="139"/>
+      <c r="AH3" s="139"/>
+      <c r="AI3" s="139"/>
+      <c r="AJ3" s="139"/>
+      <c r="AK3" s="197" t="s">
         <v>108</v>
       </c>
-      <c r="AL3" s="136"/>
-      <c r="AM3" s="136"/>
-      <c r="AN3" s="136"/>
-      <c r="AO3" s="136"/>
-      <c r="AP3" s="136"/>
-      <c r="AQ3" s="137"/>
-      <c r="AR3" s="143" t="s">
+      <c r="AL3" s="158"/>
+      <c r="AM3" s="158"/>
+      <c r="AN3" s="158"/>
+      <c r="AO3" s="158"/>
+      <c r="AP3" s="158"/>
+      <c r="AQ3" s="186"/>
+      <c r="AR3" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="AS3" s="136"/>
-      <c r="AT3" s="136"/>
-      <c r="AU3" s="183" t="s">
+      <c r="AS3" s="158"/>
+      <c r="AT3" s="158"/>
+      <c r="AU3" s="154" t="s">
         <v>150</v>
       </c>
-      <c r="AV3" s="151" t="s">
+      <c r="AV3" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="AW3" s="134"/>
-      <c r="AX3" s="134"/>
-      <c r="AY3" s="134" t="s">
+      <c r="AW3" s="167"/>
+      <c r="AX3" s="167"/>
+      <c r="AY3" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="AZ3" s="134" t="s">
+      <c r="AZ3" s="167" t="s">
         <v>151</v>
       </c>
-      <c r="BA3" s="178" t="s">
+      <c r="BA3" s="169" t="s">
         <v>48</v>
       </c>
-      <c r="BB3" s="164" t="s">
+      <c r="BB3" s="177" t="s">
         <v>128</v>
       </c>
-      <c r="BC3" s="166" t="s">
+      <c r="BC3" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="BD3" s="135" t="s">
+      <c r="BD3" s="176" t="s">
         <v>116</v>
       </c>
-      <c r="BE3" s="136"/>
-      <c r="BF3" s="136"/>
-      <c r="BG3" s="136"/>
-      <c r="BH3" s="163"/>
-      <c r="BI3" s="135" t="s">
+      <c r="BE3" s="158"/>
+      <c r="BF3" s="158"/>
+      <c r="BG3" s="158"/>
+      <c r="BH3" s="159"/>
+      <c r="BI3" s="176" t="s">
         <v>118</v>
       </c>
-      <c r="BJ3" s="136"/>
-      <c r="BK3" s="136"/>
-      <c r="BL3" s="136"/>
-      <c r="BM3" s="137"/>
-      <c r="BN3" s="140" t="s">
+      <c r="BJ3" s="158"/>
+      <c r="BK3" s="158"/>
+      <c r="BL3" s="158"/>
+      <c r="BM3" s="186"/>
+      <c r="BN3" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="BO3" s="141"/>
-      <c r="BP3" s="141"/>
-      <c r="BQ3" s="141"/>
-      <c r="BR3" s="141"/>
-      <c r="BS3" s="141"/>
-      <c r="BT3" s="141"/>
-      <c r="BU3" s="135"/>
-      <c r="BV3" s="142"/>
-      <c r="BW3" s="154"/>
-      <c r="BX3" s="131"/>
-      <c r="BY3" s="131"/>
-      <c r="BZ3" s="130"/>
-      <c r="CA3" s="131"/>
-      <c r="CB3" s="133"/>
-      <c r="CC3" s="140" t="s">
+      <c r="BO3" s="139"/>
+      <c r="BP3" s="139"/>
+      <c r="BQ3" s="139"/>
+      <c r="BR3" s="139"/>
+      <c r="BS3" s="139"/>
+      <c r="BT3" s="139"/>
+      <c r="BU3" s="176"/>
+      <c r="BV3" s="140"/>
+      <c r="BW3" s="172"/>
+      <c r="BX3" s="183"/>
+      <c r="BY3" s="183"/>
+      <c r="BZ3" s="175"/>
+      <c r="CA3" s="183"/>
+      <c r="CB3" s="185"/>
+      <c r="CC3" s="138" t="s">
         <v>106</v>
       </c>
-      <c r="CD3" s="141"/>
-      <c r="CE3" s="141"/>
-      <c r="CF3" s="141"/>
-      <c r="CG3" s="141"/>
-      <c r="CH3" s="141"/>
-      <c r="CI3" s="141"/>
-      <c r="CJ3" s="141"/>
-      <c r="CK3" s="141"/>
-      <c r="CL3" s="141"/>
-      <c r="CM3" s="141"/>
-      <c r="CN3" s="141"/>
-      <c r="CO3" s="142"/>
-      <c r="CP3" s="189"/>
-      <c r="CQ3" s="188"/>
-      <c r="CR3" s="188"/>
+      <c r="CD3" s="139"/>
+      <c r="CE3" s="139"/>
+      <c r="CF3" s="139"/>
+      <c r="CG3" s="139"/>
+      <c r="CH3" s="139"/>
+      <c r="CI3" s="139"/>
+      <c r="CJ3" s="139"/>
+      <c r="CK3" s="139"/>
+      <c r="CL3" s="139"/>
+      <c r="CM3" s="139"/>
+      <c r="CN3" s="139"/>
+      <c r="CO3" s="140"/>
+      <c r="CP3" s="132"/>
+      <c r="CQ3" s="131"/>
+      <c r="CR3" s="131"/>
     </row>
     <row r="4" spans="1:96" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -4782,15 +4930,15 @@
         <f>CONCATENATE("Note/",G6)</f>
         <v>Note/212</v>
       </c>
-      <c r="H4" s="149"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="152"/>
-      <c r="N4" s="146"/>
-      <c r="O4" s="152"/>
-      <c r="P4" s="171" t="s">
+      <c r="H4" s="192"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="192"/>
+      <c r="L4" s="192"/>
+      <c r="M4" s="164"/>
+      <c r="N4" s="189"/>
+      <c r="O4" s="164"/>
+      <c r="P4" s="165" t="s">
         <v>133</v>
       </c>
       <c r="Q4" s="82" t="s">
@@ -4808,201 +4956,201 @@
       <c r="U4" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="V4" s="186" t="s">
+      <c r="V4" s="160" t="s">
         <v>146</v>
       </c>
-      <c r="W4" s="175" t="s">
+      <c r="W4" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="X4" s="175" t="s">
+      <c r="X4" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="Y4" s="159" t="s">
+      <c r="Y4" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="170" t="s">
+      <c r="Z4" s="150" t="s">
         <v>69</v>
       </c>
-      <c r="AA4" s="159" t="s">
+      <c r="AA4" s="143" t="s">
         <v>73</v>
       </c>
-      <c r="AB4" s="173" t="s">
+      <c r="AB4" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="AC4" s="175" t="s">
+      <c r="AC4" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="AD4" s="175" t="s">
+      <c r="AD4" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="AE4" s="170" t="s">
+      <c r="AE4" s="150" t="s">
         <v>147</v>
       </c>
-      <c r="AF4" s="170" t="s">
+      <c r="AF4" s="150" t="s">
         <v>148</v>
       </c>
-      <c r="AG4" s="170" t="s">
+      <c r="AG4" s="150" t="s">
         <v>149</v>
       </c>
-      <c r="AH4" s="170" t="s">
+      <c r="AH4" s="150" t="s">
         <v>69</v>
       </c>
-      <c r="AI4" s="170" t="s">
+      <c r="AI4" s="150" t="s">
         <v>73</v>
       </c>
-      <c r="AJ4" s="159" t="s">
+      <c r="AJ4" s="143" t="s">
         <v>72</v>
       </c>
-      <c r="AK4" s="173" t="s">
+      <c r="AK4" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="AL4" s="175" t="s">
+      <c r="AL4" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="AM4" s="175" t="s">
+      <c r="AM4" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="AN4" s="170" t="s">
+      <c r="AN4" s="150" t="s">
         <v>148</v>
       </c>
-      <c r="AO4" s="170" t="s">
+      <c r="AO4" s="150" t="s">
         <v>69</v>
       </c>
-      <c r="AP4" s="159" t="s">
+      <c r="AP4" s="143" t="s">
         <v>73</v>
       </c>
-      <c r="AQ4" s="161" t="s">
+      <c r="AQ4" s="145" t="s">
         <v>72</v>
       </c>
-      <c r="AR4" s="157" t="s">
+      <c r="AR4" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="AS4" s="168" t="s">
+      <c r="AS4" s="147" t="s">
         <v>110</v>
       </c>
-      <c r="AT4" s="169"/>
-      <c r="AU4" s="184"/>
-      <c r="AV4" s="152"/>
-      <c r="AW4" s="125"/>
-      <c r="AX4" s="125"/>
-      <c r="AY4" s="125"/>
-      <c r="AZ4" s="125"/>
-      <c r="BA4" s="139"/>
-      <c r="BB4" s="154"/>
-      <c r="BC4" s="130"/>
-      <c r="BD4" s="159" t="s">
+      <c r="AT4" s="148"/>
+      <c r="AU4" s="155"/>
+      <c r="AV4" s="164"/>
+      <c r="AW4" s="136"/>
+      <c r="AX4" s="136"/>
+      <c r="AY4" s="136"/>
+      <c r="AZ4" s="136"/>
+      <c r="BA4" s="137"/>
+      <c r="BB4" s="172"/>
+      <c r="BC4" s="175"/>
+      <c r="BD4" s="143" t="s">
         <v>94</v>
       </c>
-      <c r="BE4" s="159" t="s">
+      <c r="BE4" s="143" t="s">
         <v>114</v>
       </c>
-      <c r="BF4" s="159" t="s">
+      <c r="BF4" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="BG4" s="159" t="s">
+      <c r="BG4" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="BH4" s="159" t="s">
+      <c r="BH4" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="BI4" s="159" t="s">
+      <c r="BI4" s="143" t="s">
         <v>94</v>
       </c>
-      <c r="BJ4" s="159" t="s">
+      <c r="BJ4" s="143" t="s">
         <v>114</v>
       </c>
-      <c r="BK4" s="159" t="s">
+      <c r="BK4" s="143" t="s">
         <v>117</v>
       </c>
-      <c r="BL4" s="159" t="s">
+      <c r="BL4" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="BM4" s="159" t="s">
+      <c r="BM4" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="BN4" s="157" t="s">
+      <c r="BN4" s="141" t="s">
         <v>120</v>
       </c>
-      <c r="BO4" s="159" t="s">
+      <c r="BO4" s="143" t="s">
         <v>127</v>
       </c>
-      <c r="BP4" s="159" t="s">
+      <c r="BP4" s="143" t="s">
         <v>121</v>
       </c>
-      <c r="BQ4" s="159" t="s">
+      <c r="BQ4" s="143" t="s">
         <v>122</v>
       </c>
-      <c r="BR4" s="159" t="s">
+      <c r="BR4" s="143" t="s">
         <v>123</v>
       </c>
-      <c r="BS4" s="159" t="s">
+      <c r="BS4" s="143" t="s">
         <v>124</v>
       </c>
-      <c r="BT4" s="159" t="s">
+      <c r="BT4" s="143" t="s">
         <v>125</v>
       </c>
-      <c r="BU4" s="159" t="s">
+      <c r="BU4" s="143" t="s">
         <v>111</v>
       </c>
-      <c r="BV4" s="161" t="s">
+      <c r="BV4" s="145" t="s">
         <v>126</v>
       </c>
-      <c r="BW4" s="154"/>
-      <c r="BX4" s="159" t="s">
+      <c r="BW4" s="172"/>
+      <c r="BX4" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="BY4" s="159" t="s">
+      <c r="BY4" s="143" t="s">
         <v>153</v>
       </c>
-      <c r="BZ4" s="130"/>
-      <c r="CA4" s="159" t="s">
+      <c r="BZ4" s="175"/>
+      <c r="CA4" s="143" t="s">
         <v>152</v>
       </c>
-      <c r="CB4" s="159" t="s">
+      <c r="CB4" s="143" t="s">
         <v>153</v>
       </c>
-      <c r="CC4" s="157" t="s">
+      <c r="CC4" s="141" t="s">
         <v>134</v>
       </c>
-      <c r="CD4" s="159" t="s">
+      <c r="CD4" s="143" t="s">
         <v>135</v>
       </c>
-      <c r="CE4" s="159" t="s">
+      <c r="CE4" s="143" t="s">
         <v>136</v>
       </c>
-      <c r="CF4" s="159" t="s">
+      <c r="CF4" s="143" t="s">
         <v>137</v>
       </c>
-      <c r="CG4" s="159" t="s">
+      <c r="CG4" s="143" t="s">
         <v>138</v>
       </c>
-      <c r="CH4" s="159" t="s">
+      <c r="CH4" s="143" t="s">
         <v>139</v>
       </c>
-      <c r="CI4" s="159" t="s">
+      <c r="CI4" s="143" t="s">
         <v>140</v>
       </c>
-      <c r="CJ4" s="159" t="s">
+      <c r="CJ4" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="CK4" s="159" t="s">
+      <c r="CK4" s="143" t="s">
         <v>141</v>
       </c>
-      <c r="CL4" s="159" t="s">
+      <c r="CL4" s="143" t="s">
         <v>142</v>
       </c>
-      <c r="CM4" s="159" t="s">
+      <c r="CM4" s="143" t="s">
         <v>143</v>
       </c>
-      <c r="CN4" s="159" t="s">
+      <c r="CN4" s="143" t="s">
         <v>144</v>
       </c>
-      <c r="CO4" s="161" t="s">
+      <c r="CO4" s="145" t="s">
         <v>145</v>
       </c>
-      <c r="CP4" s="190"/>
-      <c r="CQ4" s="188"/>
-      <c r="CR4" s="188"/>
+      <c r="CP4" s="133"/>
+      <c r="CQ4" s="131"/>
+      <c r="CR4" s="131"/>
     </row>
     <row r="5" spans="1:96" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -5012,15 +5160,15 @@
       <c r="E5" s="18"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="153"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="147"/>
-      <c r="O5" s="144"/>
-      <c r="P5" s="172"/>
+      <c r="H5" s="193"/>
+      <c r="I5" s="195"/>
+      <c r="J5" s="195"/>
+      <c r="K5" s="193"/>
+      <c r="L5" s="193"/>
+      <c r="M5" s="195"/>
+      <c r="N5" s="190"/>
+      <c r="O5" s="187"/>
+      <c r="P5" s="166"/>
       <c r="Q5" s="95" t="s">
         <v>129</v>
       </c>
@@ -5036,36 +5184,36 @@
       <c r="U5" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="V5" s="187"/>
-      <c r="W5" s="176"/>
-      <c r="X5" s="176"/>
-      <c r="Y5" s="160"/>
-      <c r="Z5" s="167"/>
-      <c r="AA5" s="160"/>
-      <c r="AB5" s="174"/>
-      <c r="AC5" s="176"/>
-      <c r="AD5" s="176"/>
-      <c r="AE5" s="167"/>
-      <c r="AF5" s="167"/>
-      <c r="AG5" s="167"/>
-      <c r="AH5" s="167"/>
-      <c r="AI5" s="167"/>
-      <c r="AJ5" s="160"/>
-      <c r="AK5" s="174"/>
-      <c r="AL5" s="176"/>
-      <c r="AM5" s="176"/>
-      <c r="AN5" s="167"/>
-      <c r="AO5" s="167"/>
-      <c r="AP5" s="160"/>
-      <c r="AQ5" s="162"/>
-      <c r="AR5" s="158"/>
+      <c r="V5" s="161"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="153"/>
+      <c r="Y5" s="144"/>
+      <c r="Z5" s="151"/>
+      <c r="AA5" s="144"/>
+      <c r="AB5" s="163"/>
+      <c r="AC5" s="153"/>
+      <c r="AD5" s="153"/>
+      <c r="AE5" s="151"/>
+      <c r="AF5" s="151"/>
+      <c r="AG5" s="151"/>
+      <c r="AH5" s="151"/>
+      <c r="AI5" s="151"/>
+      <c r="AJ5" s="144"/>
+      <c r="AK5" s="163"/>
+      <c r="AL5" s="153"/>
+      <c r="AM5" s="153"/>
+      <c r="AN5" s="151"/>
+      <c r="AO5" s="151"/>
+      <c r="AP5" s="144"/>
+      <c r="AQ5" s="146"/>
+      <c r="AR5" s="142"/>
       <c r="AS5" s="96" t="s">
         <v>93</v>
       </c>
       <c r="AT5" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="AU5" s="185"/>
+      <c r="AU5" s="156"/>
       <c r="AV5" s="104" t="s">
         <v>95</v>
       </c>
@@ -5075,52 +5223,52 @@
       <c r="AX5" s="105" t="s">
         <v>113</v>
       </c>
-      <c r="AY5" s="177"/>
-      <c r="AZ5" s="177"/>
-      <c r="BA5" s="179"/>
-      <c r="BB5" s="165"/>
-      <c r="BC5" s="167"/>
-      <c r="BD5" s="160"/>
-      <c r="BE5" s="160"/>
-      <c r="BF5" s="160"/>
-      <c r="BG5" s="160"/>
-      <c r="BH5" s="160"/>
-      <c r="BI5" s="160"/>
-      <c r="BJ5" s="160"/>
-      <c r="BK5" s="160"/>
-      <c r="BL5" s="160"/>
-      <c r="BM5" s="160"/>
-      <c r="BN5" s="158"/>
-      <c r="BO5" s="160"/>
-      <c r="BP5" s="160"/>
-      <c r="BQ5" s="160"/>
-      <c r="BR5" s="160"/>
-      <c r="BS5" s="160"/>
-      <c r="BT5" s="160"/>
-      <c r="BU5" s="160"/>
-      <c r="BV5" s="162"/>
-      <c r="BW5" s="165"/>
-      <c r="BX5" s="160"/>
-      <c r="BY5" s="160"/>
-      <c r="BZ5" s="167"/>
-      <c r="CA5" s="160"/>
-      <c r="CB5" s="160"/>
-      <c r="CC5" s="158"/>
-      <c r="CD5" s="160"/>
-      <c r="CE5" s="160"/>
-      <c r="CF5" s="160"/>
-      <c r="CG5" s="160"/>
-      <c r="CH5" s="160"/>
-      <c r="CI5" s="160"/>
-      <c r="CJ5" s="160"/>
-      <c r="CK5" s="160"/>
-      <c r="CL5" s="160"/>
-      <c r="CM5" s="160"/>
-      <c r="CN5" s="160"/>
-      <c r="CO5" s="162"/>
-      <c r="CP5" s="191"/>
-      <c r="CQ5" s="188"/>
-      <c r="CR5" s="188"/>
+      <c r="AY5" s="168"/>
+      <c r="AZ5" s="168"/>
+      <c r="BA5" s="170"/>
+      <c r="BB5" s="173"/>
+      <c r="BC5" s="151"/>
+      <c r="BD5" s="144"/>
+      <c r="BE5" s="144"/>
+      <c r="BF5" s="144"/>
+      <c r="BG5" s="144"/>
+      <c r="BH5" s="144"/>
+      <c r="BI5" s="144"/>
+      <c r="BJ5" s="144"/>
+      <c r="BK5" s="144"/>
+      <c r="BL5" s="144"/>
+      <c r="BM5" s="144"/>
+      <c r="BN5" s="142"/>
+      <c r="BO5" s="144"/>
+      <c r="BP5" s="144"/>
+      <c r="BQ5" s="144"/>
+      <c r="BR5" s="144"/>
+      <c r="BS5" s="144"/>
+      <c r="BT5" s="144"/>
+      <c r="BU5" s="144"/>
+      <c r="BV5" s="146"/>
+      <c r="BW5" s="173"/>
+      <c r="BX5" s="144"/>
+      <c r="BY5" s="144"/>
+      <c r="BZ5" s="151"/>
+      <c r="CA5" s="144"/>
+      <c r="CB5" s="144"/>
+      <c r="CC5" s="142"/>
+      <c r="CD5" s="144"/>
+      <c r="CE5" s="144"/>
+      <c r="CF5" s="144"/>
+      <c r="CG5" s="144"/>
+      <c r="CH5" s="144"/>
+      <c r="CI5" s="144"/>
+      <c r="CJ5" s="144"/>
+      <c r="CK5" s="144"/>
+      <c r="CL5" s="144"/>
+      <c r="CM5" s="144"/>
+      <c r="CN5" s="144"/>
+      <c r="CO5" s="146"/>
+      <c r="CP5" s="134"/>
+      <c r="CQ5" s="131"/>
+      <c r="CR5" s="131"/>
     </row>
     <row r="6" spans="1:96" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -5696,114 +5844,114 @@
       <c r="M8" s="9"/>
       <c r="N8" s="51"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="152">
+      <c r="P8" s="164">
         <f>SUM(P6:U6)</f>
         <v>21</v>
       </c>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="125"/>
-      <c r="S8" s="125"/>
-      <c r="T8" s="125"/>
-      <c r="U8" s="125"/>
-      <c r="V8" s="168">
+      <c r="Q8" s="136"/>
+      <c r="R8" s="136"/>
+      <c r="S8" s="136"/>
+      <c r="T8" s="136"/>
+      <c r="U8" s="136"/>
+      <c r="V8" s="147">
         <f>SUM(V6:AA6)</f>
         <v>0</v>
       </c>
-      <c r="W8" s="169"/>
-      <c r="X8" s="169"/>
-      <c r="Y8" s="169"/>
-      <c r="Z8" s="169"/>
-      <c r="AA8" s="169"/>
-      <c r="AB8" s="168">
+      <c r="W8" s="148"/>
+      <c r="X8" s="148"/>
+      <c r="Y8" s="148"/>
+      <c r="Z8" s="148"/>
+      <c r="AA8" s="148"/>
+      <c r="AB8" s="147">
         <f>SUM(AB6:AJ6)</f>
         <v>31</v>
       </c>
-      <c r="AC8" s="169"/>
-      <c r="AD8" s="169"/>
-      <c r="AE8" s="169"/>
-      <c r="AF8" s="169"/>
-      <c r="AG8" s="169"/>
-      <c r="AH8" s="169"/>
-      <c r="AI8" s="169"/>
-      <c r="AJ8" s="169"/>
-      <c r="AK8" s="168">
+      <c r="AC8" s="148"/>
+      <c r="AD8" s="148"/>
+      <c r="AE8" s="148"/>
+      <c r="AF8" s="148"/>
+      <c r="AG8" s="148"/>
+      <c r="AH8" s="148"/>
+      <c r="AI8" s="148"/>
+      <c r="AJ8" s="148"/>
+      <c r="AK8" s="147">
         <f>SUM(AK6:AQ6)</f>
         <v>14</v>
       </c>
-      <c r="AL8" s="169"/>
-      <c r="AM8" s="169"/>
-      <c r="AN8" s="169"/>
-      <c r="AO8" s="169"/>
-      <c r="AP8" s="169"/>
-      <c r="AQ8" s="182"/>
-      <c r="AR8" s="168">
+      <c r="AL8" s="148"/>
+      <c r="AM8" s="148"/>
+      <c r="AN8" s="148"/>
+      <c r="AO8" s="148"/>
+      <c r="AP8" s="148"/>
+      <c r="AQ8" s="149"/>
+      <c r="AR8" s="147">
         <f>SUM(AR6:AT6)</f>
         <v>6</v>
       </c>
-      <c r="AS8" s="169"/>
-      <c r="AT8" s="169"/>
+      <c r="AS8" s="148"/>
+      <c r="AT8" s="148"/>
       <c r="AU8" s="103"/>
-      <c r="AV8" s="168">
+      <c r="AV8" s="147">
         <f>SUM(AV6:BA6)</f>
         <v>11</v>
       </c>
-      <c r="AW8" s="169"/>
-      <c r="AX8" s="169"/>
-      <c r="AY8" s="169"/>
-      <c r="AZ8" s="169"/>
-      <c r="BA8" s="169"/>
-      <c r="BB8" s="168">
+      <c r="AW8" s="148"/>
+      <c r="AX8" s="148"/>
+      <c r="AY8" s="148"/>
+      <c r="AZ8" s="148"/>
+      <c r="BA8" s="148"/>
+      <c r="BB8" s="147">
         <f>SUM(BB6:BM6)</f>
         <v>36</v>
       </c>
-      <c r="BC8" s="169"/>
-      <c r="BD8" s="169"/>
-      <c r="BE8" s="169"/>
-      <c r="BF8" s="169"/>
-      <c r="BG8" s="169"/>
-      <c r="BH8" s="169"/>
-      <c r="BI8" s="169"/>
-      <c r="BJ8" s="169"/>
-      <c r="BK8" s="169"/>
-      <c r="BL8" s="169"/>
-      <c r="BM8" s="169"/>
-      <c r="BN8" s="168">
+      <c r="BC8" s="148"/>
+      <c r="BD8" s="148"/>
+      <c r="BE8" s="148"/>
+      <c r="BF8" s="148"/>
+      <c r="BG8" s="148"/>
+      <c r="BH8" s="148"/>
+      <c r="BI8" s="148"/>
+      <c r="BJ8" s="148"/>
+      <c r="BK8" s="148"/>
+      <c r="BL8" s="148"/>
+      <c r="BM8" s="148"/>
+      <c r="BN8" s="147">
         <f>SUM(BN6:BV6)</f>
         <v>29</v>
       </c>
-      <c r="BO8" s="169"/>
-      <c r="BP8" s="169"/>
-      <c r="BQ8" s="169"/>
-      <c r="BR8" s="169"/>
-      <c r="BS8" s="169"/>
-      <c r="BT8" s="169"/>
-      <c r="BU8" s="169"/>
-      <c r="BV8" s="169"/>
-      <c r="BW8" s="168">
+      <c r="BO8" s="148"/>
+      <c r="BP8" s="148"/>
+      <c r="BQ8" s="148"/>
+      <c r="BR8" s="148"/>
+      <c r="BS8" s="148"/>
+      <c r="BT8" s="148"/>
+      <c r="BU8" s="148"/>
+      <c r="BV8" s="148"/>
+      <c r="BW8" s="147">
         <f>SUM(BW6:CB6)</f>
         <v>0</v>
       </c>
-      <c r="BX8" s="169"/>
-      <c r="BY8" s="169"/>
-      <c r="BZ8" s="169"/>
-      <c r="CA8" s="169"/>
-      <c r="CB8" s="169"/>
-      <c r="CC8" s="168">
+      <c r="BX8" s="148"/>
+      <c r="BY8" s="148"/>
+      <c r="BZ8" s="148"/>
+      <c r="CA8" s="148"/>
+      <c r="CB8" s="148"/>
+      <c r="CC8" s="147">
         <f>SUM(CC6:CO6)</f>
         <v>36</v>
       </c>
-      <c r="CD8" s="169"/>
-      <c r="CE8" s="169"/>
-      <c r="CF8" s="169"/>
-      <c r="CG8" s="169"/>
-      <c r="CH8" s="169"/>
-      <c r="CI8" s="169"/>
-      <c r="CJ8" s="169"/>
-      <c r="CK8" s="169"/>
-      <c r="CL8" s="169"/>
-      <c r="CM8" s="169"/>
-      <c r="CN8" s="169"/>
-      <c r="CO8" s="169"/>
+      <c r="CD8" s="148"/>
+      <c r="CE8" s="148"/>
+      <c r="CF8" s="148"/>
+      <c r="CG8" s="148"/>
+      <c r="CH8" s="148"/>
+      <c r="CI8" s="148"/>
+      <c r="CJ8" s="148"/>
+      <c r="CK8" s="148"/>
+      <c r="CL8" s="148"/>
+      <c r="CM8" s="148"/>
+      <c r="CN8" s="148"/>
+      <c r="CO8" s="148"/>
       <c r="CP8" s="2">
         <f>CP6</f>
         <v>0</v>
@@ -6157,125 +6305,125 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H11" s="215"/>
-      <c r="I11" s="215"/>
-      <c r="J11" s="215"/>
-      <c r="K11" s="215"/>
-      <c r="L11" s="215"/>
-      <c r="M11" s="215"/>
-      <c r="N11" s="216"/>
-      <c r="O11" s="215"/>
-      <c r="P11" s="215"/>
-      <c r="Q11" s="215"/>
-      <c r="R11" s="215"/>
-      <c r="S11" s="215"/>
-      <c r="T11" s="215"/>
-      <c r="U11" s="215"/>
-      <c r="V11" s="215">
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="125"/>
+      <c r="P11" s="125"/>
+      <c r="Q11" s="125"/>
+      <c r="R11" s="125"/>
+      <c r="S11" s="125"/>
+      <c r="T11" s="125"/>
+      <c r="U11" s="125"/>
+      <c r="V11" s="125">
         <v>99</v>
       </c>
-      <c r="W11" s="217">
+      <c r="W11" s="127">
         <v>99</v>
       </c>
-      <c r="X11" s="217">
+      <c r="X11" s="127">
         <v>99</v>
       </c>
-      <c r="Y11" s="218">
+      <c r="Y11" s="128">
         <v>99</v>
       </c>
-      <c r="Z11" s="218">
+      <c r="Z11" s="128">
         <v>99</v>
       </c>
-      <c r="AA11" s="218">
+      <c r="AA11" s="128">
         <v>99</v>
       </c>
-      <c r="AB11" s="215"/>
-      <c r="AC11" s="217"/>
-      <c r="AD11" s="218"/>
-      <c r="AE11" s="218"/>
-      <c r="AF11" s="218"/>
-      <c r="AG11" s="218"/>
-      <c r="AH11" s="218"/>
-      <c r="AI11" s="218"/>
-      <c r="AJ11" s="218">
+      <c r="AB11" s="125"/>
+      <c r="AC11" s="127"/>
+      <c r="AD11" s="128"/>
+      <c r="AE11" s="128"/>
+      <c r="AF11" s="128"/>
+      <c r="AG11" s="128"/>
+      <c r="AH11" s="128"/>
+      <c r="AI11" s="128"/>
+      <c r="AJ11" s="128">
         <v>99</v>
       </c>
-      <c r="AK11" s="215"/>
-      <c r="AL11" s="217"/>
-      <c r="AM11" s="218"/>
-      <c r="AN11" s="218"/>
-      <c r="AO11" s="218"/>
-      <c r="AP11" s="218"/>
-      <c r="AQ11" s="218">
+      <c r="AK11" s="125"/>
+      <c r="AL11" s="127"/>
+      <c r="AM11" s="128"/>
+      <c r="AN11" s="128"/>
+      <c r="AO11" s="128"/>
+      <c r="AP11" s="128"/>
+      <c r="AQ11" s="128">
         <v>99</v>
       </c>
-      <c r="AR11" s="215"/>
-      <c r="AS11" s="215"/>
-      <c r="AT11" s="215"/>
-      <c r="AU11" s="215"/>
-      <c r="AV11" s="215"/>
-      <c r="AW11" s="215"/>
-      <c r="AX11" s="215"/>
-      <c r="AY11" s="215"/>
-      <c r="AZ11" s="215"/>
-      <c r="BA11" s="215"/>
-      <c r="BB11" s="215"/>
-      <c r="BC11" s="215"/>
-      <c r="BD11" s="215"/>
-      <c r="BE11" s="215"/>
-      <c r="BF11" s="215"/>
-      <c r="BG11" s="215"/>
-      <c r="BH11" s="215"/>
-      <c r="BI11" s="215"/>
-      <c r="BJ11" s="215"/>
-      <c r="BK11" s="215"/>
-      <c r="BL11" s="215"/>
-      <c r="BM11" s="215"/>
-      <c r="BN11" s="215"/>
-      <c r="BO11" s="215"/>
-      <c r="BP11" s="215"/>
-      <c r="BQ11" s="215"/>
-      <c r="BR11" s="215"/>
-      <c r="BS11" s="215"/>
-      <c r="BT11" s="215"/>
-      <c r="BU11" s="215"/>
-      <c r="BV11" s="215"/>
-      <c r="BW11" s="215">
+      <c r="AR11" s="125"/>
+      <c r="AS11" s="125"/>
+      <c r="AT11" s="125"/>
+      <c r="AU11" s="125"/>
+      <c r="AV11" s="125"/>
+      <c r="AW11" s="125"/>
+      <c r="AX11" s="125"/>
+      <c r="AY11" s="125"/>
+      <c r="AZ11" s="125"/>
+      <c r="BA11" s="125"/>
+      <c r="BB11" s="125"/>
+      <c r="BC11" s="125"/>
+      <c r="BD11" s="125"/>
+      <c r="BE11" s="125"/>
+      <c r="BF11" s="125"/>
+      <c r="BG11" s="125"/>
+      <c r="BH11" s="125"/>
+      <c r="BI11" s="125"/>
+      <c r="BJ11" s="125"/>
+      <c r="BK11" s="125"/>
+      <c r="BL11" s="125"/>
+      <c r="BM11" s="125"/>
+      <c r="BN11" s="125"/>
+      <c r="BO11" s="125"/>
+      <c r="BP11" s="125"/>
+      <c r="BQ11" s="125"/>
+      <c r="BR11" s="125"/>
+      <c r="BS11" s="125"/>
+      <c r="BT11" s="125"/>
+      <c r="BU11" s="125"/>
+      <c r="BV11" s="125"/>
+      <c r="BW11" s="125">
         <v>99</v>
       </c>
-      <c r="BX11" s="215">
+      <c r="BX11" s="125">
         <v>99</v>
       </c>
-      <c r="BY11" s="215">
+      <c r="BY11" s="125">
         <v>99</v>
       </c>
-      <c r="BZ11" s="215">
+      <c r="BZ11" s="125">
         <v>99</v>
       </c>
-      <c r="CA11" s="215">
+      <c r="CA11" s="125">
         <v>99</v>
       </c>
-      <c r="CB11" s="215">
+      <c r="CB11" s="125">
         <v>99</v>
       </c>
-      <c r="CC11" s="215"/>
-      <c r="CD11" s="215"/>
-      <c r="CE11" s="215"/>
-      <c r="CF11" s="215"/>
-      <c r="CG11" s="215"/>
-      <c r="CH11" s="215"/>
-      <c r="CI11" s="215"/>
-      <c r="CJ11" s="215"/>
-      <c r="CK11" s="215"/>
-      <c r="CL11" s="215"/>
-      <c r="CM11" s="215"/>
-      <c r="CN11" s="215"/>
-      <c r="CO11" s="215"/>
-      <c r="CP11" s="215"/>
-      <c r="CQ11" s="219">
-        <v>0</v>
-      </c>
-      <c r="CR11" s="219">
+      <c r="CC11" s="125"/>
+      <c r="CD11" s="125"/>
+      <c r="CE11" s="125"/>
+      <c r="CF11" s="125"/>
+      <c r="CG11" s="125"/>
+      <c r="CH11" s="125"/>
+      <c r="CI11" s="125"/>
+      <c r="CJ11" s="125"/>
+      <c r="CK11" s="125"/>
+      <c r="CL11" s="125"/>
+      <c r="CM11" s="125"/>
+      <c r="CN11" s="125"/>
+      <c r="CO11" s="125"/>
+      <c r="CP11" s="125"/>
+      <c r="CQ11" s="129">
+        <v>0</v>
+      </c>
+      <c r="CR11" s="129">
         <v>0</v>
       </c>
     </row>
@@ -6951,125 +7099,125 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H16" s="215"/>
-      <c r="I16" s="215"/>
-      <c r="J16" s="215"/>
-      <c r="K16" s="215"/>
-      <c r="L16" s="215"/>
-      <c r="M16" s="215"/>
-      <c r="N16" s="216"/>
-      <c r="O16" s="220"/>
-      <c r="P16" s="215"/>
-      <c r="Q16" s="215"/>
-      <c r="R16" s="215"/>
-      <c r="S16" s="215"/>
-      <c r="T16" s="215"/>
-      <c r="U16" s="215"/>
-      <c r="V16" s="215">
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="125"/>
+      <c r="N16" s="126"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="125"/>
+      <c r="R16" s="125"/>
+      <c r="S16" s="125"/>
+      <c r="T16" s="125"/>
+      <c r="U16" s="125"/>
+      <c r="V16" s="125">
         <v>99</v>
       </c>
-      <c r="W16" s="217">
+      <c r="W16" s="127">
         <v>99</v>
       </c>
-      <c r="X16" s="217">
+      <c r="X16" s="127">
         <v>99</v>
       </c>
-      <c r="Y16" s="218">
+      <c r="Y16" s="128">
         <v>99</v>
       </c>
-      <c r="Z16" s="218">
+      <c r="Z16" s="128">
         <v>99</v>
       </c>
-      <c r="AA16" s="218">
+      <c r="AA16" s="128">
         <v>99</v>
       </c>
-      <c r="AB16" s="215"/>
-      <c r="AC16" s="217"/>
-      <c r="AD16" s="218"/>
-      <c r="AE16" s="218"/>
-      <c r="AF16" s="218"/>
-      <c r="AG16" s="218"/>
-      <c r="AH16" s="218"/>
-      <c r="AI16" s="218"/>
-      <c r="AJ16" s="218">
+      <c r="AB16" s="125"/>
+      <c r="AC16" s="127"/>
+      <c r="AD16" s="128"/>
+      <c r="AE16" s="128"/>
+      <c r="AF16" s="128"/>
+      <c r="AG16" s="128"/>
+      <c r="AH16" s="128"/>
+      <c r="AI16" s="128"/>
+      <c r="AJ16" s="128">
         <v>99</v>
       </c>
-      <c r="AK16" s="215"/>
-      <c r="AL16" s="217"/>
-      <c r="AM16" s="218"/>
-      <c r="AN16" s="218"/>
-      <c r="AO16" s="218"/>
-      <c r="AP16" s="218"/>
-      <c r="AQ16" s="218">
+      <c r="AK16" s="125"/>
+      <c r="AL16" s="127"/>
+      <c r="AM16" s="128"/>
+      <c r="AN16" s="128"/>
+      <c r="AO16" s="128"/>
+      <c r="AP16" s="128"/>
+      <c r="AQ16" s="128">
         <v>99</v>
       </c>
-      <c r="AR16" s="215"/>
-      <c r="AS16" s="215"/>
-      <c r="AT16" s="215"/>
-      <c r="AU16" s="215"/>
-      <c r="AV16" s="215"/>
-      <c r="AW16" s="215"/>
-      <c r="AX16" s="215"/>
-      <c r="AY16" s="215"/>
-      <c r="AZ16" s="215"/>
-      <c r="BA16" s="215"/>
-      <c r="BB16" s="215"/>
-      <c r="BC16" s="215"/>
-      <c r="BD16" s="215"/>
-      <c r="BE16" s="215"/>
-      <c r="BF16" s="215"/>
-      <c r="BG16" s="215"/>
-      <c r="BH16" s="215"/>
-      <c r="BI16" s="215"/>
-      <c r="BJ16" s="215"/>
-      <c r="BK16" s="215"/>
-      <c r="BL16" s="215"/>
-      <c r="BM16" s="215"/>
-      <c r="BN16" s="215"/>
-      <c r="BO16" s="215"/>
-      <c r="BP16" s="215"/>
-      <c r="BQ16" s="215"/>
-      <c r="BR16" s="215"/>
-      <c r="BS16" s="215"/>
-      <c r="BT16" s="215"/>
-      <c r="BU16" s="215"/>
-      <c r="BV16" s="215"/>
-      <c r="BW16" s="215">
+      <c r="AR16" s="125"/>
+      <c r="AS16" s="125"/>
+      <c r="AT16" s="125"/>
+      <c r="AU16" s="125"/>
+      <c r="AV16" s="125"/>
+      <c r="AW16" s="125"/>
+      <c r="AX16" s="125"/>
+      <c r="AY16" s="125"/>
+      <c r="AZ16" s="125"/>
+      <c r="BA16" s="125"/>
+      <c r="BB16" s="125"/>
+      <c r="BC16" s="125"/>
+      <c r="BD16" s="125"/>
+      <c r="BE16" s="125"/>
+      <c r="BF16" s="125"/>
+      <c r="BG16" s="125"/>
+      <c r="BH16" s="125"/>
+      <c r="BI16" s="125"/>
+      <c r="BJ16" s="125"/>
+      <c r="BK16" s="125"/>
+      <c r="BL16" s="125"/>
+      <c r="BM16" s="125"/>
+      <c r="BN16" s="125"/>
+      <c r="BO16" s="125"/>
+      <c r="BP16" s="125"/>
+      <c r="BQ16" s="125"/>
+      <c r="BR16" s="125"/>
+      <c r="BS16" s="125"/>
+      <c r="BT16" s="125"/>
+      <c r="BU16" s="125"/>
+      <c r="BV16" s="125"/>
+      <c r="BW16" s="125">
         <v>99</v>
       </c>
-      <c r="BX16" s="215">
+      <c r="BX16" s="125">
         <v>99</v>
       </c>
-      <c r="BY16" s="215">
+      <c r="BY16" s="125">
         <v>99</v>
       </c>
-      <c r="BZ16" s="215">
+      <c r="BZ16" s="125">
         <v>99</v>
       </c>
-      <c r="CA16" s="215">
+      <c r="CA16" s="125">
         <v>99</v>
       </c>
-      <c r="CB16" s="215">
+      <c r="CB16" s="125">
         <v>99</v>
       </c>
-      <c r="CC16" s="215"/>
-      <c r="CD16" s="215"/>
-      <c r="CE16" s="215"/>
-      <c r="CF16" s="215"/>
-      <c r="CG16" s="215"/>
-      <c r="CH16" s="215"/>
-      <c r="CI16" s="215"/>
-      <c r="CJ16" s="215"/>
-      <c r="CK16" s="215"/>
-      <c r="CL16" s="215"/>
-      <c r="CM16" s="215"/>
-      <c r="CN16" s="215"/>
-      <c r="CO16" s="215"/>
-      <c r="CP16" s="215"/>
-      <c r="CQ16" s="219">
-        <v>0</v>
-      </c>
-      <c r="CR16" s="219">
+      <c r="CC16" s="125"/>
+      <c r="CD16" s="125"/>
+      <c r="CE16" s="125"/>
+      <c r="CF16" s="125"/>
+      <c r="CG16" s="125"/>
+      <c r="CH16" s="125"/>
+      <c r="CI16" s="125"/>
+      <c r="CJ16" s="125"/>
+      <c r="CK16" s="125"/>
+      <c r="CL16" s="125"/>
+      <c r="CM16" s="125"/>
+      <c r="CN16" s="125"/>
+      <c r="CO16" s="125"/>
+      <c r="CP16" s="125"/>
+      <c r="CQ16" s="129">
+        <v>0</v>
+      </c>
+      <c r="CR16" s="129">
         <v>0</v>
       </c>
     </row>
@@ -7097,125 +7245,125 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H17" s="215"/>
-      <c r="I17" s="215"/>
-      <c r="J17" s="215"/>
-      <c r="K17" s="215"/>
-      <c r="L17" s="215"/>
-      <c r="M17" s="215"/>
-      <c r="N17" s="216"/>
-      <c r="O17" s="220"/>
-      <c r="P17" s="215"/>
-      <c r="Q17" s="215"/>
-      <c r="R17" s="215"/>
-      <c r="S17" s="215"/>
-      <c r="T17" s="215"/>
-      <c r="U17" s="215"/>
-      <c r="V17" s="215">
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="126"/>
+      <c r="O17" s="130"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
+      <c r="S17" s="125"/>
+      <c r="T17" s="125"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="125">
         <v>99</v>
       </c>
-      <c r="W17" s="217">
+      <c r="W17" s="127">
         <v>99</v>
       </c>
-      <c r="X17" s="217">
+      <c r="X17" s="127">
         <v>99</v>
       </c>
-      <c r="Y17" s="218">
+      <c r="Y17" s="128">
         <v>99</v>
       </c>
-      <c r="Z17" s="218">
+      <c r="Z17" s="128">
         <v>99</v>
       </c>
-      <c r="AA17" s="218">
+      <c r="AA17" s="128">
         <v>99</v>
       </c>
-      <c r="AB17" s="215"/>
-      <c r="AC17" s="217"/>
-      <c r="AD17" s="218"/>
-      <c r="AE17" s="218"/>
-      <c r="AF17" s="218"/>
-      <c r="AG17" s="218"/>
-      <c r="AH17" s="218"/>
-      <c r="AI17" s="218"/>
-      <c r="AJ17" s="218">
+      <c r="AB17" s="125"/>
+      <c r="AC17" s="127"/>
+      <c r="AD17" s="128"/>
+      <c r="AE17" s="128"/>
+      <c r="AF17" s="128"/>
+      <c r="AG17" s="128"/>
+      <c r="AH17" s="128"/>
+      <c r="AI17" s="128"/>
+      <c r="AJ17" s="128">
         <v>99</v>
       </c>
-      <c r="AK17" s="215"/>
-      <c r="AL17" s="217"/>
-      <c r="AM17" s="218"/>
-      <c r="AN17" s="218"/>
-      <c r="AO17" s="218"/>
-      <c r="AP17" s="218"/>
-      <c r="AQ17" s="218">
+      <c r="AK17" s="125"/>
+      <c r="AL17" s="127"/>
+      <c r="AM17" s="128"/>
+      <c r="AN17" s="128"/>
+      <c r="AO17" s="128"/>
+      <c r="AP17" s="128"/>
+      <c r="AQ17" s="128">
         <v>99</v>
       </c>
-      <c r="AR17" s="215"/>
-      <c r="AS17" s="215"/>
-      <c r="AT17" s="215"/>
-      <c r="AU17" s="215"/>
-      <c r="AV17" s="215"/>
-      <c r="AW17" s="215"/>
-      <c r="AX17" s="215"/>
-      <c r="AY17" s="215"/>
-      <c r="AZ17" s="215"/>
-      <c r="BA17" s="215"/>
-      <c r="BB17" s="215"/>
-      <c r="BC17" s="215"/>
-      <c r="BD17" s="215"/>
-      <c r="BE17" s="215"/>
-      <c r="BF17" s="215"/>
-      <c r="BG17" s="215"/>
-      <c r="BH17" s="215"/>
-      <c r="BI17" s="215"/>
-      <c r="BJ17" s="215"/>
-      <c r="BK17" s="215"/>
-      <c r="BL17" s="215"/>
-      <c r="BM17" s="215"/>
-      <c r="BN17" s="215"/>
-      <c r="BO17" s="215"/>
-      <c r="BP17" s="215"/>
-      <c r="BQ17" s="215"/>
-      <c r="BR17" s="215"/>
-      <c r="BS17" s="215"/>
-      <c r="BT17" s="215"/>
-      <c r="BU17" s="215"/>
-      <c r="BV17" s="215"/>
-      <c r="BW17" s="215">
+      <c r="AR17" s="125"/>
+      <c r="AS17" s="125"/>
+      <c r="AT17" s="125"/>
+      <c r="AU17" s="125"/>
+      <c r="AV17" s="125"/>
+      <c r="AW17" s="125"/>
+      <c r="AX17" s="125"/>
+      <c r="AY17" s="125"/>
+      <c r="AZ17" s="125"/>
+      <c r="BA17" s="125"/>
+      <c r="BB17" s="125"/>
+      <c r="BC17" s="125"/>
+      <c r="BD17" s="125"/>
+      <c r="BE17" s="125"/>
+      <c r="BF17" s="125"/>
+      <c r="BG17" s="125"/>
+      <c r="BH17" s="125"/>
+      <c r="BI17" s="125"/>
+      <c r="BJ17" s="125"/>
+      <c r="BK17" s="125"/>
+      <c r="BL17" s="125"/>
+      <c r="BM17" s="125"/>
+      <c r="BN17" s="125"/>
+      <c r="BO17" s="125"/>
+      <c r="BP17" s="125"/>
+      <c r="BQ17" s="125"/>
+      <c r="BR17" s="125"/>
+      <c r="BS17" s="125"/>
+      <c r="BT17" s="125"/>
+      <c r="BU17" s="125"/>
+      <c r="BV17" s="125"/>
+      <c r="BW17" s="125">
         <v>99</v>
       </c>
-      <c r="BX17" s="215">
+      <c r="BX17" s="125">
         <v>99</v>
       </c>
-      <c r="BY17" s="215">
+      <c r="BY17" s="125">
         <v>99</v>
       </c>
-      <c r="BZ17" s="215">
+      <c r="BZ17" s="125">
         <v>99</v>
       </c>
-      <c r="CA17" s="215">
+      <c r="CA17" s="125">
         <v>99</v>
       </c>
-      <c r="CB17" s="215">
+      <c r="CB17" s="125">
         <v>99</v>
       </c>
-      <c r="CC17" s="215"/>
-      <c r="CD17" s="215"/>
-      <c r="CE17" s="215"/>
-      <c r="CF17" s="215"/>
-      <c r="CG17" s="215"/>
-      <c r="CH17" s="215"/>
-      <c r="CI17" s="215"/>
-      <c r="CJ17" s="215"/>
-      <c r="CK17" s="215"/>
-      <c r="CL17" s="215"/>
-      <c r="CM17" s="215"/>
-      <c r="CN17" s="215"/>
-      <c r="CO17" s="215"/>
-      <c r="CP17" s="215"/>
-      <c r="CQ17" s="219">
-        <v>0</v>
-      </c>
-      <c r="CR17" s="219">
+      <c r="CC17" s="125"/>
+      <c r="CD17" s="125"/>
+      <c r="CE17" s="125"/>
+      <c r="CF17" s="125"/>
+      <c r="CG17" s="125"/>
+      <c r="CH17" s="125"/>
+      <c r="CI17" s="125"/>
+      <c r="CJ17" s="125"/>
+      <c r="CK17" s="125"/>
+      <c r="CL17" s="125"/>
+      <c r="CM17" s="125"/>
+      <c r="CN17" s="125"/>
+      <c r="CO17" s="125"/>
+      <c r="CP17" s="125"/>
+      <c r="CQ17" s="129">
+        <v>0</v>
+      </c>
+      <c r="CR17" s="129">
         <v>0</v>
       </c>
     </row>
@@ -7229,19 +7377,19 @@
       <c r="C18" s="4"/>
       <c r="D18" s="110">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7122641509433967</v>
       </c>
       <c r="E18" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.2058823529411766</v>
       </c>
       <c r="F18" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="G18" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>28.75</v>
       </c>
       <c r="H18" s="112"/>
       <c r="I18" s="70"/>
@@ -7275,14 +7423,30 @@
       <c r="AA18" s="10">
         <v>99</v>
       </c>
-      <c r="AB18" s="118"/>
-      <c r="AC18" s="85"/>
-      <c r="AD18" s="93"/>
-      <c r="AE18" s="75"/>
-      <c r="AF18" s="115"/>
-      <c r="AG18" s="115"/>
-      <c r="AH18" s="115"/>
-      <c r="AI18" s="68"/>
+      <c r="AB18" s="118">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="92">
+        <v>0.75</v>
+      </c>
+      <c r="AD18" s="93">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="75">
+        <v>0.75</v>
+      </c>
+      <c r="AF18" s="115">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="115">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="68">
+        <v>1</v>
+      </c>
       <c r="AJ18" s="10">
         <v>99</v>
       </c>
@@ -7298,7 +7462,9 @@
       <c r="AR18" s="64"/>
       <c r="AS18" s="81"/>
       <c r="AT18" s="84"/>
-      <c r="AU18" s="70"/>
+      <c r="AU18" s="70">
+        <v>0.5</v>
+      </c>
       <c r="AV18" s="99"/>
       <c r="AW18" s="101"/>
       <c r="AX18" s="120"/>
@@ -7372,19 +7538,19 @@
       <c r="C19" s="4"/>
       <c r="D19" s="110">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.1226415094339623</v>
       </c>
       <c r="E19" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.9117647058823528</v>
       </c>
       <c r="F19" s="89">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="G19" s="89">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="H19" s="112"/>
       <c r="I19" s="90"/>
@@ -7418,14 +7584,30 @@
       <c r="AA19" s="93">
         <v>99</v>
       </c>
-      <c r="AB19" s="90"/>
-      <c r="AC19" s="92"/>
-      <c r="AD19" s="115"/>
-      <c r="AE19" s="93"/>
-      <c r="AF19" s="93"/>
-      <c r="AG19" s="93"/>
-      <c r="AH19" s="93"/>
-      <c r="AI19" s="93"/>
+      <c r="AB19" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="92">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="115">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="93">
+        <v>0.5</v>
+      </c>
+      <c r="AF19" s="93">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="93">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="93">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="93">
+        <v>1</v>
+      </c>
       <c r="AJ19" s="93">
         <v>99</v>
       </c>
@@ -7441,7 +7623,9 @@
       <c r="AR19" s="90"/>
       <c r="AS19" s="90"/>
       <c r="AT19" s="90"/>
-      <c r="AU19" s="90"/>
+      <c r="AU19" s="90">
+        <v>1</v>
+      </c>
       <c r="AV19" s="90"/>
       <c r="AW19" s="90"/>
       <c r="AX19" s="90"/>
@@ -7518,19 +7702,19 @@
       <c r="C20" s="4"/>
       <c r="D20" s="110">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7547169811320753</v>
       </c>
       <c r="E20" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.2205882352941178</v>
       </c>
       <c r="F20" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.55</v>
       </c>
       <c r="G20" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>29.2</v>
       </c>
       <c r="H20" s="112"/>
       <c r="I20" s="70"/>
@@ -7564,14 +7748,30 @@
       <c r="AA20" s="10">
         <v>99</v>
       </c>
-      <c r="AB20" s="118"/>
-      <c r="AC20" s="85"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="75"/>
-      <c r="AF20" s="115"/>
-      <c r="AG20" s="115"/>
-      <c r="AH20" s="115"/>
-      <c r="AI20" s="115"/>
+      <c r="AB20" s="118">
+        <v>0.8</v>
+      </c>
+      <c r="AC20" s="92">
+        <v>0.75</v>
+      </c>
+      <c r="AD20" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="75">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="115">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="115">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="115">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="115">
+        <v>1</v>
+      </c>
       <c r="AJ20" s="10">
         <v>99</v>
       </c>
@@ -7587,7 +7787,9 @@
       <c r="AR20" s="64"/>
       <c r="AS20" s="84"/>
       <c r="AT20" s="84"/>
-      <c r="AU20" s="70"/>
+      <c r="AU20" s="70">
+        <v>1</v>
+      </c>
       <c r="AV20" s="99"/>
       <c r="AW20" s="101"/>
       <c r="AX20" s="120"/>
@@ -7664,19 +7866,19 @@
       <c r="C21" s="5"/>
       <c r="D21" s="110">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6037735849056602</v>
       </c>
       <c r="E21" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.4705882352941178</v>
       </c>
       <c r="F21" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G21" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H21" s="112"/>
       <c r="I21" s="70"/>
@@ -7710,14 +7912,30 @@
       <c r="AA21" s="10">
         <v>99</v>
       </c>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="115"/>
-      <c r="AE21" s="93"/>
-      <c r="AF21" s="115"/>
-      <c r="AG21" s="115"/>
-      <c r="AH21" s="115"/>
-      <c r="AI21" s="115"/>
+      <c r="AB21" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="92">
+        <v>0.5</v>
+      </c>
+      <c r="AD21" s="115">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="93">
+        <v>0.5</v>
+      </c>
+      <c r="AF21" s="115">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="115">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="115">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="115">
+        <v>0</v>
+      </c>
       <c r="AJ21" s="10">
         <v>99</v>
       </c>
@@ -7733,7 +7951,9 @@
       <c r="AR21" s="64"/>
       <c r="AS21" s="81"/>
       <c r="AT21" s="84"/>
-      <c r="AU21" s="70"/>
+      <c r="AU21" s="70">
+        <v>0.5</v>
+      </c>
       <c r="AV21" s="99"/>
       <c r="AW21" s="101"/>
       <c r="AX21" s="120"/>
@@ -7810,19 +8030,19 @@
       <c r="C22" s="4"/>
       <c r="D22" s="110">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5707547169811322</v>
       </c>
       <c r="E22" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.1323529411764706</v>
       </c>
       <c r="F22" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="G22" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>27.25</v>
       </c>
       <c r="H22" s="112"/>
       <c r="I22" s="70"/>
@@ -7856,14 +8076,30 @@
       <c r="AA22" s="68">
         <v>99</v>
       </c>
-      <c r="AB22" s="118"/>
-      <c r="AC22" s="85"/>
-      <c r="AD22" s="115"/>
-      <c r="AE22" s="75"/>
-      <c r="AF22" s="115"/>
-      <c r="AG22" s="115"/>
-      <c r="AH22" s="115"/>
-      <c r="AI22" s="68"/>
+      <c r="AB22" s="118">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="92">
+        <v>0.75</v>
+      </c>
+      <c r="AD22" s="115">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="75">
+        <v>0.75</v>
+      </c>
+      <c r="AF22" s="115">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="115">
+        <v>0.75</v>
+      </c>
+      <c r="AH22" s="115">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="68">
+        <v>1</v>
+      </c>
       <c r="AJ22" s="68">
         <v>99</v>
       </c>
@@ -7879,7 +8115,9 @@
       <c r="AR22" s="70"/>
       <c r="AS22" s="81"/>
       <c r="AT22" s="84"/>
-      <c r="AU22" s="70"/>
+      <c r="AU22" s="70">
+        <v>1</v>
+      </c>
       <c r="AV22" s="99"/>
       <c r="AW22" s="101"/>
       <c r="AX22" s="120"/>
@@ -7956,19 +8194,19 @@
       <c r="C23" s="4"/>
       <c r="D23" s="110">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5471698113207548</v>
       </c>
       <c r="E23" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.9852941176470587</v>
       </c>
       <c r="F23" s="89">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="G23" s="89">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H23" s="112"/>
       <c r="I23" s="90"/>
@@ -8002,14 +8240,30 @@
       <c r="AA23" s="93">
         <v>99</v>
       </c>
-      <c r="AB23" s="90"/>
-      <c r="AC23" s="92"/>
-      <c r="AD23" s="115"/>
-      <c r="AE23" s="93"/>
-      <c r="AF23" s="93"/>
-      <c r="AG23" s="93"/>
-      <c r="AH23" s="93"/>
-      <c r="AI23" s="93"/>
+      <c r="AB23" s="90">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="92">
+        <v>0.75</v>
+      </c>
+      <c r="AD23" s="115">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="93">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="93">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="93">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="93">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="93">
+        <v>1</v>
+      </c>
       <c r="AJ23" s="93">
         <v>99</v>
       </c>
@@ -8605,35 +8859,35 @@
       </c>
       <c r="AB26" s="72">
         <f t="shared" si="4"/>
-        <v>0.95833333333333337</v>
+        <v>0.96250000000000002</v>
       </c>
       <c r="AC26" s="72">
         <f t="shared" si="4"/>
-        <v>0.6875</v>
+        <v>0.71875</v>
       </c>
       <c r="AD26" s="72">
         <f t="shared" si="4"/>
-        <v>0.79166666666666663</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="AE26" s="80">
         <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="AF26" s="117">
         <f>AVERAGE(AF9:AF24)</f>
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AG26" s="117">
         <f>AVERAGE(AG9:AG24)</f>
-        <v>0.52083333333333337</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="AH26" s="117">
         <f>AVERAGE(AH9:AH24)</f>
-        <v>0.85416666666666663</v>
+        <v>0.84375</v>
       </c>
       <c r="AI26" s="72">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AJ26" s="72">
         <f t="shared" si="4"/>
@@ -8679,9 +8933,9 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AU26" s="72" t="e">
+      <c r="AU26" s="72">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.8</v>
       </c>
       <c r="AV26" s="98" t="e">
         <f t="shared" si="5"/>
@@ -12141,7 +12395,7 @@
     <row r="37" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G37" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>28.75</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" ref="H37:AK37" si="61">H18*H$6</f>
@@ -12225,35 +12479,35 @@
       </c>
       <c r="AB37" s="69">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC37" s="69">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD37" s="69">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE37" s="80">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AF37" s="117">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG37" s="117">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH37" s="117">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI37" s="69">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ37" s="69">
         <f t="shared" si="61"/>
@@ -12301,7 +12555,7 @@
       </c>
       <c r="AU37" s="69">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AV37" s="98">
         <f t="shared" si="62"/>
@@ -12503,7 +12757,7 @@
     <row r="38" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G38" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" ref="H38:AK38" si="66">H19*H$6</f>
@@ -12587,23 +12841,23 @@
       </c>
       <c r="AB38" s="69">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC38" s="69">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD38" s="69">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE38" s="80">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF38" s="117">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG38" s="117">
         <f t="shared" si="12"/>
@@ -12611,11 +12865,11 @@
       </c>
       <c r="AH38" s="117">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI38" s="69">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ38" s="69">
         <f t="shared" si="66"/>
@@ -12663,7 +12917,7 @@
       </c>
       <c r="AU38" s="69">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV38" s="98">
         <f t="shared" si="67"/>
@@ -12865,7 +13119,7 @@
     <row r="39" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G39" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>29.2</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" ref="H39:AK39" si="71">H20*H$6</f>
@@ -12949,35 +13203,35 @@
       </c>
       <c r="AB39" s="69">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AC39" s="69">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD39" s="69">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE39" s="80">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF39" s="117">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG39" s="117">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH39" s="117">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI39" s="69">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ39" s="69">
         <f t="shared" si="71"/>
@@ -13025,7 +13279,7 @@
       </c>
       <c r="AU39" s="69">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV39" s="98">
         <f t="shared" si="72"/>
@@ -13227,7 +13481,7 @@
     <row r="40" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G40" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" ref="H40:AK40" si="76">H21*H$6</f>
@@ -13311,23 +13565,23 @@
       </c>
       <c r="AB40" s="69">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC40" s="69">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD40" s="69">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE40" s="80">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF40" s="117">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG40" s="117">
         <f t="shared" si="12"/>
@@ -13335,7 +13589,7 @@
       </c>
       <c r="AH40" s="117">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI40" s="69">
         <f t="shared" si="76"/>
@@ -13387,7 +13641,7 @@
       </c>
       <c r="AU40" s="69">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AV40" s="98">
         <f t="shared" si="77"/>
@@ -13589,7 +13843,7 @@
     <row r="41" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G41" s="69">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>27.25</v>
       </c>
       <c r="H41" s="69">
         <f t="shared" ref="H41:AK41" si="81">H22*H$6</f>
@@ -13673,35 +13927,35 @@
       </c>
       <c r="AB41" s="69">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC41" s="69">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD41" s="69">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE41" s="80">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AF41" s="117">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG41" s="117">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AH41" s="117">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI41" s="69">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ41" s="69">
         <f t="shared" si="81"/>
@@ -13749,7 +14003,7 @@
       </c>
       <c r="AU41" s="69">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV41" s="98">
         <f t="shared" si="82"/>
@@ -13953,7 +14207,7 @@
       <c r="E42" s="19"/>
       <c r="G42" s="69">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H42" s="69">
         <f t="shared" ref="H42:AK42" si="86">H23*H$6</f>
@@ -14037,27 +14291,27 @@
       </c>
       <c r="AB42" s="69">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC42" s="69">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD42" s="69">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE42" s="80">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF42" s="117">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG42" s="117">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH42" s="117">
         <f t="shared" si="12"/>
@@ -14065,7 +14319,7 @@
       </c>
       <c r="AI42" s="69">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ42" s="69">
         <f t="shared" si="86"/>
@@ -18781,7 +19035,7 @@
     <row r="59" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G59" s="2">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H59" s="2">
         <f t="shared" ref="H59:AK59" si="154">H18*H$7</f>
@@ -18865,35 +19119,35 @@
       </c>
       <c r="AB59" s="69">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC59" s="69">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AD59" s="69">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE59" s="80">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AF59" s="117">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG59" s="117">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH59" s="117">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI59" s="69">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ59" s="69">
         <f t="shared" si="154"/>
@@ -19143,7 +19397,7 @@
     <row r="60" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G60" s="2">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="H60" s="2">
         <f t="shared" ref="H60:AK60" si="159">H19*H$7</f>
@@ -19227,23 +19481,23 @@
       </c>
       <c r="AB60" s="69">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC60" s="69">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD60" s="69">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE60" s="80">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF60" s="117">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG60" s="117">
         <f t="shared" si="105"/>
@@ -19251,11 +19505,11 @@
       </c>
       <c r="AH60" s="117">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI60" s="69">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ60" s="69">
         <f t="shared" si="159"/>
@@ -19505,7 +19759,7 @@
     <row r="61" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G61" s="2">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>7.55</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" ref="H61:AK61" si="164">H20*H$7</f>
@@ -19589,35 +19843,35 @@
       </c>
       <c r="AB61" s="69">
         <f t="shared" si="164"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC61" s="69">
         <f t="shared" si="164"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AD61" s="69">
         <f t="shared" si="164"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE61" s="80">
         <f t="shared" si="164"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF61" s="117">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG61" s="117">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH61" s="117">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI61" s="69">
         <f t="shared" si="164"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ61" s="69">
         <f t="shared" si="164"/>
@@ -19867,7 +20121,7 @@
     <row r="62" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G62" s="2">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H62" s="2">
         <f t="shared" ref="H62:AK62" si="169">H21*H$7</f>
@@ -19951,23 +20205,23 @@
       </c>
       <c r="AB62" s="69">
         <f t="shared" si="169"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC62" s="69">
         <f t="shared" si="169"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD62" s="69">
         <f t="shared" si="169"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE62" s="80">
         <f t="shared" si="169"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF62" s="117">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG62" s="117">
         <f t="shared" si="105"/>
@@ -19975,7 +20229,7 @@
       </c>
       <c r="AH62" s="117">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI62" s="69">
         <f t="shared" si="169"/>
@@ -20229,7 +20483,7 @@
     <row r="63" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G63" s="69">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="H63" s="69">
         <f t="shared" ref="H63:AK63" si="174">H22*H$7</f>
@@ -20313,35 +20567,35 @@
       </c>
       <c r="AB63" s="69">
         <f t="shared" si="174"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC63" s="69">
         <f t="shared" si="174"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AD63" s="69">
         <f t="shared" si="174"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE63" s="80">
         <f t="shared" si="174"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AF63" s="117">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG63" s="117">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AH63" s="117">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI63" s="69">
         <f t="shared" si="174"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ63" s="69">
         <f t="shared" si="174"/>
@@ -20591,7 +20845,7 @@
     <row r="64" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G64" s="69">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="H64" s="69">
         <f t="shared" ref="H64:AK64" si="179">H23*H$7</f>
@@ -20675,27 +20929,27 @@
       </c>
       <c r="AB64" s="69">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC64" s="69">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AD64" s="69">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE64" s="80">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF64" s="117">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG64" s="117">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH64" s="117">
         <f t="shared" si="105"/>
@@ -20703,7 +20957,7 @@
       </c>
       <c r="AI64" s="69">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ64" s="69">
         <f t="shared" si="179"/>
@@ -22066,24 +22320,76 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="CR2:CR5"/>
-    <mergeCell ref="CP3:CP5"/>
-    <mergeCell ref="CC2:CO2"/>
-    <mergeCell ref="CC3:CO3"/>
-    <mergeCell ref="CC4:CC5"/>
-    <mergeCell ref="CN4:CN5"/>
-    <mergeCell ref="CO4:CO5"/>
-    <mergeCell ref="CD4:CD5"/>
-    <mergeCell ref="CE4:CE5"/>
-    <mergeCell ref="CF4:CF5"/>
-    <mergeCell ref="CQ2:CQ5"/>
-    <mergeCell ref="CG4:CG5"/>
-    <mergeCell ref="CH4:CH5"/>
-    <mergeCell ref="CI4:CI5"/>
-    <mergeCell ref="CJ4:CJ5"/>
-    <mergeCell ref="CK4:CK5"/>
-    <mergeCell ref="CL4:CL5"/>
-    <mergeCell ref="CM4:CM5"/>
+    <mergeCell ref="H1:O2"/>
+    <mergeCell ref="V1:BV1"/>
+    <mergeCell ref="CC1:CO1"/>
+    <mergeCell ref="BW1:CB1"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="BX2:BY3"/>
+    <mergeCell ref="CA2:CB3"/>
+    <mergeCell ref="P1:U3"/>
+    <mergeCell ref="BI3:BM3"/>
+    <mergeCell ref="BN2:BV2"/>
+    <mergeCell ref="BN3:BV3"/>
+    <mergeCell ref="V3:AA3"/>
+    <mergeCell ref="AV2:BA2"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="V2:AQ2"/>
+    <mergeCell ref="AK3:AQ3"/>
+    <mergeCell ref="AV3:AX4"/>
+    <mergeCell ref="BN4:BN5"/>
+    <mergeCell ref="BO4:BO5"/>
+    <mergeCell ref="BP4:BP5"/>
+    <mergeCell ref="BQ4:BQ5"/>
+    <mergeCell ref="BR4:BR5"/>
+    <mergeCell ref="BS4:BS5"/>
+    <mergeCell ref="BT4:BT5"/>
+    <mergeCell ref="BV4:BV5"/>
+    <mergeCell ref="BB2:BM2"/>
+    <mergeCell ref="BE4:BE5"/>
+    <mergeCell ref="BF4:BF5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="BI4:BI5"/>
+    <mergeCell ref="BJ4:BJ5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BD3:BH3"/>
+    <mergeCell ref="BB3:BB5"/>
+    <mergeCell ref="BC3:BC5"/>
+    <mergeCell ref="BL4:BL5"/>
+    <mergeCell ref="BM4:BM5"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BK4:BK5"/>
+    <mergeCell ref="CC8:CO8"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="AV8:BA8"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AN4:AN5"/>
+    <mergeCell ref="BU4:BU5"/>
+    <mergeCell ref="AY3:AY5"/>
+    <mergeCell ref="AZ3:AZ5"/>
+    <mergeCell ref="BA3:BA5"/>
+    <mergeCell ref="BW2:BW5"/>
+    <mergeCell ref="BZ2:BZ5"/>
+    <mergeCell ref="BW8:CB8"/>
+    <mergeCell ref="BX4:BX5"/>
+    <mergeCell ref="BY4:BY5"/>
+    <mergeCell ref="AH4:AH5"/>
     <mergeCell ref="AR8:AT8"/>
     <mergeCell ref="AK8:AQ8"/>
     <mergeCell ref="AB8:AJ8"/>
@@ -22108,641 +22414,589 @@
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="AD4:AD5"/>
     <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="CC8:CO8"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="AV8:BA8"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="BU4:BU5"/>
-    <mergeCell ref="AY3:AY5"/>
-    <mergeCell ref="AZ3:AZ5"/>
-    <mergeCell ref="BA3:BA5"/>
-    <mergeCell ref="BW2:BW5"/>
-    <mergeCell ref="BZ2:BZ5"/>
-    <mergeCell ref="BW8:CB8"/>
-    <mergeCell ref="BX4:BX5"/>
-    <mergeCell ref="BY4:BY5"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="BN4:BN5"/>
-    <mergeCell ref="BO4:BO5"/>
-    <mergeCell ref="BP4:BP5"/>
-    <mergeCell ref="BQ4:BQ5"/>
-    <mergeCell ref="BR4:BR5"/>
-    <mergeCell ref="BS4:BS5"/>
-    <mergeCell ref="BT4:BT5"/>
-    <mergeCell ref="BV4:BV5"/>
-    <mergeCell ref="BB2:BM2"/>
-    <mergeCell ref="BE4:BE5"/>
-    <mergeCell ref="BF4:BF5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="BI4:BI5"/>
-    <mergeCell ref="BJ4:BJ5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BD3:BH3"/>
-    <mergeCell ref="BB3:BB5"/>
-    <mergeCell ref="BC3:BC5"/>
-    <mergeCell ref="BL4:BL5"/>
-    <mergeCell ref="BM4:BM5"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BK4:BK5"/>
-    <mergeCell ref="H1:O2"/>
-    <mergeCell ref="V1:BV1"/>
-    <mergeCell ref="CC1:CO1"/>
-    <mergeCell ref="BW1:CB1"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="BX2:BY3"/>
-    <mergeCell ref="CA2:CB3"/>
-    <mergeCell ref="P1:U3"/>
-    <mergeCell ref="BI3:BM3"/>
-    <mergeCell ref="BN2:BV2"/>
-    <mergeCell ref="BN3:BV3"/>
-    <mergeCell ref="V3:AA3"/>
-    <mergeCell ref="AV2:BA2"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="V2:AQ2"/>
-    <mergeCell ref="AK3:AQ3"/>
-    <mergeCell ref="AV3:AX4"/>
+    <mergeCell ref="CR2:CR5"/>
+    <mergeCell ref="CP3:CP5"/>
+    <mergeCell ref="CC2:CO2"/>
+    <mergeCell ref="CC3:CO3"/>
+    <mergeCell ref="CC4:CC5"/>
+    <mergeCell ref="CN4:CN5"/>
+    <mergeCell ref="CO4:CO5"/>
+    <mergeCell ref="CD4:CD5"/>
+    <mergeCell ref="CE4:CE5"/>
+    <mergeCell ref="CF4:CF5"/>
+    <mergeCell ref="CQ2:CQ5"/>
+    <mergeCell ref="CG4:CG5"/>
+    <mergeCell ref="CH4:CH5"/>
+    <mergeCell ref="CI4:CI5"/>
+    <mergeCell ref="CJ4:CJ5"/>
+    <mergeCell ref="CK4:CK5"/>
+    <mergeCell ref="CL4:CL5"/>
+    <mergeCell ref="CM4:CM5"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:E25">
-    <cfRule type="cellIs" dxfId="202" priority="321" operator="between">
+    <cfRule type="cellIs" dxfId="199" priority="321" operator="between">
       <formula>8</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="322" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="322" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CR9:CR21 CF9:CH25 AR22:AR25 AU9:AW25 I9:V25 CN9:CP25 AP9:AQ25 BA9:BA25 CC9:CD25 AI9:AM25 X9:AD25">
-    <cfRule type="cellIs" dxfId="200" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="316" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="317" operator="between">
+    <cfRule type="cellIs" dxfId="196" priority="317" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="318" operator="between">
+    <cfRule type="cellIs" dxfId="195" priority="318" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR9:AR21">
-    <cfRule type="cellIs" dxfId="197" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="310" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="311" operator="between">
+    <cfRule type="cellIs" dxfId="193" priority="311" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="312" operator="between">
+    <cfRule type="cellIs" dxfId="192" priority="312" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS9:AS19 AS21">
-    <cfRule type="cellIs" dxfId="194" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="292" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="293" operator="between">
+    <cfRule type="cellIs" dxfId="190" priority="293" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="294" operator="between">
+    <cfRule type="cellIs" dxfId="189" priority="294" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS22:AS23 AS25">
-    <cfRule type="cellIs" dxfId="191" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="289" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="290" operator="between">
+    <cfRule type="cellIs" dxfId="187" priority="290" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="291" operator="between">
+    <cfRule type="cellIs" dxfId="186" priority="291" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE18 AE20 AE22 AE25 AE9:AE14">
-    <cfRule type="cellIs" dxfId="188" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="265" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="266" operator="between">
+    <cfRule type="cellIs" dxfId="184" priority="266" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="267" operator="between">
+    <cfRule type="cellIs" dxfId="183" priority="267" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE9:CE23 CE25">
-    <cfRule type="cellIs" dxfId="185" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="250" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="251" operator="between">
+    <cfRule type="cellIs" dxfId="181" priority="251" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="252" operator="between">
+    <cfRule type="cellIs" dxfId="180" priority="252" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT9:AT19 AT21">
-    <cfRule type="cellIs" dxfId="182" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="235" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="236" operator="between">
+    <cfRule type="cellIs" dxfId="178" priority="236" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="237" operator="between">
+    <cfRule type="cellIs" dxfId="177" priority="237" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT22:AT23 AT25">
-    <cfRule type="cellIs" dxfId="179" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="232" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="233" operator="between">
+    <cfRule type="cellIs" dxfId="175" priority="233" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="234" operator="between">
+    <cfRule type="cellIs" dxfId="174" priority="234" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS20">
-    <cfRule type="cellIs" dxfId="176" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="205" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="206" operator="between">
+    <cfRule type="cellIs" dxfId="172" priority="206" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="207" operator="between">
+    <cfRule type="cellIs" dxfId="171" priority="207" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT20">
-    <cfRule type="cellIs" dxfId="173" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="199" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="200" operator="between">
+    <cfRule type="cellIs" dxfId="169" priority="200" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="201" operator="between">
+    <cfRule type="cellIs" dxfId="168" priority="201" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS24">
-    <cfRule type="cellIs" dxfId="170" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="193" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="194" operator="between">
+    <cfRule type="cellIs" dxfId="166" priority="194" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="195" operator="between">
+    <cfRule type="cellIs" dxfId="165" priority="195" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT24">
-    <cfRule type="cellIs" dxfId="167" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="187" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="188" operator="between">
+    <cfRule type="cellIs" dxfId="163" priority="188" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="189" operator="between">
+    <cfRule type="cellIs" dxfId="162" priority="189" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ9:CQ21">
-    <cfRule type="cellIs" dxfId="164" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="169" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="170" operator="between">
+    <cfRule type="cellIs" dxfId="160" priority="170" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="171" operator="between">
+    <cfRule type="cellIs" dxfId="159" priority="171" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE24">
-    <cfRule type="cellIs" dxfId="161" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="163" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="164" operator="between">
+    <cfRule type="cellIs" dxfId="157" priority="164" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="165" operator="between">
+    <cfRule type="cellIs" dxfId="156" priority="165" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH9:BJ25 BB9:BB25 BL9:BM25 BE9:BE25">
-    <cfRule type="cellIs" dxfId="158" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="160" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="161" operator="between">
+    <cfRule type="cellIs" dxfId="154" priority="161" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="162" operator="between">
+    <cfRule type="cellIs" dxfId="153" priority="162" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF9:BF23 BF25">
-    <cfRule type="cellIs" dxfId="155" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="157" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="158" operator="between">
+    <cfRule type="cellIs" dxfId="151" priority="158" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="159" operator="between">
+    <cfRule type="cellIs" dxfId="150" priority="159" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF24">
-    <cfRule type="cellIs" dxfId="152" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="154" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="155" operator="between">
+    <cfRule type="cellIs" dxfId="148" priority="155" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="156" operator="between">
+    <cfRule type="cellIs" dxfId="147" priority="156" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ9:BT21 BN9:BO21 BV9:BV21 BV24:BV25 BN24:BO25 BQ24:BT25">
-    <cfRule type="cellIs" dxfId="149" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="151" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="152" operator="between">
+    <cfRule type="cellIs" dxfId="145" priority="152" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="153" operator="between">
+    <cfRule type="cellIs" dxfId="144" priority="153" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP9:BP21 BP25">
-    <cfRule type="cellIs" dxfId="146" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="148" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="149" operator="between">
+    <cfRule type="cellIs" dxfId="142" priority="149" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="150" operator="between">
+    <cfRule type="cellIs" dxfId="141" priority="150" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP24">
-    <cfRule type="cellIs" dxfId="143" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="145" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="146" operator="between">
+    <cfRule type="cellIs" dxfId="139" priority="146" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="147" operator="between">
+    <cfRule type="cellIs" dxfId="138" priority="147" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ9:CB9 BW9:BX9 BW25:BX25 BZ25:CB25">
-    <cfRule type="cellIs" dxfId="140" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="142" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="143" operator="between">
+    <cfRule type="cellIs" dxfId="136" priority="143" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="144" operator="between">
+    <cfRule type="cellIs" dxfId="135" priority="144" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY9 BY25">
-    <cfRule type="cellIs" dxfId="137" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="139" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="140" operator="between">
+    <cfRule type="cellIs" dxfId="133" priority="140" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="141" operator="between">
+    <cfRule type="cellIs" dxfId="132" priority="141" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG9:BG25">
-    <cfRule type="cellIs" dxfId="134" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="133" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="134" operator="between">
+    <cfRule type="cellIs" dxfId="130" priority="134" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="135" operator="between">
+    <cfRule type="cellIs" dxfId="129" priority="135" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK9:BK25">
-    <cfRule type="cellIs" dxfId="131" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="130" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="131" operator="between">
+    <cfRule type="cellIs" dxfId="127" priority="131" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="132" operator="between">
+    <cfRule type="cellIs" dxfId="126" priority="132" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU9:BU21 BU24:BU25">
-    <cfRule type="cellIs" dxfId="128" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="127" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="128" operator="between">
+    <cfRule type="cellIs" dxfId="124" priority="128" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="129" operator="between">
+    <cfRule type="cellIs" dxfId="123" priority="129" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD9:BD25">
-    <cfRule type="cellIs" dxfId="125" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="124" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="125" operator="between">
+    <cfRule type="cellIs" dxfId="121" priority="125" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="126" operator="between">
+    <cfRule type="cellIs" dxfId="120" priority="126" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC9:BC25">
-    <cfRule type="cellIs" dxfId="122" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="121" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="122" operator="between">
+    <cfRule type="cellIs" dxfId="118" priority="122" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="123" operator="between">
+    <cfRule type="cellIs" dxfId="117" priority="123" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CI9:CI25">
-    <cfRule type="cellIs" dxfId="119" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="118" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="119" operator="between">
+    <cfRule type="cellIs" dxfId="115" priority="119" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="120" operator="between">
+    <cfRule type="cellIs" dxfId="114" priority="120" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ9:CJ25">
-    <cfRule type="cellIs" dxfId="116" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="115" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="116" operator="between">
+    <cfRule type="cellIs" dxfId="112" priority="116" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="117" operator="between">
+    <cfRule type="cellIs" dxfId="111" priority="117" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK9:CK25">
-    <cfRule type="cellIs" dxfId="113" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="112" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="113" operator="between">
+    <cfRule type="cellIs" dxfId="109" priority="113" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="114" operator="between">
+    <cfRule type="cellIs" dxfId="108" priority="114" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL9:CL25">
-    <cfRule type="cellIs" dxfId="110" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="109" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="110" operator="between">
+    <cfRule type="cellIs" dxfId="106" priority="110" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="111" operator="between">
+    <cfRule type="cellIs" dxfId="105" priority="111" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM9:CM25">
-    <cfRule type="cellIs" dxfId="107" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="106" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="107" operator="between">
+    <cfRule type="cellIs" dxfId="103" priority="107" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="108" operator="between">
+    <cfRule type="cellIs" dxfId="102" priority="108" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CR22:CR24">
-    <cfRule type="cellIs" dxfId="104" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="104" operator="between">
+    <cfRule type="cellIs" dxfId="100" priority="104" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="105" operator="between">
+    <cfRule type="cellIs" dxfId="99" priority="105" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ22:CQ24">
-    <cfRule type="cellIs" dxfId="101" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="100" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="101" operator="between">
+    <cfRule type="cellIs" dxfId="97" priority="101" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="102" operator="between">
+    <cfRule type="cellIs" dxfId="96" priority="102" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H24">
-    <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="97" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="98" operator="between">
+    <cfRule type="cellIs" dxfId="94" priority="98" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="99" operator="between">
+    <cfRule type="cellIs" dxfId="93" priority="99" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH9:AH25">
-    <cfRule type="cellIs" dxfId="95" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="94" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="95" operator="between">
+    <cfRule type="cellIs" dxfId="91" priority="95" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="96" operator="between">
+    <cfRule type="cellIs" dxfId="90" priority="96" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO9:AO25">
-    <cfRule type="cellIs" dxfId="92" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="91" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="92" operator="between">
+    <cfRule type="cellIs" dxfId="88" priority="92" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="93" operator="between">
+    <cfRule type="cellIs" dxfId="87" priority="93" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:W25">
-    <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="88" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="89" operator="between">
+    <cfRule type="cellIs" dxfId="85" priority="89" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="90" operator="between">
+    <cfRule type="cellIs" dxfId="84" priority="90" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG16:AG25 AG9:AG14">
-    <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="85" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="86" operator="between">
+    <cfRule type="cellIs" dxfId="82" priority="86" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="87" operator="between">
+    <cfRule type="cellIs" dxfId="81" priority="87" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG15">
-    <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="82" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="83" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="83" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="84" operator="between">
+    <cfRule type="cellIs" dxfId="78" priority="84" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF16:AF25 AF9:AF14">
-    <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="80" operator="between">
+    <cfRule type="cellIs" dxfId="76" priority="80" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="81" operator="between">
+    <cfRule type="cellIs" dxfId="75" priority="81" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF15">
-    <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="76" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="77" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="77" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="78" operator="between">
+    <cfRule type="cellIs" dxfId="72" priority="78" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN9:AN15 AN17:AN25">
-    <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="73" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="74" operator="between">
+    <cfRule type="cellIs" dxfId="70" priority="74" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="75" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="75" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
@@ -23205,144 +23459,144 @@
       <c r="C1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="196" t="s">
+      <c r="D1" s="198" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="198"/>
-      <c r="F1" s="196" t="s">
+      <c r="E1" s="199"/>
+      <c r="F1" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="197"/>
-      <c r="O1" s="197"/>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="197"/>
-      <c r="S1" s="197"/>
-      <c r="T1" s="197"/>
-      <c r="U1" s="197"/>
-      <c r="V1" s="197"/>
-      <c r="W1" s="197"/>
-      <c r="X1" s="197"/>
-      <c r="Y1" s="197"/>
-      <c r="Z1" s="197"/>
-      <c r="AA1" s="197"/>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="203"/>
-      <c r="AD1" s="203"/>
-      <c r="AE1" s="203"/>
-      <c r="AF1" s="203"/>
-      <c r="AG1" s="203"/>
-      <c r="AH1" s="203"/>
-      <c r="AI1" s="203"/>
-      <c r="AJ1" s="204"/>
-      <c r="AK1" s="200" t="s">
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="208"/>
+      <c r="P1" s="208"/>
+      <c r="Q1" s="208"/>
+      <c r="R1" s="208"/>
+      <c r="S1" s="208"/>
+      <c r="T1" s="208"/>
+      <c r="U1" s="208"/>
+      <c r="V1" s="208"/>
+      <c r="W1" s="208"/>
+      <c r="X1" s="208"/>
+      <c r="Y1" s="208"/>
+      <c r="Z1" s="208"/>
+      <c r="AA1" s="208"/>
+      <c r="AB1" s="208"/>
+      <c r="AC1" s="209"/>
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="209"/>
+      <c r="AG1" s="209"/>
+      <c r="AH1" s="209"/>
+      <c r="AI1" s="209"/>
+      <c r="AJ1" s="210"/>
+      <c r="AK1" s="205" t="s">
         <v>50</v>
       </c>
-      <c r="AL1" s="201"/>
-      <c r="AM1" s="201"/>
-      <c r="AN1" s="201"/>
-      <c r="AO1" s="201"/>
-      <c r="AP1" s="201"/>
-      <c r="AQ1" s="202"/>
-      <c r="AR1" s="196" t="s">
+      <c r="AL1" s="206"/>
+      <c r="AM1" s="206"/>
+      <c r="AN1" s="206"/>
+      <c r="AO1" s="206"/>
+      <c r="AP1" s="206"/>
+      <c r="AQ1" s="207"/>
+      <c r="AR1" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="AS1" s="198"/>
+      <c r="AS1" s="199"/>
     </row>
     <row r="2" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="29"/>
       <c r="C2" s="33"/>
       <c r="D2" s="36"/>
       <c r="E2" s="37"/>
-      <c r="F2" s="211" t="s">
+      <c r="F2" s="217" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
-      <c r="J2" s="212"/>
-      <c r="K2" s="212"/>
-      <c r="L2" s="212"/>
-      <c r="M2" s="212"/>
-      <c r="N2" s="212"/>
-      <c r="O2" s="212"/>
-      <c r="P2" s="212"/>
-      <c r="Q2" s="212"/>
-      <c r="R2" s="212"/>
-      <c r="S2" s="212"/>
-      <c r="T2" s="212"/>
-      <c r="U2" s="212"/>
-      <c r="V2" s="212"/>
-      <c r="W2" s="212"/>
-      <c r="X2" s="212"/>
-      <c r="Y2" s="212"/>
-      <c r="Z2" s="212"/>
-      <c r="AA2" s="212"/>
-      <c r="AB2" s="212"/>
-      <c r="AC2" s="209" t="s">
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="218"/>
+      <c r="O2" s="218"/>
+      <c r="P2" s="218"/>
+      <c r="Q2" s="218"/>
+      <c r="R2" s="218"/>
+      <c r="S2" s="218"/>
+      <c r="T2" s="218"/>
+      <c r="U2" s="218"/>
+      <c r="V2" s="218"/>
+      <c r="W2" s="218"/>
+      <c r="X2" s="218"/>
+      <c r="Y2" s="218"/>
+      <c r="Z2" s="218"/>
+      <c r="AA2" s="218"/>
+      <c r="AB2" s="218"/>
+      <c r="AC2" s="215" t="s">
         <v>35</v>
       </c>
-      <c r="AD2" s="213"/>
-      <c r="AE2" s="209" t="s">
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="213"/>
-      <c r="AG2" s="209" t="s">
+      <c r="AF2" s="219"/>
+      <c r="AG2" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" s="210"/>
-      <c r="AI2" s="213"/>
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="219"/>
       <c r="AJ2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="209" t="s">
+      <c r="AK2" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="210"/>
-      <c r="AM2" s="213"/>
+      <c r="AL2" s="216"/>
+      <c r="AM2" s="219"/>
       <c r="AN2" s="32"/>
       <c r="AO2" s="32"/>
       <c r="AP2" s="32"/>
       <c r="AQ2" s="44"/>
-      <c r="AR2" s="205" t="s">
+      <c r="AR2" s="211" t="s">
         <v>47</v>
       </c>
-      <c r="AS2" s="207" t="s">
+      <c r="AS2" s="213" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B3" s="29"/>
-      <c r="C3" s="192" t="s">
+      <c r="C3" s="200" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="193" t="s">
+      <c r="D3" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="195" t="s">
+      <c r="E3" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="196" t="s">
+      <c r="F3" s="198" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="198"/>
-      <c r="L3" s="196" t="s">
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="197"/>
-      <c r="N3" s="197"/>
-      <c r="O3" s="198"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="199"/>
       <c r="P3" s="32" t="s">
         <v>26</v>
       </c>
@@ -23352,20 +23606,20 @@
       <c r="R3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="209" t="s">
+      <c r="S3" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="210"/>
-      <c r="U3" s="210"/>
-      <c r="V3" s="210"/>
-      <c r="W3" s="210"/>
-      <c r="X3" s="213"/>
-      <c r="Y3" s="209" t="s">
+      <c r="T3" s="216"/>
+      <c r="U3" s="216"/>
+      <c r="V3" s="216"/>
+      <c r="W3" s="216"/>
+      <c r="X3" s="219"/>
+      <c r="Y3" s="215" t="s">
         <v>28</v>
       </c>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="210"/>
-      <c r="AB3" s="210"/>
+      <c r="Z3" s="216"/>
+      <c r="AA3" s="216"/>
+      <c r="AB3" s="216"/>
       <c r="AC3" s="36" t="s">
         <v>36</v>
       </c>
@@ -23378,11 +23632,11 @@
       <c r="AF3" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AG3" s="193" t="s">
+      <c r="AG3" s="204" t="s">
         <v>34</v>
       </c>
-      <c r="AH3" s="194"/>
-      <c r="AI3" s="195"/>
+      <c r="AH3" s="202"/>
+      <c r="AI3" s="201"/>
       <c r="AJ3" s="33" t="s">
         <v>7</v>
       </c>
@@ -23407,77 +23661,77 @@
       <c r="AQ3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AR3" s="206"/>
-      <c r="AS3" s="208"/>
+      <c r="AR3" s="212"/>
+      <c r="AS3" s="214"/>
     </row>
     <row r="4" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="29"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="195"/>
-      <c r="F4" s="193" t="s">
+      <c r="C4" s="200"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="204" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="194" t="s">
+      <c r="G4" s="202" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="194" t="s">
+      <c r="H4" s="202" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="194" t="s">
+      <c r="I4" s="202" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="194" t="s">
+      <c r="J4" s="202" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="195"/>
-      <c r="L4" s="193" t="s">
+      <c r="K4" s="201"/>
+      <c r="L4" s="204" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="194" t="s">
+      <c r="M4" s="202" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="194" t="s">
+      <c r="N4" s="202" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="195" t="s">
+      <c r="O4" s="201" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="192" t="s">
+      <c r="P4" s="200" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="192" t="s">
+      <c r="Q4" s="200" t="s">
         <v>55</v>
       </c>
-      <c r="R4" s="192" t="s">
+      <c r="R4" s="200" t="s">
         <v>55</v>
       </c>
-      <c r="S4" s="193" t="s">
+      <c r="S4" s="204" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="194" t="s">
+      <c r="T4" s="202" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="194" t="s">
+      <c r="U4" s="202" t="s">
         <v>52</v>
       </c>
-      <c r="V4" s="194" t="s">
+      <c r="V4" s="202" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="199" t="s">
+      <c r="W4" s="220" t="s">
         <v>54</v>
       </c>
-      <c r="X4" s="195"/>
-      <c r="Y4" s="193" t="s">
+      <c r="X4" s="201"/>
+      <c r="Y4" s="204" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="194" t="s">
+      <c r="Z4" s="202" t="s">
         <v>10</v>
       </c>
-      <c r="AA4" s="194" t="s">
+      <c r="AA4" s="202" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="214" t="s">
+      <c r="AB4" s="203" t="s">
         <v>53</v>
       </c>
       <c r="AC4" s="36"/>
@@ -23506,40 +23760,40 @@
     </row>
     <row r="5" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="29"/>
-      <c r="C5" s="192"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="195"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="204"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="204"/>
+      <c r="G5" s="202"/>
+      <c r="H5" s="202"/>
+      <c r="I5" s="202"/>
       <c r="J5" s="27" t="s">
         <v>56</v>
       </c>
       <c r="K5" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="193"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="194"/>
-      <c r="O5" s="195"/>
-      <c r="P5" s="192"/>
-      <c r="Q5" s="192"/>
-      <c r="R5" s="192"/>
-      <c r="S5" s="193"/>
-      <c r="T5" s="194"/>
-      <c r="U5" s="194"/>
-      <c r="V5" s="194"/>
+      <c r="L5" s="204"/>
+      <c r="M5" s="202"/>
+      <c r="N5" s="202"/>
+      <c r="O5" s="201"/>
+      <c r="P5" s="200"/>
+      <c r="Q5" s="200"/>
+      <c r="R5" s="200"/>
+      <c r="S5" s="204"/>
+      <c r="T5" s="202"/>
+      <c r="U5" s="202"/>
+      <c r="V5" s="202"/>
       <c r="W5" s="30" t="s">
         <v>58</v>
       </c>
       <c r="X5" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="Y5" s="193"/>
-      <c r="Z5" s="194"/>
-      <c r="AA5" s="194"/>
-      <c r="AB5" s="214"/>
+      <c r="Y5" s="204"/>
+      <c r="Z5" s="202"/>
+      <c r="AA5" s="202"/>
+      <c r="AB5" s="203"/>
       <c r="AC5" s="36"/>
       <c r="AD5" s="37"/>
       <c r="AE5" s="36"/>
@@ -23986,18 +24240,20 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
     <mergeCell ref="AK1:AQ1"/>
     <mergeCell ref="AR1:AS1"/>
     <mergeCell ref="F1:AJ1"/>
@@ -24012,20 +24268,18 @@
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BaremeJavaBaseTest2_GJ52.xlsx
+++ b/BaremeJavaBaseTest2_GJ52.xlsx
@@ -70,7 +70,103 @@
         </r>
       </text>
     </comment>
+    <comment ref="AK10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+id non initialisé</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les Collections.unmodifable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+inversion des controles dans ajouterRegimeAlimentaire</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AC12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les Collections.unmodifable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -168,6 +264,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="AK13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+listes non instanciées</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les Collections.unmodifable</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AC14" authorId="0" shapeId="0">
       <text>
         <r>
@@ -216,6 +360,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AL14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les Collections.unmodifable</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AD15" authorId="0" shapeId="0">
       <text>
         <r>
@@ -237,6 +405,54 @@
           </rPr>
           <t xml:space="preserve">
 contructeur protected</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les Collections.unmodifable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les controles</t>
         </r>
       </text>
     </comment>
@@ -288,6 +504,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="AL18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les Collections.unmodifable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les Collections.unmodifable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les controles</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AB20" authorId="0" shapeId="0">
       <text>
         <r>
@@ -336,6 +624,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AL20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les Collections.unmodifable</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AC21" authorId="0" shapeId="0">
       <text>
         <r>
@@ -358,6 +670,30 @@
           <t xml:space="preserve">
 manque les Collections.unmodifable
 manque des controles</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les Collections.unmodifable</t>
         </r>
       </text>
     </comment>
@@ -385,7 +721,55 @@
         </r>
       </text>
     </comment>
+    <comment ref="AL22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les Collections.unmodifable</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AC23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+manque les Collections.unmodifable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2124,7 +2508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2498,6 +2882,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2790,7 +3180,175 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="200">
+  <dxfs count="224">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4492,9 +5050,9 @@
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3600" ySplit="2910" topLeftCell="M16" activePane="bottomRight"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="topRight" activeCell="AQ7" sqref="AQ7"/>
+      <selection pane="topRight" activeCell="AT6" sqref="AT6"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AH22" sqref="AH22"/>
+      <selection pane="bottomRight" activeCell="AS23" sqref="AS23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -4542,102 +5100,102 @@
     <row r="1" spans="1:96" s="111" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
-      <c r="H1" s="136" t="s">
+      <c r="H1" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="167" t="s">
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="167"/>
-      <c r="S1" s="167"/>
-      <c r="T1" s="167"/>
-      <c r="U1" s="167"/>
-      <c r="V1" s="180" t="s">
+      <c r="Q1" s="169"/>
+      <c r="R1" s="169"/>
+      <c r="S1" s="169"/>
+      <c r="T1" s="169"/>
+      <c r="U1" s="169"/>
+      <c r="V1" s="182" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="180"/>
-      <c r="X1" s="180"/>
-      <c r="Y1" s="180"/>
-      <c r="Z1" s="180"/>
-      <c r="AA1" s="180"/>
-      <c r="AB1" s="180"/>
-      <c r="AC1" s="180"/>
-      <c r="AD1" s="180"/>
-      <c r="AE1" s="180"/>
-      <c r="AF1" s="180"/>
-      <c r="AG1" s="180"/>
-      <c r="AH1" s="180"/>
-      <c r="AI1" s="180"/>
-      <c r="AJ1" s="180"/>
-      <c r="AK1" s="180"/>
-      <c r="AL1" s="180"/>
-      <c r="AM1" s="180"/>
-      <c r="AN1" s="180"/>
-      <c r="AO1" s="180"/>
-      <c r="AP1" s="180"/>
-      <c r="AQ1" s="180"/>
-      <c r="AR1" s="180"/>
-      <c r="AS1" s="180"/>
-      <c r="AT1" s="180"/>
-      <c r="AU1" s="180"/>
-      <c r="AV1" s="180"/>
-      <c r="AW1" s="180"/>
-      <c r="AX1" s="180"/>
-      <c r="AY1" s="180"/>
-      <c r="AZ1" s="180"/>
-      <c r="BA1" s="180"/>
-      <c r="BB1" s="180"/>
-      <c r="BC1" s="180"/>
-      <c r="BD1" s="180"/>
-      <c r="BE1" s="180"/>
-      <c r="BF1" s="180"/>
-      <c r="BG1" s="180"/>
-      <c r="BH1" s="180"/>
-      <c r="BI1" s="180"/>
-      <c r="BJ1" s="180"/>
-      <c r="BK1" s="180"/>
-      <c r="BL1" s="180"/>
-      <c r="BM1" s="180"/>
-      <c r="BN1" s="180"/>
-      <c r="BO1" s="180"/>
-      <c r="BP1" s="180"/>
-      <c r="BQ1" s="180"/>
-      <c r="BR1" s="180"/>
-      <c r="BS1" s="180"/>
-      <c r="BT1" s="180"/>
-      <c r="BU1" s="180"/>
-      <c r="BV1" s="180"/>
-      <c r="BW1" s="180" t="s">
+      <c r="W1" s="182"/>
+      <c r="X1" s="182"/>
+      <c r="Y1" s="182"/>
+      <c r="Z1" s="182"/>
+      <c r="AA1" s="182"/>
+      <c r="AB1" s="182"/>
+      <c r="AC1" s="182"/>
+      <c r="AD1" s="182"/>
+      <c r="AE1" s="182"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="182"/>
+      <c r="AH1" s="182"/>
+      <c r="AI1" s="182"/>
+      <c r="AJ1" s="182"/>
+      <c r="AK1" s="182"/>
+      <c r="AL1" s="182"/>
+      <c r="AM1" s="182"/>
+      <c r="AN1" s="182"/>
+      <c r="AO1" s="182"/>
+      <c r="AP1" s="182"/>
+      <c r="AQ1" s="182"/>
+      <c r="AR1" s="182"/>
+      <c r="AS1" s="182"/>
+      <c r="AT1" s="182"/>
+      <c r="AU1" s="182"/>
+      <c r="AV1" s="182"/>
+      <c r="AW1" s="182"/>
+      <c r="AX1" s="182"/>
+      <c r="AY1" s="182"/>
+      <c r="AZ1" s="182"/>
+      <c r="BA1" s="182"/>
+      <c r="BB1" s="182"/>
+      <c r="BC1" s="182"/>
+      <c r="BD1" s="182"/>
+      <c r="BE1" s="182"/>
+      <c r="BF1" s="182"/>
+      <c r="BG1" s="182"/>
+      <c r="BH1" s="182"/>
+      <c r="BI1" s="182"/>
+      <c r="BJ1" s="182"/>
+      <c r="BK1" s="182"/>
+      <c r="BL1" s="182"/>
+      <c r="BM1" s="182"/>
+      <c r="BN1" s="182"/>
+      <c r="BO1" s="182"/>
+      <c r="BP1" s="182"/>
+      <c r="BQ1" s="182"/>
+      <c r="BR1" s="182"/>
+      <c r="BS1" s="182"/>
+      <c r="BT1" s="182"/>
+      <c r="BU1" s="182"/>
+      <c r="BV1" s="182"/>
+      <c r="BW1" s="182" t="s">
         <v>97</v>
       </c>
-      <c r="BX1" s="180"/>
-      <c r="BY1" s="180"/>
-      <c r="BZ1" s="180"/>
-      <c r="CA1" s="180"/>
-      <c r="CB1" s="180"/>
-      <c r="CC1" s="180" t="s">
-        <v>99</v>
-      </c>
-      <c r="CD1" s="180"/>
-      <c r="CE1" s="180"/>
-      <c r="CF1" s="180"/>
-      <c r="CG1" s="180"/>
-      <c r="CH1" s="180"/>
-      <c r="CI1" s="180"/>
-      <c r="CJ1" s="180"/>
-      <c r="CK1" s="180"/>
-      <c r="CL1" s="180"/>
-      <c r="CM1" s="180"/>
-      <c r="CN1" s="180"/>
-      <c r="CO1" s="180"/>
+      <c r="BX1" s="182"/>
+      <c r="BY1" s="182"/>
+      <c r="BZ1" s="182"/>
+      <c r="CA1" s="182"/>
+      <c r="CB1" s="182"/>
+      <c r="CC1" s="182" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD1" s="182"/>
+      <c r="CE1" s="182"/>
+      <c r="CF1" s="182"/>
+      <c r="CG1" s="182"/>
+      <c r="CH1" s="182"/>
+      <c r="CI1" s="182"/>
+      <c r="CJ1" s="182"/>
+      <c r="CK1" s="182"/>
+      <c r="CL1" s="182"/>
+      <c r="CM1" s="182"/>
+      <c r="CN1" s="182"/>
+      <c r="CO1" s="182"/>
       <c r="CP1" s="114"/>
     </row>
     <row r="2" spans="1:96" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4648,117 +5206,117 @@
       <c r="E2" s="52"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="179"/>
-      <c r="N2" s="179"/>
-      <c r="O2" s="179"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="172" t="s">
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="181"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="175"/>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="175"/>
-      <c r="AG2" s="175"/>
-      <c r="AH2" s="175"/>
-      <c r="AI2" s="175"/>
-      <c r="AJ2" s="175"/>
-      <c r="AK2" s="175"/>
-      <c r="AL2" s="175"/>
-      <c r="AM2" s="175"/>
-      <c r="AN2" s="175"/>
-      <c r="AO2" s="175"/>
-      <c r="AP2" s="175"/>
-      <c r="AQ2" s="184"/>
-      <c r="AR2" s="181" t="s">
+      <c r="W2" s="198"/>
+      <c r="X2" s="198"/>
+      <c r="Y2" s="177"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="177"/>
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="177"/>
+      <c r="AD2" s="177"/>
+      <c r="AE2" s="177"/>
+      <c r="AF2" s="177"/>
+      <c r="AG2" s="177"/>
+      <c r="AH2" s="177"/>
+      <c r="AI2" s="177"/>
+      <c r="AJ2" s="177"/>
+      <c r="AK2" s="177"/>
+      <c r="AL2" s="177"/>
+      <c r="AM2" s="177"/>
+      <c r="AN2" s="177"/>
+      <c r="AO2" s="177"/>
+      <c r="AP2" s="177"/>
+      <c r="AQ2" s="186"/>
+      <c r="AR2" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="AS2" s="179"/>
-      <c r="AT2" s="179"/>
-      <c r="AU2" s="182"/>
-      <c r="AV2" s="187" t="s">
+      <c r="AS2" s="181"/>
+      <c r="AT2" s="181"/>
+      <c r="AU2" s="184"/>
+      <c r="AV2" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="AW2" s="179"/>
-      <c r="AX2" s="179"/>
-      <c r="AY2" s="179"/>
-      <c r="AZ2" s="179"/>
-      <c r="BA2" s="179"/>
-      <c r="BB2" s="135" t="s">
+      <c r="AW2" s="181"/>
+      <c r="AX2" s="181"/>
+      <c r="AY2" s="181"/>
+      <c r="AZ2" s="181"/>
+      <c r="BA2" s="181"/>
+      <c r="BB2" s="137" t="s">
         <v>96</v>
       </c>
-      <c r="BC2" s="136"/>
-      <c r="BD2" s="136"/>
-      <c r="BE2" s="136"/>
-      <c r="BF2" s="136"/>
-      <c r="BG2" s="136"/>
-      <c r="BH2" s="136"/>
-      <c r="BI2" s="136"/>
-      <c r="BJ2" s="136"/>
-      <c r="BK2" s="136"/>
-      <c r="BL2" s="136"/>
-      <c r="BM2" s="137"/>
-      <c r="BN2" s="135" t="s">
+      <c r="BC2" s="138"/>
+      <c r="BD2" s="138"/>
+      <c r="BE2" s="138"/>
+      <c r="BF2" s="138"/>
+      <c r="BG2" s="138"/>
+      <c r="BH2" s="138"/>
+      <c r="BI2" s="138"/>
+      <c r="BJ2" s="138"/>
+      <c r="BK2" s="138"/>
+      <c r="BL2" s="138"/>
+      <c r="BM2" s="139"/>
+      <c r="BN2" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="BO2" s="136"/>
-      <c r="BP2" s="136"/>
-      <c r="BQ2" s="136"/>
-      <c r="BR2" s="136"/>
-      <c r="BS2" s="136"/>
-      <c r="BT2" s="136"/>
-      <c r="BU2" s="136"/>
-      <c r="BV2" s="137"/>
-      <c r="BW2" s="171" t="s">
+      <c r="BO2" s="138"/>
+      <c r="BP2" s="138"/>
+      <c r="BQ2" s="138"/>
+      <c r="BR2" s="138"/>
+      <c r="BS2" s="138"/>
+      <c r="BT2" s="138"/>
+      <c r="BU2" s="138"/>
+      <c r="BV2" s="139"/>
+      <c r="BW2" s="173" t="s">
         <v>101</v>
       </c>
-      <c r="BX2" s="175" t="s">
+      <c r="BX2" s="177" t="s">
         <v>102</v>
       </c>
-      <c r="BY2" s="175"/>
-      <c r="BZ2" s="174" t="s">
+      <c r="BY2" s="177"/>
+      <c r="BZ2" s="176" t="s">
         <v>103</v>
       </c>
-      <c r="CA2" s="175" t="s">
+      <c r="CA2" s="177" t="s">
         <v>104</v>
       </c>
-      <c r="CB2" s="184"/>
-      <c r="CC2" s="135" t="s">
+      <c r="CB2" s="186"/>
+      <c r="CC2" s="137" t="s">
         <v>105</v>
       </c>
-      <c r="CD2" s="136"/>
-      <c r="CE2" s="136"/>
-      <c r="CF2" s="136"/>
-      <c r="CG2" s="136"/>
-      <c r="CH2" s="136"/>
-      <c r="CI2" s="136"/>
-      <c r="CJ2" s="136"/>
-      <c r="CK2" s="136"/>
-      <c r="CL2" s="136"/>
-      <c r="CM2" s="136"/>
-      <c r="CN2" s="136"/>
-      <c r="CO2" s="137"/>
+      <c r="CD2" s="138"/>
+      <c r="CE2" s="138"/>
+      <c r="CF2" s="138"/>
+      <c r="CG2" s="138"/>
+      <c r="CH2" s="138"/>
+      <c r="CI2" s="138"/>
+      <c r="CJ2" s="138"/>
+      <c r="CK2" s="138"/>
+      <c r="CL2" s="138"/>
+      <c r="CM2" s="138"/>
+      <c r="CN2" s="138"/>
+      <c r="CO2" s="139"/>
       <c r="CP2" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="CQ2" s="131"/>
-      <c r="CR2" s="131"/>
+      <c r="CQ2" s="133"/>
+      <c r="CR2" s="133"/>
     </row>
     <row r="3" spans="1:96" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -4768,141 +5326,141 @@
       <c r="E3" s="52"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="191" t="s">
+      <c r="H3" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="194" t="s">
+      <c r="I3" s="196" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="194" t="s">
+      <c r="J3" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="191" t="s">
+      <c r="K3" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="191" t="s">
+      <c r="L3" s="193" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="194" t="s">
+      <c r="M3" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="188" t="s">
+      <c r="N3" s="190" t="s">
         <v>71</v>
       </c>
-      <c r="O3" s="194" t="s">
+      <c r="O3" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="157" t="s">
+      <c r="P3" s="138"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="159" t="s">
         <v>92</v>
       </c>
-      <c r="W3" s="158"/>
-      <c r="X3" s="158"/>
-      <c r="Y3" s="158"/>
-      <c r="Z3" s="158"/>
-      <c r="AA3" s="158"/>
-      <c r="AB3" s="154" t="s">
+      <c r="W3" s="160"/>
+      <c r="X3" s="160"/>
+      <c r="Y3" s="160"/>
+      <c r="Z3" s="160"/>
+      <c r="AA3" s="160"/>
+      <c r="AB3" s="156" t="s">
         <v>107</v>
       </c>
-      <c r="AC3" s="159"/>
-      <c r="AD3" s="139"/>
-      <c r="AE3" s="139"/>
-      <c r="AF3" s="139"/>
-      <c r="AG3" s="139"/>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="139"/>
-      <c r="AJ3" s="139"/>
-      <c r="AK3" s="197" t="s">
+      <c r="AC3" s="161"/>
+      <c r="AD3" s="141"/>
+      <c r="AE3" s="141"/>
+      <c r="AF3" s="141"/>
+      <c r="AG3" s="141"/>
+      <c r="AH3" s="141"/>
+      <c r="AI3" s="141"/>
+      <c r="AJ3" s="141"/>
+      <c r="AK3" s="199" t="s">
         <v>108</v>
       </c>
-      <c r="AL3" s="158"/>
-      <c r="AM3" s="158"/>
-      <c r="AN3" s="158"/>
-      <c r="AO3" s="158"/>
-      <c r="AP3" s="158"/>
-      <c r="AQ3" s="186"/>
-      <c r="AR3" s="157" t="s">
+      <c r="AL3" s="160"/>
+      <c r="AM3" s="160"/>
+      <c r="AN3" s="160"/>
+      <c r="AO3" s="160"/>
+      <c r="AP3" s="160"/>
+      <c r="AQ3" s="188"/>
+      <c r="AR3" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="AS3" s="158"/>
-      <c r="AT3" s="158"/>
-      <c r="AU3" s="154" t="s">
+      <c r="AS3" s="160"/>
+      <c r="AT3" s="160"/>
+      <c r="AU3" s="156" t="s">
         <v>150</v>
       </c>
-      <c r="AV3" s="194" t="s">
+      <c r="AV3" s="196" t="s">
         <v>7</v>
       </c>
-      <c r="AW3" s="167"/>
-      <c r="AX3" s="167"/>
-      <c r="AY3" s="167" t="s">
+      <c r="AW3" s="169"/>
+      <c r="AX3" s="169"/>
+      <c r="AY3" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="AZ3" s="167" t="s">
+      <c r="AZ3" s="169" t="s">
         <v>151</v>
       </c>
-      <c r="BA3" s="169" t="s">
+      <c r="BA3" s="171" t="s">
         <v>48</v>
       </c>
-      <c r="BB3" s="177" t="s">
+      <c r="BB3" s="179" t="s">
         <v>128</v>
       </c>
-      <c r="BC3" s="178" t="s">
+      <c r="BC3" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="BD3" s="176" t="s">
+      <c r="BD3" s="178" t="s">
         <v>116</v>
       </c>
-      <c r="BE3" s="158"/>
-      <c r="BF3" s="158"/>
-      <c r="BG3" s="158"/>
-      <c r="BH3" s="159"/>
-      <c r="BI3" s="176" t="s">
+      <c r="BE3" s="160"/>
+      <c r="BF3" s="160"/>
+      <c r="BG3" s="160"/>
+      <c r="BH3" s="161"/>
+      <c r="BI3" s="178" t="s">
         <v>118</v>
       </c>
-      <c r="BJ3" s="158"/>
-      <c r="BK3" s="158"/>
-      <c r="BL3" s="158"/>
-      <c r="BM3" s="186"/>
-      <c r="BN3" s="138" t="s">
+      <c r="BJ3" s="160"/>
+      <c r="BK3" s="160"/>
+      <c r="BL3" s="160"/>
+      <c r="BM3" s="188"/>
+      <c r="BN3" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="BO3" s="139"/>
-      <c r="BP3" s="139"/>
-      <c r="BQ3" s="139"/>
-      <c r="BR3" s="139"/>
-      <c r="BS3" s="139"/>
-      <c r="BT3" s="139"/>
-      <c r="BU3" s="176"/>
-      <c r="BV3" s="140"/>
-      <c r="BW3" s="172"/>
-      <c r="BX3" s="183"/>
-      <c r="BY3" s="183"/>
-      <c r="BZ3" s="175"/>
-      <c r="CA3" s="183"/>
-      <c r="CB3" s="185"/>
-      <c r="CC3" s="138" t="s">
+      <c r="BO3" s="141"/>
+      <c r="BP3" s="141"/>
+      <c r="BQ3" s="141"/>
+      <c r="BR3" s="141"/>
+      <c r="BS3" s="141"/>
+      <c r="BT3" s="141"/>
+      <c r="BU3" s="178"/>
+      <c r="BV3" s="142"/>
+      <c r="BW3" s="174"/>
+      <c r="BX3" s="185"/>
+      <c r="BY3" s="185"/>
+      <c r="BZ3" s="177"/>
+      <c r="CA3" s="185"/>
+      <c r="CB3" s="187"/>
+      <c r="CC3" s="140" t="s">
         <v>106</v>
       </c>
-      <c r="CD3" s="139"/>
-      <c r="CE3" s="139"/>
-      <c r="CF3" s="139"/>
-      <c r="CG3" s="139"/>
-      <c r="CH3" s="139"/>
-      <c r="CI3" s="139"/>
-      <c r="CJ3" s="139"/>
-      <c r="CK3" s="139"/>
-      <c r="CL3" s="139"/>
-      <c r="CM3" s="139"/>
-      <c r="CN3" s="139"/>
-      <c r="CO3" s="140"/>
-      <c r="CP3" s="132"/>
-      <c r="CQ3" s="131"/>
-      <c r="CR3" s="131"/>
+      <c r="CD3" s="141"/>
+      <c r="CE3" s="141"/>
+      <c r="CF3" s="141"/>
+      <c r="CG3" s="141"/>
+      <c r="CH3" s="141"/>
+      <c r="CI3" s="141"/>
+      <c r="CJ3" s="141"/>
+      <c r="CK3" s="141"/>
+      <c r="CL3" s="141"/>
+      <c r="CM3" s="141"/>
+      <c r="CN3" s="141"/>
+      <c r="CO3" s="142"/>
+      <c r="CP3" s="134"/>
+      <c r="CQ3" s="133"/>
+      <c r="CR3" s="133"/>
     </row>
     <row r="4" spans="1:96" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -4916,29 +5474,29 @@
       </c>
       <c r="D4" s="17" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G6,")")</f>
-        <v>Note/20 ( sur 212)</v>
+        <v>Note/20 ( sur 209)</v>
       </c>
       <c r="E4" s="18" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G7,")")</f>
-        <v>Note/20 ( sur 68)</v>
+        <v>Note/20 ( sur 67)</v>
       </c>
       <c r="F4" s="7" t="str">
         <f>CONCATENATE("Note/",G7)</f>
-        <v>Note/68</v>
+        <v>Note/67</v>
       </c>
       <c r="G4" s="7" t="str">
         <f>CONCATENATE("Note/",G6)</f>
-        <v>Note/212</v>
-      </c>
-      <c r="H4" s="192"/>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
-      <c r="K4" s="192"/>
-      <c r="L4" s="192"/>
-      <c r="M4" s="164"/>
-      <c r="N4" s="189"/>
-      <c r="O4" s="164"/>
-      <c r="P4" s="165" t="s">
+        <v>Note/209</v>
+      </c>
+      <c r="H4" s="194"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="194"/>
+      <c r="L4" s="194"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="191"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="167" t="s">
         <v>133</v>
       </c>
       <c r="Q4" s="82" t="s">
@@ -4956,201 +5514,201 @@
       <c r="U4" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="V4" s="160" t="s">
+      <c r="V4" s="162" t="s">
         <v>146</v>
       </c>
-      <c r="W4" s="152" t="s">
+      <c r="W4" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="X4" s="152" t="s">
+      <c r="X4" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="Y4" s="143" t="s">
+      <c r="Y4" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="150" t="s">
+      <c r="Z4" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="AA4" s="143" t="s">
+      <c r="AA4" s="145" t="s">
         <v>73</v>
       </c>
-      <c r="AB4" s="162" t="s">
+      <c r="AB4" s="164" t="s">
         <v>51</v>
       </c>
-      <c r="AC4" s="152" t="s">
+      <c r="AC4" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="AD4" s="152" t="s">
+      <c r="AD4" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="AE4" s="150" t="s">
+      <c r="AE4" s="152" t="s">
         <v>147</v>
       </c>
-      <c r="AF4" s="150" t="s">
+      <c r="AF4" s="152" t="s">
         <v>148</v>
       </c>
-      <c r="AG4" s="150" t="s">
+      <c r="AG4" s="152" t="s">
         <v>149</v>
       </c>
-      <c r="AH4" s="150" t="s">
+      <c r="AH4" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="AI4" s="150" t="s">
+      <c r="AI4" s="152" t="s">
         <v>73</v>
       </c>
-      <c r="AJ4" s="143" t="s">
+      <c r="AJ4" s="145" t="s">
         <v>72</v>
       </c>
-      <c r="AK4" s="162" t="s">
+      <c r="AK4" s="164" t="s">
         <v>51</v>
       </c>
-      <c r="AL4" s="152" t="s">
+      <c r="AL4" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="AM4" s="152" t="s">
+      <c r="AM4" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="AN4" s="150" t="s">
+      <c r="AN4" s="152" t="s">
         <v>148</v>
       </c>
-      <c r="AO4" s="150" t="s">
+      <c r="AO4" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="AP4" s="143" t="s">
+      <c r="AP4" s="145" t="s">
         <v>73</v>
       </c>
-      <c r="AQ4" s="145" t="s">
+      <c r="AQ4" s="147" t="s">
         <v>72</v>
       </c>
-      <c r="AR4" s="141" t="s">
+      <c r="AR4" s="143" t="s">
         <v>109</v>
       </c>
-      <c r="AS4" s="147" t="s">
+      <c r="AS4" s="149" t="s">
         <v>110</v>
       </c>
-      <c r="AT4" s="148"/>
-      <c r="AU4" s="155"/>
-      <c r="AV4" s="164"/>
-      <c r="AW4" s="136"/>
-      <c r="AX4" s="136"/>
-      <c r="AY4" s="136"/>
-      <c r="AZ4" s="136"/>
-      <c r="BA4" s="137"/>
-      <c r="BB4" s="172"/>
-      <c r="BC4" s="175"/>
-      <c r="BD4" s="143" t="s">
+      <c r="AT4" s="150"/>
+      <c r="AU4" s="157"/>
+      <c r="AV4" s="166"/>
+      <c r="AW4" s="138"/>
+      <c r="AX4" s="138"/>
+      <c r="AY4" s="138"/>
+      <c r="AZ4" s="138"/>
+      <c r="BA4" s="139"/>
+      <c r="BB4" s="174"/>
+      <c r="BC4" s="177"/>
+      <c r="BD4" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="BE4" s="143" t="s">
+      <c r="BE4" s="145" t="s">
         <v>114</v>
       </c>
-      <c r="BF4" s="143" t="s">
+      <c r="BF4" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="BG4" s="143" t="s">
+      <c r="BG4" s="145" t="s">
         <v>119</v>
       </c>
-      <c r="BH4" s="143" t="s">
+      <c r="BH4" s="145" t="s">
         <v>115</v>
       </c>
-      <c r="BI4" s="143" t="s">
+      <c r="BI4" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="BJ4" s="143" t="s">
+      <c r="BJ4" s="145" t="s">
         <v>114</v>
       </c>
-      <c r="BK4" s="143" t="s">
+      <c r="BK4" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="BL4" s="143" t="s">
+      <c r="BL4" s="145" t="s">
         <v>119</v>
       </c>
-      <c r="BM4" s="143" t="s">
+      <c r="BM4" s="145" t="s">
         <v>115</v>
       </c>
-      <c r="BN4" s="141" t="s">
+      <c r="BN4" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="BO4" s="143" t="s">
+      <c r="BO4" s="145" t="s">
         <v>127</v>
       </c>
-      <c r="BP4" s="143" t="s">
+      <c r="BP4" s="145" t="s">
         <v>121</v>
       </c>
-      <c r="BQ4" s="143" t="s">
+      <c r="BQ4" s="145" t="s">
         <v>122</v>
       </c>
-      <c r="BR4" s="143" t="s">
+      <c r="BR4" s="145" t="s">
         <v>123</v>
       </c>
-      <c r="BS4" s="143" t="s">
+      <c r="BS4" s="145" t="s">
         <v>124</v>
       </c>
-      <c r="BT4" s="143" t="s">
+      <c r="BT4" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="BU4" s="143" t="s">
+      <c r="BU4" s="145" t="s">
         <v>111</v>
       </c>
-      <c r="BV4" s="145" t="s">
+      <c r="BV4" s="147" t="s">
         <v>126</v>
       </c>
-      <c r="BW4" s="172"/>
-      <c r="BX4" s="143" t="s">
+      <c r="BW4" s="174"/>
+      <c r="BX4" s="145" t="s">
         <v>152</v>
       </c>
-      <c r="BY4" s="143" t="s">
+      <c r="BY4" s="145" t="s">
         <v>153</v>
       </c>
-      <c r="BZ4" s="175"/>
-      <c r="CA4" s="143" t="s">
+      <c r="BZ4" s="177"/>
+      <c r="CA4" s="145" t="s">
         <v>152</v>
       </c>
-      <c r="CB4" s="143" t="s">
+      <c r="CB4" s="145" t="s">
         <v>153</v>
       </c>
-      <c r="CC4" s="141" t="s">
+      <c r="CC4" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="CD4" s="143" t="s">
+      <c r="CD4" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="CE4" s="143" t="s">
+      <c r="CE4" s="145" t="s">
         <v>136</v>
       </c>
-      <c r="CF4" s="143" t="s">
+      <c r="CF4" s="145" t="s">
         <v>137</v>
       </c>
-      <c r="CG4" s="143" t="s">
+      <c r="CG4" s="145" t="s">
         <v>138</v>
       </c>
-      <c r="CH4" s="143" t="s">
+      <c r="CH4" s="145" t="s">
         <v>139</v>
       </c>
-      <c r="CI4" s="143" t="s">
+      <c r="CI4" s="145" t="s">
         <v>140</v>
       </c>
-      <c r="CJ4" s="143" t="s">
+      <c r="CJ4" s="145" t="s">
         <v>130</v>
       </c>
-      <c r="CK4" s="143" t="s">
+      <c r="CK4" s="145" t="s">
         <v>141</v>
       </c>
-      <c r="CL4" s="143" t="s">
+      <c r="CL4" s="145" t="s">
         <v>142</v>
       </c>
-      <c r="CM4" s="143" t="s">
+      <c r="CM4" s="145" t="s">
         <v>143</v>
       </c>
-      <c r="CN4" s="143" t="s">
+      <c r="CN4" s="145" t="s">
         <v>144</v>
       </c>
-      <c r="CO4" s="145" t="s">
+      <c r="CO4" s="147" t="s">
         <v>145</v>
       </c>
-      <c r="CP4" s="133"/>
-      <c r="CQ4" s="131"/>
-      <c r="CR4" s="131"/>
+      <c r="CP4" s="135"/>
+      <c r="CQ4" s="133"/>
+      <c r="CR4" s="133"/>
     </row>
     <row r="5" spans="1:96" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -5160,15 +5718,15 @@
       <c r="E5" s="18"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="195"/>
-      <c r="J5" s="195"/>
-      <c r="K5" s="193"/>
-      <c r="L5" s="193"/>
-      <c r="M5" s="195"/>
-      <c r="N5" s="190"/>
-      <c r="O5" s="187"/>
-      <c r="P5" s="166"/>
+      <c r="H5" s="195"/>
+      <c r="I5" s="197"/>
+      <c r="J5" s="197"/>
+      <c r="K5" s="195"/>
+      <c r="L5" s="195"/>
+      <c r="M5" s="197"/>
+      <c r="N5" s="192"/>
+      <c r="O5" s="189"/>
+      <c r="P5" s="168"/>
       <c r="Q5" s="95" t="s">
         <v>129</v>
       </c>
@@ -5184,36 +5742,36 @@
       <c r="U5" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="V5" s="161"/>
-      <c r="W5" s="153"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="144"/>
-      <c r="Z5" s="151"/>
-      <c r="AA5" s="144"/>
-      <c r="AB5" s="163"/>
-      <c r="AC5" s="153"/>
-      <c r="AD5" s="153"/>
-      <c r="AE5" s="151"/>
-      <c r="AF5" s="151"/>
-      <c r="AG5" s="151"/>
-      <c r="AH5" s="151"/>
-      <c r="AI5" s="151"/>
-      <c r="AJ5" s="144"/>
-      <c r="AK5" s="163"/>
-      <c r="AL5" s="153"/>
-      <c r="AM5" s="153"/>
-      <c r="AN5" s="151"/>
-      <c r="AO5" s="151"/>
-      <c r="AP5" s="144"/>
-      <c r="AQ5" s="146"/>
-      <c r="AR5" s="142"/>
+      <c r="V5" s="163"/>
+      <c r="W5" s="155"/>
+      <c r="X5" s="155"/>
+      <c r="Y5" s="146"/>
+      <c r="Z5" s="153"/>
+      <c r="AA5" s="146"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="155"/>
+      <c r="AD5" s="155"/>
+      <c r="AE5" s="153"/>
+      <c r="AF5" s="153"/>
+      <c r="AG5" s="153"/>
+      <c r="AH5" s="153"/>
+      <c r="AI5" s="153"/>
+      <c r="AJ5" s="146"/>
+      <c r="AK5" s="165"/>
+      <c r="AL5" s="155"/>
+      <c r="AM5" s="155"/>
+      <c r="AN5" s="153"/>
+      <c r="AO5" s="153"/>
+      <c r="AP5" s="146"/>
+      <c r="AQ5" s="148"/>
+      <c r="AR5" s="144"/>
       <c r="AS5" s="96" t="s">
         <v>93</v>
       </c>
       <c r="AT5" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="AU5" s="156"/>
+      <c r="AU5" s="158"/>
       <c r="AV5" s="104" t="s">
         <v>95</v>
       </c>
@@ -5223,52 +5781,52 @@
       <c r="AX5" s="105" t="s">
         <v>113</v>
       </c>
-      <c r="AY5" s="168"/>
-      <c r="AZ5" s="168"/>
-      <c r="BA5" s="170"/>
-      <c r="BB5" s="173"/>
-      <c r="BC5" s="151"/>
-      <c r="BD5" s="144"/>
-      <c r="BE5" s="144"/>
-      <c r="BF5" s="144"/>
-      <c r="BG5" s="144"/>
-      <c r="BH5" s="144"/>
-      <c r="BI5" s="144"/>
-      <c r="BJ5" s="144"/>
-      <c r="BK5" s="144"/>
-      <c r="BL5" s="144"/>
-      <c r="BM5" s="144"/>
-      <c r="BN5" s="142"/>
-      <c r="BO5" s="144"/>
-      <c r="BP5" s="144"/>
-      <c r="BQ5" s="144"/>
-      <c r="BR5" s="144"/>
-      <c r="BS5" s="144"/>
-      <c r="BT5" s="144"/>
-      <c r="BU5" s="144"/>
-      <c r="BV5" s="146"/>
-      <c r="BW5" s="173"/>
-      <c r="BX5" s="144"/>
-      <c r="BY5" s="144"/>
-      <c r="BZ5" s="151"/>
-      <c r="CA5" s="144"/>
-      <c r="CB5" s="144"/>
-      <c r="CC5" s="142"/>
-      <c r="CD5" s="144"/>
-      <c r="CE5" s="144"/>
-      <c r="CF5" s="144"/>
-      <c r="CG5" s="144"/>
-      <c r="CH5" s="144"/>
-      <c r="CI5" s="144"/>
-      <c r="CJ5" s="144"/>
-      <c r="CK5" s="144"/>
-      <c r="CL5" s="144"/>
-      <c r="CM5" s="144"/>
-      <c r="CN5" s="144"/>
-      <c r="CO5" s="146"/>
-      <c r="CP5" s="134"/>
-      <c r="CQ5" s="131"/>
-      <c r="CR5" s="131"/>
+      <c r="AY5" s="170"/>
+      <c r="AZ5" s="170"/>
+      <c r="BA5" s="172"/>
+      <c r="BB5" s="175"/>
+      <c r="BC5" s="153"/>
+      <c r="BD5" s="146"/>
+      <c r="BE5" s="146"/>
+      <c r="BF5" s="146"/>
+      <c r="BG5" s="146"/>
+      <c r="BH5" s="146"/>
+      <c r="BI5" s="146"/>
+      <c r="BJ5" s="146"/>
+      <c r="BK5" s="146"/>
+      <c r="BL5" s="146"/>
+      <c r="BM5" s="146"/>
+      <c r="BN5" s="144"/>
+      <c r="BO5" s="146"/>
+      <c r="BP5" s="146"/>
+      <c r="BQ5" s="146"/>
+      <c r="BR5" s="146"/>
+      <c r="BS5" s="146"/>
+      <c r="BT5" s="146"/>
+      <c r="BU5" s="146"/>
+      <c r="BV5" s="148"/>
+      <c r="BW5" s="175"/>
+      <c r="BX5" s="146"/>
+      <c r="BY5" s="146"/>
+      <c r="BZ5" s="153"/>
+      <c r="CA5" s="146"/>
+      <c r="CB5" s="146"/>
+      <c r="CC5" s="144"/>
+      <c r="CD5" s="146"/>
+      <c r="CE5" s="146"/>
+      <c r="CF5" s="146"/>
+      <c r="CG5" s="146"/>
+      <c r="CH5" s="146"/>
+      <c r="CI5" s="146"/>
+      <c r="CJ5" s="146"/>
+      <c r="CK5" s="146"/>
+      <c r="CL5" s="146"/>
+      <c r="CM5" s="146"/>
+      <c r="CN5" s="146"/>
+      <c r="CO5" s="148"/>
+      <c r="CP5" s="136"/>
+      <c r="CQ5" s="133"/>
+      <c r="CR5" s="133"/>
     </row>
     <row r="6" spans="1:96" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -5279,7 +5837,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7">
         <f>SUM(H6:CP6)</f>
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H6" s="60">
         <v>2</v>
@@ -5396,7 +5954,7 @@
         <v>2</v>
       </c>
       <c r="AT6" s="16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="16">
         <v>1</v>
@@ -5558,7 +6116,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="7">
         <f>SUM(H7:CP7)</f>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H7" s="61">
         <v>1</v>
@@ -5675,7 +6233,7 @@
         <v>1</v>
       </c>
       <c r="AT7" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="58">
         <v>0</v>
@@ -5844,114 +6402,114 @@
       <c r="M8" s="9"/>
       <c r="N8" s="51"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="164">
+      <c r="P8" s="166">
         <f>SUM(P6:U6)</f>
         <v>21</v>
       </c>
-      <c r="Q8" s="136"/>
-      <c r="R8" s="136"/>
-      <c r="S8" s="136"/>
-      <c r="T8" s="136"/>
-      <c r="U8" s="136"/>
-      <c r="V8" s="147">
+      <c r="Q8" s="138"/>
+      <c r="R8" s="138"/>
+      <c r="S8" s="138"/>
+      <c r="T8" s="138"/>
+      <c r="U8" s="138"/>
+      <c r="V8" s="149">
         <f>SUM(V6:AA6)</f>
         <v>0</v>
       </c>
-      <c r="W8" s="148"/>
-      <c r="X8" s="148"/>
-      <c r="Y8" s="148"/>
-      <c r="Z8" s="148"/>
-      <c r="AA8" s="148"/>
-      <c r="AB8" s="147">
+      <c r="W8" s="150"/>
+      <c r="X8" s="150"/>
+      <c r="Y8" s="150"/>
+      <c r="Z8" s="150"/>
+      <c r="AA8" s="150"/>
+      <c r="AB8" s="149">
         <f>SUM(AB6:AJ6)</f>
         <v>31</v>
       </c>
-      <c r="AC8" s="148"/>
-      <c r="AD8" s="148"/>
-      <c r="AE8" s="148"/>
-      <c r="AF8" s="148"/>
-      <c r="AG8" s="148"/>
-      <c r="AH8" s="148"/>
-      <c r="AI8" s="148"/>
-      <c r="AJ8" s="148"/>
-      <c r="AK8" s="147">
+      <c r="AC8" s="150"/>
+      <c r="AD8" s="150"/>
+      <c r="AE8" s="150"/>
+      <c r="AF8" s="150"/>
+      <c r="AG8" s="150"/>
+      <c r="AH8" s="150"/>
+      <c r="AI8" s="150"/>
+      <c r="AJ8" s="150"/>
+      <c r="AK8" s="149">
         <f>SUM(AK6:AQ6)</f>
         <v>14</v>
       </c>
-      <c r="AL8" s="148"/>
-      <c r="AM8" s="148"/>
-      <c r="AN8" s="148"/>
-      <c r="AO8" s="148"/>
-      <c r="AP8" s="148"/>
-      <c r="AQ8" s="149"/>
-      <c r="AR8" s="147">
+      <c r="AL8" s="150"/>
+      <c r="AM8" s="150"/>
+      <c r="AN8" s="150"/>
+      <c r="AO8" s="150"/>
+      <c r="AP8" s="150"/>
+      <c r="AQ8" s="151"/>
+      <c r="AR8" s="149">
         <f>SUM(AR6:AT6)</f>
-        <v>6</v>
-      </c>
-      <c r="AS8" s="148"/>
-      <c r="AT8" s="148"/>
+        <v>3</v>
+      </c>
+      <c r="AS8" s="150"/>
+      <c r="AT8" s="150"/>
       <c r="AU8" s="103"/>
-      <c r="AV8" s="147">
+      <c r="AV8" s="149">
         <f>SUM(AV6:BA6)</f>
         <v>11</v>
       </c>
-      <c r="AW8" s="148"/>
-      <c r="AX8" s="148"/>
-      <c r="AY8" s="148"/>
-      <c r="AZ8" s="148"/>
-      <c r="BA8" s="148"/>
-      <c r="BB8" s="147">
+      <c r="AW8" s="150"/>
+      <c r="AX8" s="150"/>
+      <c r="AY8" s="150"/>
+      <c r="AZ8" s="150"/>
+      <c r="BA8" s="150"/>
+      <c r="BB8" s="149">
         <f>SUM(BB6:BM6)</f>
         <v>36</v>
       </c>
-      <c r="BC8" s="148"/>
-      <c r="BD8" s="148"/>
-      <c r="BE8" s="148"/>
-      <c r="BF8" s="148"/>
-      <c r="BG8" s="148"/>
-      <c r="BH8" s="148"/>
-      <c r="BI8" s="148"/>
-      <c r="BJ8" s="148"/>
-      <c r="BK8" s="148"/>
-      <c r="BL8" s="148"/>
-      <c r="BM8" s="148"/>
-      <c r="BN8" s="147">
+      <c r="BC8" s="150"/>
+      <c r="BD8" s="150"/>
+      <c r="BE8" s="150"/>
+      <c r="BF8" s="150"/>
+      <c r="BG8" s="150"/>
+      <c r="BH8" s="150"/>
+      <c r="BI8" s="150"/>
+      <c r="BJ8" s="150"/>
+      <c r="BK8" s="150"/>
+      <c r="BL8" s="150"/>
+      <c r="BM8" s="150"/>
+      <c r="BN8" s="149">
         <f>SUM(BN6:BV6)</f>
         <v>29</v>
       </c>
-      <c r="BO8" s="148"/>
-      <c r="BP8" s="148"/>
-      <c r="BQ8" s="148"/>
-      <c r="BR8" s="148"/>
-      <c r="BS8" s="148"/>
-      <c r="BT8" s="148"/>
-      <c r="BU8" s="148"/>
-      <c r="BV8" s="148"/>
-      <c r="BW8" s="147">
+      <c r="BO8" s="150"/>
+      <c r="BP8" s="150"/>
+      <c r="BQ8" s="150"/>
+      <c r="BR8" s="150"/>
+      <c r="BS8" s="150"/>
+      <c r="BT8" s="150"/>
+      <c r="BU8" s="150"/>
+      <c r="BV8" s="150"/>
+      <c r="BW8" s="149">
         <f>SUM(BW6:CB6)</f>
         <v>0</v>
       </c>
-      <c r="BX8" s="148"/>
-      <c r="BY8" s="148"/>
-      <c r="BZ8" s="148"/>
-      <c r="CA8" s="148"/>
-      <c r="CB8" s="148"/>
-      <c r="CC8" s="147">
+      <c r="BX8" s="150"/>
+      <c r="BY8" s="150"/>
+      <c r="BZ8" s="150"/>
+      <c r="CA8" s="150"/>
+      <c r="CB8" s="150"/>
+      <c r="CC8" s="149">
         <f>SUM(CC6:CO6)</f>
         <v>36</v>
       </c>
-      <c r="CD8" s="148"/>
-      <c r="CE8" s="148"/>
-      <c r="CF8" s="148"/>
-      <c r="CG8" s="148"/>
-      <c r="CH8" s="148"/>
-      <c r="CI8" s="148"/>
-      <c r="CJ8" s="148"/>
-      <c r="CK8" s="148"/>
-      <c r="CL8" s="148"/>
-      <c r="CM8" s="148"/>
-      <c r="CN8" s="148"/>
-      <c r="CO8" s="148"/>
+      <c r="CD8" s="150"/>
+      <c r="CE8" s="150"/>
+      <c r="CF8" s="150"/>
+      <c r="CG8" s="150"/>
+      <c r="CH8" s="150"/>
+      <c r="CI8" s="150"/>
+      <c r="CJ8" s="150"/>
+      <c r="CK8" s="150"/>
+      <c r="CL8" s="150"/>
+      <c r="CM8" s="150"/>
+      <c r="CN8" s="150"/>
+      <c r="CO8" s="150"/>
       <c r="CP8" s="2">
         <f>CP6</f>
         <v>0</v>
@@ -5967,19 +6525,19 @@
       <c r="C9" s="4"/>
       <c r="D9" s="110">
         <f t="shared" ref="D9:D25" si="0">G9/$G$6*20+CR9*$CR$6</f>
-        <v>2.8301886792452828</v>
+        <v>4.5933014354066986</v>
       </c>
       <c r="E9" s="22">
         <f t="shared" ref="E9:E25" si="1">F9/$G$7*20+CR9*$CR$7</f>
-        <v>2.0588235294117645</v>
+        <v>4.477611940298508</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" ref="F9:F24" si="2">G50</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" ref="G9:G24" si="3">G28</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H9" s="112"/>
       <c r="I9" s="9"/>
@@ -6040,19 +6598,39 @@
       <c r="AJ9" s="10">
         <v>99</v>
       </c>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="66"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="115"/>
-      <c r="AO9" s="115"/>
-      <c r="AP9" s="26"/>
+      <c r="AK9" s="14">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="66">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="13">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="115">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="115">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="26">
+        <v>1</v>
+      </c>
       <c r="AQ9" s="56">
         <v>99</v>
       </c>
-      <c r="AR9" s="64"/>
-      <c r="AS9" s="81"/>
-      <c r="AT9" s="84"/>
-      <c r="AU9" s="9"/>
+      <c r="AR9" s="64">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="81">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="125">
+        <v>99</v>
+      </c>
+      <c r="AU9" s="9">
+        <v>1</v>
+      </c>
       <c r="AV9" s="99"/>
       <c r="AW9" s="101"/>
       <c r="AX9" s="120"/>
@@ -6129,19 +6707,19 @@
       <c r="C10" s="88"/>
       <c r="D10" s="110">
         <f t="shared" si="0"/>
-        <v>1.6509433962264151</v>
+        <v>2.9617224880382773</v>
       </c>
       <c r="E10" s="22">
         <f t="shared" si="1"/>
-        <v>1.3602941176470587</v>
+        <v>3.0298507462686568</v>
       </c>
       <c r="F10" s="89">
         <f t="shared" si="2"/>
-        <v>4.625</v>
+        <v>10.15</v>
       </c>
       <c r="G10" s="89">
         <f t="shared" si="3"/>
-        <v>17.5</v>
+        <v>30.95</v>
       </c>
       <c r="H10" s="112"/>
       <c r="I10" s="90"/>
@@ -6202,19 +6780,39 @@
       <c r="AJ10" s="93">
         <v>99</v>
       </c>
-      <c r="AK10" s="90"/>
-      <c r="AL10" s="92"/>
-      <c r="AM10" s="93"/>
-      <c r="AN10" s="93"/>
-      <c r="AO10" s="93"/>
-      <c r="AP10" s="93"/>
+      <c r="AK10" s="90">
+        <v>0.75</v>
+      </c>
+      <c r="AL10" s="92">
+        <v>0.75</v>
+      </c>
+      <c r="AM10" s="93">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="93">
+        <v>0.9</v>
+      </c>
+      <c r="AO10" s="93">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="93">
+        <v>0</v>
+      </c>
       <c r="AQ10" s="93">
         <v>99</v>
       </c>
-      <c r="AR10" s="90"/>
-      <c r="AS10" s="90"/>
-      <c r="AT10" s="90"/>
-      <c r="AU10" s="90"/>
+      <c r="AR10" s="90">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="90">
+        <v>0.125</v>
+      </c>
+      <c r="AT10" s="125">
+        <v>99</v>
+      </c>
+      <c r="AU10" s="90">
+        <v>1</v>
+      </c>
       <c r="AV10" s="90"/>
       <c r="AW10" s="90"/>
       <c r="AX10" s="90"/>
@@ -6305,125 +6903,127 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="126"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="125"/>
-      <c r="R11" s="125"/>
-      <c r="S11" s="125"/>
-      <c r="T11" s="125"/>
-      <c r="U11" s="125"/>
-      <c r="V11" s="125">
-        <v>99</v>
-      </c>
-      <c r="W11" s="127">
-        <v>99</v>
-      </c>
-      <c r="X11" s="127">
-        <v>99</v>
-      </c>
-      <c r="Y11" s="128">
-        <v>99</v>
-      </c>
-      <c r="Z11" s="128">
-        <v>99</v>
-      </c>
-      <c r="AA11" s="128">
-        <v>99</v>
-      </c>
-      <c r="AB11" s="125"/>
-      <c r="AC11" s="127"/>
-      <c r="AD11" s="128"/>
-      <c r="AE11" s="128"/>
-      <c r="AF11" s="128"/>
-      <c r="AG11" s="128"/>
-      <c r="AH11" s="128"/>
-      <c r="AI11" s="128"/>
-      <c r="AJ11" s="128">
-        <v>99</v>
-      </c>
-      <c r="AK11" s="125"/>
-      <c r="AL11" s="127"/>
-      <c r="AM11" s="128"/>
-      <c r="AN11" s="128"/>
-      <c r="AO11" s="128"/>
-      <c r="AP11" s="128"/>
-      <c r="AQ11" s="128">
-        <v>99</v>
-      </c>
-      <c r="AR11" s="125"/>
-      <c r="AS11" s="125"/>
-      <c r="AT11" s="125"/>
-      <c r="AU11" s="125"/>
-      <c r="AV11" s="125"/>
-      <c r="AW11" s="125"/>
-      <c r="AX11" s="125"/>
-      <c r="AY11" s="125"/>
-      <c r="AZ11" s="125"/>
-      <c r="BA11" s="125"/>
-      <c r="BB11" s="125"/>
-      <c r="BC11" s="125"/>
-      <c r="BD11" s="125"/>
-      <c r="BE11" s="125"/>
-      <c r="BF11" s="125"/>
-      <c r="BG11" s="125"/>
-      <c r="BH11" s="125"/>
-      <c r="BI11" s="125"/>
-      <c r="BJ11" s="125"/>
-      <c r="BK11" s="125"/>
-      <c r="BL11" s="125"/>
-      <c r="BM11" s="125"/>
-      <c r="BN11" s="125"/>
-      <c r="BO11" s="125"/>
-      <c r="BP11" s="125"/>
-      <c r="BQ11" s="125"/>
-      <c r="BR11" s="125"/>
-      <c r="BS11" s="125"/>
-      <c r="BT11" s="125"/>
-      <c r="BU11" s="125"/>
-      <c r="BV11" s="125"/>
-      <c r="BW11" s="125">
-        <v>99</v>
-      </c>
-      <c r="BX11" s="125">
-        <v>99</v>
-      </c>
-      <c r="BY11" s="125">
-        <v>99</v>
-      </c>
-      <c r="BZ11" s="125">
-        <v>99</v>
-      </c>
-      <c r="CA11" s="125">
-        <v>99</v>
-      </c>
-      <c r="CB11" s="125">
-        <v>99</v>
-      </c>
-      <c r="CC11" s="125"/>
-      <c r="CD11" s="125"/>
-      <c r="CE11" s="125"/>
-      <c r="CF11" s="125"/>
-      <c r="CG11" s="125"/>
-      <c r="CH11" s="125"/>
-      <c r="CI11" s="125"/>
-      <c r="CJ11" s="125"/>
-      <c r="CK11" s="125"/>
-      <c r="CL11" s="125"/>
-      <c r="CM11" s="125"/>
-      <c r="CN11" s="125"/>
-      <c r="CO11" s="125"/>
-      <c r="CP11" s="125"/>
-      <c r="CQ11" s="129">
-        <v>0</v>
-      </c>
-      <c r="CR11" s="129">
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="127"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="127"/>
+      <c r="P11" s="127"/>
+      <c r="Q11" s="127"/>
+      <c r="R11" s="127"/>
+      <c r="S11" s="127"/>
+      <c r="T11" s="127"/>
+      <c r="U11" s="127"/>
+      <c r="V11" s="127">
+        <v>99</v>
+      </c>
+      <c r="W11" s="129">
+        <v>99</v>
+      </c>
+      <c r="X11" s="129">
+        <v>99</v>
+      </c>
+      <c r="Y11" s="130">
+        <v>99</v>
+      </c>
+      <c r="Z11" s="130">
+        <v>99</v>
+      </c>
+      <c r="AA11" s="130">
+        <v>99</v>
+      </c>
+      <c r="AB11" s="127"/>
+      <c r="AC11" s="129"/>
+      <c r="AD11" s="130"/>
+      <c r="AE11" s="130"/>
+      <c r="AF11" s="130"/>
+      <c r="AG11" s="130"/>
+      <c r="AH11" s="130"/>
+      <c r="AI11" s="130"/>
+      <c r="AJ11" s="130">
+        <v>99</v>
+      </c>
+      <c r="AK11" s="127"/>
+      <c r="AL11" s="129"/>
+      <c r="AM11" s="130"/>
+      <c r="AN11" s="130"/>
+      <c r="AO11" s="130"/>
+      <c r="AP11" s="130"/>
+      <c r="AQ11" s="130">
+        <v>99</v>
+      </c>
+      <c r="AR11" s="127"/>
+      <c r="AS11" s="127"/>
+      <c r="AT11" s="130">
+        <v>99</v>
+      </c>
+      <c r="AU11" s="127"/>
+      <c r="AV11" s="127"/>
+      <c r="AW11" s="127"/>
+      <c r="AX11" s="127"/>
+      <c r="AY11" s="127"/>
+      <c r="AZ11" s="127"/>
+      <c r="BA11" s="127"/>
+      <c r="BB11" s="127"/>
+      <c r="BC11" s="127"/>
+      <c r="BD11" s="127"/>
+      <c r="BE11" s="127"/>
+      <c r="BF11" s="127"/>
+      <c r="BG11" s="127"/>
+      <c r="BH11" s="127"/>
+      <c r="BI11" s="127"/>
+      <c r="BJ11" s="127"/>
+      <c r="BK11" s="127"/>
+      <c r="BL11" s="127"/>
+      <c r="BM11" s="127"/>
+      <c r="BN11" s="127"/>
+      <c r="BO11" s="127"/>
+      <c r="BP11" s="127"/>
+      <c r="BQ11" s="127"/>
+      <c r="BR11" s="127"/>
+      <c r="BS11" s="127"/>
+      <c r="BT11" s="127"/>
+      <c r="BU11" s="127"/>
+      <c r="BV11" s="127"/>
+      <c r="BW11" s="127">
+        <v>99</v>
+      </c>
+      <c r="BX11" s="127">
+        <v>99</v>
+      </c>
+      <c r="BY11" s="127">
+        <v>99</v>
+      </c>
+      <c r="BZ11" s="127">
+        <v>99</v>
+      </c>
+      <c r="CA11" s="127">
+        <v>99</v>
+      </c>
+      <c r="CB11" s="127">
+        <v>99</v>
+      </c>
+      <c r="CC11" s="127"/>
+      <c r="CD11" s="127"/>
+      <c r="CE11" s="127"/>
+      <c r="CF11" s="127"/>
+      <c r="CG11" s="127"/>
+      <c r="CH11" s="127"/>
+      <c r="CI11" s="127"/>
+      <c r="CJ11" s="127"/>
+      <c r="CK11" s="127"/>
+      <c r="CL11" s="127"/>
+      <c r="CM11" s="127"/>
+      <c r="CN11" s="127"/>
+      <c r="CO11" s="127"/>
+      <c r="CP11" s="127"/>
+      <c r="CQ11" s="131">
+        <v>0</v>
+      </c>
+      <c r="CR11" s="131">
         <v>0</v>
       </c>
     </row>
@@ -6437,19 +7037,19 @@
       <c r="C12" s="5"/>
       <c r="D12" s="110">
         <f t="shared" si="0"/>
-        <v>2.5707547169811322</v>
+        <v>4.2344497607655498</v>
       </c>
       <c r="E12" s="22">
         <f t="shared" si="1"/>
-        <v>2.0220588235294117</v>
+        <v>4.3656716417910442</v>
       </c>
       <c r="F12" s="15">
         <f t="shared" si="2"/>
-        <v>6.875</v>
+        <v>14.625</v>
       </c>
       <c r="G12" s="15">
         <f t="shared" si="3"/>
-        <v>27.25</v>
+        <v>44.25</v>
       </c>
       <c r="H12" s="112"/>
       <c r="I12" s="70"/>
@@ -6510,19 +7110,39 @@
       <c r="AJ12" s="10">
         <v>99</v>
       </c>
-      <c r="AK12" s="118"/>
-      <c r="AL12" s="66"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="115"/>
-      <c r="AO12" s="115"/>
-      <c r="AP12" s="26"/>
+      <c r="AK12" s="118">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="92">
+        <v>0.75</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="115">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="115">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="26">
+        <v>1</v>
+      </c>
       <c r="AQ12" s="56">
         <v>99</v>
       </c>
-      <c r="AR12" s="64"/>
-      <c r="AS12" s="81"/>
-      <c r="AT12" s="84"/>
-      <c r="AU12" s="70"/>
+      <c r="AR12" s="64">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="81">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="130">
+        <v>99</v>
+      </c>
+      <c r="AU12" s="70">
+        <v>1</v>
+      </c>
       <c r="AV12" s="99"/>
       <c r="AW12" s="101"/>
       <c r="AX12" s="120"/>
@@ -6599,19 +7219,19 @@
       <c r="C13" s="88"/>
       <c r="D13" s="110">
         <f t="shared" si="0"/>
-        <v>1.0377358490566038</v>
+        <v>2.602870813397129</v>
       </c>
       <c r="E13" s="22">
         <f t="shared" si="1"/>
-        <v>1.1029411764705883</v>
+        <v>3.3283582089552239</v>
       </c>
       <c r="F13" s="89">
         <f t="shared" si="2"/>
-        <v>3.75</v>
+        <v>11.15</v>
       </c>
       <c r="G13" s="89">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>27.2</v>
       </c>
       <c r="H13" s="112"/>
       <c r="I13" s="90"/>
@@ -6672,19 +7292,39 @@
       <c r="AJ13" s="93">
         <v>99</v>
       </c>
-      <c r="AK13" s="90"/>
-      <c r="AL13" s="92"/>
-      <c r="AM13" s="93"/>
-      <c r="AN13" s="93"/>
-      <c r="AO13" s="93"/>
-      <c r="AP13" s="115"/>
+      <c r="AK13" s="126">
+        <v>0.75</v>
+      </c>
+      <c r="AL13" s="92">
+        <v>0.75</v>
+      </c>
+      <c r="AM13" s="93">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="93">
+        <v>0.9</v>
+      </c>
+      <c r="AO13" s="93">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="115">
+        <v>1</v>
+      </c>
       <c r="AQ13" s="93">
         <v>99</v>
       </c>
-      <c r="AR13" s="90"/>
-      <c r="AS13" s="90"/>
-      <c r="AT13" s="90"/>
-      <c r="AU13" s="90"/>
+      <c r="AR13" s="90">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="90">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="125">
+        <v>99</v>
+      </c>
+      <c r="AU13" s="90">
+        <v>1</v>
+      </c>
       <c r="AV13" s="90"/>
       <c r="AW13" s="90"/>
       <c r="AX13" s="90"/>
@@ -6761,19 +7401,19 @@
       <c r="C14" s="4"/>
       <c r="D14" s="110">
         <f t="shared" si="0"/>
-        <v>2.5943396226415096</v>
+        <v>4.1626794258373208</v>
       </c>
       <c r="E14" s="22">
         <f t="shared" si="1"/>
-        <v>1.9117647058823528</v>
+        <v>3.9552238805970146</v>
       </c>
       <c r="F14" s="15">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>13.25</v>
       </c>
       <c r="G14" s="15">
         <f t="shared" si="3"/>
-        <v>27.5</v>
+        <v>43.5</v>
       </c>
       <c r="H14" s="112"/>
       <c r="I14" s="70"/>
@@ -6834,19 +7474,39 @@
       <c r="AJ14" s="10">
         <v>99</v>
       </c>
-      <c r="AK14" s="118"/>
-      <c r="AL14" s="92"/>
-      <c r="AM14" s="68"/>
-      <c r="AN14" s="115"/>
-      <c r="AO14" s="115"/>
-      <c r="AP14" s="68"/>
+      <c r="AK14" s="118">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="92">
+        <v>0.75</v>
+      </c>
+      <c r="AM14" s="68">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="115">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="115">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="68">
+        <v>0</v>
+      </c>
       <c r="AQ14" s="68">
         <v>99</v>
       </c>
-      <c r="AR14" s="64"/>
-      <c r="AS14" s="81"/>
-      <c r="AT14" s="84"/>
-      <c r="AU14" s="70"/>
+      <c r="AR14" s="64">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="81">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="93">
+        <v>99</v>
+      </c>
+      <c r="AU14" s="70">
+        <v>1</v>
+      </c>
       <c r="AV14" s="99"/>
       <c r="AW14" s="101"/>
       <c r="AX14" s="120"/>
@@ -6923,19 +7583,19 @@
       <c r="C15" s="4"/>
       <c r="D15" s="110">
         <f t="shared" si="0"/>
-        <v>1.3679245283018868</v>
+        <v>2.8516746411483256</v>
       </c>
       <c r="E15" s="22">
         <f t="shared" si="1"/>
-        <v>1.5073529411764706</v>
+        <v>3.6641791044776122</v>
       </c>
       <c r="F15" s="15">
         <f t="shared" si="2"/>
-        <v>5.125</v>
+        <v>12.275</v>
       </c>
       <c r="G15" s="15">
         <f t="shared" si="3"/>
-        <v>14.5</v>
+        <v>29.8</v>
       </c>
       <c r="H15" s="112"/>
       <c r="I15" s="70"/>
@@ -6996,19 +7656,39 @@
       <c r="AJ15" s="10">
         <v>99</v>
       </c>
-      <c r="AK15" s="118"/>
-      <c r="AL15" s="66"/>
-      <c r="AM15" s="115"/>
-      <c r="AN15" s="115"/>
-      <c r="AO15" s="115"/>
-      <c r="AP15" s="26"/>
+      <c r="AK15" s="118">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="92">
+        <v>0.75</v>
+      </c>
+      <c r="AM15" s="115">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="115">
+        <v>0.5</v>
+      </c>
+      <c r="AO15" s="115">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="26">
+        <v>1</v>
+      </c>
       <c r="AQ15" s="56">
         <v>99</v>
       </c>
-      <c r="AR15" s="64"/>
-      <c r="AS15" s="81"/>
-      <c r="AT15" s="84"/>
-      <c r="AU15" s="70"/>
+      <c r="AR15" s="64">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="81">
+        <v>0.9</v>
+      </c>
+      <c r="AT15" s="125">
+        <v>99</v>
+      </c>
+      <c r="AU15" s="70">
+        <v>1</v>
+      </c>
       <c r="AV15" s="99"/>
       <c r="AW15" s="101"/>
       <c r="AX15" s="120"/>
@@ -7099,125 +7779,127 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="126"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="125"/>
-      <c r="R16" s="125"/>
-      <c r="S16" s="125"/>
-      <c r="T16" s="125"/>
-      <c r="U16" s="125"/>
-      <c r="V16" s="125">
-        <v>99</v>
-      </c>
-      <c r="W16" s="127">
-        <v>99</v>
-      </c>
-      <c r="X16" s="127">
-        <v>99</v>
-      </c>
-      <c r="Y16" s="128">
-        <v>99</v>
-      </c>
-      <c r="Z16" s="128">
-        <v>99</v>
-      </c>
-      <c r="AA16" s="128">
-        <v>99</v>
-      </c>
-      <c r="AB16" s="125"/>
-      <c r="AC16" s="127"/>
-      <c r="AD16" s="128"/>
-      <c r="AE16" s="128"/>
-      <c r="AF16" s="128"/>
-      <c r="AG16" s="128"/>
-      <c r="AH16" s="128"/>
-      <c r="AI16" s="128"/>
-      <c r="AJ16" s="128">
-        <v>99</v>
-      </c>
-      <c r="AK16" s="125"/>
-      <c r="AL16" s="127"/>
-      <c r="AM16" s="128"/>
-      <c r="AN16" s="128"/>
-      <c r="AO16" s="128"/>
-      <c r="AP16" s="128"/>
-      <c r="AQ16" s="128">
-        <v>99</v>
-      </c>
-      <c r="AR16" s="125"/>
-      <c r="AS16" s="125"/>
-      <c r="AT16" s="125"/>
-      <c r="AU16" s="125"/>
-      <c r="AV16" s="125"/>
-      <c r="AW16" s="125"/>
-      <c r="AX16" s="125"/>
-      <c r="AY16" s="125"/>
-      <c r="AZ16" s="125"/>
-      <c r="BA16" s="125"/>
-      <c r="BB16" s="125"/>
-      <c r="BC16" s="125"/>
-      <c r="BD16" s="125"/>
-      <c r="BE16" s="125"/>
-      <c r="BF16" s="125"/>
-      <c r="BG16" s="125"/>
-      <c r="BH16" s="125"/>
-      <c r="BI16" s="125"/>
-      <c r="BJ16" s="125"/>
-      <c r="BK16" s="125"/>
-      <c r="BL16" s="125"/>
-      <c r="BM16" s="125"/>
-      <c r="BN16" s="125"/>
-      <c r="BO16" s="125"/>
-      <c r="BP16" s="125"/>
-      <c r="BQ16" s="125"/>
-      <c r="BR16" s="125"/>
-      <c r="BS16" s="125"/>
-      <c r="BT16" s="125"/>
-      <c r="BU16" s="125"/>
-      <c r="BV16" s="125"/>
-      <c r="BW16" s="125">
-        <v>99</v>
-      </c>
-      <c r="BX16" s="125">
-        <v>99</v>
-      </c>
-      <c r="BY16" s="125">
-        <v>99</v>
-      </c>
-      <c r="BZ16" s="125">
-        <v>99</v>
-      </c>
-      <c r="CA16" s="125">
-        <v>99</v>
-      </c>
-      <c r="CB16" s="125">
-        <v>99</v>
-      </c>
-      <c r="CC16" s="125"/>
-      <c r="CD16" s="125"/>
-      <c r="CE16" s="125"/>
-      <c r="CF16" s="125"/>
-      <c r="CG16" s="125"/>
-      <c r="CH16" s="125"/>
-      <c r="CI16" s="125"/>
-      <c r="CJ16" s="125"/>
-      <c r="CK16" s="125"/>
-      <c r="CL16" s="125"/>
-      <c r="CM16" s="125"/>
-      <c r="CN16" s="125"/>
-      <c r="CO16" s="125"/>
-      <c r="CP16" s="125"/>
-      <c r="CQ16" s="129">
-        <v>0</v>
-      </c>
-      <c r="CR16" s="129">
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="128"/>
+      <c r="O16" s="132"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="127"/>
+      <c r="V16" s="127">
+        <v>99</v>
+      </c>
+      <c r="W16" s="129">
+        <v>99</v>
+      </c>
+      <c r="X16" s="129">
+        <v>99</v>
+      </c>
+      <c r="Y16" s="130">
+        <v>99</v>
+      </c>
+      <c r="Z16" s="130">
+        <v>99</v>
+      </c>
+      <c r="AA16" s="130">
+        <v>99</v>
+      </c>
+      <c r="AB16" s="127"/>
+      <c r="AC16" s="129"/>
+      <c r="AD16" s="130"/>
+      <c r="AE16" s="130"/>
+      <c r="AF16" s="130"/>
+      <c r="AG16" s="130"/>
+      <c r="AH16" s="130"/>
+      <c r="AI16" s="130"/>
+      <c r="AJ16" s="130">
+        <v>99</v>
+      </c>
+      <c r="AK16" s="127"/>
+      <c r="AL16" s="129"/>
+      <c r="AM16" s="130"/>
+      <c r="AN16" s="130"/>
+      <c r="AO16" s="130"/>
+      <c r="AP16" s="130"/>
+      <c r="AQ16" s="130">
+        <v>99</v>
+      </c>
+      <c r="AR16" s="127"/>
+      <c r="AS16" s="127"/>
+      <c r="AT16" s="125">
+        <v>99</v>
+      </c>
+      <c r="AU16" s="127"/>
+      <c r="AV16" s="127"/>
+      <c r="AW16" s="127"/>
+      <c r="AX16" s="127"/>
+      <c r="AY16" s="127"/>
+      <c r="AZ16" s="127"/>
+      <c r="BA16" s="127"/>
+      <c r="BB16" s="127"/>
+      <c r="BC16" s="127"/>
+      <c r="BD16" s="127"/>
+      <c r="BE16" s="127"/>
+      <c r="BF16" s="127"/>
+      <c r="BG16" s="127"/>
+      <c r="BH16" s="127"/>
+      <c r="BI16" s="127"/>
+      <c r="BJ16" s="127"/>
+      <c r="BK16" s="127"/>
+      <c r="BL16" s="127"/>
+      <c r="BM16" s="127"/>
+      <c r="BN16" s="127"/>
+      <c r="BO16" s="127"/>
+      <c r="BP16" s="127"/>
+      <c r="BQ16" s="127"/>
+      <c r="BR16" s="127"/>
+      <c r="BS16" s="127"/>
+      <c r="BT16" s="127"/>
+      <c r="BU16" s="127"/>
+      <c r="BV16" s="127"/>
+      <c r="BW16" s="127">
+        <v>99</v>
+      </c>
+      <c r="BX16" s="127">
+        <v>99</v>
+      </c>
+      <c r="BY16" s="127">
+        <v>99</v>
+      </c>
+      <c r="BZ16" s="127">
+        <v>99</v>
+      </c>
+      <c r="CA16" s="127">
+        <v>99</v>
+      </c>
+      <c r="CB16" s="127">
+        <v>99</v>
+      </c>
+      <c r="CC16" s="127"/>
+      <c r="CD16" s="127"/>
+      <c r="CE16" s="127"/>
+      <c r="CF16" s="127"/>
+      <c r="CG16" s="127"/>
+      <c r="CH16" s="127"/>
+      <c r="CI16" s="127"/>
+      <c r="CJ16" s="127"/>
+      <c r="CK16" s="127"/>
+      <c r="CL16" s="127"/>
+      <c r="CM16" s="127"/>
+      <c r="CN16" s="127"/>
+      <c r="CO16" s="127"/>
+      <c r="CP16" s="127"/>
+      <c r="CQ16" s="131">
+        <v>0</v>
+      </c>
+      <c r="CR16" s="131">
         <v>0</v>
       </c>
     </row>
@@ -7245,125 +7927,127 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="126"/>
-      <c r="O17" s="130"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="125"/>
-      <c r="R17" s="125"/>
-      <c r="S17" s="125"/>
-      <c r="T17" s="125"/>
-      <c r="U17" s="125"/>
-      <c r="V17" s="125">
-        <v>99</v>
-      </c>
-      <c r="W17" s="127">
-        <v>99</v>
-      </c>
-      <c r="X17" s="127">
-        <v>99</v>
-      </c>
-      <c r="Y17" s="128">
-        <v>99</v>
-      </c>
-      <c r="Z17" s="128">
-        <v>99</v>
-      </c>
-      <c r="AA17" s="128">
-        <v>99</v>
-      </c>
-      <c r="AB17" s="125"/>
-      <c r="AC17" s="127"/>
-      <c r="AD17" s="128"/>
-      <c r="AE17" s="128"/>
-      <c r="AF17" s="128"/>
-      <c r="AG17" s="128"/>
-      <c r="AH17" s="128"/>
-      <c r="AI17" s="128"/>
-      <c r="AJ17" s="128">
-        <v>99</v>
-      </c>
-      <c r="AK17" s="125"/>
-      <c r="AL17" s="127"/>
-      <c r="AM17" s="128"/>
-      <c r="AN17" s="128"/>
-      <c r="AO17" s="128"/>
-      <c r="AP17" s="128"/>
-      <c r="AQ17" s="128">
-        <v>99</v>
-      </c>
-      <c r="AR17" s="125"/>
-      <c r="AS17" s="125"/>
-      <c r="AT17" s="125"/>
-      <c r="AU17" s="125"/>
-      <c r="AV17" s="125"/>
-      <c r="AW17" s="125"/>
-      <c r="AX17" s="125"/>
-      <c r="AY17" s="125"/>
-      <c r="AZ17" s="125"/>
-      <c r="BA17" s="125"/>
-      <c r="BB17" s="125"/>
-      <c r="BC17" s="125"/>
-      <c r="BD17" s="125"/>
-      <c r="BE17" s="125"/>
-      <c r="BF17" s="125"/>
-      <c r="BG17" s="125"/>
-      <c r="BH17" s="125"/>
-      <c r="BI17" s="125"/>
-      <c r="BJ17" s="125"/>
-      <c r="BK17" s="125"/>
-      <c r="BL17" s="125"/>
-      <c r="BM17" s="125"/>
-      <c r="BN17" s="125"/>
-      <c r="BO17" s="125"/>
-      <c r="BP17" s="125"/>
-      <c r="BQ17" s="125"/>
-      <c r="BR17" s="125"/>
-      <c r="BS17" s="125"/>
-      <c r="BT17" s="125"/>
-      <c r="BU17" s="125"/>
-      <c r="BV17" s="125"/>
-      <c r="BW17" s="125">
-        <v>99</v>
-      </c>
-      <c r="BX17" s="125">
-        <v>99</v>
-      </c>
-      <c r="BY17" s="125">
-        <v>99</v>
-      </c>
-      <c r="BZ17" s="125">
-        <v>99</v>
-      </c>
-      <c r="CA17" s="125">
-        <v>99</v>
-      </c>
-      <c r="CB17" s="125">
-        <v>99</v>
-      </c>
-      <c r="CC17" s="125"/>
-      <c r="CD17" s="125"/>
-      <c r="CE17" s="125"/>
-      <c r="CF17" s="125"/>
-      <c r="CG17" s="125"/>
-      <c r="CH17" s="125"/>
-      <c r="CI17" s="125"/>
-      <c r="CJ17" s="125"/>
-      <c r="CK17" s="125"/>
-      <c r="CL17" s="125"/>
-      <c r="CM17" s="125"/>
-      <c r="CN17" s="125"/>
-      <c r="CO17" s="125"/>
-      <c r="CP17" s="125"/>
-      <c r="CQ17" s="129">
-        <v>0</v>
-      </c>
-      <c r="CR17" s="129">
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="132"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="127"/>
+      <c r="U17" s="127"/>
+      <c r="V17" s="127">
+        <v>99</v>
+      </c>
+      <c r="W17" s="129">
+        <v>99</v>
+      </c>
+      <c r="X17" s="129">
+        <v>99</v>
+      </c>
+      <c r="Y17" s="130">
+        <v>99</v>
+      </c>
+      <c r="Z17" s="130">
+        <v>99</v>
+      </c>
+      <c r="AA17" s="130">
+        <v>99</v>
+      </c>
+      <c r="AB17" s="127"/>
+      <c r="AC17" s="129"/>
+      <c r="AD17" s="130"/>
+      <c r="AE17" s="130"/>
+      <c r="AF17" s="130"/>
+      <c r="AG17" s="130"/>
+      <c r="AH17" s="130"/>
+      <c r="AI17" s="130"/>
+      <c r="AJ17" s="130">
+        <v>99</v>
+      </c>
+      <c r="AK17" s="127"/>
+      <c r="AL17" s="129"/>
+      <c r="AM17" s="130"/>
+      <c r="AN17" s="130"/>
+      <c r="AO17" s="130"/>
+      <c r="AP17" s="130"/>
+      <c r="AQ17" s="130">
+        <v>99</v>
+      </c>
+      <c r="AR17" s="127"/>
+      <c r="AS17" s="127"/>
+      <c r="AT17" s="125">
+        <v>99</v>
+      </c>
+      <c r="AU17" s="127"/>
+      <c r="AV17" s="127"/>
+      <c r="AW17" s="127"/>
+      <c r="AX17" s="127"/>
+      <c r="AY17" s="127"/>
+      <c r="AZ17" s="127"/>
+      <c r="BA17" s="127"/>
+      <c r="BB17" s="127"/>
+      <c r="BC17" s="127"/>
+      <c r="BD17" s="127"/>
+      <c r="BE17" s="127"/>
+      <c r="BF17" s="127"/>
+      <c r="BG17" s="127"/>
+      <c r="BH17" s="127"/>
+      <c r="BI17" s="127"/>
+      <c r="BJ17" s="127"/>
+      <c r="BK17" s="127"/>
+      <c r="BL17" s="127"/>
+      <c r="BM17" s="127"/>
+      <c r="BN17" s="127"/>
+      <c r="BO17" s="127"/>
+      <c r="BP17" s="127"/>
+      <c r="BQ17" s="127"/>
+      <c r="BR17" s="127"/>
+      <c r="BS17" s="127"/>
+      <c r="BT17" s="127"/>
+      <c r="BU17" s="127"/>
+      <c r="BV17" s="127"/>
+      <c r="BW17" s="127">
+        <v>99</v>
+      </c>
+      <c r="BX17" s="127">
+        <v>99</v>
+      </c>
+      <c r="BY17" s="127">
+        <v>99</v>
+      </c>
+      <c r="BZ17" s="127">
+        <v>99</v>
+      </c>
+      <c r="CA17" s="127">
+        <v>99</v>
+      </c>
+      <c r="CB17" s="127">
+        <v>99</v>
+      </c>
+      <c r="CC17" s="127"/>
+      <c r="CD17" s="127"/>
+      <c r="CE17" s="127"/>
+      <c r="CF17" s="127"/>
+      <c r="CG17" s="127"/>
+      <c r="CH17" s="127"/>
+      <c r="CI17" s="127"/>
+      <c r="CJ17" s="127"/>
+      <c r="CK17" s="127"/>
+      <c r="CL17" s="127"/>
+      <c r="CM17" s="127"/>
+      <c r="CN17" s="127"/>
+      <c r="CO17" s="127"/>
+      <c r="CP17" s="127"/>
+      <c r="CQ17" s="131">
+        <v>0</v>
+      </c>
+      <c r="CR17" s="131">
         <v>0</v>
       </c>
     </row>
@@ -7377,19 +8061,19 @@
       <c r="C18" s="4"/>
       <c r="D18" s="110">
         <f t="shared" si="0"/>
-        <v>2.7122641509433967</v>
+        <v>4.3110047846889952</v>
       </c>
       <c r="E18" s="22">
         <f t="shared" si="1"/>
-        <v>2.2058823529411766</v>
+        <v>4.5223880597014929</v>
       </c>
       <c r="F18" s="15">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>15.15</v>
       </c>
       <c r="G18" s="15">
         <f t="shared" si="3"/>
-        <v>28.75</v>
+        <v>45.05</v>
       </c>
       <c r="H18" s="112"/>
       <c r="I18" s="70"/>
@@ -7450,20 +8134,38 @@
       <c r="AJ18" s="10">
         <v>99</v>
       </c>
-      <c r="AK18" s="118"/>
-      <c r="AL18" s="66"/>
-      <c r="AM18" s="115"/>
-      <c r="AN18" s="115"/>
-      <c r="AO18" s="115"/>
-      <c r="AP18" s="26"/>
+      <c r="AK18" s="118">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="92">
+        <v>0.75</v>
+      </c>
+      <c r="AM18" s="115">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="115">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="115">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="26">
+        <v>1</v>
+      </c>
       <c r="AQ18" s="56">
         <v>99</v>
       </c>
-      <c r="AR18" s="64"/>
-      <c r="AS18" s="81"/>
-      <c r="AT18" s="84"/>
+      <c r="AR18" s="64">
+        <v>1</v>
+      </c>
+      <c r="AS18" s="81">
+        <v>0.9</v>
+      </c>
+      <c r="AT18" s="93">
+        <v>99</v>
+      </c>
       <c r="AU18" s="70">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AV18" s="99"/>
       <c r="AW18" s="101"/>
@@ -7538,19 +8240,19 @@
       <c r="C19" s="4"/>
       <c r="D19" s="110">
         <f t="shared" si="0"/>
-        <v>2.1226415094339623</v>
+        <v>3.4449760765550241</v>
       </c>
       <c r="E19" s="22">
         <f t="shared" si="1"/>
-        <v>1.9117647058823528</v>
+        <v>3.8059701492537314</v>
       </c>
       <c r="F19" s="89">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>12.75</v>
       </c>
       <c r="G19" s="89">
         <f t="shared" si="3"/>
-        <v>22.5</v>
+        <v>36</v>
       </c>
       <c r="H19" s="112"/>
       <c r="I19" s="90"/>
@@ -7611,18 +8313,36 @@
       <c r="AJ19" s="93">
         <v>99</v>
       </c>
-      <c r="AK19" s="90"/>
-      <c r="AL19" s="92"/>
-      <c r="AM19" s="115"/>
-      <c r="AN19" s="93"/>
-      <c r="AO19" s="93"/>
-      <c r="AP19" s="93"/>
+      <c r="AK19" s="90">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="92">
+        <v>0.75</v>
+      </c>
+      <c r="AM19" s="115">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="125">
+        <v>0.5</v>
+      </c>
+      <c r="AO19" s="93">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="93">
+        <v>0</v>
+      </c>
       <c r="AQ19" s="93">
         <v>99</v>
       </c>
-      <c r="AR19" s="90"/>
-      <c r="AS19" s="90"/>
-      <c r="AT19" s="90"/>
+      <c r="AR19" s="90">
+        <v>1</v>
+      </c>
+      <c r="AS19" s="90">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="93">
+        <v>99</v>
+      </c>
       <c r="AU19" s="90">
         <v>1</v>
       </c>
@@ -7702,19 +8422,19 @@
       <c r="C20" s="4"/>
       <c r="D20" s="110">
         <f t="shared" si="0"/>
-        <v>2.7547169811320753</v>
+        <v>4.3062200956937797</v>
       </c>
       <c r="E20" s="22">
         <f t="shared" si="1"/>
-        <v>2.2205882352941178</v>
+        <v>4.5373134328358216</v>
       </c>
       <c r="F20" s="15">
         <f t="shared" si="2"/>
-        <v>7.55</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="G20" s="15">
         <f t="shared" si="3"/>
-        <v>29.2</v>
+        <v>45</v>
       </c>
       <c r="H20" s="112"/>
       <c r="I20" s="70"/>
@@ -7775,18 +8495,36 @@
       <c r="AJ20" s="10">
         <v>99</v>
       </c>
-      <c r="AK20" s="14"/>
-      <c r="AL20" s="66"/>
-      <c r="AM20" s="13"/>
-      <c r="AN20" s="115"/>
-      <c r="AO20" s="115"/>
-      <c r="AP20" s="115"/>
+      <c r="AK20" s="14">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="92">
+        <v>0.75</v>
+      </c>
+      <c r="AM20" s="13">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="115">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="115">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="115">
+        <v>1</v>
+      </c>
       <c r="AQ20" s="56">
         <v>99</v>
       </c>
-      <c r="AR20" s="64"/>
-      <c r="AS20" s="84"/>
-      <c r="AT20" s="84"/>
+      <c r="AR20" s="64">
+        <v>1</v>
+      </c>
+      <c r="AS20" s="84">
+        <v>0.9</v>
+      </c>
+      <c r="AT20" s="93">
+        <v>99</v>
+      </c>
       <c r="AU20" s="70">
         <v>1</v>
       </c>
@@ -7866,19 +8604,19 @@
       <c r="C21" s="5"/>
       <c r="D21" s="110">
         <f t="shared" si="0"/>
-        <v>1.6037735849056602</v>
+        <v>3.1866028708133971</v>
       </c>
       <c r="E21" s="22">
         <f t="shared" si="1"/>
-        <v>1.4705882352941178</v>
+        <v>3.7761194029850746</v>
       </c>
       <c r="F21" s="15">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>12.65</v>
       </c>
       <c r="G21" s="15">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="H21" s="112"/>
       <c r="I21" s="70"/>
@@ -7939,20 +8677,38 @@
       <c r="AJ21" s="10">
         <v>99</v>
       </c>
-      <c r="AK21" s="14"/>
-      <c r="AL21" s="66"/>
-      <c r="AM21" s="75"/>
-      <c r="AN21" s="115"/>
-      <c r="AO21" s="115"/>
-      <c r="AP21" s="115"/>
+      <c r="AK21" s="14">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="92">
+        <v>0.75</v>
+      </c>
+      <c r="AM21" s="75">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="115">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="115">
+        <v>1</v>
+      </c>
+      <c r="AP21" s="115">
+        <v>1</v>
+      </c>
       <c r="AQ21" s="56">
         <v>99</v>
       </c>
-      <c r="AR21" s="64"/>
-      <c r="AS21" s="81"/>
-      <c r="AT21" s="84"/>
+      <c r="AR21" s="64">
+        <v>1</v>
+      </c>
+      <c r="AS21" s="81">
+        <v>0.9</v>
+      </c>
+      <c r="AT21" s="93">
+        <v>99</v>
+      </c>
       <c r="AU21" s="70">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AV21" s="99"/>
       <c r="AW21" s="101"/>
@@ -8030,19 +8786,19 @@
       <c r="C22" s="4"/>
       <c r="D22" s="110">
         <f t="shared" si="0"/>
-        <v>2.5707547169811322</v>
+        <v>4.1387559808612444</v>
       </c>
       <c r="E22" s="22">
         <f t="shared" si="1"/>
-        <v>2.1323529411764706</v>
+        <v>4.477611940298508</v>
       </c>
       <c r="F22" s="15">
         <f t="shared" si="2"/>
-        <v>7.25</v>
+        <v>15</v>
       </c>
       <c r="G22" s="15">
         <f t="shared" si="3"/>
-        <v>27.25</v>
+        <v>43.25</v>
       </c>
       <c r="H22" s="112"/>
       <c r="I22" s="70"/>
@@ -8103,18 +8859,36 @@
       <c r="AJ22" s="68">
         <v>99</v>
       </c>
-      <c r="AK22" s="118"/>
-      <c r="AL22" s="92"/>
-      <c r="AM22" s="75"/>
-      <c r="AN22" s="115"/>
-      <c r="AO22" s="115"/>
-      <c r="AP22" s="115"/>
+      <c r="AK22" s="126">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="92">
+        <v>0.75</v>
+      </c>
+      <c r="AM22" s="125">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="125">
+        <v>1</v>
+      </c>
+      <c r="AO22" s="125">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="125">
+        <v>1</v>
+      </c>
       <c r="AQ22" s="68">
         <v>99</v>
       </c>
-      <c r="AR22" s="70"/>
-      <c r="AS22" s="81"/>
-      <c r="AT22" s="84"/>
+      <c r="AR22" s="70">
+        <v>1</v>
+      </c>
+      <c r="AS22" s="81">
+        <v>1</v>
+      </c>
+      <c r="AT22" s="93">
+        <v>99</v>
+      </c>
       <c r="AU22" s="70">
         <v>1</v>
       </c>
@@ -8194,19 +8968,19 @@
       <c r="C23" s="4"/>
       <c r="D23" s="110">
         <f t="shared" si="0"/>
-        <v>2.5471698113207548</v>
+        <v>4.2105263157894735</v>
       </c>
       <c r="E23" s="22">
         <f t="shared" si="1"/>
-        <v>1.9852941176470587</v>
+        <v>4.3283582089552235</v>
       </c>
       <c r="F23" s="89">
         <f t="shared" si="2"/>
-        <v>6.75</v>
+        <v>14.5</v>
       </c>
       <c r="G23" s="89">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="H23" s="112"/>
       <c r="I23" s="90"/>
@@ -8267,19 +9041,39 @@
       <c r="AJ23" s="93">
         <v>99</v>
       </c>
-      <c r="AK23" s="118"/>
-      <c r="AL23" s="92"/>
-      <c r="AM23" s="75"/>
-      <c r="AN23" s="93"/>
-      <c r="AO23" s="93"/>
-      <c r="AP23" s="115"/>
+      <c r="AK23" s="126">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="92">
+        <v>0.75</v>
+      </c>
+      <c r="AM23" s="125">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="125">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="125">
+        <v>1</v>
+      </c>
+      <c r="AP23" s="125">
+        <v>1</v>
+      </c>
       <c r="AQ23" s="93">
         <v>99</v>
       </c>
-      <c r="AR23" s="90"/>
-      <c r="AS23" s="90"/>
-      <c r="AT23" s="90"/>
-      <c r="AU23" s="90"/>
+      <c r="AR23" s="90">
+        <v>1</v>
+      </c>
+      <c r="AS23" s="90">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="93">
+        <v>99</v>
+      </c>
+      <c r="AU23" s="90">
+        <v>1</v>
+      </c>
       <c r="AV23" s="90"/>
       <c r="AW23" s="90"/>
       <c r="AX23" s="90"/>
@@ -8352,7 +9146,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="110">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.569377990430622E-2</v>
       </c>
       <c r="E24" s="22">
         <f t="shared" si="1"/>
@@ -8364,7 +9158,7 @@
       </c>
       <c r="G24" s="89">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="112"/>
       <c r="I24" s="90"/>
@@ -8420,8 +9214,12 @@
       </c>
       <c r="AR24" s="90"/>
       <c r="AS24" s="84"/>
-      <c r="AT24" s="84"/>
-      <c r="AU24" s="90"/>
+      <c r="AT24" s="93">
+        <v>99</v>
+      </c>
+      <c r="AU24" s="90">
+        <v>1</v>
+      </c>
       <c r="AV24" s="90"/>
       <c r="AW24" s="90"/>
       <c r="AX24" s="90"/>
@@ -8502,11 +9300,11 @@
       </c>
       <c r="F25" s="15">
         <f>G67</f>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G25" s="15">
         <f>G45</f>
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H25" s="70">
         <v>1</v>
@@ -8893,49 +9691,49 @@
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
-      <c r="AK26" s="72" t="e">
+      <c r="AK26" s="72">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AL26" s="72" t="e">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="AL26" s="72">
         <f t="shared" ref="AL26:BA26" si="5">AVERAGE(AL9:AL24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM26" s="72" t="e">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="AM26" s="72">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN26" s="117" t="e">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="117">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO26" s="117" t="e">
+        <v>0.9</v>
+      </c>
+      <c r="AO26" s="117">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP26" s="72" t="e">
+        <v>1</v>
+      </c>
+      <c r="AP26" s="72">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.75</v>
       </c>
       <c r="AQ26" s="72">
         <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="AR26" s="72" t="e">
+      <c r="AR26" s="72">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AS26" s="80" t="e">
+        <v>1</v>
+      </c>
+      <c r="AS26" s="80">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT26" s="86" t="e">
+        <v>0.89375000000000016</v>
+      </c>
+      <c r="AT26" s="86">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>99</v>
       </c>
       <c r="AU26" s="72">
         <f t="shared" si="5"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AV26" s="98" t="e">
         <f t="shared" si="5"/>
@@ -9137,7 +9935,7 @@
     <row r="28" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G28" s="2">
         <f t="shared" ref="G28:G45" si="9">SUM(H28:CP28)</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" ref="H28:AK28" si="10">H9*H$6</f>
@@ -9257,27 +10055,27 @@
       </c>
       <c r="AK28" s="72">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL28" s="72">
         <f t="shared" ref="AL28:BA28" si="13">AL9*AL$6</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM28" s="72">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN28" s="117">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO28" s="117">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP28" s="72">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ28" s="72">
         <f t="shared" si="13"/>
@@ -9285,11 +10083,11 @@
       </c>
       <c r="AR28" s="72">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS28" s="80">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT28" s="86">
         <f t="shared" si="13"/>
@@ -9297,7 +10095,7 @@
       </c>
       <c r="AU28" s="72">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV28" s="98">
         <f t="shared" si="13"/>
@@ -9499,7 +10297,7 @@
     <row r="29" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G29" s="2">
         <f t="shared" si="9"/>
-        <v>17.5</v>
+        <v>30.95</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" ref="H29:AK29" si="21">H10*H$6</f>
@@ -9619,23 +10417,23 @@
       </c>
       <c r="AK29" s="69">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AL29" s="69">
         <f t="shared" ref="AL29:BA29" si="22">AL10*AL$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM29" s="69">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN29" s="117">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AO29" s="117">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP29" s="69">
         <f t="shared" si="22"/>
@@ -9647,11 +10445,11 @@
       </c>
       <c r="AR29" s="69">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS29" s="80">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AT29" s="86">
         <f t="shared" si="22"/>
@@ -9659,7 +10457,7 @@
       </c>
       <c r="AU29" s="69">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV29" s="98">
         <f t="shared" si="22"/>
@@ -10223,7 +11021,7 @@
     <row r="31" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G31" s="2">
         <f t="shared" si="9"/>
-        <v>27.25</v>
+        <v>44.25</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" ref="H31:AK31" si="31">H12*H$6</f>
@@ -10343,27 +11141,27 @@
       </c>
       <c r="AK31" s="69">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL31" s="69">
         <f t="shared" ref="AL31:BA31" si="32">AL12*AL$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM31" s="69">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN31" s="117">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO31" s="117">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP31" s="69">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ31" s="69">
         <f t="shared" si="32"/>
@@ -10371,11 +11169,11 @@
       </c>
       <c r="AR31" s="69">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS31" s="80">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT31" s="86">
         <f t="shared" si="32"/>
@@ -10383,7 +11181,7 @@
       </c>
       <c r="AU31" s="69">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV31" s="98">
         <f t="shared" si="32"/>
@@ -10585,7 +11383,7 @@
     <row r="32" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G32" s="2">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>27.2</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" ref="H32:AK32" si="36">H13*H$6</f>
@@ -10705,27 +11503,27 @@
       </c>
       <c r="AK32" s="69">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AL32" s="69">
         <f t="shared" ref="AL32:BA32" si="37">AL13*AL$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM32" s="69">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN32" s="117">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AO32" s="117">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP32" s="69">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ32" s="69">
         <f t="shared" si="37"/>
@@ -10733,11 +11531,11 @@
       </c>
       <c r="AR32" s="69">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS32" s="80">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT32" s="86">
         <f t="shared" si="37"/>
@@ -10745,7 +11543,7 @@
       </c>
       <c r="AU32" s="69">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV32" s="98">
         <f t="shared" si="37"/>
@@ -10947,7 +11745,7 @@
     <row r="33" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G33" s="2">
         <f t="shared" si="9"/>
-        <v>27.5</v>
+        <v>43.5</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" ref="H33:AK33" si="41">H14*H$6</f>
@@ -11067,23 +11865,23 @@
       </c>
       <c r="AK33" s="69">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL33" s="69">
         <f t="shared" ref="AL33:BA33" si="42">AL14*AL$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM33" s="69">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN33" s="117">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO33" s="117">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP33" s="69">
         <f t="shared" si="42"/>
@@ -11095,11 +11893,11 @@
       </c>
       <c r="AR33" s="69">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS33" s="80">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT33" s="86">
         <f t="shared" si="42"/>
@@ -11107,7 +11905,7 @@
       </c>
       <c r="AU33" s="69">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV33" s="98">
         <f t="shared" si="42"/>
@@ -11309,7 +12107,7 @@
     <row r="34" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G34" s="2">
         <f t="shared" si="9"/>
-        <v>14.5</v>
+        <v>29.8</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" ref="H34:AK34" si="46">H15*H$6</f>
@@ -11429,27 +12227,27 @@
       </c>
       <c r="AK34" s="69">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL34" s="69">
         <f t="shared" ref="AL34:BA34" si="47">AL15*AL$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM34" s="69">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN34" s="117">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO34" s="117">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP34" s="69">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ34" s="69">
         <f t="shared" si="47"/>
@@ -11457,11 +12255,11 @@
       </c>
       <c r="AR34" s="69">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS34" s="80">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AT34" s="86">
         <f t="shared" si="47"/>
@@ -11469,7 +12267,7 @@
       </c>
       <c r="AU34" s="69">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV34" s="98">
         <f t="shared" si="47"/>
@@ -12395,7 +13193,7 @@
     <row r="37" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G37" s="2">
         <f t="shared" si="9"/>
-        <v>28.75</v>
+        <v>45.05</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" ref="H37:AK37" si="61">H18*H$6</f>
@@ -12515,27 +13313,27 @@
       </c>
       <c r="AK37" s="69">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL37" s="69">
         <f t="shared" ref="AL37:BA37" si="62">AL18*AL$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM37" s="69">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN37" s="117">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO37" s="117">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP37" s="69">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ37" s="69">
         <f t="shared" si="62"/>
@@ -12543,11 +13341,11 @@
       </c>
       <c r="AR37" s="69">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS37" s="80">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AT37" s="86">
         <f t="shared" si="62"/>
@@ -12555,7 +13353,7 @@
       </c>
       <c r="AU37" s="69">
         <f t="shared" si="62"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AV37" s="98">
         <f t="shared" si="62"/>
@@ -12757,7 +13555,7 @@
     <row r="38" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G38" s="2">
         <f t="shared" si="9"/>
-        <v>22.5</v>
+        <v>36</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" ref="H38:AK38" si="66">H19*H$6</f>
@@ -12877,23 +13675,23 @@
       </c>
       <c r="AK38" s="69">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL38" s="69">
         <f t="shared" ref="AL38:BA38" si="67">AL19*AL$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM38" s="69">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN38" s="117">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO38" s="117">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP38" s="69">
         <f t="shared" si="67"/>
@@ -12905,11 +13703,11 @@
       </c>
       <c r="AR38" s="69">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS38" s="80">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT38" s="86">
         <f t="shared" si="67"/>
@@ -13119,7 +13917,7 @@
     <row r="39" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G39" s="2">
         <f t="shared" si="9"/>
-        <v>29.2</v>
+        <v>45</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" ref="H39:AK39" si="71">H20*H$6</f>
@@ -13239,27 +14037,27 @@
       </c>
       <c r="AK39" s="69">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL39" s="69">
         <f t="shared" ref="AL39:BA39" si="72">AL20*AL$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM39" s="69">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN39" s="117">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO39" s="117">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP39" s="69">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ39" s="69">
         <f t="shared" si="72"/>
@@ -13267,11 +14065,11 @@
       </c>
       <c r="AR39" s="69">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS39" s="80">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AT39" s="86">
         <f t="shared" si="72"/>
@@ -13481,7 +14279,7 @@
     <row r="40" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G40" s="2">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" ref="H40:AK40" si="76">H21*H$6</f>
@@ -13601,27 +14399,27 @@
       </c>
       <c r="AK40" s="69">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL40" s="69">
         <f t="shared" ref="AL40:BA40" si="77">AL21*AL$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM40" s="69">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN40" s="117">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO40" s="117">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP40" s="69">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ40" s="69">
         <f t="shared" si="77"/>
@@ -13629,11 +14427,11 @@
       </c>
       <c r="AR40" s="69">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS40" s="80">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AT40" s="86">
         <f t="shared" si="77"/>
@@ -13641,7 +14439,7 @@
       </c>
       <c r="AU40" s="69">
         <f t="shared" si="77"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AV40" s="98">
         <f t="shared" si="77"/>
@@ -13843,7 +14641,7 @@
     <row r="41" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G41" s="69">
         <f t="shared" si="9"/>
-        <v>27.25</v>
+        <v>43.25</v>
       </c>
       <c r="H41" s="69">
         <f t="shared" ref="H41:AK41" si="81">H22*H$6</f>
@@ -13963,27 +14761,27 @@
       </c>
       <c r="AK41" s="69">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL41" s="69">
         <f t="shared" ref="AL41:BA41" si="82">AL22*AL$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM41" s="69">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN41" s="117">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO41" s="117">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP41" s="69">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ41" s="69">
         <f t="shared" si="82"/>
@@ -13991,11 +14789,11 @@
       </c>
       <c r="AR41" s="69">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS41" s="80">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT41" s="86">
         <f t="shared" si="82"/>
@@ -14207,7 +15005,7 @@
       <c r="E42" s="19"/>
       <c r="G42" s="69">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="H42" s="69">
         <f t="shared" ref="H42:AK42" si="86">H23*H$6</f>
@@ -14327,27 +15125,27 @@
       </c>
       <c r="AK42" s="69">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL42" s="69">
         <f t="shared" ref="AL42:BA42" si="87">AL23*AL$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM42" s="69">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN42" s="117">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO42" s="117">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP42" s="69">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ42" s="69">
         <f t="shared" si="87"/>
@@ -14355,11 +15153,11 @@
       </c>
       <c r="AR42" s="69">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS42" s="80">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT42" s="86">
         <f t="shared" si="87"/>
@@ -14367,7 +15165,7 @@
       </c>
       <c r="AU42" s="69">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV42" s="98">
         <f t="shared" si="87"/>
@@ -14571,7 +15369,7 @@
       <c r="E43" s="19"/>
       <c r="G43" s="69">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="69">
         <f t="shared" ref="H43:AK43" si="91">H24*H$6</f>
@@ -14731,7 +15529,7 @@
       </c>
       <c r="AU43" s="69">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV43" s="98">
         <f t="shared" si="92"/>
@@ -15299,7 +16097,7 @@
       <c r="E45" s="19"/>
       <c r="G45" s="72">
         <f t="shared" si="9"/>
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H45" s="72">
         <f t="shared" ref="H45:N45" si="96">H25*H$6</f>
@@ -15455,7 +16253,7 @@
       </c>
       <c r="AT45" s="86">
         <f t="shared" si="98"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="72">
         <f t="shared" si="98"/>
@@ -15777,7 +16575,7 @@
     <row r="50" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G50" s="2">
         <f t="shared" ref="G50:G67" si="102">SUM(H50:CP50)</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" ref="H50:AK50" si="103">H9*H$7</f>
@@ -15897,27 +16695,27 @@
       </c>
       <c r="AK50" s="69">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL50" s="69">
         <f t="shared" ref="AL50:BA50" si="106">AL9*AL$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM50" s="69">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN50" s="117">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO50" s="117">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP50" s="69">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ50" s="69">
         <f t="shared" si="106"/>
@@ -15925,11 +16723,11 @@
       </c>
       <c r="AR50" s="69">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS50" s="80">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT50" s="86">
         <f t="shared" si="106"/>
@@ -16139,7 +16937,7 @@
     <row r="51" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G51" s="2">
         <f t="shared" si="102"/>
-        <v>4.625</v>
+        <v>10.15</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" ref="H51:AK51" si="114">H10*H$7</f>
@@ -16259,23 +17057,23 @@
       </c>
       <c r="AK51" s="69">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AL51" s="69">
         <f t="shared" ref="AL51:BA51" si="115">AL10*AL$7</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AM51" s="69">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN51" s="117">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AO51" s="117">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP51" s="69">
         <f t="shared" si="115"/>
@@ -16287,11 +17085,11 @@
       </c>
       <c r="AR51" s="69">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS51" s="80">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AT51" s="86">
         <f t="shared" si="115"/>
@@ -16863,7 +17661,7 @@
     <row r="53" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G53" s="2">
         <f t="shared" si="102"/>
-        <v>6.875</v>
+        <v>14.625</v>
       </c>
       <c r="H53" s="2">
         <f t="shared" ref="H53:AK53" si="124">H12*H$7</f>
@@ -16983,27 +17781,27 @@
       </c>
       <c r="AK53" s="69">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL53" s="69">
         <f t="shared" ref="AL53:BA53" si="125">AL12*AL$7</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AM53" s="69">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN53" s="117">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO53" s="117">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP53" s="69">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ53" s="69">
         <f t="shared" si="125"/>
@@ -17011,11 +17809,11 @@
       </c>
       <c r="AR53" s="69">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS53" s="80">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT53" s="86">
         <f t="shared" si="125"/>
@@ -17225,7 +18023,7 @@
     <row r="54" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G54" s="2">
         <f t="shared" si="102"/>
-        <v>3.75</v>
+        <v>11.15</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" ref="H54:AK54" si="129">H13*H$7</f>
@@ -17345,27 +18143,27 @@
       </c>
       <c r="AK54" s="69">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AL54" s="69">
         <f t="shared" ref="AL54:BA54" si="130">AL13*AL$7</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AM54" s="69">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN54" s="117">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AO54" s="117">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP54" s="69">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ54" s="69">
         <f t="shared" si="130"/>
@@ -17373,11 +18171,11 @@
       </c>
       <c r="AR54" s="69">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS54" s="80">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT54" s="86">
         <f t="shared" si="130"/>
@@ -17587,7 +18385,7 @@
     <row r="55" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G55" s="2">
         <f t="shared" si="102"/>
-        <v>6.5</v>
+        <v>13.25</v>
       </c>
       <c r="H55" s="2">
         <f t="shared" ref="H55:AK55" si="134">H14*H$7</f>
@@ -17707,23 +18505,23 @@
       </c>
       <c r="AK55" s="69">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL55" s="69">
         <f t="shared" ref="AL55:BA55" si="135">AL14*AL$7</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AM55" s="69">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN55" s="117">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO55" s="117">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP55" s="69">
         <f t="shared" si="135"/>
@@ -17735,11 +18533,11 @@
       </c>
       <c r="AR55" s="69">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS55" s="80">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT55" s="86">
         <f t="shared" si="135"/>
@@ -17949,7 +18747,7 @@
     <row r="56" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G56" s="2">
         <f t="shared" si="102"/>
-        <v>5.125</v>
+        <v>12.275</v>
       </c>
       <c r="H56" s="2">
         <f t="shared" ref="H56:AK56" si="139">H15*H$7</f>
@@ -18069,27 +18867,27 @@
       </c>
       <c r="AK56" s="69">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL56" s="69">
         <f t="shared" ref="AL56:BA56" si="140">AL15*AL$7</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AM56" s="69">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN56" s="117">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO56" s="117">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP56" s="69">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ56" s="69">
         <f t="shared" si="140"/>
@@ -18097,11 +18895,11 @@
       </c>
       <c r="AR56" s="69">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS56" s="80">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AT56" s="86">
         <f t="shared" si="140"/>
@@ -19035,7 +19833,7 @@
     <row r="59" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G59" s="2">
         <f t="shared" si="102"/>
-        <v>7.5</v>
+        <v>15.15</v>
       </c>
       <c r="H59" s="2">
         <f t="shared" ref="H59:AK59" si="154">H18*H$7</f>
@@ -19155,27 +19953,27 @@
       </c>
       <c r="AK59" s="69">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL59" s="69">
         <f t="shared" ref="AL59:BA59" si="155">AL18*AL$7</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AM59" s="69">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN59" s="117">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO59" s="117">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP59" s="69">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ59" s="69">
         <f t="shared" si="155"/>
@@ -19183,11 +19981,11 @@
       </c>
       <c r="AR59" s="69">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS59" s="80">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AT59" s="86">
         <f t="shared" si="155"/>
@@ -19397,7 +20195,7 @@
     <row r="60" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G60" s="2">
         <f t="shared" si="102"/>
-        <v>6.5</v>
+        <v>12.75</v>
       </c>
       <c r="H60" s="2">
         <f t="shared" ref="H60:AK60" si="159">H19*H$7</f>
@@ -19517,23 +20315,23 @@
       </c>
       <c r="AK60" s="69">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL60" s="69">
         <f t="shared" ref="AL60:BA60" si="160">AL19*AL$7</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AM60" s="69">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN60" s="117">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO60" s="117">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP60" s="69">
         <f t="shared" si="160"/>
@@ -19545,11 +20343,11 @@
       </c>
       <c r="AR60" s="69">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS60" s="80">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT60" s="86">
         <f t="shared" si="160"/>
@@ -19759,7 +20557,7 @@
     <row r="61" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G61" s="2">
         <f t="shared" si="102"/>
-        <v>7.55</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" ref="H61:AK61" si="164">H20*H$7</f>
@@ -19879,27 +20677,27 @@
       </c>
       <c r="AK61" s="69">
         <f t="shared" si="164"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL61" s="69">
         <f t="shared" ref="AL61:BA61" si="165">AL20*AL$7</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AM61" s="69">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN61" s="117">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO61" s="117">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP61" s="69">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ61" s="69">
         <f t="shared" si="165"/>
@@ -19907,11 +20705,11 @@
       </c>
       <c r="AR61" s="69">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS61" s="80">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AT61" s="86">
         <f t="shared" si="165"/>
@@ -20121,7 +20919,7 @@
     <row r="62" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G62" s="2">
         <f t="shared" si="102"/>
-        <v>5</v>
+        <v>12.65</v>
       </c>
       <c r="H62" s="2">
         <f t="shared" ref="H62:AK62" si="169">H21*H$7</f>
@@ -20241,27 +21039,27 @@
       </c>
       <c r="AK62" s="69">
         <f t="shared" si="169"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL62" s="69">
         <f t="shared" ref="AL62:BA62" si="170">AL21*AL$7</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AM62" s="69">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN62" s="117">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO62" s="117">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP62" s="69">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ62" s="69">
         <f t="shared" si="170"/>
@@ -20269,11 +21067,11 @@
       </c>
       <c r="AR62" s="69">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS62" s="80">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AT62" s="86">
         <f t="shared" si="170"/>
@@ -20483,7 +21281,7 @@
     <row r="63" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G63" s="69">
         <f t="shared" si="102"/>
-        <v>7.25</v>
+        <v>15</v>
       </c>
       <c r="H63" s="69">
         <f t="shared" ref="H63:AK63" si="174">H22*H$7</f>
@@ -20603,27 +21401,27 @@
       </c>
       <c r="AK63" s="69">
         <f t="shared" si="174"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL63" s="69">
         <f t="shared" ref="AL63:BA63" si="175">AL22*AL$7</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AM63" s="69">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN63" s="117">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO63" s="117">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP63" s="69">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ63" s="69">
         <f t="shared" si="175"/>
@@ -20631,11 +21429,11 @@
       </c>
       <c r="AR63" s="69">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS63" s="80">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT63" s="86">
         <f t="shared" si="175"/>
@@ -20845,7 +21643,7 @@
     <row r="64" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G64" s="69">
         <f t="shared" si="102"/>
-        <v>6.75</v>
+        <v>14.5</v>
       </c>
       <c r="H64" s="69">
         <f t="shared" ref="H64:AK64" si="179">H23*H$7</f>
@@ -20965,27 +21763,27 @@
       </c>
       <c r="AK64" s="69">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL64" s="69">
         <f t="shared" ref="AL64:BA64" si="180">AL23*AL$7</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AM64" s="69">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN64" s="117">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO64" s="117">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP64" s="69">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ64" s="69">
         <f t="shared" si="180"/>
@@ -20993,11 +21791,11 @@
       </c>
       <c r="AR64" s="69">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS64" s="80">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT64" s="86">
         <f t="shared" si="180"/>
@@ -21931,7 +22729,7 @@
     <row r="67" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G67" s="72">
         <f t="shared" si="102"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H67" s="72">
         <f t="shared" ref="H67:N67" si="189">H25*H$7</f>
@@ -22087,7 +22885,7 @@
       </c>
       <c r="AT67" s="86">
         <f t="shared" si="191"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU67" s="72">
         <f t="shared" si="191"/>
@@ -22434,184 +23232,249 @@
     <mergeCell ref="CM4:CM5"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:E25">
-    <cfRule type="cellIs" dxfId="199" priority="321" operator="between">
+    <cfRule type="cellIs" dxfId="223" priority="345" operator="between">
       <formula>8</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="322" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="346" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CR9:CR21 CF9:CH25 AR22:AR25 AU9:AW25 I9:V25 CN9:CP25 AP9:AQ25 BA9:BA25 CC9:CD25 AI9:AM25 X9:AD25">
-    <cfRule type="cellIs" dxfId="197" priority="316" operator="equal">
+  <conditionalFormatting sqref="CR9:CR21 CF9:CH25 AR22:AR25 AU9:AW25 I9:V25 CN9:CP25 AP9:AQ21 BA9:BA25 CC9:CD25 X9:AD25 AI9:AM21 AI24:AM25 AP24:AQ25 AQ22:AQ23 AI22:AJ23">
+    <cfRule type="cellIs" dxfId="221" priority="340" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="317" operator="between">
+    <cfRule type="cellIs" dxfId="220" priority="341" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="318" operator="between">
+    <cfRule type="cellIs" dxfId="219" priority="342" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR9:AR21">
-    <cfRule type="cellIs" dxfId="194" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="334" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="311" operator="between">
+    <cfRule type="cellIs" dxfId="217" priority="335" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="312" operator="between">
+    <cfRule type="cellIs" dxfId="216" priority="336" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS9:AS19 AS21">
-    <cfRule type="cellIs" dxfId="191" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="316" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="293" operator="between">
+    <cfRule type="cellIs" dxfId="214" priority="317" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="294" operator="between">
+    <cfRule type="cellIs" dxfId="213" priority="318" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS22:AS23 AS25">
-    <cfRule type="cellIs" dxfId="188" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="313" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="290" operator="between">
+    <cfRule type="cellIs" dxfId="211" priority="314" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="291" operator="between">
+    <cfRule type="cellIs" dxfId="210" priority="315" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE18 AE20 AE22 AE25 AE9:AE14">
-    <cfRule type="cellIs" dxfId="185" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="289" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="266" operator="between">
+    <cfRule type="cellIs" dxfId="208" priority="290" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="267" operator="between">
+    <cfRule type="cellIs" dxfId="207" priority="291" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE9:CE23 CE25">
-    <cfRule type="cellIs" dxfId="182" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="274" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="251" operator="between">
+    <cfRule type="cellIs" dxfId="205" priority="275" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="252" operator="between">
+    <cfRule type="cellIs" dxfId="204" priority="276" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT9:AT19 AT21">
-    <cfRule type="cellIs" dxfId="179" priority="235" operator="equal">
+  <conditionalFormatting sqref="AT25">
+    <cfRule type="cellIs" dxfId="200" priority="256" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="236" operator="between">
+    <cfRule type="cellIs" dxfId="199" priority="257" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="237" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT22:AT23 AT25">
-    <cfRule type="cellIs" dxfId="176" priority="232" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="233" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="234" operator="between">
+    <cfRule type="cellIs" dxfId="198" priority="258" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS20">
-    <cfRule type="cellIs" dxfId="173" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="229" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="206" operator="between">
+    <cfRule type="cellIs" dxfId="196" priority="230" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="207" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT20">
-    <cfRule type="cellIs" dxfId="170" priority="199" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="200" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="201" operator="between">
+    <cfRule type="cellIs" dxfId="195" priority="231" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS24">
-    <cfRule type="cellIs" dxfId="167" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="217" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="194" operator="between">
+    <cfRule type="cellIs" dxfId="190" priority="218" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="195" operator="between">
-      <formula>0.26</formula>
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT24">
-    <cfRule type="cellIs" dxfId="164" priority="187" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="188" operator="between">
-      <formula>0.01</formula>
-      <formula>0.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="189" operator="between">
+    <cfRule type="cellIs" dxfId="189" priority="219" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ9:CQ21">
-    <cfRule type="cellIs" dxfId="161" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="193" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="170" operator="between">
+    <cfRule type="cellIs" dxfId="184" priority="194" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="171" operator="between">
+    <cfRule type="cellIs" dxfId="183" priority="195" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE24">
+    <cfRule type="cellIs" dxfId="182" priority="187" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="188" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="189" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH9:BJ25 BB9:BB25 BL9:BM25 BE9:BE25">
+    <cfRule type="cellIs" dxfId="179" priority="184" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="185" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="186" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF9:BF23 BF25">
+    <cfRule type="cellIs" dxfId="176" priority="181" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="182" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="183" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF24">
+    <cfRule type="cellIs" dxfId="173" priority="178" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="179" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="180" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ9:BT21 BN9:BO21 BV9:BV21 BV24:BV25 BN24:BO25 BQ24:BT25">
+    <cfRule type="cellIs" dxfId="170" priority="175" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="176" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="177" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP9:BP21 BP25">
+    <cfRule type="cellIs" dxfId="167" priority="172" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="173" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="174" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP24">
+    <cfRule type="cellIs" dxfId="164" priority="169" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="170" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="171" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BZ9:CB9 BW9:BX9 BW25:BX25 BZ25:CB25">
+    <cfRule type="cellIs" dxfId="161" priority="166" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="167" operator="between">
+      <formula>0.01</formula>
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="168" operator="between">
+      <formula>0.26</formula>
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BY9 BY25">
     <cfRule type="cellIs" dxfId="158" priority="163" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22624,111 +23487,111 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH9:BJ25 BB9:BB25 BL9:BM25 BE9:BE25">
-    <cfRule type="cellIs" dxfId="155" priority="160" operator="equal">
+  <conditionalFormatting sqref="BG9:BG25">
+    <cfRule type="cellIs" dxfId="155" priority="157" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="161" operator="between">
+    <cfRule type="cellIs" dxfId="154" priority="158" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="162" operator="between">
+    <cfRule type="cellIs" dxfId="153" priority="159" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF9:BF23 BF25">
-    <cfRule type="cellIs" dxfId="152" priority="157" operator="equal">
+  <conditionalFormatting sqref="BK9:BK25">
+    <cfRule type="cellIs" dxfId="152" priority="154" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="158" operator="between">
+    <cfRule type="cellIs" dxfId="151" priority="155" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="159" operator="between">
+    <cfRule type="cellIs" dxfId="150" priority="156" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF24">
-    <cfRule type="cellIs" dxfId="149" priority="154" operator="equal">
+  <conditionalFormatting sqref="BU9:BU21 BU24:BU25">
+    <cfRule type="cellIs" dxfId="149" priority="151" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="155" operator="between">
+    <cfRule type="cellIs" dxfId="148" priority="152" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="156" operator="between">
+    <cfRule type="cellIs" dxfId="147" priority="153" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ9:BT21 BN9:BO21 BV9:BV21 BV24:BV25 BN24:BO25 BQ24:BT25">
-    <cfRule type="cellIs" dxfId="146" priority="151" operator="equal">
+  <conditionalFormatting sqref="BD9:BD25">
+    <cfRule type="cellIs" dxfId="146" priority="148" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="152" operator="between">
+    <cfRule type="cellIs" dxfId="145" priority="149" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="153" operator="between">
+    <cfRule type="cellIs" dxfId="144" priority="150" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP9:BP21 BP25">
-    <cfRule type="cellIs" dxfId="143" priority="148" operator="equal">
+  <conditionalFormatting sqref="BC9:BC25">
+    <cfRule type="cellIs" dxfId="143" priority="145" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="149" operator="between">
+    <cfRule type="cellIs" dxfId="142" priority="146" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="150" operator="between">
+    <cfRule type="cellIs" dxfId="141" priority="147" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP24">
-    <cfRule type="cellIs" dxfId="140" priority="145" operator="equal">
+  <conditionalFormatting sqref="CI9:CI25">
+    <cfRule type="cellIs" dxfId="140" priority="142" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="146" operator="between">
+    <cfRule type="cellIs" dxfId="139" priority="143" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="147" operator="between">
+    <cfRule type="cellIs" dxfId="138" priority="144" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ9:CB9 BW9:BX9 BW25:BX25 BZ25:CB25">
-    <cfRule type="cellIs" dxfId="137" priority="142" operator="equal">
+  <conditionalFormatting sqref="CJ9:CJ25">
+    <cfRule type="cellIs" dxfId="137" priority="139" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="143" operator="between">
+    <cfRule type="cellIs" dxfId="136" priority="140" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="144" operator="between">
+    <cfRule type="cellIs" dxfId="135" priority="141" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY9 BY25">
-    <cfRule type="cellIs" dxfId="134" priority="139" operator="equal">
+  <conditionalFormatting sqref="CK9:CK25">
+    <cfRule type="cellIs" dxfId="134" priority="136" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="140" operator="between">
+    <cfRule type="cellIs" dxfId="133" priority="137" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="141" operator="between">
+    <cfRule type="cellIs" dxfId="132" priority="138" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG9:BG25">
+  <conditionalFormatting sqref="CL9:CL25">
     <cfRule type="cellIs" dxfId="131" priority="133" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22741,7 +23604,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK9:BK25">
+  <conditionalFormatting sqref="CM9:CM25">
     <cfRule type="cellIs" dxfId="128" priority="130" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22754,7 +23617,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU9:BU21 BU24:BU25">
+  <conditionalFormatting sqref="CR22:CR24">
     <cfRule type="cellIs" dxfId="125" priority="127" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22767,7 +23630,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD9:BD25">
+  <conditionalFormatting sqref="CQ22:CQ24">
     <cfRule type="cellIs" dxfId="122" priority="124" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22780,7 +23643,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC9:BC25">
+  <conditionalFormatting sqref="H9:H24">
     <cfRule type="cellIs" dxfId="119" priority="121" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22793,7 +23656,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CI9:CI25">
+  <conditionalFormatting sqref="AH9:AH25">
     <cfRule type="cellIs" dxfId="116" priority="118" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22806,7 +23669,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CJ9:CJ25">
+  <conditionalFormatting sqref="AO9:AO21 AO24:AO25">
     <cfRule type="cellIs" dxfId="113" priority="115" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22819,7 +23682,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK9:CK25">
+  <conditionalFormatting sqref="W9:W25">
     <cfRule type="cellIs" dxfId="110" priority="112" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22832,7 +23695,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL9:CL25">
+  <conditionalFormatting sqref="AG16:AG25 AG9:AG14">
     <cfRule type="cellIs" dxfId="107" priority="109" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22845,7 +23708,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM9:CM25">
+  <conditionalFormatting sqref="AG15">
     <cfRule type="cellIs" dxfId="104" priority="106" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22858,7 +23721,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CR22:CR24">
+  <conditionalFormatting sqref="AF16:AF25 AF9:AF14">
     <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22871,7 +23734,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CQ22:CQ24">
+  <conditionalFormatting sqref="AF15">
     <cfRule type="cellIs" dxfId="98" priority="100" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22884,7 +23747,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H24">
+  <conditionalFormatting sqref="AN9:AN15 AN17:AN21 AN24:AN25">
     <cfRule type="cellIs" dxfId="95" priority="97" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -22897,111 +23760,111 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH9:AH25">
-    <cfRule type="cellIs" dxfId="92" priority="94" operator="equal">
+  <conditionalFormatting sqref="AE15">
+    <cfRule type="cellIs" dxfId="92" priority="91" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="95" operator="between">
+    <cfRule type="cellIs" dxfId="91" priority="92" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="96" operator="between">
+    <cfRule type="cellIs" dxfId="90" priority="93" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO9:AO25">
-    <cfRule type="cellIs" dxfId="89" priority="91" operator="equal">
+  <conditionalFormatting sqref="AE16">
+    <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="92" operator="between">
+    <cfRule type="cellIs" dxfId="88" priority="89" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="93" operator="between">
+    <cfRule type="cellIs" dxfId="87" priority="90" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W9:W25">
-    <cfRule type="cellIs" dxfId="86" priority="88" operator="equal">
+  <conditionalFormatting sqref="AE17">
+    <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="89" operator="between">
+    <cfRule type="cellIs" dxfId="85" priority="86" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="90" operator="between">
+    <cfRule type="cellIs" dxfId="84" priority="87" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG16:AG25 AG9:AG14">
-    <cfRule type="cellIs" dxfId="83" priority="85" operator="equal">
+  <conditionalFormatting sqref="AE19">
+    <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="86" operator="between">
+    <cfRule type="cellIs" dxfId="82" priority="83" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="87" operator="between">
+    <cfRule type="cellIs" dxfId="81" priority="84" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG15">
-    <cfRule type="cellIs" dxfId="80" priority="82" operator="equal">
+  <conditionalFormatting sqref="AE21">
+    <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="83" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="80" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="84" operator="between">
+    <cfRule type="cellIs" dxfId="78" priority="81" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF16:AF25 AF9:AF14">
-    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
+  <conditionalFormatting sqref="AE23">
+    <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="80" operator="between">
+    <cfRule type="cellIs" dxfId="76" priority="77" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="81" operator="between">
+    <cfRule type="cellIs" dxfId="75" priority="78" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF15">
-    <cfRule type="cellIs" dxfId="74" priority="76" operator="equal">
+  <conditionalFormatting sqref="AE24">
+    <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="77" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="74" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="78" operator="between">
+    <cfRule type="cellIs" dxfId="72" priority="75" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN9:AN15 AN17:AN25">
-    <cfRule type="cellIs" dxfId="71" priority="73" operator="equal">
+  <conditionalFormatting sqref="AN16">
+    <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="74" operator="between">
+    <cfRule type="cellIs" dxfId="70" priority="71" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="75" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="72" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE15">
+  <conditionalFormatting sqref="BQ22:BT22 BN22:BO22 BV22">
     <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23014,7 +23877,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE16">
+  <conditionalFormatting sqref="BP22">
     <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23027,7 +23890,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE17">
+  <conditionalFormatting sqref="BU22">
     <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23040,7 +23903,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE19">
+  <conditionalFormatting sqref="BQ23:BT23 BN23:BO23 BV23">
     <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23053,7 +23916,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE21">
+  <conditionalFormatting sqref="BP23">
     <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23066,7 +23929,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE23">
+  <conditionalFormatting sqref="BU23">
     <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23079,7 +23942,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE24">
+  <conditionalFormatting sqref="AX9:AX25">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23092,7 +23955,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN16">
+  <conditionalFormatting sqref="AY9:AY25">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23105,7 +23968,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ22:BT22 BN22:BO22 BV22">
+  <conditionalFormatting sqref="AZ9:AZ25">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23118,7 +23981,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP22">
+  <conditionalFormatting sqref="BZ10:CB10 BW10:BX10">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23131,7 +23994,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU22">
+  <conditionalFormatting sqref="BY10">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23144,7 +24007,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ23:BT23 BN23:BO23 BV23">
+  <conditionalFormatting sqref="BZ11:CB24 BW11:BX24">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23157,7 +24020,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP23">
+  <conditionalFormatting sqref="BY11:BY24">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23170,7 +24033,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU23">
+  <conditionalFormatting sqref="AC12">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23183,7 +24046,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX9:AX25">
+  <conditionalFormatting sqref="AC13">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23196,7 +24059,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY9:AY25">
+  <conditionalFormatting sqref="AP22 AK22:AM22">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23209,7 +24072,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ9:AZ25">
+  <conditionalFormatting sqref="AO22">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23222,7 +24085,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ10:CB10 BW10:BX10">
+  <conditionalFormatting sqref="AN22">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23235,7 +24098,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY10">
+  <conditionalFormatting sqref="AP23 AK23:AM23">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23248,7 +24111,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ11:CB24 BW11:BX24">
+  <conditionalFormatting sqref="AO23">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23261,7 +24124,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY11:BY24">
+  <conditionalFormatting sqref="AN23">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23274,7 +24137,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC12">
+  <conditionalFormatting sqref="AT9:AT19">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23287,7 +24150,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC13">
+  <conditionalFormatting sqref="AT20:AT24">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -23459,144 +24322,144 @@
       <c r="C1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="198" t="s">
+      <c r="D1" s="200" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="199"/>
-      <c r="F1" s="198" t="s">
+      <c r="E1" s="201"/>
+      <c r="F1" s="200" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="208"/>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="208"/>
-      <c r="S1" s="208"/>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="208"/>
-      <c r="AB1" s="208"/>
-      <c r="AC1" s="209"/>
-      <c r="AD1" s="209"/>
-      <c r="AE1" s="209"/>
-      <c r="AF1" s="209"/>
-      <c r="AG1" s="209"/>
-      <c r="AH1" s="209"/>
-      <c r="AI1" s="209"/>
-      <c r="AJ1" s="210"/>
-      <c r="AK1" s="205" t="s">
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
+      <c r="P1" s="210"/>
+      <c r="Q1" s="210"/>
+      <c r="R1" s="210"/>
+      <c r="S1" s="210"/>
+      <c r="T1" s="210"/>
+      <c r="U1" s="210"/>
+      <c r="V1" s="210"/>
+      <c r="W1" s="210"/>
+      <c r="X1" s="210"/>
+      <c r="Y1" s="210"/>
+      <c r="Z1" s="210"/>
+      <c r="AA1" s="210"/>
+      <c r="AB1" s="210"/>
+      <c r="AC1" s="211"/>
+      <c r="AD1" s="211"/>
+      <c r="AE1" s="211"/>
+      <c r="AF1" s="211"/>
+      <c r="AG1" s="211"/>
+      <c r="AH1" s="211"/>
+      <c r="AI1" s="211"/>
+      <c r="AJ1" s="212"/>
+      <c r="AK1" s="207" t="s">
         <v>50</v>
       </c>
-      <c r="AL1" s="206"/>
-      <c r="AM1" s="206"/>
-      <c r="AN1" s="206"/>
-      <c r="AO1" s="206"/>
-      <c r="AP1" s="206"/>
-      <c r="AQ1" s="207"/>
-      <c r="AR1" s="198" t="s">
+      <c r="AL1" s="208"/>
+      <c r="AM1" s="208"/>
+      <c r="AN1" s="208"/>
+      <c r="AO1" s="208"/>
+      <c r="AP1" s="208"/>
+      <c r="AQ1" s="209"/>
+      <c r="AR1" s="200" t="s">
         <v>49</v>
       </c>
-      <c r="AS1" s="199"/>
+      <c r="AS1" s="201"/>
     </row>
     <row r="2" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="29"/>
       <c r="C2" s="33"/>
       <c r="D2" s="36"/>
       <c r="E2" s="37"/>
-      <c r="F2" s="217" t="s">
+      <c r="F2" s="219" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="218"/>
-      <c r="M2" s="218"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="218"/>
-      <c r="P2" s="218"/>
-      <c r="Q2" s="218"/>
-      <c r="R2" s="218"/>
-      <c r="S2" s="218"/>
-      <c r="T2" s="218"/>
-      <c r="U2" s="218"/>
-      <c r="V2" s="218"/>
-      <c r="W2" s="218"/>
-      <c r="X2" s="218"/>
-      <c r="Y2" s="218"/>
-      <c r="Z2" s="218"/>
-      <c r="AA2" s="218"/>
-      <c r="AB2" s="218"/>
-      <c r="AC2" s="215" t="s">
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="220"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="220"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
+      <c r="X2" s="220"/>
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="220"/>
+      <c r="AB2" s="220"/>
+      <c r="AC2" s="217" t="s">
         <v>35</v>
       </c>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="215" t="s">
+      <c r="AD2" s="221"/>
+      <c r="AE2" s="217" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="219"/>
-      <c r="AG2" s="215" t="s">
+      <c r="AF2" s="221"/>
+      <c r="AG2" s="217" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" s="216"/>
-      <c r="AI2" s="219"/>
+      <c r="AH2" s="218"/>
+      <c r="AI2" s="221"/>
       <c r="AJ2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="215" t="s">
+      <c r="AK2" s="217" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="216"/>
-      <c r="AM2" s="219"/>
+      <c r="AL2" s="218"/>
+      <c r="AM2" s="221"/>
       <c r="AN2" s="32"/>
       <c r="AO2" s="32"/>
       <c r="AP2" s="32"/>
       <c r="AQ2" s="44"/>
-      <c r="AR2" s="211" t="s">
+      <c r="AR2" s="213" t="s">
         <v>47</v>
       </c>
-      <c r="AS2" s="213" t="s">
+      <c r="AS2" s="215" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B3" s="29"/>
-      <c r="C3" s="200" t="s">
+      <c r="C3" s="202" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="204" t="s">
+      <c r="D3" s="206" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="201" t="s">
+      <c r="E3" s="203" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="198" t="s">
+      <c r="F3" s="200" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="198" t="s">
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="210"/>
+      <c r="J3" s="210"/>
+      <c r="K3" s="201"/>
+      <c r="L3" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="208"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="199"/>
+      <c r="M3" s="210"/>
+      <c r="N3" s="210"/>
+      <c r="O3" s="201"/>
       <c r="P3" s="32" t="s">
         <v>26</v>
       </c>
@@ -23606,20 +24469,20 @@
       <c r="R3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="215" t="s">
+      <c r="S3" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="216"/>
-      <c r="U3" s="216"/>
-      <c r="V3" s="216"/>
-      <c r="W3" s="216"/>
-      <c r="X3" s="219"/>
-      <c r="Y3" s="215" t="s">
+      <c r="T3" s="218"/>
+      <c r="U3" s="218"/>
+      <c r="V3" s="218"/>
+      <c r="W3" s="218"/>
+      <c r="X3" s="221"/>
+      <c r="Y3" s="217" t="s">
         <v>28</v>
       </c>
-      <c r="Z3" s="216"/>
-      <c r="AA3" s="216"/>
-      <c r="AB3" s="216"/>
+      <c r="Z3" s="218"/>
+      <c r="AA3" s="218"/>
+      <c r="AB3" s="218"/>
       <c r="AC3" s="36" t="s">
         <v>36</v>
       </c>
@@ -23632,11 +24495,11 @@
       <c r="AF3" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AG3" s="204" t="s">
+      <c r="AG3" s="206" t="s">
         <v>34</v>
       </c>
-      <c r="AH3" s="202"/>
-      <c r="AI3" s="201"/>
+      <c r="AH3" s="204"/>
+      <c r="AI3" s="203"/>
       <c r="AJ3" s="33" t="s">
         <v>7</v>
       </c>
@@ -23661,77 +24524,77 @@
       <c r="AQ3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AR3" s="212"/>
-      <c r="AS3" s="214"/>
+      <c r="AR3" s="214"/>
+      <c r="AS3" s="216"/>
     </row>
     <row r="4" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="29"/>
-      <c r="C4" s="200"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="204" t="s">
+      <c r="C4" s="202"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="206" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="202" t="s">
+      <c r="G4" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="202" t="s">
+      <c r="H4" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="202" t="s">
+      <c r="I4" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="202" t="s">
+      <c r="J4" s="204" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="201"/>
-      <c r="L4" s="204" t="s">
+      <c r="K4" s="203"/>
+      <c r="L4" s="206" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="202" t="s">
+      <c r="M4" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="202" t="s">
+      <c r="N4" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="201" t="s">
+      <c r="O4" s="203" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="200" t="s">
+      <c r="P4" s="202" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="200" t="s">
+      <c r="Q4" s="202" t="s">
         <v>55</v>
       </c>
-      <c r="R4" s="200" t="s">
+      <c r="R4" s="202" t="s">
         <v>55</v>
       </c>
-      <c r="S4" s="204" t="s">
+      <c r="S4" s="206" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="202" t="s">
+      <c r="T4" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="202" t="s">
+      <c r="U4" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="V4" s="202" t="s">
+      <c r="V4" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="220" t="s">
+      <c r="W4" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="X4" s="201"/>
-      <c r="Y4" s="204" t="s">
+      <c r="X4" s="203"/>
+      <c r="Y4" s="206" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="202" t="s">
+      <c r="Z4" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="AA4" s="202" t="s">
+      <c r="AA4" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="203" t="s">
+      <c r="AB4" s="205" t="s">
         <v>53</v>
       </c>
       <c r="AC4" s="36"/>
@@ -23760,40 +24623,40 @@
     </row>
     <row r="5" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="29"/>
-      <c r="C5" s="200"/>
-      <c r="D5" s="204"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="204"/>
-      <c r="G5" s="202"/>
-      <c r="H5" s="202"/>
-      <c r="I5" s="202"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="203"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="204"/>
+      <c r="H5" s="204"/>
+      <c r="I5" s="204"/>
       <c r="J5" s="27" t="s">
         <v>56</v>
       </c>
       <c r="K5" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="204"/>
-      <c r="M5" s="202"/>
-      <c r="N5" s="202"/>
-      <c r="O5" s="201"/>
-      <c r="P5" s="200"/>
-      <c r="Q5" s="200"/>
-      <c r="R5" s="200"/>
-      <c r="S5" s="204"/>
-      <c r="T5" s="202"/>
-      <c r="U5" s="202"/>
-      <c r="V5" s="202"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="204"/>
+      <c r="N5" s="204"/>
+      <c r="O5" s="203"/>
+      <c r="P5" s="202"/>
+      <c r="Q5" s="202"/>
+      <c r="R5" s="202"/>
+      <c r="S5" s="206"/>
+      <c r="T5" s="204"/>
+      <c r="U5" s="204"/>
+      <c r="V5" s="204"/>
       <c r="W5" s="30" t="s">
         <v>58</v>
       </c>
       <c r="X5" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="Y5" s="204"/>
-      <c r="Z5" s="202"/>
-      <c r="AA5" s="202"/>
-      <c r="AB5" s="203"/>
+      <c r="Y5" s="206"/>
+      <c r="Z5" s="204"/>
+      <c r="AA5" s="204"/>
+      <c r="AB5" s="205"/>
       <c r="AC5" s="36"/>
       <c r="AD5" s="37"/>
       <c r="AE5" s="36"/>

--- a/BaremeJavaBaseTest2_GJ52.xlsx
+++ b/BaremeJavaBaseTest2_GJ52.xlsx
@@ -5048,11 +5048,11 @@
   <dimension ref="A1:CR68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3600" ySplit="2910" topLeftCell="M16" activePane="bottomRight"/>
+      <pane xSplit="3600" ySplit="2910" topLeftCell="M18" activePane="bottomRight"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="topRight" activeCell="AT6" sqref="AT6"/>
+      <selection pane="topRight" activeCell="AY7" sqref="AY7"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AS23" sqref="AS23"/>
+      <selection pane="bottomRight" activeCell="BB23" sqref="BB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -5474,7 +5474,7 @@
       </c>
       <c r="D4" s="17" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G6,")")</f>
-        <v>Note/20 ( sur 209)</v>
+        <v>Note/20 ( sur 211)</v>
       </c>
       <c r="E4" s="18" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G7,")")</f>
@@ -5486,7 +5486,7 @@
       </c>
       <c r="G4" s="7" t="str">
         <f>CONCATENATE("Note/",G6)</f>
-        <v>Note/209</v>
+        <v>Note/211</v>
       </c>
       <c r="H4" s="194"/>
       <c r="I4" s="166"/>
@@ -5837,7 +5837,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7">
         <f>SUM(H6:CP6)</f>
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H6" s="60">
         <v>2</v>
@@ -5969,7 +5969,7 @@
         <v>2</v>
       </c>
       <c r="AY6" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ6" s="16">
         <v>2</v>
@@ -6451,7 +6451,7 @@
       <c r="AU8" s="103"/>
       <c r="AV8" s="149">
         <f>SUM(AV6:BA6)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AW8" s="150"/>
       <c r="AX8" s="150"/>
@@ -6525,19 +6525,19 @@
       <c r="C9" s="4"/>
       <c r="D9" s="110">
         <f t="shared" ref="D9:D25" si="0">G9/$G$6*20+CR9*$CR$6</f>
-        <v>4.5933014354066986</v>
+        <v>5.781990521327014</v>
       </c>
       <c r="E9" s="22">
         <f t="shared" ref="E9:E25" si="1">F9/$G$7*20+CR9*$CR$7</f>
-        <v>4.477611940298508</v>
+        <v>6.2686567164179108</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" ref="F9:F24" si="2">G50</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" ref="G9:G24" si="3">G28</f>
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="H9" s="112"/>
       <c r="I9" s="9"/>
@@ -6631,12 +6631,24 @@
       <c r="AU9" s="9">
         <v>1</v>
       </c>
-      <c r="AV9" s="99"/>
-      <c r="AW9" s="101"/>
-      <c r="AX9" s="120"/>
-      <c r="AY9" s="120"/>
-      <c r="AZ9" s="120"/>
-      <c r="BA9" s="99"/>
+      <c r="AV9" s="99">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="101">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="120">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="120">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="120">
+        <v>1</v>
+      </c>
+      <c r="BA9" s="99">
+        <v>1</v>
+      </c>
       <c r="BB9" s="112"/>
       <c r="BC9" s="112"/>
       <c r="BD9" s="112"/>
@@ -6707,19 +6719,19 @@
       <c r="C10" s="88"/>
       <c r="D10" s="110">
         <f t="shared" si="0"/>
-        <v>2.9617224880382773</v>
+        <v>3.9763033175355456</v>
       </c>
       <c r="E10" s="22">
         <f t="shared" si="1"/>
-        <v>3.0298507462686568</v>
+        <v>4.6716417910447756</v>
       </c>
       <c r="F10" s="89">
         <f t="shared" si="2"/>
-        <v>10.15</v>
+        <v>15.65</v>
       </c>
       <c r="G10" s="89">
         <f t="shared" si="3"/>
-        <v>30.95</v>
+        <v>41.95</v>
       </c>
       <c r="H10" s="112"/>
       <c r="I10" s="90"/>
@@ -6813,12 +6825,24 @@
       <c r="AU10" s="90">
         <v>1</v>
       </c>
-      <c r="AV10" s="90"/>
-      <c r="AW10" s="90"/>
-      <c r="AX10" s="90"/>
-      <c r="AY10" s="90"/>
-      <c r="AZ10" s="90"/>
-      <c r="BA10" s="90"/>
+      <c r="AV10" s="90">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="90">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="90">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="90">
+        <v>0.5</v>
+      </c>
+      <c r="AZ10" s="90">
+        <v>1</v>
+      </c>
+      <c r="BA10" s="90">
+        <v>1</v>
+      </c>
       <c r="BB10" s="90"/>
       <c r="BC10" s="90"/>
       <c r="BD10" s="90"/>
@@ -7037,19 +7061,19 @@
       <c r="C12" s="5"/>
       <c r="D12" s="110">
         <f t="shared" si="0"/>
-        <v>4.2344497607655498</v>
+        <v>5.4265402843601898</v>
       </c>
       <c r="E12" s="22">
         <f t="shared" si="1"/>
-        <v>4.3656716417910442</v>
+        <v>6.156716417910447</v>
       </c>
       <c r="F12" s="15">
         <f t="shared" si="2"/>
-        <v>14.625</v>
+        <v>20.625</v>
       </c>
       <c r="G12" s="15">
         <f t="shared" si="3"/>
-        <v>44.25</v>
+        <v>57.25</v>
       </c>
       <c r="H12" s="112"/>
       <c r="I12" s="70"/>
@@ -7143,12 +7167,24 @@
       <c r="AU12" s="70">
         <v>1</v>
       </c>
-      <c r="AV12" s="99"/>
-      <c r="AW12" s="101"/>
-      <c r="AX12" s="120"/>
-      <c r="AY12" s="120"/>
-      <c r="AZ12" s="120"/>
-      <c r="BA12" s="99"/>
+      <c r="AV12" s="99">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="101">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="120">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="120">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="120">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="99">
+        <v>1</v>
+      </c>
       <c r="BB12" s="112"/>
       <c r="BC12" s="112"/>
       <c r="BD12" s="112"/>
@@ -7219,19 +7255,19 @@
       <c r="C13" s="88"/>
       <c r="D13" s="110">
         <f t="shared" si="0"/>
-        <v>2.602870813397129</v>
+        <v>3.6208530805687205</v>
       </c>
       <c r="E13" s="22">
         <f t="shared" si="1"/>
-        <v>3.3283582089552239</v>
+        <v>4.9701492537313428</v>
       </c>
       <c r="F13" s="89">
         <f t="shared" si="2"/>
-        <v>11.15</v>
+        <v>16.649999999999999</v>
       </c>
       <c r="G13" s="89">
         <f t="shared" si="3"/>
-        <v>27.2</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="H13" s="112"/>
       <c r="I13" s="90"/>
@@ -7325,12 +7361,24 @@
       <c r="AU13" s="90">
         <v>1</v>
       </c>
-      <c r="AV13" s="90"/>
-      <c r="AW13" s="90"/>
-      <c r="AX13" s="90"/>
-      <c r="AY13" s="90"/>
-      <c r="AZ13" s="90"/>
-      <c r="BA13" s="90"/>
+      <c r="AV13" s="90">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="90">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="90">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="90">
+        <v>0.5</v>
+      </c>
+      <c r="AZ13" s="90">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="90">
+        <v>1</v>
+      </c>
       <c r="BB13" s="90"/>
       <c r="BC13" s="90"/>
       <c r="BD13" s="90"/>
@@ -7401,19 +7449,19 @@
       <c r="C14" s="4"/>
       <c r="D14" s="110">
         <f t="shared" si="0"/>
-        <v>4.1626794258373208</v>
+        <v>5.0236966824644549</v>
       </c>
       <c r="E14" s="22">
         <f t="shared" si="1"/>
-        <v>3.9552238805970146</v>
+        <v>5.2985074626865671</v>
       </c>
       <c r="F14" s="15">
         <f t="shared" si="2"/>
-        <v>13.25</v>
+        <v>17.75</v>
       </c>
       <c r="G14" s="15">
         <f t="shared" si="3"/>
-        <v>43.5</v>
+        <v>53</v>
       </c>
       <c r="H14" s="112"/>
       <c r="I14" s="70"/>
@@ -7507,12 +7555,24 @@
       <c r="AU14" s="70">
         <v>1</v>
       </c>
-      <c r="AV14" s="99"/>
-      <c r="AW14" s="101"/>
-      <c r="AX14" s="120"/>
-      <c r="AY14" s="120"/>
-      <c r="AZ14" s="120"/>
-      <c r="BA14" s="99"/>
+      <c r="AV14" s="99">
+        <v>0.5</v>
+      </c>
+      <c r="AW14" s="101">
+        <v>1</v>
+      </c>
+      <c r="AX14" s="120">
+        <v>1</v>
+      </c>
+      <c r="AY14" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="AZ14" s="120">
+        <v>0.75</v>
+      </c>
+      <c r="BA14" s="99">
+        <v>0.75</v>
+      </c>
       <c r="BB14" s="112"/>
       <c r="BC14" s="112"/>
       <c r="BD14" s="112"/>
@@ -7583,19 +7643,19 @@
       <c r="C15" s="4"/>
       <c r="D15" s="110">
         <f t="shared" si="0"/>
-        <v>2.8516746411483256</v>
+        <v>3.7725118483412317</v>
       </c>
       <c r="E15" s="22">
         <f t="shared" si="1"/>
-        <v>3.6641791044776122</v>
+        <v>5.0820895522388057</v>
       </c>
       <c r="F15" s="15">
         <f t="shared" si="2"/>
-        <v>12.275</v>
+        <v>17.024999999999999</v>
       </c>
       <c r="G15" s="15">
         <f t="shared" si="3"/>
-        <v>29.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="H15" s="112"/>
       <c r="I15" s="70"/>
@@ -7689,12 +7749,24 @@
       <c r="AU15" s="70">
         <v>1</v>
       </c>
-      <c r="AV15" s="99"/>
-      <c r="AW15" s="101"/>
-      <c r="AX15" s="120"/>
-      <c r="AY15" s="120"/>
-      <c r="AZ15" s="120"/>
-      <c r="BA15" s="99"/>
+      <c r="AV15" s="99">
+        <v>0.5</v>
+      </c>
+      <c r="AW15" s="101">
+        <v>1</v>
+      </c>
+      <c r="AX15" s="120">
+        <v>1</v>
+      </c>
+      <c r="AY15" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="AZ15" s="120">
+        <v>0.75</v>
+      </c>
+      <c r="BA15" s="99">
+        <v>1</v>
+      </c>
       <c r="BB15" s="112"/>
       <c r="BC15" s="112"/>
       <c r="BD15" s="112"/>
@@ -8061,19 +8133,19 @@
       <c r="C18" s="4"/>
       <c r="D18" s="110">
         <f t="shared" si="0"/>
-        <v>4.3110047846889952</v>
+        <v>5.3127962085308056</v>
       </c>
       <c r="E18" s="22">
         <f t="shared" si="1"/>
-        <v>4.5223880597014929</v>
+        <v>6.1641791044776113</v>
       </c>
       <c r="F18" s="15">
         <f t="shared" si="2"/>
-        <v>15.15</v>
+        <v>20.65</v>
       </c>
       <c r="G18" s="15">
         <f t="shared" si="3"/>
-        <v>45.05</v>
+        <v>56.05</v>
       </c>
       <c r="H18" s="112"/>
       <c r="I18" s="70"/>
@@ -8167,12 +8239,24 @@
       <c r="AU18" s="70">
         <v>1</v>
       </c>
-      <c r="AV18" s="99"/>
-      <c r="AW18" s="101"/>
-      <c r="AX18" s="120"/>
-      <c r="AY18" s="120"/>
-      <c r="AZ18" s="120"/>
-      <c r="BA18" s="99"/>
+      <c r="AV18" s="99">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="101">
+        <v>1</v>
+      </c>
+      <c r="AX18" s="120">
+        <v>1</v>
+      </c>
+      <c r="AY18" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="AZ18" s="120">
+        <v>1</v>
+      </c>
+      <c r="BA18" s="99">
+        <v>1</v>
+      </c>
       <c r="BB18" s="112"/>
       <c r="BC18" s="112"/>
       <c r="BD18" s="112"/>
@@ -8240,19 +8324,19 @@
       <c r="C19" s="4"/>
       <c r="D19" s="110">
         <f t="shared" si="0"/>
-        <v>3.4449760765550241</v>
+        <v>4.6445497630331758</v>
       </c>
       <c r="E19" s="22">
         <f t="shared" si="1"/>
-        <v>3.8059701492537314</v>
+        <v>5.5970149253731343</v>
       </c>
       <c r="F19" s="89">
         <f t="shared" si="2"/>
-        <v>12.75</v>
+        <v>18.75</v>
       </c>
       <c r="G19" s="89">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H19" s="112"/>
       <c r="I19" s="90"/>
@@ -8346,12 +8430,24 @@
       <c r="AU19" s="90">
         <v>1</v>
       </c>
-      <c r="AV19" s="90"/>
-      <c r="AW19" s="90"/>
-      <c r="AX19" s="90"/>
-      <c r="AY19" s="90"/>
-      <c r="AZ19" s="90"/>
-      <c r="BA19" s="90"/>
+      <c r="AV19" s="90">
+        <v>1</v>
+      </c>
+      <c r="AW19" s="90">
+        <v>1</v>
+      </c>
+      <c r="AX19" s="90">
+        <v>1</v>
+      </c>
+      <c r="AY19" s="90">
+        <v>1</v>
+      </c>
+      <c r="AZ19" s="90">
+        <v>1</v>
+      </c>
+      <c r="BA19" s="90">
+        <v>1</v>
+      </c>
       <c r="BB19" s="90"/>
       <c r="BC19" s="90"/>
       <c r="BD19" s="90"/>
@@ -8422,19 +8518,19 @@
       <c r="C20" s="4"/>
       <c r="D20" s="110">
         <f t="shared" si="0"/>
-        <v>4.3062200956937797</v>
+        <v>5.304265402843602</v>
       </c>
       <c r="E20" s="22">
         <f t="shared" si="1"/>
-        <v>4.5373134328358216</v>
+        <v>5.9895522388059703</v>
       </c>
       <c r="F20" s="15">
         <f t="shared" si="2"/>
-        <v>15.200000000000001</v>
+        <v>20.065000000000001</v>
       </c>
       <c r="G20" s="15">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>55.96</v>
       </c>
       <c r="H20" s="112"/>
       <c r="I20" s="70"/>
@@ -8528,12 +8624,24 @@
       <c r="AU20" s="70">
         <v>1</v>
       </c>
-      <c r="AV20" s="99"/>
-      <c r="AW20" s="101"/>
-      <c r="AX20" s="120"/>
-      <c r="AY20" s="120"/>
-      <c r="AZ20" s="120"/>
-      <c r="BA20" s="99"/>
+      <c r="AV20" s="99">
+        <v>0.5</v>
+      </c>
+      <c r="AW20" s="101">
+        <v>1</v>
+      </c>
+      <c r="AX20" s="120">
+        <v>1</v>
+      </c>
+      <c r="AY20" s="120">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="AZ20" s="120">
+        <v>0.75</v>
+      </c>
+      <c r="BA20" s="99">
+        <v>0.75</v>
+      </c>
       <c r="BB20" s="112"/>
       <c r="BC20" s="112"/>
       <c r="BD20" s="112"/>
@@ -8604,19 +8712,19 @@
       <c r="C21" s="5"/>
       <c r="D21" s="110">
         <f t="shared" si="0"/>
-        <v>3.1866028708133971</v>
+        <v>4.2900473933649277</v>
       </c>
       <c r="E21" s="22">
         <f t="shared" si="1"/>
-        <v>3.7761194029850746</v>
+        <v>5.3373134328358196</v>
       </c>
       <c r="F21" s="15">
         <f t="shared" si="2"/>
-        <v>12.65</v>
+        <v>17.879999999999995</v>
       </c>
       <c r="G21" s="15">
         <f t="shared" si="3"/>
-        <v>33.299999999999997</v>
+        <v>45.259999999999991</v>
       </c>
       <c r="H21" s="112"/>
       <c r="I21" s="70"/>
@@ -8710,12 +8818,24 @@
       <c r="AU21" s="70">
         <v>1</v>
       </c>
-      <c r="AV21" s="99"/>
-      <c r="AW21" s="101"/>
-      <c r="AX21" s="120"/>
-      <c r="AY21" s="120"/>
-      <c r="AZ21" s="120"/>
-      <c r="BA21" s="99"/>
+      <c r="AV21" s="99">
+        <v>0.5</v>
+      </c>
+      <c r="AW21" s="101">
+        <v>1</v>
+      </c>
+      <c r="AX21" s="120">
+        <v>1</v>
+      </c>
+      <c r="AY21" s="120">
+        <v>1</v>
+      </c>
+      <c r="AZ21" s="120">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="BA21" s="99">
+        <v>0.86499999999999999</v>
+      </c>
       <c r="BB21" s="112"/>
       <c r="BC21" s="112"/>
       <c r="BD21" s="112"/>
@@ -8786,19 +8906,19 @@
       <c r="C22" s="4"/>
       <c r="D22" s="110">
         <f t="shared" si="0"/>
-        <v>4.1387559808612444</v>
+        <v>5.1421800947867302</v>
       </c>
       <c r="E22" s="22">
         <f t="shared" si="1"/>
-        <v>4.477611940298508</v>
+        <v>6.1194029850746272</v>
       </c>
       <c r="F22" s="15">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>20.5</v>
       </c>
       <c r="G22" s="15">
         <f t="shared" si="3"/>
-        <v>43.25</v>
+        <v>54.25</v>
       </c>
       <c r="H22" s="112"/>
       <c r="I22" s="70"/>
@@ -8892,12 +9012,24 @@
       <c r="AU22" s="70">
         <v>1</v>
       </c>
-      <c r="AV22" s="99"/>
-      <c r="AW22" s="101"/>
-      <c r="AX22" s="120"/>
-      <c r="AY22" s="120"/>
-      <c r="AZ22" s="120"/>
-      <c r="BA22" s="99"/>
+      <c r="AV22" s="99">
+        <v>1</v>
+      </c>
+      <c r="AW22" s="101">
+        <v>1</v>
+      </c>
+      <c r="AX22" s="120">
+        <v>1</v>
+      </c>
+      <c r="AY22" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="AZ22" s="120">
+        <v>1</v>
+      </c>
+      <c r="BA22" s="99">
+        <v>1</v>
+      </c>
       <c r="BB22" s="112"/>
       <c r="BC22" s="90"/>
       <c r="BD22" s="90"/>
@@ -8968,19 +9100,19 @@
       <c r="C23" s="4"/>
       <c r="D23" s="110">
         <f t="shared" si="0"/>
-        <v>4.2105263157894735</v>
+        <v>5.4028436018957349</v>
       </c>
       <c r="E23" s="22">
         <f t="shared" si="1"/>
-        <v>4.3283582089552235</v>
+        <v>6.1194029850746272</v>
       </c>
       <c r="F23" s="89">
         <f t="shared" si="2"/>
-        <v>14.5</v>
+        <v>20.5</v>
       </c>
       <c r="G23" s="89">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="H23" s="112"/>
       <c r="I23" s="90"/>
@@ -9074,12 +9206,24 @@
       <c r="AU23" s="90">
         <v>1</v>
       </c>
-      <c r="AV23" s="90"/>
-      <c r="AW23" s="90"/>
-      <c r="AX23" s="90"/>
-      <c r="AY23" s="90"/>
-      <c r="AZ23" s="90"/>
-      <c r="BA23" s="90"/>
+      <c r="AV23" s="90">
+        <v>1</v>
+      </c>
+      <c r="AW23" s="90">
+        <v>1</v>
+      </c>
+      <c r="AX23" s="90">
+        <v>1</v>
+      </c>
+      <c r="AY23" s="90">
+        <v>1</v>
+      </c>
+      <c r="AZ23" s="90">
+        <v>1</v>
+      </c>
+      <c r="BA23" s="90">
+        <v>1</v>
+      </c>
       <c r="BB23" s="90"/>
       <c r="BC23" s="90"/>
       <c r="BD23" s="90"/>
@@ -9146,7 +9290,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="110">
         <f t="shared" si="0"/>
-        <v>9.569377990430622E-2</v>
+        <v>9.4786729857819912E-2</v>
       </c>
       <c r="E24" s="22">
         <f t="shared" si="1"/>
@@ -9304,7 +9448,7 @@
       </c>
       <c r="G25" s="15">
         <f>G45</f>
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H25" s="70">
         <v>1</v>
@@ -9735,29 +9879,29 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AV26" s="98" t="e">
+      <c r="AV26" s="98">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AW26" s="102" t="e">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AW26" s="102">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AX26" s="119" t="e">
+        <v>1</v>
+      </c>
+      <c r="AX26" s="119">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AY26" s="119" t="e">
+        <v>1</v>
+      </c>
+      <c r="AY26" s="119">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AZ26" s="119" t="e">
+        <v>0.73875000000000002</v>
+      </c>
+      <c r="AZ26" s="119">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BA26" s="98" t="e">
+        <v>0.92625000000000002</v>
+      </c>
+      <c r="BA26" s="98">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.94708333333333339</v>
       </c>
       <c r="BB26" s="111" t="e">
         <f t="shared" ref="BB26:BM26" si="6">AVERAGE(BB9:BB24)</f>
@@ -9935,7 +10079,7 @@
     <row r="28" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G28" s="2">
         <f t="shared" ref="G28:G45" si="9">SUM(H28:CP28)</f>
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" ref="H28:AK28" si="10">H9*H$6</f>
@@ -10099,27 +10243,27 @@
       </c>
       <c r="AV28" s="98">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW28" s="102">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX28" s="119">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY28" s="119">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AZ28" s="119">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA28" s="98">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB28" s="111">
         <f t="shared" ref="BB28:BM28" si="14">BB9*BB$6</f>
@@ -10297,7 +10441,7 @@
     <row r="29" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G29" s="2">
         <f t="shared" si="9"/>
-        <v>30.95</v>
+        <v>41.95</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" ref="H29:AK29" si="21">H10*H$6</f>
@@ -10461,27 +10605,27 @@
       </c>
       <c r="AV29" s="98">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW29" s="102">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX29" s="119">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY29" s="119">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ29" s="119">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA29" s="98">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB29" s="111">
         <f t="shared" ref="BB29:BM29" si="23">BB10*BB$6</f>
@@ -11021,7 +11165,7 @@
     <row r="31" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G31" s="2">
         <f t="shared" si="9"/>
-        <v>44.25</v>
+        <v>57.25</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" ref="H31:AK31" si="31">H12*H$6</f>
@@ -11185,27 +11329,27 @@
       </c>
       <c r="AV31" s="98">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW31" s="102">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX31" s="119">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY31" s="119">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AZ31" s="119">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA31" s="98">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB31" s="111">
         <f t="shared" ref="BB31:BM31" si="33">BB12*BB$6</f>
@@ -11383,7 +11527,7 @@
     <row r="32" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G32" s="2">
         <f t="shared" si="9"/>
-        <v>27.2</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" ref="H32:AK32" si="36">H13*H$6</f>
@@ -11547,27 +11691,27 @@
       </c>
       <c r="AV32" s="98">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW32" s="102">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX32" s="119">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY32" s="119">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ32" s="119">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA32" s="98">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB32" s="111">
         <f t="shared" ref="BB32:BM32" si="38">BB13*BB$6</f>
@@ -11745,7 +11889,7 @@
     <row r="33" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G33" s="2">
         <f t="shared" si="9"/>
-        <v>43.5</v>
+        <v>53</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" ref="H33:AK33" si="41">H14*H$6</f>
@@ -11909,27 +12053,27 @@
       </c>
       <c r="AV33" s="98">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AW33" s="102">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX33" s="119">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY33" s="119">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ33" s="119">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BA33" s="98">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BB33" s="111">
         <f t="shared" ref="BB33:BM33" si="43">BB14*BB$6</f>
@@ -12107,7 +12251,7 @@
     <row r="34" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G34" s="2">
         <f t="shared" si="9"/>
-        <v>29.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" ref="H34:AK34" si="46">H15*H$6</f>
@@ -12271,27 +12415,27 @@
       </c>
       <c r="AV34" s="98">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AW34" s="102">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX34" s="119">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY34" s="119">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ34" s="119">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BA34" s="98">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB34" s="111">
         <f t="shared" ref="BB34:BM34" si="48">BB15*BB$6</f>
@@ -13193,7 +13337,7 @@
     <row r="37" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G37" s="2">
         <f t="shared" si="9"/>
-        <v>45.05</v>
+        <v>56.05</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" ref="H37:AK37" si="61">H18*H$6</f>
@@ -13357,27 +13501,27 @@
       </c>
       <c r="AV37" s="98">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW37" s="102">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX37" s="119">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY37" s="119">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ37" s="119">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA37" s="98">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB37" s="111">
         <f t="shared" ref="BB37:BM37" si="63">BB18*BB$6</f>
@@ -13555,7 +13699,7 @@
     <row r="38" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G38" s="2">
         <f t="shared" si="9"/>
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" ref="H38:AK38" si="66">H19*H$6</f>
@@ -13719,27 +13863,27 @@
       </c>
       <c r="AV38" s="98">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW38" s="102">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX38" s="119">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY38" s="119">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AZ38" s="119">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA38" s="98">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB38" s="111">
         <f t="shared" ref="BB38:BM38" si="68">BB19*BB$6</f>
@@ -13917,7 +14061,7 @@
     <row r="39" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G39" s="2">
         <f t="shared" si="9"/>
-        <v>45</v>
+        <v>55.96</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" ref="H39:AK39" si="71">H20*H$6</f>
@@ -14081,27 +14225,27 @@
       </c>
       <c r="AV39" s="98">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AW39" s="102">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX39" s="119">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY39" s="119">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>3.46</v>
       </c>
       <c r="AZ39" s="119">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BA39" s="98">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BB39" s="111">
         <f t="shared" ref="BB39:BM39" si="73">BB20*BB$6</f>
@@ -14279,7 +14423,7 @@
     <row r="40" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G40" s="2">
         <f t="shared" si="9"/>
-        <v>33.299999999999997</v>
+        <v>45.259999999999991</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" ref="H40:AK40" si="76">H21*H$6</f>
@@ -14443,27 +14587,27 @@
       </c>
       <c r="AV40" s="98">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AW40" s="102">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX40" s="119">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY40" s="119">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AZ40" s="119">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="BA40" s="98">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="BB40" s="111">
         <f t="shared" ref="BB40:BM40" si="78">BB21*BB$6</f>
@@ -14641,7 +14785,7 @@
     <row r="41" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G41" s="69">
         <f t="shared" si="9"/>
-        <v>43.25</v>
+        <v>54.25</v>
       </c>
       <c r="H41" s="69">
         <f t="shared" ref="H41:AK41" si="81">H22*H$6</f>
@@ -14805,27 +14949,27 @@
       </c>
       <c r="AV41" s="98">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW41" s="102">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX41" s="119">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY41" s="119">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ41" s="119">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA41" s="98">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB41" s="111">
         <f t="shared" ref="BB41:BM41" si="83">BB22*BB$6</f>
@@ -15005,7 +15149,7 @@
       <c r="E42" s="19"/>
       <c r="G42" s="69">
         <f t="shared" si="9"/>
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="H42" s="69">
         <f t="shared" ref="H42:AK42" si="86">H23*H$6</f>
@@ -15169,27 +15313,27 @@
       </c>
       <c r="AV42" s="98">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW42" s="102">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX42" s="119">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY42" s="119">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AZ42" s="119">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA42" s="98">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB42" s="111">
         <f t="shared" ref="BB42:BM42" si="88">BB23*BB$6</f>
@@ -16097,7 +16241,7 @@
       <c r="E45" s="19"/>
       <c r="G45" s="72">
         <f t="shared" si="9"/>
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H45" s="72">
         <f t="shared" ref="H45:N45" si="96">H25*H$6</f>
@@ -16273,7 +16417,7 @@
       </c>
       <c r="AY45" s="119">
         <f t="shared" si="98"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ45" s="119">
         <f t="shared" si="98"/>
@@ -16575,7 +16719,7 @@
     <row r="50" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G50" s="2">
         <f t="shared" ref="G50:G67" si="102">SUM(H50:CP50)</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" ref="H50:AK50" si="103">H9*H$7</f>
@@ -16739,27 +16883,27 @@
       </c>
       <c r="AV50" s="98">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW50" s="102">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX50" s="119">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY50" s="119">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ50" s="119">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA50" s="98">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB50" s="111">
         <f t="shared" ref="BB50:BM50" si="107">BB9*BB$7</f>
@@ -16937,7 +17081,7 @@
     <row r="51" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G51" s="2">
         <f t="shared" si="102"/>
-        <v>10.15</v>
+        <v>15.65</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" ref="H51:AK51" si="114">H10*H$7</f>
@@ -17101,27 +17245,27 @@
       </c>
       <c r="AV51" s="98">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW51" s="102">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX51" s="119">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY51" s="119">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AZ51" s="119">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA51" s="98">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB51" s="111">
         <f t="shared" ref="BB51:BM51" si="116">BB10*BB$7</f>
@@ -17661,7 +17805,7 @@
     <row r="53" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G53" s="2">
         <f t="shared" si="102"/>
-        <v>14.625</v>
+        <v>20.625</v>
       </c>
       <c r="H53" s="2">
         <f t="shared" ref="H53:AK53" si="124">H12*H$7</f>
@@ -17825,27 +17969,27 @@
       </c>
       <c r="AV53" s="98">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW53" s="102">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX53" s="119">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY53" s="119">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ53" s="119">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA53" s="98">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB53" s="111">
         <f t="shared" ref="BB53:BM53" si="126">BB12*BB$7</f>
@@ -18023,7 +18167,7 @@
     <row r="54" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G54" s="2">
         <f t="shared" si="102"/>
-        <v>11.15</v>
+        <v>16.649999999999999</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" ref="H54:AK54" si="129">H13*H$7</f>
@@ -18187,27 +18331,27 @@
       </c>
       <c r="AV54" s="98">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW54" s="102">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX54" s="119">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY54" s="119">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AZ54" s="119">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA54" s="98">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB54" s="111">
         <f t="shared" ref="BB54:BM54" si="131">BB13*BB$7</f>
@@ -18385,7 +18529,7 @@
     <row r="55" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G55" s="2">
         <f t="shared" si="102"/>
-        <v>13.25</v>
+        <v>17.75</v>
       </c>
       <c r="H55" s="2">
         <f t="shared" ref="H55:AK55" si="134">H14*H$7</f>
@@ -18549,27 +18693,27 @@
       </c>
       <c r="AV55" s="98">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AW55" s="102">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX55" s="119">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY55" s="119">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AZ55" s="119">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BA55" s="98">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BB55" s="111">
         <f t="shared" ref="BB55:BM55" si="136">BB14*BB$7</f>
@@ -18747,7 +18891,7 @@
     <row r="56" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G56" s="2">
         <f t="shared" si="102"/>
-        <v>12.275</v>
+        <v>17.024999999999999</v>
       </c>
       <c r="H56" s="2">
         <f t="shared" ref="H56:AK56" si="139">H15*H$7</f>
@@ -18911,27 +19055,27 @@
       </c>
       <c r="AV56" s="98">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AW56" s="102">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX56" s="119">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY56" s="119">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AZ56" s="119">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BA56" s="98">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB56" s="111">
         <f t="shared" ref="BB56:BM56" si="141">BB15*BB$7</f>
@@ -19833,7 +19977,7 @@
     <row r="59" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G59" s="2">
         <f t="shared" si="102"/>
-        <v>15.15</v>
+        <v>20.65</v>
       </c>
       <c r="H59" s="2">
         <f t="shared" ref="H59:AK59" si="154">H18*H$7</f>
@@ -19997,27 +20141,27 @@
       </c>
       <c r="AV59" s="98">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW59" s="102">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX59" s="119">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY59" s="119">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AZ59" s="119">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA59" s="98">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB59" s="111">
         <f t="shared" ref="BB59:BM59" si="156">BB18*BB$7</f>
@@ -20195,7 +20339,7 @@
     <row r="60" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G60" s="2">
         <f t="shared" si="102"/>
-        <v>12.75</v>
+        <v>18.75</v>
       </c>
       <c r="H60" s="2">
         <f t="shared" ref="H60:AK60" si="159">H19*H$7</f>
@@ -20359,27 +20503,27 @@
       </c>
       <c r="AV60" s="98">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW60" s="102">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX60" s="119">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY60" s="119">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ60" s="119">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA60" s="98">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB60" s="111">
         <f t="shared" ref="BB60:BM60" si="161">BB19*BB$7</f>
@@ -20557,7 +20701,7 @@
     <row r="61" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G61" s="2">
         <f t="shared" si="102"/>
-        <v>15.200000000000001</v>
+        <v>20.065000000000001</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" ref="H61:AK61" si="164">H20*H$7</f>
@@ -20721,27 +20865,27 @@
       </c>
       <c r="AV61" s="98">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AW61" s="102">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX61" s="119">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY61" s="119">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="AZ61" s="119">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BA61" s="98">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BB61" s="111">
         <f t="shared" ref="BB61:BM61" si="166">BB20*BB$7</f>
@@ -20919,7 +21063,7 @@
     <row r="62" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G62" s="2">
         <f t="shared" si="102"/>
-        <v>12.65</v>
+        <v>17.879999999999995</v>
       </c>
       <c r="H62" s="2">
         <f t="shared" ref="H62:AK62" si="169">H21*H$7</f>
@@ -21083,27 +21227,27 @@
       </c>
       <c r="AV62" s="98">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AW62" s="102">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX62" s="119">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY62" s="119">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ62" s="119">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="BA62" s="98">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="BB62" s="111">
         <f t="shared" ref="BB62:BM62" si="171">BB21*BB$7</f>
@@ -21281,7 +21425,7 @@
     <row r="63" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G63" s="69">
         <f t="shared" si="102"/>
-        <v>15</v>
+        <v>20.5</v>
       </c>
       <c r="H63" s="69">
         <f t="shared" ref="H63:AK63" si="174">H22*H$7</f>
@@ -21445,27 +21589,27 @@
       </c>
       <c r="AV63" s="98">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW63" s="102">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX63" s="119">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY63" s="119">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AZ63" s="119">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA63" s="98">
         <f t="shared" si="175"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB63" s="111">
         <f t="shared" ref="BB63:BM63" si="176">BB22*BB$7</f>
@@ -21643,7 +21787,7 @@
     <row r="64" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G64" s="69">
         <f t="shared" si="102"/>
-        <v>14.5</v>
+        <v>20.5</v>
       </c>
       <c r="H64" s="69">
         <f t="shared" ref="H64:AK64" si="179">H23*H$7</f>
@@ -21807,27 +21951,27 @@
       </c>
       <c r="AV64" s="98">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW64" s="102">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX64" s="119">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY64" s="119">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ64" s="119">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA64" s="98">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB64" s="111">
         <f t="shared" ref="BB64:BM64" si="181">BB23*BB$7</f>

--- a/BaremeJavaBaseTest2_GJ52.xlsx
+++ b/BaremeJavaBaseTest2_GJ52.xlsx
@@ -798,7 +798,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="184">
   <si>
     <t>Nom</t>
   </si>
@@ -1157,9 +1157,6 @@
     <t>RepasMemDao</t>
   </si>
   <si>
-    <t>constructeurPrivate</t>
-  </si>
-  <si>
     <t>attributDao</t>
   </si>
   <si>
@@ -1182,9 +1179,6 @@
   </si>
   <si>
     <t>inti()</t>
-  </si>
-  <si>
-    <t>AbstractDao</t>
   </si>
   <si>
     <t>ajouterRepasPatient()</t>
@@ -1347,6 +1341,15 @@
   </si>
   <si>
     <t>Watrain</t>
+  </si>
+  <si>
+    <t>AbstractPatientDao</t>
+  </si>
+  <si>
+    <t>abstractRepasDao</t>
+  </si>
+  <si>
+    <t>constructeurProtected</t>
   </si>
 </sst>
 </file>
@@ -3180,7 +3183,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="224">
+  <dxfs count="227">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5048,11 +5072,11 @@
   <dimension ref="A1:CR68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3600" ySplit="2910" topLeftCell="M18" activePane="bottomRight"/>
+      <pane xSplit="3600" ySplit="2910" topLeftCell="AE9" activePane="bottomRight"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="topRight" activeCell="AY7" sqref="AY7"/>
+      <selection pane="topRight" activeCell="BU7" sqref="BU7"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="BB23" sqref="BB23"/>
+      <selection pane="bottomRight" activeCell="BN11" sqref="BN11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -5390,7 +5414,7 @@
       <c r="AS3" s="160"/>
       <c r="AT3" s="160"/>
       <c r="AU3" s="156" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AV3" s="196" t="s">
         <v>7</v>
@@ -5401,16 +5425,16 @@
         <v>8</v>
       </c>
       <c r="AZ3" s="169" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="BA3" s="171" t="s">
         <v>48</v>
       </c>
       <c r="BB3" s="179" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="BC3" s="180" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="BD3" s="178" t="s">
         <v>116</v>
@@ -5474,19 +5498,19 @@
       </c>
       <c r="D4" s="17" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G6,")")</f>
-        <v>Note/20 ( sur 211)</v>
+        <v>Note/20 ( sur 199)</v>
       </c>
       <c r="E4" s="18" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G7,")")</f>
-        <v>Note/20 ( sur 67)</v>
+        <v>Note/20 ( sur 64)</v>
       </c>
       <c r="F4" s="7" t="str">
         <f>CONCATENATE("Note/",G7)</f>
-        <v>Note/67</v>
+        <v>Note/64</v>
       </c>
       <c r="G4" s="7" t="str">
         <f>CONCATENATE("Note/",G6)</f>
-        <v>Note/211</v>
+        <v>Note/199</v>
       </c>
       <c r="H4" s="194"/>
       <c r="I4" s="166"/>
@@ -5497,7 +5521,7 @@
       <c r="N4" s="191"/>
       <c r="O4" s="166"/>
       <c r="P4" s="167" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="82" t="s">
         <v>91</v>
@@ -5515,7 +5539,7 @@
         <v>91</v>
       </c>
       <c r="V4" s="162" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W4" s="154" t="s">
         <v>51</v>
@@ -5542,13 +5566,13 @@
         <v>11</v>
       </c>
       <c r="AE4" s="152" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF4" s="152" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG4" s="152" t="s">
         <v>147</v>
-      </c>
-      <c r="AF4" s="152" t="s">
-        <v>148</v>
-      </c>
-      <c r="AG4" s="152" t="s">
-        <v>149</v>
       </c>
       <c r="AH4" s="152" t="s">
         <v>69</v>
@@ -5569,7 +5593,7 @@
         <v>11</v>
       </c>
       <c r="AN4" s="152" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AO4" s="152" t="s">
         <v>69</v>
@@ -5606,7 +5630,7 @@
         <v>117</v>
       </c>
       <c r="BG4" s="145" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="BH4" s="145" t="s">
         <v>115</v>
@@ -5621,90 +5645,90 @@
         <v>117</v>
       </c>
       <c r="BL4" s="145" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="BM4" s="145" t="s">
         <v>115</v>
       </c>
       <c r="BN4" s="143" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO4" s="145" t="s">
+        <v>126</v>
+      </c>
+      <c r="BP4" s="145" t="s">
         <v>120</v>
       </c>
-      <c r="BO4" s="145" t="s">
-        <v>127</v>
-      </c>
-      <c r="BP4" s="145" t="s">
+      <c r="BQ4" s="145" t="s">
         <v>121</v>
       </c>
-      <c r="BQ4" s="145" t="s">
+      <c r="BR4" s="145" t="s">
         <v>122</v>
       </c>
-      <c r="BR4" s="145" t="s">
+      <c r="BS4" s="145" t="s">
         <v>123</v>
       </c>
-      <c r="BS4" s="145" t="s">
+      <c r="BT4" s="145" t="s">
         <v>124</v>
-      </c>
-      <c r="BT4" s="145" t="s">
-        <v>125</v>
       </c>
       <c r="BU4" s="145" t="s">
         <v>111</v>
       </c>
       <c r="BV4" s="147" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BW4" s="174"/>
       <c r="BX4" s="145" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="BY4" s="145" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="BZ4" s="177"/>
       <c r="CA4" s="145" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="CB4" s="145" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="CC4" s="143" t="s">
+        <v>132</v>
+      </c>
+      <c r="CD4" s="145" t="s">
+        <v>133</v>
+      </c>
+      <c r="CE4" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="CD4" s="145" t="s">
+      <c r="CF4" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="CE4" s="145" t="s">
+      <c r="CG4" s="145" t="s">
         <v>136</v>
       </c>
-      <c r="CF4" s="145" t="s">
+      <c r="CH4" s="145" t="s">
         <v>137</v>
       </c>
-      <c r="CG4" s="145" t="s">
+      <c r="CI4" s="145" t="s">
         <v>138</v>
       </c>
-      <c r="CH4" s="145" t="s">
+      <c r="CJ4" s="145" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK4" s="145" t="s">
         <v>139</v>
       </c>
-      <c r="CI4" s="145" t="s">
+      <c r="CL4" s="145" t="s">
         <v>140</v>
       </c>
-      <c r="CJ4" s="145" t="s">
-        <v>130</v>
-      </c>
-      <c r="CK4" s="145" t="s">
+      <c r="CM4" s="145" t="s">
         <v>141</v>
       </c>
-      <c r="CL4" s="145" t="s">
+      <c r="CN4" s="145" t="s">
         <v>142</v>
       </c>
-      <c r="CM4" s="145" t="s">
+      <c r="CO4" s="147" t="s">
         <v>143</v>
-      </c>
-      <c r="CN4" s="145" t="s">
-        <v>144</v>
-      </c>
-      <c r="CO4" s="147" t="s">
-        <v>145</v>
       </c>
       <c r="CP4" s="135"/>
       <c r="CQ4" s="133"/>
@@ -5728,19 +5752,19 @@
       <c r="O5" s="189"/>
       <c r="P5" s="168"/>
       <c r="Q5" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="R5" s="94" t="s">
+        <v>128</v>
+      </c>
+      <c r="S5" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="T5" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="R5" s="94" t="s">
+      <c r="U5" s="94" t="s">
         <v>130</v>
-      </c>
-      <c r="S5" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="T5" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="U5" s="94" t="s">
-        <v>132</v>
       </c>
       <c r="V5" s="163"/>
       <c r="W5" s="155"/>
@@ -5837,7 +5861,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7">
         <f>SUM(H6:CP6)</f>
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="H6" s="60">
         <v>2</v>
@@ -5981,13 +6005,13 @@
         <v>3</v>
       </c>
       <c r="BC6" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD6" s="16">
         <v>2</v>
       </c>
       <c r="BE6" s="16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="16">
         <v>4</v>
@@ -6002,7 +6026,7 @@
         <v>2</v>
       </c>
       <c r="BJ6" s="16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BK6" s="16">
         <v>4</v>
@@ -6035,7 +6059,7 @@
         <v>4</v>
       </c>
       <c r="BU6" s="16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV6" s="16">
         <v>4</v>
@@ -6116,7 +6140,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="7">
         <f>SUM(H7:CP7)</f>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H7" s="61">
         <v>1</v>
@@ -6266,7 +6290,7 @@
         <v>1</v>
       </c>
       <c r="BE7" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="58">
         <v>1</v>
@@ -6281,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="BJ7" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK7" s="58">
         <v>1</v>
@@ -6314,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="BU7" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV7" s="58">
         <v>1</v>
@@ -6460,7 +6484,7 @@
       <c r="BA8" s="150"/>
       <c r="BB8" s="149">
         <f>SUM(BB6:BM6)</f>
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="BC8" s="150"/>
       <c r="BD8" s="150"/>
@@ -6475,7 +6499,7 @@
       <c r="BM8" s="150"/>
       <c r="BN8" s="149">
         <f>SUM(BN6:BV6)</f>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BO8" s="150"/>
       <c r="BP8" s="150"/>
@@ -6517,27 +6541,27 @@
     </row>
     <row r="9" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="110">
         <f t="shared" ref="D9:D25" si="0">G9/$G$6*20+CR9*$CR$6</f>
-        <v>5.781990521327014</v>
+        <v>11.256281407035175</v>
       </c>
       <c r="E9" s="22">
         <f t="shared" ref="E9:E25" si="1">F9/$G$7*20+CR9*$CR$7</f>
-        <v>6.2686567164179108</v>
+        <v>12.03125</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" ref="F9:F24" si="2">G50</f>
-        <v>21</v>
+        <v>38.5</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" ref="G9:G24" si="3">G28</f>
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="H9" s="112"/>
       <c r="I9" s="9"/>
@@ -6649,27 +6673,69 @@
       <c r="BA9" s="99">
         <v>1</v>
       </c>
-      <c r="BB9" s="112"/>
-      <c r="BC9" s="112"/>
-      <c r="BD9" s="112"/>
-      <c r="BE9" s="112"/>
-      <c r="BF9" s="112"/>
-      <c r="BG9" s="112"/>
-      <c r="BH9" s="112"/>
-      <c r="BI9" s="112"/>
-      <c r="BJ9" s="112"/>
-      <c r="BK9" s="112"/>
-      <c r="BL9" s="112"/>
-      <c r="BM9" s="112"/>
-      <c r="BN9" s="112"/>
-      <c r="BO9" s="112"/>
-      <c r="BP9" s="112"/>
-      <c r="BQ9" s="112"/>
-      <c r="BR9" s="112"/>
-      <c r="BS9" s="112"/>
-      <c r="BT9" s="112"/>
-      <c r="BU9" s="112"/>
-      <c r="BV9" s="112"/>
+      <c r="BB9" s="112">
+        <v>1</v>
+      </c>
+      <c r="BC9" s="112">
+        <v>1</v>
+      </c>
+      <c r="BD9" s="112">
+        <v>1</v>
+      </c>
+      <c r="BE9" s="112">
+        <v>99</v>
+      </c>
+      <c r="BF9" s="112">
+        <v>1</v>
+      </c>
+      <c r="BG9" s="112">
+        <v>1</v>
+      </c>
+      <c r="BH9" s="112">
+        <v>1</v>
+      </c>
+      <c r="BI9" s="112">
+        <v>1</v>
+      </c>
+      <c r="BJ9" s="112">
+        <v>99</v>
+      </c>
+      <c r="BK9" s="112">
+        <v>1</v>
+      </c>
+      <c r="BL9" s="112">
+        <v>1</v>
+      </c>
+      <c r="BM9" s="112">
+        <v>1</v>
+      </c>
+      <c r="BN9" s="112">
+        <v>1</v>
+      </c>
+      <c r="BO9" s="112">
+        <v>1</v>
+      </c>
+      <c r="BP9" s="112">
+        <v>1</v>
+      </c>
+      <c r="BQ9" s="112">
+        <v>1</v>
+      </c>
+      <c r="BR9" s="112">
+        <v>1</v>
+      </c>
+      <c r="BS9" s="112">
+        <v>0.5</v>
+      </c>
+      <c r="BT9" s="112">
+        <v>1</v>
+      </c>
+      <c r="BU9" s="112">
+        <v>99</v>
+      </c>
+      <c r="BV9" s="112">
+        <v>1</v>
+      </c>
       <c r="BW9" s="112">
         <v>99</v>
       </c>
@@ -6711,27 +6777,27 @@
     </row>
     <row r="10" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C10" s="88"/>
       <c r="D10" s="110">
         <f t="shared" si="0"/>
-        <v>3.9763033175355456</v>
+        <v>9.4170854271356781</v>
       </c>
       <c r="E10" s="22">
         <f t="shared" si="1"/>
-        <v>4.6716417910447756</v>
+        <v>10.359375</v>
       </c>
       <c r="F10" s="89">
         <f t="shared" si="2"/>
-        <v>15.65</v>
+        <v>33.15</v>
       </c>
       <c r="G10" s="89">
         <f t="shared" si="3"/>
-        <v>41.95</v>
+        <v>93.7</v>
       </c>
       <c r="H10" s="112"/>
       <c r="I10" s="90"/>
@@ -6843,27 +6909,69 @@
       <c r="BA10" s="90">
         <v>1</v>
       </c>
-      <c r="BB10" s="90"/>
-      <c r="BC10" s="90"/>
-      <c r="BD10" s="90"/>
-      <c r="BE10" s="90"/>
-      <c r="BF10" s="90"/>
-      <c r="BG10" s="90"/>
-      <c r="BH10" s="90"/>
-      <c r="BI10" s="90"/>
-      <c r="BJ10" s="112"/>
-      <c r="BK10" s="90"/>
-      <c r="BL10" s="90"/>
-      <c r="BM10" s="90"/>
-      <c r="BN10" s="90"/>
-      <c r="BO10" s="90"/>
-      <c r="BP10" s="90"/>
-      <c r="BQ10" s="90"/>
-      <c r="BR10" s="90"/>
-      <c r="BS10" s="112"/>
-      <c r="BT10" s="90"/>
-      <c r="BU10" s="90"/>
-      <c r="BV10" s="90"/>
+      <c r="BB10" s="90">
+        <v>0.75</v>
+      </c>
+      <c r="BC10" s="90">
+        <v>1</v>
+      </c>
+      <c r="BD10" s="90">
+        <v>1</v>
+      </c>
+      <c r="BE10" s="90">
+        <v>99</v>
+      </c>
+      <c r="BF10" s="90">
+        <v>1</v>
+      </c>
+      <c r="BG10" s="90">
+        <v>1</v>
+      </c>
+      <c r="BH10" s="90">
+        <v>1</v>
+      </c>
+      <c r="BI10" s="90">
+        <v>1</v>
+      </c>
+      <c r="BJ10" s="112">
+        <v>99</v>
+      </c>
+      <c r="BK10" s="90">
+        <v>1</v>
+      </c>
+      <c r="BL10" s="90">
+        <v>1</v>
+      </c>
+      <c r="BM10" s="90">
+        <v>0.75</v>
+      </c>
+      <c r="BN10" s="90">
+        <v>1</v>
+      </c>
+      <c r="BO10" s="90">
+        <v>1</v>
+      </c>
+      <c r="BP10" s="90">
+        <v>1</v>
+      </c>
+      <c r="BQ10" s="90">
+        <v>1</v>
+      </c>
+      <c r="BR10" s="90">
+        <v>1</v>
+      </c>
+      <c r="BS10" s="112">
+        <v>1</v>
+      </c>
+      <c r="BT10" s="90">
+        <v>1</v>
+      </c>
+      <c r="BU10" s="90">
+        <v>99</v>
+      </c>
+      <c r="BV10" s="90">
+        <v>1</v>
+      </c>
       <c r="BW10" s="122">
         <v>99</v>
       </c>
@@ -6905,10 +7013,10 @@
     </row>
     <row r="11" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="110">
@@ -6994,12 +7102,16 @@
       <c r="BB11" s="127"/>
       <c r="BC11" s="127"/>
       <c r="BD11" s="127"/>
-      <c r="BE11" s="127"/>
+      <c r="BE11" s="127">
+        <v>99</v>
+      </c>
       <c r="BF11" s="127"/>
       <c r="BG11" s="127"/>
       <c r="BH11" s="127"/>
       <c r="BI11" s="127"/>
-      <c r="BJ11" s="127"/>
+      <c r="BJ11" s="127">
+        <v>99</v>
+      </c>
       <c r="BK11" s="127"/>
       <c r="BL11" s="127"/>
       <c r="BM11" s="127"/>
@@ -7010,7 +7122,9 @@
       <c r="BR11" s="127"/>
       <c r="BS11" s="127"/>
       <c r="BT11" s="127"/>
-      <c r="BU11" s="127"/>
+      <c r="BU11" s="127">
+        <v>99</v>
+      </c>
       <c r="BV11" s="127"/>
       <c r="BW11" s="127">
         <v>99</v>
@@ -7053,27 +7167,27 @@
     </row>
     <row r="12" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="110">
         <f t="shared" si="0"/>
-        <v>5.4265402843601898</v>
+        <v>10.678391959798994</v>
       </c>
       <c r="E12" s="22">
         <f t="shared" si="1"/>
-        <v>6.156716417910447</v>
+        <v>11.7578125</v>
       </c>
       <c r="F12" s="15">
         <f t="shared" si="2"/>
-        <v>20.625</v>
+        <v>37.625</v>
       </c>
       <c r="G12" s="15">
         <f t="shared" si="3"/>
-        <v>57.25</v>
+        <v>106.25</v>
       </c>
       <c r="H12" s="112"/>
       <c r="I12" s="70"/>
@@ -7185,27 +7299,69 @@
       <c r="BA12" s="99">
         <v>1</v>
       </c>
-      <c r="BB12" s="112"/>
-      <c r="BC12" s="112"/>
-      <c r="BD12" s="112"/>
-      <c r="BE12" s="112"/>
-      <c r="BF12" s="112"/>
-      <c r="BG12" s="112"/>
-      <c r="BH12" s="112"/>
-      <c r="BI12" s="112"/>
-      <c r="BJ12" s="112"/>
-      <c r="BK12" s="112"/>
-      <c r="BL12" s="112"/>
-      <c r="BM12" s="112"/>
-      <c r="BN12" s="112"/>
-      <c r="BO12" s="112"/>
-      <c r="BP12" s="112"/>
-      <c r="BQ12" s="112"/>
-      <c r="BR12" s="112"/>
-      <c r="BS12" s="112"/>
-      <c r="BT12" s="112"/>
-      <c r="BU12" s="112"/>
-      <c r="BV12" s="90"/>
+      <c r="BB12" s="112">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="112">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="112">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="112">
+        <v>99</v>
+      </c>
+      <c r="BF12" s="112">
+        <v>1</v>
+      </c>
+      <c r="BG12" s="112">
+        <v>1</v>
+      </c>
+      <c r="BH12" s="112">
+        <v>1</v>
+      </c>
+      <c r="BI12" s="112">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="112">
+        <v>99</v>
+      </c>
+      <c r="BK12" s="112">
+        <v>1</v>
+      </c>
+      <c r="BL12" s="112">
+        <v>1</v>
+      </c>
+      <c r="BM12" s="112">
+        <v>1</v>
+      </c>
+      <c r="BN12" s="112">
+        <v>1</v>
+      </c>
+      <c r="BO12" s="112">
+        <v>1</v>
+      </c>
+      <c r="BP12" s="112">
+        <v>1</v>
+      </c>
+      <c r="BQ12" s="112">
+        <v>1</v>
+      </c>
+      <c r="BR12" s="112">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="112">
+        <v>1</v>
+      </c>
+      <c r="BT12" s="112">
+        <v>1</v>
+      </c>
+      <c r="BU12" s="112">
+        <v>99</v>
+      </c>
+      <c r="BV12" s="90">
+        <v>1</v>
+      </c>
       <c r="BW12" s="122">
         <v>99</v>
       </c>
@@ -7247,27 +7403,27 @@
     </row>
     <row r="13" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B13" s="88" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C13" s="88"/>
       <c r="D13" s="110">
         <f t="shared" si="0"/>
-        <v>3.6208530805687205</v>
+        <v>8.6633165829145735</v>
       </c>
       <c r="E13" s="22">
         <f t="shared" si="1"/>
-        <v>4.9701492537313428</v>
+        <v>10.359375</v>
       </c>
       <c r="F13" s="89">
         <f t="shared" si="2"/>
-        <v>16.649999999999999</v>
+        <v>33.15</v>
       </c>
       <c r="G13" s="89">
         <f t="shared" si="3"/>
-        <v>38.200000000000003</v>
+        <v>86.2</v>
       </c>
       <c r="H13" s="112"/>
       <c r="I13" s="90"/>
@@ -7379,27 +7535,69 @@
       <c r="BA13" s="90">
         <v>1</v>
       </c>
-      <c r="BB13" s="90"/>
-      <c r="BC13" s="90"/>
-      <c r="BD13" s="90"/>
-      <c r="BE13" s="90"/>
-      <c r="BF13" s="90"/>
-      <c r="BG13" s="90"/>
-      <c r="BH13" s="90"/>
-      <c r="BI13" s="90"/>
-      <c r="BJ13" s="112"/>
-      <c r="BK13" s="90"/>
-      <c r="BL13" s="90"/>
-      <c r="BM13" s="90"/>
-      <c r="BN13" s="90"/>
-      <c r="BO13" s="90"/>
-      <c r="BP13" s="90"/>
-      <c r="BQ13" s="90"/>
-      <c r="BR13" s="90"/>
-      <c r="BS13" s="112"/>
-      <c r="BT13" s="90"/>
-      <c r="BU13" s="90"/>
-      <c r="BV13" s="90"/>
+      <c r="BB13" s="90">
+        <v>1</v>
+      </c>
+      <c r="BC13" s="90">
+        <v>1</v>
+      </c>
+      <c r="BD13" s="90">
+        <v>1</v>
+      </c>
+      <c r="BE13" s="90">
+        <v>99</v>
+      </c>
+      <c r="BF13" s="90">
+        <v>1</v>
+      </c>
+      <c r="BG13" s="90">
+        <v>1</v>
+      </c>
+      <c r="BH13" s="90">
+        <v>0.75</v>
+      </c>
+      <c r="BI13" s="90">
+        <v>1</v>
+      </c>
+      <c r="BJ13" s="112">
+        <v>99</v>
+      </c>
+      <c r="BK13" s="90">
+        <v>1</v>
+      </c>
+      <c r="BL13" s="90">
+        <v>1</v>
+      </c>
+      <c r="BM13" s="90">
+        <v>0.75</v>
+      </c>
+      <c r="BN13" s="90">
+        <v>1</v>
+      </c>
+      <c r="BO13" s="90">
+        <v>1</v>
+      </c>
+      <c r="BP13" s="90">
+        <v>1</v>
+      </c>
+      <c r="BQ13" s="90">
+        <v>1</v>
+      </c>
+      <c r="BR13" s="90">
+        <v>1</v>
+      </c>
+      <c r="BS13" s="112">
+        <v>1</v>
+      </c>
+      <c r="BT13" s="90">
+        <v>1</v>
+      </c>
+      <c r="BU13" s="90">
+        <v>99</v>
+      </c>
+      <c r="BV13" s="90">
+        <v>0</v>
+      </c>
       <c r="BW13" s="122">
         <v>99</v>
       </c>
@@ -7441,27 +7639,27 @@
     </row>
     <row r="14" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="110">
         <f t="shared" si="0"/>
-        <v>5.0236966824644549</v>
+        <v>10.653266331658291</v>
       </c>
       <c r="E14" s="22">
         <f t="shared" si="1"/>
-        <v>5.2985074626865671</v>
+        <v>11.171875</v>
       </c>
       <c r="F14" s="15">
         <f t="shared" si="2"/>
-        <v>17.75</v>
+        <v>35.75</v>
       </c>
       <c r="G14" s="15">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="H14" s="112"/>
       <c r="I14" s="70"/>
@@ -7573,27 +7771,69 @@
       <c r="BA14" s="99">
         <v>0.75</v>
       </c>
-      <c r="BB14" s="112"/>
-      <c r="BC14" s="112"/>
-      <c r="BD14" s="112"/>
-      <c r="BE14" s="112"/>
-      <c r="BF14" s="112"/>
-      <c r="BG14" s="112"/>
-      <c r="BH14" s="112"/>
-      <c r="BI14" s="112"/>
-      <c r="BJ14" s="112"/>
-      <c r="BK14" s="112"/>
-      <c r="BL14" s="112"/>
-      <c r="BM14" s="112"/>
-      <c r="BN14" s="112"/>
-      <c r="BO14" s="112"/>
-      <c r="BP14" s="112"/>
-      <c r="BQ14" s="112"/>
-      <c r="BR14" s="112"/>
-      <c r="BS14" s="112"/>
-      <c r="BT14" s="112"/>
-      <c r="BU14" s="112"/>
-      <c r="BV14" s="112"/>
+      <c r="BB14" s="112">
+        <v>1</v>
+      </c>
+      <c r="BC14" s="112">
+        <v>1</v>
+      </c>
+      <c r="BD14" s="112">
+        <v>1</v>
+      </c>
+      <c r="BE14" s="112">
+        <v>99</v>
+      </c>
+      <c r="BF14" s="112">
+        <v>1</v>
+      </c>
+      <c r="BG14" s="112">
+        <v>1</v>
+      </c>
+      <c r="BH14" s="112">
+        <v>1</v>
+      </c>
+      <c r="BI14" s="112">
+        <v>1</v>
+      </c>
+      <c r="BJ14" s="112">
+        <v>99</v>
+      </c>
+      <c r="BK14" s="112">
+        <v>1</v>
+      </c>
+      <c r="BL14" s="112">
+        <v>1</v>
+      </c>
+      <c r="BM14" s="112">
+        <v>1</v>
+      </c>
+      <c r="BN14" s="112">
+        <v>1</v>
+      </c>
+      <c r="BO14" s="112">
+        <v>1</v>
+      </c>
+      <c r="BP14" s="112">
+        <v>1</v>
+      </c>
+      <c r="BQ14" s="112">
+        <v>1</v>
+      </c>
+      <c r="BR14" s="112">
+        <v>1</v>
+      </c>
+      <c r="BS14" s="112">
+        <v>1</v>
+      </c>
+      <c r="BT14" s="112">
+        <v>1</v>
+      </c>
+      <c r="BU14" s="112">
+        <v>99</v>
+      </c>
+      <c r="BV14" s="112">
+        <v>1</v>
+      </c>
       <c r="BW14" s="122">
         <v>99</v>
       </c>
@@ -7635,27 +7875,27 @@
     </row>
     <row r="15" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="110">
         <f t="shared" si="0"/>
-        <v>3.7725118483412317</v>
+        <v>8.1206030150753765</v>
       </c>
       <c r="E15" s="22">
         <f t="shared" si="1"/>
-        <v>5.0820895522388057</v>
+        <v>10.0078125</v>
       </c>
       <c r="F15" s="15">
         <f t="shared" si="2"/>
-        <v>17.024999999999999</v>
+        <v>32.024999999999999</v>
       </c>
       <c r="G15" s="15">
         <f t="shared" si="3"/>
-        <v>39.799999999999997</v>
+        <v>80.8</v>
       </c>
       <c r="H15" s="112"/>
       <c r="I15" s="70"/>
@@ -7767,27 +8007,69 @@
       <c r="BA15" s="99">
         <v>1</v>
       </c>
-      <c r="BB15" s="112"/>
-      <c r="BC15" s="112"/>
-      <c r="BD15" s="112"/>
-      <c r="BE15" s="112"/>
-      <c r="BF15" s="112"/>
-      <c r="BG15" s="112"/>
-      <c r="BH15" s="112"/>
-      <c r="BI15" s="112"/>
-      <c r="BJ15" s="112"/>
-      <c r="BK15" s="112"/>
-      <c r="BL15" s="112"/>
-      <c r="BM15" s="112"/>
-      <c r="BN15" s="112"/>
-      <c r="BO15" s="112"/>
-      <c r="BP15" s="112"/>
-      <c r="BQ15" s="112"/>
-      <c r="BR15" s="112"/>
-      <c r="BS15" s="112"/>
-      <c r="BT15" s="112"/>
-      <c r="BU15" s="112"/>
-      <c r="BV15" s="112"/>
+      <c r="BB15" s="112">
+        <v>1</v>
+      </c>
+      <c r="BC15" s="112">
+        <v>1</v>
+      </c>
+      <c r="BD15" s="112">
+        <v>1</v>
+      </c>
+      <c r="BE15" s="112">
+        <v>99</v>
+      </c>
+      <c r="BF15" s="112">
+        <v>1</v>
+      </c>
+      <c r="BG15" s="112">
+        <v>1</v>
+      </c>
+      <c r="BH15" s="112">
+        <v>1</v>
+      </c>
+      <c r="BI15" s="112">
+        <v>1</v>
+      </c>
+      <c r="BJ15" s="112">
+        <v>99</v>
+      </c>
+      <c r="BK15" s="112">
+        <v>1</v>
+      </c>
+      <c r="BL15" s="112">
+        <v>1</v>
+      </c>
+      <c r="BM15" s="112">
+        <v>1</v>
+      </c>
+      <c r="BN15" s="112">
+        <v>1</v>
+      </c>
+      <c r="BO15" s="112">
+        <v>1</v>
+      </c>
+      <c r="BP15" s="112">
+        <v>1</v>
+      </c>
+      <c r="BQ15" s="112">
+        <v>1</v>
+      </c>
+      <c r="BR15" s="112">
+        <v>0</v>
+      </c>
+      <c r="BS15" s="112">
+        <v>1</v>
+      </c>
+      <c r="BT15" s="112">
+        <v>0</v>
+      </c>
+      <c r="BU15" s="112">
+        <v>99</v>
+      </c>
+      <c r="BV15" s="112">
+        <v>0</v>
+      </c>
       <c r="BW15" s="122">
         <v>99</v>
       </c>
@@ -7829,10 +8111,10 @@
     </row>
     <row r="16" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="110">
@@ -7918,12 +8200,16 @@
       <c r="BB16" s="127"/>
       <c r="BC16" s="127"/>
       <c r="BD16" s="127"/>
-      <c r="BE16" s="127"/>
+      <c r="BE16" s="127">
+        <v>99</v>
+      </c>
       <c r="BF16" s="127"/>
       <c r="BG16" s="127"/>
       <c r="BH16" s="127"/>
       <c r="BI16" s="127"/>
-      <c r="BJ16" s="127"/>
+      <c r="BJ16" s="127">
+        <v>99</v>
+      </c>
       <c r="BK16" s="127"/>
       <c r="BL16" s="127"/>
       <c r="BM16" s="127"/>
@@ -7934,7 +8220,9 @@
       <c r="BR16" s="127"/>
       <c r="BS16" s="127"/>
       <c r="BT16" s="127"/>
-      <c r="BU16" s="127"/>
+      <c r="BU16" s="127">
+        <v>99</v>
+      </c>
       <c r="BV16" s="127"/>
       <c r="BW16" s="127">
         <v>99</v>
@@ -7977,10 +8265,10 @@
     </row>
     <row r="17" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="110">
@@ -8066,12 +8354,16 @@
       <c r="BB17" s="127"/>
       <c r="BC17" s="127"/>
       <c r="BD17" s="127"/>
-      <c r="BE17" s="127"/>
+      <c r="BE17" s="127">
+        <v>99</v>
+      </c>
       <c r="BF17" s="127"/>
       <c r="BG17" s="127"/>
       <c r="BH17" s="127"/>
       <c r="BI17" s="127"/>
-      <c r="BJ17" s="127"/>
+      <c r="BJ17" s="127">
+        <v>99</v>
+      </c>
       <c r="BK17" s="127"/>
       <c r="BL17" s="127"/>
       <c r="BM17" s="127"/>
@@ -8082,7 +8374,9 @@
       <c r="BR17" s="127"/>
       <c r="BS17" s="127"/>
       <c r="BT17" s="127"/>
-      <c r="BU17" s="127"/>
+      <c r="BU17" s="127">
+        <v>99</v>
+      </c>
       <c r="BV17" s="127"/>
       <c r="BW17" s="127">
         <v>99</v>
@@ -8125,27 +8419,27 @@
     </row>
     <row r="18" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="110">
         <f t="shared" si="0"/>
-        <v>5.3127962085308056</v>
+        <v>10.959798994974875</v>
       </c>
       <c r="E18" s="22">
         <f t="shared" si="1"/>
-        <v>6.1641791044776113</v>
+        <v>12.078125</v>
       </c>
       <c r="F18" s="15">
         <f t="shared" si="2"/>
-        <v>20.65</v>
+        <v>38.65</v>
       </c>
       <c r="G18" s="15">
         <f t="shared" si="3"/>
-        <v>56.05</v>
+        <v>109.05</v>
       </c>
       <c r="H18" s="112"/>
       <c r="I18" s="70"/>
@@ -8257,27 +8551,69 @@
       <c r="BA18" s="99">
         <v>1</v>
       </c>
-      <c r="BB18" s="112"/>
-      <c r="BC18" s="112"/>
-      <c r="BD18" s="112"/>
-      <c r="BE18" s="112"/>
-      <c r="BF18" s="112"/>
-      <c r="BG18" s="112"/>
-      <c r="BH18" s="112"/>
-      <c r="BI18" s="112"/>
-      <c r="BJ18" s="112"/>
-      <c r="BK18" s="112"/>
-      <c r="BL18" s="112"/>
-      <c r="BM18" s="112"/>
-      <c r="BN18" s="112"/>
-      <c r="BO18" s="112"/>
-      <c r="BP18" s="112"/>
-      <c r="BQ18" s="112"/>
-      <c r="BR18" s="112"/>
-      <c r="BS18" s="112"/>
-      <c r="BT18" s="112"/>
-      <c r="BU18" s="112"/>
-      <c r="BV18" s="112"/>
+      <c r="BB18" s="112">
+        <v>1</v>
+      </c>
+      <c r="BC18" s="112">
+        <v>1</v>
+      </c>
+      <c r="BD18" s="112">
+        <v>1</v>
+      </c>
+      <c r="BE18" s="112">
+        <v>99</v>
+      </c>
+      <c r="BF18" s="112">
+        <v>1</v>
+      </c>
+      <c r="BG18" s="112">
+        <v>1</v>
+      </c>
+      <c r="BH18" s="112">
+        <v>1</v>
+      </c>
+      <c r="BI18" s="112">
+        <v>1</v>
+      </c>
+      <c r="BJ18" s="112">
+        <v>99</v>
+      </c>
+      <c r="BK18" s="112">
+        <v>1</v>
+      </c>
+      <c r="BL18" s="112">
+        <v>1</v>
+      </c>
+      <c r="BM18" s="112">
+        <v>1</v>
+      </c>
+      <c r="BN18" s="112">
+        <v>1</v>
+      </c>
+      <c r="BO18" s="112">
+        <v>1</v>
+      </c>
+      <c r="BP18" s="112">
+        <v>1</v>
+      </c>
+      <c r="BQ18" s="112">
+        <v>1</v>
+      </c>
+      <c r="BR18" s="112">
+        <v>1</v>
+      </c>
+      <c r="BS18" s="112">
+        <v>1</v>
+      </c>
+      <c r="BT18" s="112">
+        <v>1</v>
+      </c>
+      <c r="BU18" s="112">
+        <v>99</v>
+      </c>
+      <c r="BV18" s="112">
+        <v>1</v>
+      </c>
       <c r="BW18" s="122">
         <v>99</v>
       </c>
@@ -8316,27 +8652,27 @@
     </row>
     <row r="19" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="110">
         <f t="shared" si="0"/>
-        <v>4.6445497630331758</v>
+        <v>9.9497487437185921</v>
       </c>
       <c r="E19" s="22">
         <f t="shared" si="1"/>
-        <v>5.5970149253731343</v>
+        <v>11.25</v>
       </c>
       <c r="F19" s="89">
         <f t="shared" si="2"/>
-        <v>18.75</v>
+        <v>36</v>
       </c>
       <c r="G19" s="89">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="H19" s="112"/>
       <c r="I19" s="90"/>
@@ -8448,27 +8784,69 @@
       <c r="BA19" s="90">
         <v>1</v>
       </c>
-      <c r="BB19" s="90"/>
-      <c r="BC19" s="90"/>
-      <c r="BD19" s="90"/>
-      <c r="BE19" s="90"/>
-      <c r="BF19" s="90"/>
-      <c r="BG19" s="90"/>
-      <c r="BH19" s="90"/>
-      <c r="BI19" s="90"/>
-      <c r="BJ19" s="112"/>
-      <c r="BK19" s="90"/>
-      <c r="BL19" s="90"/>
-      <c r="BM19" s="90"/>
-      <c r="BN19" s="90"/>
-      <c r="BO19" s="90"/>
-      <c r="BP19" s="90"/>
-      <c r="BQ19" s="90"/>
-      <c r="BR19" s="90"/>
-      <c r="BS19" s="112"/>
-      <c r="BT19" s="90"/>
-      <c r="BU19" s="90"/>
-      <c r="BV19" s="90"/>
+      <c r="BB19" s="90">
+        <v>1</v>
+      </c>
+      <c r="BC19" s="90">
+        <v>1</v>
+      </c>
+      <c r="BD19" s="90">
+        <v>1</v>
+      </c>
+      <c r="BE19" s="90">
+        <v>99</v>
+      </c>
+      <c r="BF19" s="90">
+        <v>1</v>
+      </c>
+      <c r="BG19" s="90">
+        <v>1</v>
+      </c>
+      <c r="BH19" s="90">
+        <v>1</v>
+      </c>
+      <c r="BI19" s="90">
+        <v>1</v>
+      </c>
+      <c r="BJ19" s="112">
+        <v>99</v>
+      </c>
+      <c r="BK19" s="90">
+        <v>1</v>
+      </c>
+      <c r="BL19" s="90">
+        <v>1</v>
+      </c>
+      <c r="BM19" s="90">
+        <v>1</v>
+      </c>
+      <c r="BN19" s="90">
+        <v>1</v>
+      </c>
+      <c r="BO19" s="90">
+        <v>1</v>
+      </c>
+      <c r="BP19" s="90">
+        <v>1</v>
+      </c>
+      <c r="BQ19" s="90">
+        <v>1</v>
+      </c>
+      <c r="BR19" s="90">
+        <v>1</v>
+      </c>
+      <c r="BS19" s="112">
+        <v>1</v>
+      </c>
+      <c r="BT19" s="90">
+        <v>1</v>
+      </c>
+      <c r="BU19" s="90">
+        <v>99</v>
+      </c>
+      <c r="BV19" s="90">
+        <v>0.25</v>
+      </c>
       <c r="BW19" s="122">
         <v>99</v>
       </c>
@@ -8510,27 +8888,27 @@
     </row>
     <row r="20" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="110">
         <f t="shared" si="0"/>
-        <v>5.304265402843602</v>
+        <v>10.649246231155781</v>
       </c>
       <c r="E20" s="22">
         <f t="shared" si="1"/>
-        <v>5.9895522388059703</v>
+        <v>11.660937499999999</v>
       </c>
       <c r="F20" s="15">
         <f t="shared" si="2"/>
-        <v>20.065000000000001</v>
+        <v>37.314999999999998</v>
       </c>
       <c r="G20" s="15">
         <f t="shared" si="3"/>
-        <v>55.96</v>
+        <v>105.96000000000001</v>
       </c>
       <c r="H20" s="112"/>
       <c r="I20" s="70"/>
@@ -8642,27 +9020,69 @@
       <c r="BA20" s="99">
         <v>0.75</v>
       </c>
-      <c r="BB20" s="112"/>
-      <c r="BC20" s="112"/>
-      <c r="BD20" s="112"/>
-      <c r="BE20" s="112"/>
-      <c r="BF20" s="112"/>
-      <c r="BG20" s="112"/>
-      <c r="BH20" s="112"/>
-      <c r="BI20" s="112"/>
-      <c r="BJ20" s="112"/>
-      <c r="BK20" s="112"/>
-      <c r="BL20" s="112"/>
-      <c r="BM20" s="112"/>
-      <c r="BN20" s="112"/>
-      <c r="BO20" s="112"/>
-      <c r="BP20" s="112"/>
-      <c r="BQ20" s="112"/>
-      <c r="BR20" s="112"/>
-      <c r="BS20" s="112"/>
-      <c r="BT20" s="112"/>
-      <c r="BU20" s="112"/>
-      <c r="BV20" s="112"/>
+      <c r="BB20" s="112">
+        <v>1</v>
+      </c>
+      <c r="BC20" s="112">
+        <v>1</v>
+      </c>
+      <c r="BD20" s="112">
+        <v>1</v>
+      </c>
+      <c r="BE20" s="112">
+        <v>99</v>
+      </c>
+      <c r="BF20" s="112">
+        <v>1</v>
+      </c>
+      <c r="BG20" s="112">
+        <v>1</v>
+      </c>
+      <c r="BH20" s="112">
+        <v>1</v>
+      </c>
+      <c r="BI20" s="112">
+        <v>1</v>
+      </c>
+      <c r="BJ20" s="112">
+        <v>99</v>
+      </c>
+      <c r="BK20" s="112">
+        <v>1</v>
+      </c>
+      <c r="BL20" s="112">
+        <v>1</v>
+      </c>
+      <c r="BM20" s="112">
+        <v>1</v>
+      </c>
+      <c r="BN20" s="112">
+        <v>1</v>
+      </c>
+      <c r="BO20" s="112">
+        <v>1</v>
+      </c>
+      <c r="BP20" s="112">
+        <v>1</v>
+      </c>
+      <c r="BQ20" s="112">
+        <v>1</v>
+      </c>
+      <c r="BR20" s="112">
+        <v>1</v>
+      </c>
+      <c r="BS20" s="112">
+        <v>1</v>
+      </c>
+      <c r="BT20" s="112">
+        <v>1</v>
+      </c>
+      <c r="BU20" s="112">
+        <v>99</v>
+      </c>
+      <c r="BV20" s="112">
+        <v>0.25</v>
+      </c>
       <c r="BW20" s="122">
         <v>99</v>
       </c>
@@ -8704,27 +9124,27 @@
     </row>
     <row r="21" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="87" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="110">
         <f t="shared" si="0"/>
-        <v>4.2900473933649277</v>
+        <v>8.9457286432160803</v>
       </c>
       <c r="E21" s="22">
         <f t="shared" si="1"/>
-        <v>5.3373134328358196</v>
+        <v>10.431249999999999</v>
       </c>
       <c r="F21" s="15">
         <f t="shared" si="2"/>
-        <v>17.879999999999995</v>
+        <v>33.379999999999995</v>
       </c>
       <c r="G21" s="15">
         <f t="shared" si="3"/>
-        <v>45.259999999999991</v>
+        <v>89.009999999999991</v>
       </c>
       <c r="H21" s="112"/>
       <c r="I21" s="70"/>
@@ -8836,27 +9256,69 @@
       <c r="BA21" s="99">
         <v>0.86499999999999999</v>
       </c>
-      <c r="BB21" s="112"/>
-      <c r="BC21" s="112"/>
-      <c r="BD21" s="112"/>
-      <c r="BE21" s="112"/>
-      <c r="BF21" s="112"/>
-      <c r="BG21" s="112"/>
-      <c r="BH21" s="112"/>
-      <c r="BI21" s="112"/>
-      <c r="BJ21" s="112"/>
-      <c r="BK21" s="112"/>
-      <c r="BL21" s="112"/>
-      <c r="BM21" s="112"/>
-      <c r="BN21" s="112"/>
-      <c r="BO21" s="112"/>
-      <c r="BP21" s="112"/>
-      <c r="BQ21" s="112"/>
-      <c r="BR21" s="112"/>
-      <c r="BS21" s="112"/>
-      <c r="BT21" s="112"/>
-      <c r="BU21" s="112"/>
-      <c r="BV21" s="112"/>
+      <c r="BB21" s="112">
+        <v>0.75</v>
+      </c>
+      <c r="BC21" s="112">
+        <v>0.75</v>
+      </c>
+      <c r="BD21" s="112">
+        <v>1</v>
+      </c>
+      <c r="BE21" s="112">
+        <v>99</v>
+      </c>
+      <c r="BF21" s="112">
+        <v>1</v>
+      </c>
+      <c r="BG21" s="112">
+        <v>1</v>
+      </c>
+      <c r="BH21" s="112">
+        <v>1</v>
+      </c>
+      <c r="BI21" s="112">
+        <v>1</v>
+      </c>
+      <c r="BJ21" s="112">
+        <v>99</v>
+      </c>
+      <c r="BK21" s="112">
+        <v>1</v>
+      </c>
+      <c r="BL21" s="112">
+        <v>1</v>
+      </c>
+      <c r="BM21" s="112">
+        <v>1</v>
+      </c>
+      <c r="BN21" s="112">
+        <v>1</v>
+      </c>
+      <c r="BO21" s="112">
+        <v>1</v>
+      </c>
+      <c r="BP21" s="112">
+        <v>1</v>
+      </c>
+      <c r="BQ21" s="112">
+        <v>1</v>
+      </c>
+      <c r="BR21" s="112">
+        <v>0</v>
+      </c>
+      <c r="BS21" s="112">
+        <v>1</v>
+      </c>
+      <c r="BT21" s="112">
+        <v>1</v>
+      </c>
+      <c r="BU21" s="112">
+        <v>99</v>
+      </c>
+      <c r="BV21" s="112">
+        <v>0</v>
+      </c>
       <c r="BW21" s="122">
         <v>99</v>
       </c>
@@ -8898,27 +9360,27 @@
     </row>
     <row r="22" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="110">
         <f t="shared" si="0"/>
-        <v>5.1421800947867302</v>
+        <v>10.427135678391959</v>
       </c>
       <c r="E22" s="22">
         <f t="shared" si="1"/>
-        <v>6.1194029850746272</v>
+        <v>11.71875</v>
       </c>
       <c r="F22" s="15">
         <f t="shared" si="2"/>
-        <v>20.5</v>
+        <v>37.5</v>
       </c>
       <c r="G22" s="15">
         <f t="shared" si="3"/>
-        <v>54.25</v>
+        <v>103.75</v>
       </c>
       <c r="H22" s="112"/>
       <c r="I22" s="70"/>
@@ -9030,27 +9492,69 @@
       <c r="BA22" s="99">
         <v>1</v>
       </c>
-      <c r="BB22" s="112"/>
-      <c r="BC22" s="90"/>
-      <c r="BD22" s="90"/>
-      <c r="BE22" s="90"/>
-      <c r="BF22" s="112"/>
-      <c r="BG22" s="112"/>
-      <c r="BH22" s="112"/>
-      <c r="BI22" s="112"/>
-      <c r="BJ22" s="112"/>
-      <c r="BK22" s="112"/>
-      <c r="BL22" s="112"/>
-      <c r="BM22" s="112"/>
-      <c r="BN22" s="120"/>
-      <c r="BO22" s="120"/>
-      <c r="BP22" s="120"/>
-      <c r="BQ22" s="120"/>
-      <c r="BR22" s="120"/>
-      <c r="BS22" s="120"/>
-      <c r="BT22" s="120"/>
-      <c r="BU22" s="120"/>
-      <c r="BV22" s="90"/>
+      <c r="BB22" s="112">
+        <v>1</v>
+      </c>
+      <c r="BC22" s="90">
+        <v>1</v>
+      </c>
+      <c r="BD22" s="90">
+        <v>1</v>
+      </c>
+      <c r="BE22" s="90">
+        <v>99</v>
+      </c>
+      <c r="BF22" s="112">
+        <v>1</v>
+      </c>
+      <c r="BG22" s="112">
+        <v>1</v>
+      </c>
+      <c r="BH22" s="112">
+        <v>1</v>
+      </c>
+      <c r="BI22" s="112">
+        <v>1</v>
+      </c>
+      <c r="BJ22" s="112">
+        <v>99</v>
+      </c>
+      <c r="BK22" s="112">
+        <v>1</v>
+      </c>
+      <c r="BL22" s="112">
+        <v>1</v>
+      </c>
+      <c r="BM22" s="112">
+        <v>1</v>
+      </c>
+      <c r="BN22" s="120">
+        <v>0.75</v>
+      </c>
+      <c r="BO22" s="120">
+        <v>1</v>
+      </c>
+      <c r="BP22" s="120">
+        <v>1</v>
+      </c>
+      <c r="BQ22" s="120">
+        <v>1</v>
+      </c>
+      <c r="BR22" s="120">
+        <v>1</v>
+      </c>
+      <c r="BS22" s="120">
+        <v>1</v>
+      </c>
+      <c r="BT22" s="120">
+        <v>1</v>
+      </c>
+      <c r="BU22" s="120">
+        <v>99</v>
+      </c>
+      <c r="BV22" s="90">
+        <v>0.25</v>
+      </c>
       <c r="BW22" s="122">
         <v>99</v>
       </c>
@@ -9092,27 +9596,27 @@
     </row>
     <row r="23" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="110">
         <f t="shared" si="0"/>
-        <v>5.4028436018957349</v>
+        <v>11.055276381909547</v>
       </c>
       <c r="E23" s="22">
         <f t="shared" si="1"/>
-        <v>6.1194029850746272</v>
+        <v>12.03125</v>
       </c>
       <c r="F23" s="89">
         <f t="shared" si="2"/>
-        <v>20.5</v>
+        <v>38.5</v>
       </c>
       <c r="G23" s="89">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="H23" s="112"/>
       <c r="I23" s="90"/>
@@ -9224,27 +9728,69 @@
       <c r="BA23" s="90">
         <v>1</v>
       </c>
-      <c r="BB23" s="90"/>
-      <c r="BC23" s="90"/>
-      <c r="BD23" s="90"/>
-      <c r="BE23" s="90"/>
-      <c r="BF23" s="90"/>
-      <c r="BG23" s="90"/>
-      <c r="BH23" s="90"/>
-      <c r="BI23" s="90"/>
-      <c r="BJ23" s="90"/>
-      <c r="BK23" s="90"/>
-      <c r="BL23" s="90"/>
-      <c r="BM23" s="90"/>
-      <c r="BN23" s="120"/>
-      <c r="BO23" s="120"/>
-      <c r="BP23" s="120"/>
-      <c r="BQ23" s="120"/>
-      <c r="BR23" s="120"/>
-      <c r="BS23" s="120"/>
-      <c r="BT23" s="120"/>
-      <c r="BU23" s="120"/>
-      <c r="BV23" s="120"/>
+      <c r="BB23" s="90">
+        <v>1</v>
+      </c>
+      <c r="BC23" s="90">
+        <v>1</v>
+      </c>
+      <c r="BD23" s="90">
+        <v>1</v>
+      </c>
+      <c r="BE23" s="90">
+        <v>99</v>
+      </c>
+      <c r="BF23" s="90">
+        <v>1</v>
+      </c>
+      <c r="BG23" s="90">
+        <v>1</v>
+      </c>
+      <c r="BH23" s="90">
+        <v>1</v>
+      </c>
+      <c r="BI23" s="90">
+        <v>1</v>
+      </c>
+      <c r="BJ23" s="90">
+        <v>99</v>
+      </c>
+      <c r="BK23" s="90">
+        <v>1</v>
+      </c>
+      <c r="BL23" s="90">
+        <v>1</v>
+      </c>
+      <c r="BM23" s="90">
+        <v>1</v>
+      </c>
+      <c r="BN23" s="120">
+        <v>1</v>
+      </c>
+      <c r="BO23" s="120">
+        <v>1</v>
+      </c>
+      <c r="BP23" s="120">
+        <v>1</v>
+      </c>
+      <c r="BQ23" s="120">
+        <v>1</v>
+      </c>
+      <c r="BR23" s="120">
+        <v>1</v>
+      </c>
+      <c r="BS23" s="120">
+        <v>1</v>
+      </c>
+      <c r="BT23" s="120">
+        <v>1</v>
+      </c>
+      <c r="BU23" s="120">
+        <v>99</v>
+      </c>
+      <c r="BV23" s="120">
+        <v>1</v>
+      </c>
       <c r="BW23" s="122">
         <v>99</v>
       </c>
@@ -9290,7 +9836,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="110">
         <f t="shared" si="0"/>
-        <v>9.4786729857819912E-2</v>
+        <v>0.10050251256281408</v>
       </c>
       <c r="E24" s="22">
         <f t="shared" si="1"/>
@@ -9373,12 +9919,16 @@
       <c r="BB24" s="90"/>
       <c r="BC24" s="90"/>
       <c r="BD24" s="90"/>
-      <c r="BE24" s="90"/>
+      <c r="BE24" s="90">
+        <v>99</v>
+      </c>
       <c r="BF24" s="112"/>
       <c r="BG24" s="90"/>
       <c r="BH24" s="90"/>
       <c r="BI24" s="90"/>
-      <c r="BJ24" s="112"/>
+      <c r="BJ24" s="112">
+        <v>99</v>
+      </c>
       <c r="BK24" s="90"/>
       <c r="BL24" s="90"/>
       <c r="BM24" s="90"/>
@@ -9444,11 +9994,11 @@
       </c>
       <c r="F25" s="15">
         <f>G67</f>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G25" s="15">
         <f>G45</f>
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="H25" s="70">
         <v>1</v>
@@ -9903,89 +10453,89 @@
         <f t="shared" si="5"/>
         <v>0.94708333333333339</v>
       </c>
-      <c r="BB26" s="111" t="e">
+      <c r="BB26" s="111">
         <f t="shared" ref="BB26:BM26" si="6">AVERAGE(BB9:BB24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BC26" s="111" t="e">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="BC26" s="111">
         <f>AVERAGE(BC9:BC24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BD26" s="111" t="e">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="BD26" s="111">
         <f>AVERAGE(BD9:BD24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BE26" s="111" t="e">
+        <v>1</v>
+      </c>
+      <c r="BE26" s="111">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BF26" s="111" t="e">
+        <v>99</v>
+      </c>
+      <c r="BF26" s="111">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BG26" s="111" t="e">
+        <v>1</v>
+      </c>
+      <c r="BG26" s="111">
         <f>AVERAGE(BG9:BG24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BH26" s="111" t="e">
+        <v>1</v>
+      </c>
+      <c r="BH26" s="111">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BI26" s="111" t="e">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="BI26" s="111">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BJ26" s="111" t="e">
+        <v>1</v>
+      </c>
+      <c r="BJ26" s="111">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BK26" s="111" t="e">
+        <v>99</v>
+      </c>
+      <c r="BK26" s="111">
         <f>AVERAGE(BK9:BK24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BL26" s="111" t="e">
+        <v>1</v>
+      </c>
+      <c r="BL26" s="111">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BM26" s="111" t="e">
+        <v>1</v>
+      </c>
+      <c r="BM26" s="111">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BN26" s="111" t="e">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="BN26" s="111">
         <f t="shared" ref="BN26:CB26" si="7">AVERAGE(BN9:BN24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BO26" s="111" t="e">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="BO26" s="111">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BP26" s="111" t="e">
+        <v>1</v>
+      </c>
+      <c r="BP26" s="111">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BQ26" s="111" t="e">
+        <v>1</v>
+      </c>
+      <c r="BQ26" s="111">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BR26" s="111" t="e">
+        <v>1</v>
+      </c>
+      <c r="BR26" s="111">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BS26" s="111" t="e">
+        <v>0.75</v>
+      </c>
+      <c r="BS26" s="111">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BT26" s="111" t="e">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="BT26" s="111">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BU26" s="111" t="e">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="BU26" s="111">
         <f>AVERAGE(BU9:BU24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BV26" s="111" t="e">
+        <v>99</v>
+      </c>
+      <c r="BV26" s="111">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.5625</v>
       </c>
       <c r="BW26" s="111">
         <f t="shared" si="7"/>
@@ -10079,7 +10629,7 @@
     <row r="28" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G28" s="2">
         <f t="shared" ref="G28:G45" si="9">SUM(H28:CP28)</f>
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" ref="H28:AK28" si="10">H9*H$6</f>
@@ -10267,15 +10817,15 @@
       </c>
       <c r="BB28" s="111">
         <f t="shared" ref="BB28:BM28" si="14">BB9*BB$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC28" s="111">
         <f t="shared" ref="BC28:BD43" si="15">BC9*BC$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD28" s="111">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE28" s="111">
         <f t="shared" si="14"/>
@@ -10283,19 +10833,19 @@
       </c>
       <c r="BF28" s="111">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG28" s="111">
         <f t="shared" ref="BG28:BG43" si="16">BG9*BG$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH28" s="111">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI28" s="111">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ28" s="111">
         <f t="shared" si="14"/>
@@ -10303,43 +10853,43 @@
       </c>
       <c r="BK28" s="111">
         <f t="shared" ref="BK28:BK43" si="17">BK9*BK$6</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL28" s="111">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BM28" s="111">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN28" s="111">
         <f t="shared" ref="BN28:CB28" si="18">BN9*BN$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO28" s="111">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP28" s="111">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BQ28" s="111">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR28" s="111">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BS28" s="111">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT28" s="111">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU28" s="111">
         <f t="shared" ref="BU28:BU43" si="19">BU9*BU$6</f>
@@ -10347,7 +10897,7 @@
       </c>
       <c r="BV28" s="111">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BW28" s="111">
         <f t="shared" si="18"/>
@@ -10441,7 +10991,7 @@
     <row r="29" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G29" s="2">
         <f t="shared" si="9"/>
-        <v>41.95</v>
+        <v>93.7</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" ref="H29:AK29" si="21">H10*H$6</f>
@@ -10629,15 +11179,15 @@
       </c>
       <c r="BB29" s="111">
         <f t="shared" ref="BB29:BM29" si="23">BB10*BB$6</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="BC29" s="111">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD29" s="111">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE29" s="111">
         <f t="shared" si="23"/>
@@ -10645,19 +11195,19 @@
       </c>
       <c r="BF29" s="111">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG29" s="111">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH29" s="111">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI29" s="111">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ29" s="111">
         <f t="shared" si="23"/>
@@ -10665,43 +11215,43 @@
       </c>
       <c r="BK29" s="111">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL29" s="111">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BM29" s="111">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BN29" s="111">
         <f t="shared" ref="BN29:CB29" si="24">BN10*BN$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO29" s="111">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP29" s="111">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BQ29" s="111">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR29" s="111">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BS29" s="111">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT29" s="111">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU29" s="111">
         <f t="shared" si="19"/>
@@ -10709,7 +11259,7 @@
       </c>
       <c r="BV29" s="111">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BW29" s="111">
         <f t="shared" si="24"/>
@@ -11165,7 +11715,7 @@
     <row r="31" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G31" s="2">
         <f t="shared" si="9"/>
-        <v>57.25</v>
+        <v>106.25</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" ref="H31:AK31" si="31">H12*H$6</f>
@@ -11353,15 +11903,15 @@
       </c>
       <c r="BB31" s="111">
         <f t="shared" ref="BB31:BM31" si="33">BB12*BB$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC31" s="111">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD31" s="111">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE31" s="111">
         <f t="shared" si="33"/>
@@ -11369,19 +11919,19 @@
       </c>
       <c r="BF31" s="111">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG31" s="111">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH31" s="111">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI31" s="111">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ31" s="111">
         <f t="shared" si="33"/>
@@ -11389,31 +11939,31 @@
       </c>
       <c r="BK31" s="111">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL31" s="111">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BM31" s="111">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN31" s="111">
         <f t="shared" ref="BN31:CB31" si="34">BN12*BN$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO31" s="111">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP31" s="111">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BQ31" s="111">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR31" s="111">
         <f t="shared" si="34"/>
@@ -11421,11 +11971,11 @@
       </c>
       <c r="BS31" s="111">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT31" s="111">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU31" s="111">
         <f t="shared" si="19"/>
@@ -11433,7 +11983,7 @@
       </c>
       <c r="BV31" s="111">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BW31" s="111">
         <f t="shared" si="34"/>
@@ -11527,7 +12077,7 @@
     <row r="32" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G32" s="2">
         <f t="shared" si="9"/>
-        <v>38.200000000000003</v>
+        <v>86.2</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" ref="H32:AK32" si="36">H13*H$6</f>
@@ -11715,15 +12265,15 @@
       </c>
       <c r="BB32" s="111">
         <f t="shared" ref="BB32:BM32" si="38">BB13*BB$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC32" s="111">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD32" s="111">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE32" s="111">
         <f t="shared" si="38"/>
@@ -11731,19 +12281,19 @@
       </c>
       <c r="BF32" s="111">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG32" s="111">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH32" s="111">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BI32" s="111">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ32" s="111">
         <f t="shared" si="38"/>
@@ -11751,43 +12301,43 @@
       </c>
       <c r="BK32" s="111">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL32" s="111">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BM32" s="111">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BN32" s="111">
         <f t="shared" ref="BN32:CB32" si="39">BN13*BN$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO32" s="111">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP32" s="111">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BQ32" s="111">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR32" s="111">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BS32" s="111">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT32" s="111">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU32" s="111">
         <f t="shared" si="19"/>
@@ -11889,7 +12439,7 @@
     <row r="33" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G33" s="2">
         <f t="shared" si="9"/>
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" ref="H33:AK33" si="41">H14*H$6</f>
@@ -12077,15 +12627,15 @@
       </c>
       <c r="BB33" s="111">
         <f t="shared" ref="BB33:BM33" si="43">BB14*BB$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC33" s="111">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD33" s="111">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE33" s="111">
         <f t="shared" si="43"/>
@@ -12093,19 +12643,19 @@
       </c>
       <c r="BF33" s="111">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG33" s="111">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH33" s="111">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI33" s="111">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ33" s="111">
         <f t="shared" si="43"/>
@@ -12113,43 +12663,43 @@
       </c>
       <c r="BK33" s="111">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL33" s="111">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BM33" s="111">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN33" s="111">
         <f t="shared" ref="BN33:CB33" si="44">BN14*BN$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO33" s="111">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP33" s="111">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BQ33" s="111">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR33" s="111">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BS33" s="111">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT33" s="111">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU33" s="111">
         <f t="shared" si="19"/>
@@ -12157,7 +12707,7 @@
       </c>
       <c r="BV33" s="111">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BW33" s="111">
         <f t="shared" si="44"/>
@@ -12251,7 +12801,7 @@
     <row r="34" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G34" s="2">
         <f t="shared" si="9"/>
-        <v>39.799999999999997</v>
+        <v>80.8</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" ref="H34:AK34" si="46">H15*H$6</f>
@@ -12439,15 +12989,15 @@
       </c>
       <c r="BB34" s="111">
         <f t="shared" ref="BB34:BM34" si="48">BB15*BB$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC34" s="111">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD34" s="111">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE34" s="111">
         <f t="shared" si="48"/>
@@ -12455,19 +13005,19 @@
       </c>
       <c r="BF34" s="111">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG34" s="111">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH34" s="111">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI34" s="111">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ34" s="111">
         <f t="shared" si="48"/>
@@ -12475,31 +13025,31 @@
       </c>
       <c r="BK34" s="111">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL34" s="111">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BM34" s="111">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN34" s="111">
         <f t="shared" ref="BN34:CB34" si="49">BN15*BN$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO34" s="111">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP34" s="111">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BQ34" s="111">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR34" s="111">
         <f t="shared" si="49"/>
@@ -12507,7 +13057,7 @@
       </c>
       <c r="BS34" s="111">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT34" s="111">
         <f t="shared" si="49"/>
@@ -13337,7 +13887,7 @@
     <row r="37" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G37" s="2">
         <f t="shared" si="9"/>
-        <v>56.05</v>
+        <v>109.05</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" ref="H37:AK37" si="61">H18*H$6</f>
@@ -13525,15 +14075,15 @@
       </c>
       <c r="BB37" s="111">
         <f t="shared" ref="BB37:BM37" si="63">BB18*BB$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC37" s="111">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD37" s="111">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE37" s="111">
         <f t="shared" si="63"/>
@@ -13541,19 +14091,19 @@
       </c>
       <c r="BF37" s="111">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG37" s="111">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH37" s="111">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI37" s="111">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ37" s="111">
         <f t="shared" si="63"/>
@@ -13561,43 +14111,43 @@
       </c>
       <c r="BK37" s="111">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL37" s="111">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BM37" s="111">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN37" s="111">
         <f t="shared" ref="BN37:CB37" si="64">BN18*BN$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO37" s="111">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP37" s="111">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BQ37" s="111">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR37" s="111">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BS37" s="111">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT37" s="111">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU37" s="111">
         <f t="shared" si="19"/>
@@ -13605,7 +14155,7 @@
       </c>
       <c r="BV37" s="111">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BW37" s="111">
         <f t="shared" si="64"/>
@@ -13699,7 +14249,7 @@
     <row r="38" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G38" s="2">
         <f t="shared" si="9"/>
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" ref="H38:AK38" si="66">H19*H$6</f>
@@ -13887,15 +14437,15 @@
       </c>
       <c r="BB38" s="111">
         <f t="shared" ref="BB38:BM38" si="68">BB19*BB$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC38" s="111">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD38" s="111">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE38" s="111">
         <f t="shared" si="68"/>
@@ -13903,19 +14453,19 @@
       </c>
       <c r="BF38" s="111">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG38" s="111">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH38" s="111">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI38" s="111">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ38" s="111">
         <f t="shared" si="68"/>
@@ -13923,43 +14473,43 @@
       </c>
       <c r="BK38" s="111">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL38" s="111">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BM38" s="111">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN38" s="111">
         <f t="shared" ref="BN38:CB38" si="69">BN19*BN$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO38" s="111">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP38" s="111">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BQ38" s="111">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR38" s="111">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BS38" s="111">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT38" s="111">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU38" s="111">
         <f t="shared" si="19"/>
@@ -13967,7 +14517,7 @@
       </c>
       <c r="BV38" s="111">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW38" s="111">
         <f t="shared" si="69"/>
@@ -14061,7 +14611,7 @@
     <row r="39" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G39" s="2">
         <f t="shared" si="9"/>
-        <v>55.96</v>
+        <v>105.96000000000001</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" ref="H39:AK39" si="71">H20*H$6</f>
@@ -14249,15 +14799,15 @@
       </c>
       <c r="BB39" s="111">
         <f t="shared" ref="BB39:BM39" si="73">BB20*BB$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC39" s="111">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD39" s="111">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE39" s="111">
         <f t="shared" si="73"/>
@@ -14265,19 +14815,19 @@
       </c>
       <c r="BF39" s="111">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG39" s="111">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH39" s="111">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI39" s="111">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ39" s="111">
         <f t="shared" si="73"/>
@@ -14285,43 +14835,43 @@
       </c>
       <c r="BK39" s="111">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL39" s="111">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BM39" s="111">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN39" s="111">
         <f t="shared" ref="BN39:CB39" si="74">BN20*BN$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO39" s="111">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP39" s="111">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BQ39" s="111">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR39" s="111">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BS39" s="111">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT39" s="111">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU39" s="111">
         <f t="shared" si="19"/>
@@ -14329,7 +14879,7 @@
       </c>
       <c r="BV39" s="111">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW39" s="111">
         <f t="shared" si="74"/>
@@ -14423,7 +14973,7 @@
     <row r="40" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G40" s="2">
         <f t="shared" si="9"/>
-        <v>45.259999999999991</v>
+        <v>89.009999999999991</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" ref="H40:AK40" si="76">H21*H$6</f>
@@ -14611,15 +15161,15 @@
       </c>
       <c r="BB40" s="111">
         <f t="shared" ref="BB40:BM40" si="78">BB21*BB$6</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="BC40" s="111">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BD40" s="111">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE40" s="111">
         <f t="shared" si="78"/>
@@ -14627,19 +15177,19 @@
       </c>
       <c r="BF40" s="111">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG40" s="111">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH40" s="111">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI40" s="111">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ40" s="111">
         <f t="shared" si="78"/>
@@ -14647,31 +15197,31 @@
       </c>
       <c r="BK40" s="111">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL40" s="111">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BM40" s="111">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN40" s="111">
         <f t="shared" ref="BN40:CB40" si="79">BN21*BN$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO40" s="111">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP40" s="111">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BQ40" s="111">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR40" s="111">
         <f t="shared" si="79"/>
@@ -14679,11 +15229,11 @@
       </c>
       <c r="BS40" s="111">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT40" s="111">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU40" s="111">
         <f t="shared" si="19"/>
@@ -14785,7 +15335,7 @@
     <row r="41" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G41" s="69">
         <f t="shared" si="9"/>
-        <v>54.25</v>
+        <v>103.75</v>
       </c>
       <c r="H41" s="69">
         <f t="shared" ref="H41:AK41" si="81">H22*H$6</f>
@@ -14973,15 +15523,15 @@
       </c>
       <c r="BB41" s="111">
         <f t="shared" ref="BB41:BM41" si="83">BB22*BB$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC41" s="111">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD41" s="111">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE41" s="111">
         <f t="shared" si="83"/>
@@ -14989,19 +15539,19 @@
       </c>
       <c r="BF41" s="111">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG41" s="111">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH41" s="111">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI41" s="111">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ41" s="111">
         <f t="shared" si="83"/>
@@ -15009,43 +15559,43 @@
       </c>
       <c r="BK41" s="111">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL41" s="111">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BM41" s="111">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN41" s="111">
         <f t="shared" ref="BN41:CB41" si="84">BN22*BN$6</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BO41" s="111">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP41" s="111">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BQ41" s="111">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR41" s="111">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BS41" s="111">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT41" s="111">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU41" s="111">
         <f t="shared" si="19"/>
@@ -15053,7 +15603,7 @@
       </c>
       <c r="BV41" s="111">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW41" s="111">
         <f t="shared" si="84"/>
@@ -15149,7 +15699,7 @@
       <c r="E42" s="19"/>
       <c r="G42" s="69">
         <f t="shared" si="9"/>
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="H42" s="69">
         <f t="shared" ref="H42:AK42" si="86">H23*H$6</f>
@@ -15337,15 +15887,15 @@
       </c>
       <c r="BB42" s="111">
         <f t="shared" ref="BB42:BM42" si="88">BB23*BB$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC42" s="111">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD42" s="111">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE42" s="111">
         <f t="shared" si="88"/>
@@ -15353,19 +15903,19 @@
       </c>
       <c r="BF42" s="111">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG42" s="111">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH42" s="111">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI42" s="111">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ42" s="111">
         <f t="shared" si="88"/>
@@ -15373,43 +15923,43 @@
       </c>
       <c r="BK42" s="111">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL42" s="111">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BM42" s="111">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN42" s="111">
         <f t="shared" ref="BN42:CB42" si="89">BN23*BN$6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO42" s="111">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP42" s="111">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BQ42" s="111">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR42" s="111">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BS42" s="111">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT42" s="111">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU42" s="111">
         <f t="shared" si="19"/>
@@ -15417,7 +15967,7 @@
       </c>
       <c r="BV42" s="111">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BW42" s="111">
         <f t="shared" si="89"/>
@@ -16241,7 +16791,7 @@
       <c r="E45" s="19"/>
       <c r="G45" s="72">
         <f t="shared" si="9"/>
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="H45" s="72">
         <f t="shared" ref="H45:N45" si="96">H25*H$6</f>
@@ -16433,7 +16983,7 @@
       </c>
       <c r="BC45" s="111">
         <f>BC25*BC$6</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD45" s="111">
         <f>BD25*BD$6</f>
@@ -16441,7 +16991,7 @@
       </c>
       <c r="BE45" s="111">
         <f t="shared" si="99"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BF45" s="111">
         <f t="shared" si="99"/>
@@ -16461,7 +17011,7 @@
       </c>
       <c r="BJ45" s="111">
         <f t="shared" si="99"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BK45" s="111">
         <f>BK25*BK$6</f>
@@ -16505,7 +17055,7 @@
       </c>
       <c r="BU45" s="111">
         <f>BU25*BU$6</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV45" s="111">
         <f t="shared" si="100"/>
@@ -16719,7 +17269,7 @@
     <row r="50" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G50" s="2">
         <f t="shared" ref="G50:G67" si="102">SUM(H50:CP50)</f>
-        <v>21</v>
+        <v>38.5</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" ref="H50:AK50" si="103">H9*H$7</f>
@@ -16907,15 +17457,15 @@
       </c>
       <c r="BB50" s="111">
         <f t="shared" ref="BB50:BM50" si="107">BB9*BB$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC50" s="111">
         <f t="shared" ref="BC50:BD65" si="108">BC9*BC$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD50" s="111">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE50" s="111">
         <f t="shared" si="107"/>
@@ -16923,19 +17473,19 @@
       </c>
       <c r="BF50" s="111">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG50" s="111">
         <f t="shared" ref="BG50:BG65" si="109">BG9*BG$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH50" s="111">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI50" s="111">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ50" s="111">
         <f t="shared" si="107"/>
@@ -16943,43 +17493,43 @@
       </c>
       <c r="BK50" s="111">
         <f t="shared" ref="BK50:BK65" si="110">BK9*BK$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL50" s="111">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM50" s="111">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN50" s="111">
         <f t="shared" ref="BN50:CB50" si="111">BN9*BN$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO50" s="111">
         <f t="shared" si="111"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP50" s="111">
         <f t="shared" si="111"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ50" s="111">
         <f t="shared" si="111"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR50" s="111">
         <f t="shared" si="111"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS50" s="111">
         <f t="shared" si="111"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BT50" s="111">
         <f t="shared" si="111"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU50" s="111">
         <f t="shared" ref="BU50:BU65" si="112">BU9*BU$7</f>
@@ -16987,7 +17537,7 @@
       </c>
       <c r="BV50" s="111">
         <f t="shared" si="111"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW50" s="111">
         <f t="shared" si="111"/>
@@ -17081,7 +17631,7 @@
     <row r="51" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G51" s="2">
         <f t="shared" si="102"/>
-        <v>15.65</v>
+        <v>33.15</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" ref="H51:AK51" si="114">H10*H$7</f>
@@ -17269,15 +17819,15 @@
       </c>
       <c r="BB51" s="111">
         <f t="shared" ref="BB51:BM51" si="116">BB10*BB$7</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BC51" s="111">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD51" s="111">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE51" s="111">
         <f t="shared" si="116"/>
@@ -17285,19 +17835,19 @@
       </c>
       <c r="BF51" s="111">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG51" s="111">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH51" s="111">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI51" s="111">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ51" s="111">
         <f t="shared" si="116"/>
@@ -17305,43 +17855,43 @@
       </c>
       <c r="BK51" s="111">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL51" s="111">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM51" s="111">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BN51" s="111">
         <f t="shared" ref="BN51:CB51" si="117">BN10*BN$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO51" s="111">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP51" s="111">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ51" s="111">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR51" s="111">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS51" s="111">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT51" s="111">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU51" s="111">
         <f t="shared" si="112"/>
@@ -17349,7 +17899,7 @@
       </c>
       <c r="BV51" s="111">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW51" s="111">
         <f t="shared" si="117"/>
@@ -17805,7 +18355,7 @@
     <row r="53" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G53" s="2">
         <f t="shared" si="102"/>
-        <v>20.625</v>
+        <v>37.625</v>
       </c>
       <c r="H53" s="2">
         <f t="shared" ref="H53:AK53" si="124">H12*H$7</f>
@@ -17993,15 +18543,15 @@
       </c>
       <c r="BB53" s="111">
         <f t="shared" ref="BB53:BM53" si="126">BB12*BB$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC53" s="111">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD53" s="111">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE53" s="111">
         <f t="shared" si="126"/>
@@ -18009,19 +18559,19 @@
       </c>
       <c r="BF53" s="111">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG53" s="111">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH53" s="111">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI53" s="111">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ53" s="111">
         <f t="shared" si="126"/>
@@ -18029,31 +18579,31 @@
       </c>
       <c r="BK53" s="111">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL53" s="111">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM53" s="111">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN53" s="111">
         <f t="shared" ref="BN53:CB53" si="127">BN12*BN$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO53" s="111">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP53" s="111">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ53" s="111">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR53" s="111">
         <f t="shared" si="127"/>
@@ -18061,11 +18611,11 @@
       </c>
       <c r="BS53" s="111">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT53" s="111">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU53" s="111">
         <f t="shared" si="112"/>
@@ -18073,7 +18623,7 @@
       </c>
       <c r="BV53" s="111">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW53" s="111">
         <f t="shared" si="127"/>
@@ -18167,7 +18717,7 @@
     <row r="54" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G54" s="2">
         <f t="shared" si="102"/>
-        <v>16.649999999999999</v>
+        <v>33.15</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" ref="H54:AK54" si="129">H13*H$7</f>
@@ -18355,15 +18905,15 @@
       </c>
       <c r="BB54" s="111">
         <f t="shared" ref="BB54:BM54" si="131">BB13*BB$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC54" s="111">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD54" s="111">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE54" s="111">
         <f t="shared" si="131"/>
@@ -18371,19 +18921,19 @@
       </c>
       <c r="BF54" s="111">
         <f t="shared" si="131"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG54" s="111">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH54" s="111">
         <f t="shared" si="131"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BI54" s="111">
         <f t="shared" si="131"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ54" s="111">
         <f t="shared" si="131"/>
@@ -18391,43 +18941,43 @@
       </c>
       <c r="BK54" s="111">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL54" s="111">
         <f t="shared" si="131"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM54" s="111">
         <f t="shared" si="131"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BN54" s="111">
         <f t="shared" ref="BN54:CB54" si="132">BN13*BN$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO54" s="111">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP54" s="111">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ54" s="111">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR54" s="111">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS54" s="111">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT54" s="111">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU54" s="111">
         <f t="shared" si="112"/>
@@ -18529,7 +19079,7 @@
     <row r="55" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G55" s="2">
         <f t="shared" si="102"/>
-        <v>17.75</v>
+        <v>35.75</v>
       </c>
       <c r="H55" s="2">
         <f t="shared" ref="H55:AK55" si="134">H14*H$7</f>
@@ -18717,15 +19267,15 @@
       </c>
       <c r="BB55" s="111">
         <f t="shared" ref="BB55:BM55" si="136">BB14*BB$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC55" s="111">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD55" s="111">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE55" s="111">
         <f t="shared" si="136"/>
@@ -18733,19 +19283,19 @@
       </c>
       <c r="BF55" s="111">
         <f t="shared" si="136"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG55" s="111">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH55" s="111">
         <f t="shared" si="136"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI55" s="111">
         <f t="shared" si="136"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ55" s="111">
         <f t="shared" si="136"/>
@@ -18753,43 +19303,43 @@
       </c>
       <c r="BK55" s="111">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL55" s="111">
         <f t="shared" si="136"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM55" s="111">
         <f t="shared" si="136"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN55" s="111">
         <f t="shared" ref="BN55:CB55" si="137">BN14*BN$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO55" s="111">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP55" s="111">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ55" s="111">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR55" s="111">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS55" s="111">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT55" s="111">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU55" s="111">
         <f t="shared" si="112"/>
@@ -18797,7 +19347,7 @@
       </c>
       <c r="BV55" s="111">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW55" s="111">
         <f t="shared" si="137"/>
@@ -18891,7 +19441,7 @@
     <row r="56" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G56" s="2">
         <f t="shared" si="102"/>
-        <v>17.024999999999999</v>
+        <v>32.024999999999999</v>
       </c>
       <c r="H56" s="2">
         <f t="shared" ref="H56:AK56" si="139">H15*H$7</f>
@@ -19079,15 +19629,15 @@
       </c>
       <c r="BB56" s="111">
         <f t="shared" ref="BB56:BM56" si="141">BB15*BB$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC56" s="111">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD56" s="111">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE56" s="111">
         <f t="shared" si="141"/>
@@ -19095,19 +19645,19 @@
       </c>
       <c r="BF56" s="111">
         <f t="shared" si="141"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG56" s="111">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH56" s="111">
         <f t="shared" si="141"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI56" s="111">
         <f t="shared" si="141"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ56" s="111">
         <f t="shared" si="141"/>
@@ -19115,31 +19665,31 @@
       </c>
       <c r="BK56" s="111">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL56" s="111">
         <f t="shared" si="141"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM56" s="111">
         <f t="shared" si="141"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN56" s="111">
         <f t="shared" ref="BN56:CB56" si="142">BN15*BN$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO56" s="111">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP56" s="111">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ56" s="111">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR56" s="111">
         <f t="shared" si="142"/>
@@ -19147,7 +19697,7 @@
       </c>
       <c r="BS56" s="111">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT56" s="111">
         <f t="shared" si="142"/>
@@ -19977,7 +20527,7 @@
     <row r="59" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G59" s="2">
         <f t="shared" si="102"/>
-        <v>20.65</v>
+        <v>38.65</v>
       </c>
       <c r="H59" s="2">
         <f t="shared" ref="H59:AK59" si="154">H18*H$7</f>
@@ -20165,15 +20715,15 @@
       </c>
       <c r="BB59" s="111">
         <f t="shared" ref="BB59:BM59" si="156">BB18*BB$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC59" s="111">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD59" s="111">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE59" s="111">
         <f t="shared" si="156"/>
@@ -20181,19 +20731,19 @@
       </c>
       <c r="BF59" s="111">
         <f t="shared" si="156"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG59" s="111">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH59" s="111">
         <f t="shared" si="156"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI59" s="111">
         <f t="shared" si="156"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ59" s="111">
         <f t="shared" si="156"/>
@@ -20201,43 +20751,43 @@
       </c>
       <c r="BK59" s="111">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL59" s="111">
         <f t="shared" si="156"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM59" s="111">
         <f t="shared" si="156"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN59" s="111">
         <f t="shared" ref="BN59:CB59" si="157">BN18*BN$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO59" s="111">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP59" s="111">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ59" s="111">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR59" s="111">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS59" s="111">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT59" s="111">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU59" s="111">
         <f t="shared" si="112"/>
@@ -20245,7 +20795,7 @@
       </c>
       <c r="BV59" s="111">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW59" s="111">
         <f t="shared" si="157"/>
@@ -20339,7 +20889,7 @@
     <row r="60" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G60" s="2">
         <f t="shared" si="102"/>
-        <v>18.75</v>
+        <v>36</v>
       </c>
       <c r="H60" s="2">
         <f t="shared" ref="H60:AK60" si="159">H19*H$7</f>
@@ -20527,15 +21077,15 @@
       </c>
       <c r="BB60" s="111">
         <f t="shared" ref="BB60:BM60" si="161">BB19*BB$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC60" s="111">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD60" s="111">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE60" s="111">
         <f t="shared" si="161"/>
@@ -20543,19 +21093,19 @@
       </c>
       <c r="BF60" s="111">
         <f t="shared" si="161"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG60" s="111">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH60" s="111">
         <f t="shared" si="161"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI60" s="111">
         <f t="shared" si="161"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ60" s="111">
         <f t="shared" si="161"/>
@@ -20563,43 +21113,43 @@
       </c>
       <c r="BK60" s="111">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL60" s="111">
         <f t="shared" si="161"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM60" s="111">
         <f t="shared" si="161"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN60" s="111">
         <f t="shared" ref="BN60:CB60" si="162">BN19*BN$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO60" s="111">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP60" s="111">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ60" s="111">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR60" s="111">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS60" s="111">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT60" s="111">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU60" s="111">
         <f t="shared" si="112"/>
@@ -20607,7 +21157,7 @@
       </c>
       <c r="BV60" s="111">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BW60" s="111">
         <f t="shared" si="162"/>
@@ -20701,7 +21251,7 @@
     <row r="61" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G61" s="2">
         <f t="shared" si="102"/>
-        <v>20.065000000000001</v>
+        <v>37.314999999999998</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" ref="H61:AK61" si="164">H20*H$7</f>
@@ -20889,15 +21439,15 @@
       </c>
       <c r="BB61" s="111">
         <f t="shared" ref="BB61:BM61" si="166">BB20*BB$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC61" s="111">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD61" s="111">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE61" s="111">
         <f t="shared" si="166"/>
@@ -20905,19 +21455,19 @@
       </c>
       <c r="BF61" s="111">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG61" s="111">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH61" s="111">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI61" s="111">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ61" s="111">
         <f t="shared" si="166"/>
@@ -20925,43 +21475,43 @@
       </c>
       <c r="BK61" s="111">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL61" s="111">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM61" s="111">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN61" s="111">
         <f t="shared" ref="BN61:CB61" si="167">BN20*BN$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO61" s="111">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP61" s="111">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ61" s="111">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR61" s="111">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS61" s="111">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT61" s="111">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU61" s="111">
         <f t="shared" si="112"/>
@@ -20969,7 +21519,7 @@
       </c>
       <c r="BV61" s="111">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BW61" s="111">
         <f t="shared" si="167"/>
@@ -21063,7 +21613,7 @@
     <row r="62" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G62" s="2">
         <f t="shared" si="102"/>
-        <v>17.879999999999995</v>
+        <v>33.379999999999995</v>
       </c>
       <c r="H62" s="2">
         <f t="shared" ref="H62:AK62" si="169">H21*H$7</f>
@@ -21251,15 +21801,15 @@
       </c>
       <c r="BB62" s="111">
         <f t="shared" ref="BB62:BM62" si="171">BB21*BB$7</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BC62" s="111">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BD62" s="111">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE62" s="111">
         <f t="shared" si="171"/>
@@ -21267,19 +21817,19 @@
       </c>
       <c r="BF62" s="111">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG62" s="111">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH62" s="111">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI62" s="111">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ62" s="111">
         <f t="shared" si="171"/>
@@ -21287,31 +21837,31 @@
       </c>
       <c r="BK62" s="111">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL62" s="111">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM62" s="111">
         <f t="shared" si="171"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN62" s="111">
         <f t="shared" ref="BN62:CB62" si="172">BN21*BN$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO62" s="111">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP62" s="111">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ62" s="111">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR62" s="111">
         <f t="shared" si="172"/>
@@ -21319,11 +21869,11 @@
       </c>
       <c r="BS62" s="111">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT62" s="111">
         <f t="shared" si="172"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU62" s="111">
         <f t="shared" si="112"/>
@@ -21425,7 +21975,7 @@
     <row r="63" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G63" s="69">
         <f t="shared" si="102"/>
-        <v>20.5</v>
+        <v>37.5</v>
       </c>
       <c r="H63" s="69">
         <f t="shared" ref="H63:AK63" si="174">H22*H$7</f>
@@ -21613,15 +22163,15 @@
       </c>
       <c r="BB63" s="111">
         <f t="shared" ref="BB63:BM63" si="176">BB22*BB$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC63" s="111">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD63" s="111">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE63" s="111">
         <f t="shared" si="176"/>
@@ -21629,19 +22179,19 @@
       </c>
       <c r="BF63" s="111">
         <f t="shared" si="176"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG63" s="111">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH63" s="111">
         <f t="shared" si="176"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI63" s="111">
         <f t="shared" si="176"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ63" s="111">
         <f t="shared" si="176"/>
@@ -21649,43 +22199,43 @@
       </c>
       <c r="BK63" s="111">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL63" s="111">
         <f t="shared" si="176"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM63" s="111">
         <f t="shared" si="176"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN63" s="111">
         <f t="shared" ref="BN63:CB63" si="177">BN22*BN$7</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="BO63" s="111">
         <f t="shared" si="177"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP63" s="111">
         <f t="shared" si="177"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ63" s="111">
         <f t="shared" si="177"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR63" s="111">
         <f t="shared" si="177"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS63" s="111">
         <f t="shared" si="177"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT63" s="111">
         <f t="shared" si="177"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU63" s="111">
         <f t="shared" si="112"/>
@@ -21693,7 +22243,7 @@
       </c>
       <c r="BV63" s="111">
         <f t="shared" si="177"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BW63" s="111">
         <f t="shared" si="177"/>
@@ -21787,7 +22337,7 @@
     <row r="64" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G64" s="69">
         <f t="shared" si="102"/>
-        <v>20.5</v>
+        <v>38.5</v>
       </c>
       <c r="H64" s="69">
         <f t="shared" ref="H64:AK64" si="179">H23*H$7</f>
@@ -21975,15 +22525,15 @@
       </c>
       <c r="BB64" s="111">
         <f t="shared" ref="BB64:BM64" si="181">BB23*BB$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC64" s="111">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD64" s="111">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE64" s="111">
         <f t="shared" si="181"/>
@@ -21991,19 +22541,19 @@
       </c>
       <c r="BF64" s="111">
         <f t="shared" si="181"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG64" s="111">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH64" s="111">
         <f t="shared" si="181"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI64" s="111">
         <f t="shared" si="181"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ64" s="111">
         <f t="shared" si="181"/>
@@ -22011,43 +22561,43 @@
       </c>
       <c r="BK64" s="111">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL64" s="111">
         <f t="shared" si="181"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM64" s="111">
         <f t="shared" si="181"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN64" s="111">
         <f t="shared" ref="BN64:CB64" si="182">BN23*BN$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO64" s="111">
         <f t="shared" si="182"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP64" s="111">
         <f t="shared" si="182"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ64" s="111">
         <f t="shared" si="182"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR64" s="111">
         <f t="shared" si="182"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS64" s="111">
         <f t="shared" si="182"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT64" s="111">
         <f t="shared" si="182"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU64" s="111">
         <f t="shared" si="112"/>
@@ -22055,7 +22605,7 @@
       </c>
       <c r="BV64" s="111">
         <f t="shared" si="182"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW64" s="111">
         <f t="shared" si="182"/>
@@ -22873,7 +23423,7 @@
     <row r="67" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G67" s="72">
         <f t="shared" si="102"/>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H67" s="72">
         <f t="shared" ref="H67:N67" si="189">H25*H$7</f>
@@ -23073,7 +23623,7 @@
       </c>
       <c r="BE67" s="111">
         <f t="shared" si="192"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF67" s="111">
         <f t="shared" si="192"/>
@@ -23093,7 +23643,7 @@
       </c>
       <c r="BJ67" s="111">
         <f t="shared" si="192"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK67" s="111">
         <f>BK25*BK$7</f>
@@ -23137,7 +23687,7 @@
       </c>
       <c r="BU67" s="111">
         <f>BU25*BU$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV67" s="111">
         <f t="shared" si="193"/>
@@ -23376,933 +23926,933 @@
     <mergeCell ref="CM4:CM5"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:E25">
-    <cfRule type="cellIs" dxfId="223" priority="345" operator="between">
+    <cfRule type="cellIs" dxfId="226" priority="345" operator="between">
       <formula>8</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="346" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="346" operator="lessThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CR9:CR21 CF9:CH25 AR22:AR25 AU9:AW25 I9:V25 CN9:CP25 AP9:AQ21 BA9:BA25 CC9:CD25 X9:AD25 AI9:AM21 AI24:AM25 AP24:AQ25 AQ22:AQ23 AI22:AJ23">
-    <cfRule type="cellIs" dxfId="221" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="340" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="341" operator="between">
+    <cfRule type="cellIs" dxfId="223" priority="341" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="342" operator="between">
+    <cfRule type="cellIs" dxfId="222" priority="342" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR9:AR21">
-    <cfRule type="cellIs" dxfId="218" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="334" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="335" operator="between">
+    <cfRule type="cellIs" dxfId="220" priority="335" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="336" operator="between">
+    <cfRule type="cellIs" dxfId="219" priority="336" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS9:AS19 AS21">
-    <cfRule type="cellIs" dxfId="215" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="316" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="317" operator="between">
+    <cfRule type="cellIs" dxfId="217" priority="317" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="318" operator="between">
+    <cfRule type="cellIs" dxfId="216" priority="318" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS22:AS23 AS25">
-    <cfRule type="cellIs" dxfId="212" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="313" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="314" operator="between">
+    <cfRule type="cellIs" dxfId="214" priority="314" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="315" operator="between">
+    <cfRule type="cellIs" dxfId="213" priority="315" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE18 AE20 AE22 AE25 AE9:AE14">
-    <cfRule type="cellIs" dxfId="209" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="289" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="290" operator="between">
+    <cfRule type="cellIs" dxfId="211" priority="290" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="291" operator="between">
+    <cfRule type="cellIs" dxfId="210" priority="291" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE9:CE23 CE25">
-    <cfRule type="cellIs" dxfId="206" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="274" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="275" operator="between">
+    <cfRule type="cellIs" dxfId="208" priority="275" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="276" operator="between">
+    <cfRule type="cellIs" dxfId="207" priority="276" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT25">
-    <cfRule type="cellIs" dxfId="200" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="256" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="257" operator="between">
+    <cfRule type="cellIs" dxfId="202" priority="257" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="258" operator="between">
+    <cfRule type="cellIs" dxfId="201" priority="258" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS20">
-    <cfRule type="cellIs" dxfId="197" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="229" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="230" operator="between">
+    <cfRule type="cellIs" dxfId="199" priority="230" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="231" operator="between">
+    <cfRule type="cellIs" dxfId="198" priority="231" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS24">
-    <cfRule type="cellIs" dxfId="191" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="217" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="218" operator="between">
+    <cfRule type="cellIs" dxfId="193" priority="218" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="219" operator="between">
+    <cfRule type="cellIs" dxfId="192" priority="219" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ9:CQ21">
-    <cfRule type="cellIs" dxfId="185" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="193" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="194" operator="between">
+    <cfRule type="cellIs" dxfId="187" priority="194" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="195" operator="between">
+    <cfRule type="cellIs" dxfId="186" priority="195" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE24">
-    <cfRule type="cellIs" dxfId="182" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="187" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="188" operator="between">
+    <cfRule type="cellIs" dxfId="184" priority="188" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="189" operator="between">
+    <cfRule type="cellIs" dxfId="183" priority="189" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH9:BJ25 BB9:BB25 BL9:BM25 BE9:BE25">
-    <cfRule type="cellIs" dxfId="179" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="184" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="185" operator="between">
+    <cfRule type="cellIs" dxfId="181" priority="185" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="186" operator="between">
+    <cfRule type="cellIs" dxfId="180" priority="186" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF9:BF23 BF25">
-    <cfRule type="cellIs" dxfId="176" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="181" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="182" operator="between">
+    <cfRule type="cellIs" dxfId="178" priority="182" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="183" operator="between">
+    <cfRule type="cellIs" dxfId="177" priority="183" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF24">
-    <cfRule type="cellIs" dxfId="173" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="178" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="179" operator="between">
+    <cfRule type="cellIs" dxfId="175" priority="179" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="180" operator="between">
+    <cfRule type="cellIs" dxfId="174" priority="180" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ9:BT21 BN9:BO21 BV9:BV21 BV24:BV25 BN24:BO25 BQ24:BT25">
-    <cfRule type="cellIs" dxfId="170" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="175" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="176" operator="between">
+    <cfRule type="cellIs" dxfId="172" priority="176" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="177" operator="between">
+    <cfRule type="cellIs" dxfId="171" priority="177" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP9:BP21 BP25">
-    <cfRule type="cellIs" dxfId="167" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="172" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="173" operator="between">
+    <cfRule type="cellIs" dxfId="169" priority="173" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="174" operator="between">
+    <cfRule type="cellIs" dxfId="168" priority="174" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP24">
-    <cfRule type="cellIs" dxfId="164" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="169" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="170" operator="between">
+    <cfRule type="cellIs" dxfId="166" priority="170" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="171" operator="between">
+    <cfRule type="cellIs" dxfId="165" priority="171" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ9:CB9 BW9:BX9 BW25:BX25 BZ25:CB25">
-    <cfRule type="cellIs" dxfId="161" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="166" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="167" operator="between">
+    <cfRule type="cellIs" dxfId="163" priority="167" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="168" operator="between">
+    <cfRule type="cellIs" dxfId="162" priority="168" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY9 BY25">
-    <cfRule type="cellIs" dxfId="158" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="163" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="164" operator="between">
+    <cfRule type="cellIs" dxfId="160" priority="164" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="165" operator="between">
+    <cfRule type="cellIs" dxfId="159" priority="165" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG9:BG25">
-    <cfRule type="cellIs" dxfId="155" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="157" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="158" operator="between">
+    <cfRule type="cellIs" dxfId="157" priority="158" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="159" operator="between">
+    <cfRule type="cellIs" dxfId="156" priority="159" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK9:BK25">
-    <cfRule type="cellIs" dxfId="152" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="154" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="155" operator="between">
+    <cfRule type="cellIs" dxfId="154" priority="155" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="156" operator="between">
+    <cfRule type="cellIs" dxfId="153" priority="156" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU9:BU21 BU24:BU25">
-    <cfRule type="cellIs" dxfId="149" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="151" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="152" operator="between">
+    <cfRule type="cellIs" dxfId="151" priority="152" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="153" operator="between">
+    <cfRule type="cellIs" dxfId="150" priority="153" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD9:BD25">
-    <cfRule type="cellIs" dxfId="146" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="148" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="149" operator="between">
+    <cfRule type="cellIs" dxfId="148" priority="149" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="150" operator="between">
+    <cfRule type="cellIs" dxfId="147" priority="150" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC9:BC25">
-    <cfRule type="cellIs" dxfId="143" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="145" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="146" operator="between">
+    <cfRule type="cellIs" dxfId="145" priority="146" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="147" operator="between">
+    <cfRule type="cellIs" dxfId="144" priority="147" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CI9:CI25">
-    <cfRule type="cellIs" dxfId="140" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="142" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="143" operator="between">
+    <cfRule type="cellIs" dxfId="142" priority="143" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="144" operator="between">
+    <cfRule type="cellIs" dxfId="141" priority="144" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ9:CJ25">
-    <cfRule type="cellIs" dxfId="137" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="139" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="140" operator="between">
+    <cfRule type="cellIs" dxfId="139" priority="140" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="141" operator="between">
+    <cfRule type="cellIs" dxfId="138" priority="141" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK9:CK25">
-    <cfRule type="cellIs" dxfId="134" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="136" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="137" operator="between">
+    <cfRule type="cellIs" dxfId="136" priority="137" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="138" operator="between">
+    <cfRule type="cellIs" dxfId="135" priority="138" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL9:CL25">
-    <cfRule type="cellIs" dxfId="131" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="133" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="134" operator="between">
+    <cfRule type="cellIs" dxfId="133" priority="134" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="135" operator="between">
+    <cfRule type="cellIs" dxfId="132" priority="135" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM9:CM25">
-    <cfRule type="cellIs" dxfId="128" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="130" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="131" operator="between">
+    <cfRule type="cellIs" dxfId="130" priority="131" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="132" operator="between">
+    <cfRule type="cellIs" dxfId="129" priority="132" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CR22:CR24">
-    <cfRule type="cellIs" dxfId="125" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="127" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="128" operator="between">
+    <cfRule type="cellIs" dxfId="127" priority="128" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="129" operator="between">
+    <cfRule type="cellIs" dxfId="126" priority="129" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ22:CQ24">
-    <cfRule type="cellIs" dxfId="122" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="124" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="125" operator="between">
+    <cfRule type="cellIs" dxfId="124" priority="125" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="126" operator="between">
+    <cfRule type="cellIs" dxfId="123" priority="126" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H24">
-    <cfRule type="cellIs" dxfId="119" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="121" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="122" operator="between">
+    <cfRule type="cellIs" dxfId="121" priority="122" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="123" operator="between">
+    <cfRule type="cellIs" dxfId="120" priority="123" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH9:AH25">
-    <cfRule type="cellIs" dxfId="116" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="118" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="119" operator="between">
+    <cfRule type="cellIs" dxfId="118" priority="119" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="120" operator="between">
+    <cfRule type="cellIs" dxfId="117" priority="120" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO9:AO21 AO24:AO25">
-    <cfRule type="cellIs" dxfId="113" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="115" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="116" operator="between">
+    <cfRule type="cellIs" dxfId="115" priority="116" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="117" operator="between">
+    <cfRule type="cellIs" dxfId="114" priority="117" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:W25">
-    <cfRule type="cellIs" dxfId="110" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="112" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="113" operator="between">
+    <cfRule type="cellIs" dxfId="112" priority="113" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="114" operator="between">
+    <cfRule type="cellIs" dxfId="111" priority="114" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG16:AG25 AG9:AG14">
-    <cfRule type="cellIs" dxfId="107" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="109" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="110" operator="between">
+    <cfRule type="cellIs" dxfId="109" priority="110" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="111" operator="between">
+    <cfRule type="cellIs" dxfId="108" priority="111" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG15">
-    <cfRule type="cellIs" dxfId="104" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="106" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="107" operator="between">
+    <cfRule type="cellIs" dxfId="106" priority="107" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="108" operator="between">
+    <cfRule type="cellIs" dxfId="105" priority="108" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF16:AF25 AF9:AF14">
-    <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="103" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="104" operator="between">
+    <cfRule type="cellIs" dxfId="103" priority="104" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="105" operator="between">
+    <cfRule type="cellIs" dxfId="102" priority="105" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF15">
-    <cfRule type="cellIs" dxfId="98" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="100" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="101" operator="between">
+    <cfRule type="cellIs" dxfId="100" priority="101" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="102" operator="between">
+    <cfRule type="cellIs" dxfId="99" priority="102" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN9:AN15 AN17:AN21 AN24:AN25">
-    <cfRule type="cellIs" dxfId="95" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="98" operator="between">
+    <cfRule type="cellIs" dxfId="97" priority="98" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="99" operator="between">
+    <cfRule type="cellIs" dxfId="96" priority="99" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE15">
-    <cfRule type="cellIs" dxfId="92" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="91" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="92" operator="between">
+    <cfRule type="cellIs" dxfId="94" priority="92" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="93" operator="between">
+    <cfRule type="cellIs" dxfId="93" priority="93" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE16">
-    <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="88" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="89" operator="between">
+    <cfRule type="cellIs" dxfId="91" priority="89" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="90" operator="between">
+    <cfRule type="cellIs" dxfId="90" priority="90" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE17">
-    <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="85" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="86" operator="between">
+    <cfRule type="cellIs" dxfId="88" priority="86" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="87" operator="between">
+    <cfRule type="cellIs" dxfId="87" priority="87" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE19">
-    <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="82" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="83" operator="between">
+    <cfRule type="cellIs" dxfId="85" priority="83" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="84" operator="between">
+    <cfRule type="cellIs" dxfId="84" priority="84" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE21">
-    <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="79" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="80" operator="between">
+    <cfRule type="cellIs" dxfId="82" priority="80" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="81" operator="between">
+    <cfRule type="cellIs" dxfId="81" priority="81" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE23">
-    <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="76" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="77" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="77" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="78" operator="between">
+    <cfRule type="cellIs" dxfId="78" priority="78" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE24">
-    <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="73" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="74" operator="between">
+    <cfRule type="cellIs" dxfId="76" priority="74" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="75" operator="between">
+    <cfRule type="cellIs" dxfId="75" priority="75" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN16">
-    <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="70" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="71" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="71" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="72" operator="between">
+    <cfRule type="cellIs" dxfId="72" priority="72" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ22:BT22 BN22:BO22 BV22">
-    <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="68" operator="between">
+    <cfRule type="cellIs" dxfId="70" priority="68" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="69" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="69" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP22">
-    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="64" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="65" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="65" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="66" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="66" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU22">
-    <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="61" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="62" operator="between">
+    <cfRule type="cellIs" dxfId="64" priority="62" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="63" operator="between">
+    <cfRule type="cellIs" dxfId="63" priority="63" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ23:BT23 BN23:BO23 BV23">
-    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="between">
+    <cfRule type="cellIs" dxfId="61" priority="59" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="60" operator="between">
+    <cfRule type="cellIs" dxfId="60" priority="60" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP23">
-    <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="between">
+    <cfRule type="cellIs" dxfId="58" priority="56" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="57" operator="between">
+    <cfRule type="cellIs" dxfId="57" priority="57" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU23">
-    <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="between">
+    <cfRule type="cellIs" dxfId="55" priority="53" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="54" operator="between">
+    <cfRule type="cellIs" dxfId="54" priority="54" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX9:AX25">
-    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="between">
+    <cfRule type="cellIs" dxfId="52" priority="50" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="51" operator="between">
+    <cfRule type="cellIs" dxfId="51" priority="51" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY9:AY25">
-    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="between">
+    <cfRule type="cellIs" dxfId="49" priority="47" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="48" operator="between">
+    <cfRule type="cellIs" dxfId="48" priority="48" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ9:AZ25">
-    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="between">
+    <cfRule type="cellIs" dxfId="46" priority="44" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="45" operator="between">
+    <cfRule type="cellIs" dxfId="45" priority="45" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ10:CB10 BW10:BX10">
-    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="41" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="42" operator="between">
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY10">
-    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="38" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="39" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ11:CB24 BW11:BX24">
-    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="35" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="36" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY11:BY24">
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="32" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="between">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC12">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC13">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP22 AK22:AM22">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO22">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN22">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP23 AK23:AM23">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO23">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN23">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT9:AT19">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT20:AT24">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
       <formula>0.01</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
       <formula>0.26</formula>
       <formula>0.5</formula>
     </cfRule>

--- a/BaremeJavaBaseTest2_GJ52.xlsx
+++ b/BaremeJavaBaseTest2_GJ52.xlsx
@@ -5072,11 +5072,11 @@
   <dimension ref="A1:CR68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3600" ySplit="2910" topLeftCell="AE9" activePane="bottomRight"/>
+      <pane xSplit="3600" ySplit="2910" topLeftCell="G9" activePane="bottomRight"/>
       <selection sqref="A1:XFD1"/>
       <selection pane="topRight" activeCell="BU7" sqref="BU7"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="BN11" sqref="BN11"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
+      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -6549,19 +6549,19 @@
       <c r="C9" s="4"/>
       <c r="D9" s="110">
         <f t="shared" ref="D9:D25" si="0">G9/$G$6*20+CR9*$CR$6</f>
-        <v>11.256281407035175</v>
+        <v>12.964824120603016</v>
       </c>
       <c r="E9" s="22">
         <f t="shared" ref="E9:E25" si="1">F9/$G$7*20+CR9*$CR$7</f>
-        <v>12.03125</v>
+        <v>13.59375</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" ref="F9:F24" si="2">G50</f>
-        <v>38.5</v>
+        <v>43.5</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" ref="G9:G24" si="3">G28</f>
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H9" s="112"/>
       <c r="I9" s="9"/>
@@ -6571,12 +6571,24 @@
       <c r="M9" s="9"/>
       <c r="N9" s="51"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
+      <c r="P9" s="70">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="70">
+        <v>1</v>
+      </c>
+      <c r="R9" s="70">
+        <v>0</v>
+      </c>
+      <c r="S9" s="16">
+        <v>1</v>
+      </c>
+      <c r="T9" s="16">
+        <v>1</v>
+      </c>
+      <c r="U9" s="16">
+        <v>1</v>
+      </c>
       <c r="V9" s="9">
         <v>99</v>
       </c>
@@ -6785,19 +6797,19 @@
       <c r="C10" s="88"/>
       <c r="D10" s="110">
         <f t="shared" si="0"/>
-        <v>9.4170854271356781</v>
+        <v>9.5175879396984939</v>
       </c>
       <c r="E10" s="22">
         <f t="shared" si="1"/>
-        <v>10.359375</v>
+        <v>10.671875</v>
       </c>
       <c r="F10" s="89">
         <f t="shared" si="2"/>
-        <v>33.15</v>
+        <v>34.15</v>
       </c>
       <c r="G10" s="89">
         <f t="shared" si="3"/>
-        <v>93.7</v>
+        <v>94.7</v>
       </c>
       <c r="H10" s="112"/>
       <c r="I10" s="90"/>
@@ -6807,12 +6819,24 @@
       <c r="M10" s="90"/>
       <c r="N10" s="91"/>
       <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
+      <c r="P10" s="90">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="90">
+        <v>0</v>
+      </c>
+      <c r="R10" s="90">
+        <v>0</v>
+      </c>
+      <c r="S10" s="90">
+        <v>0</v>
+      </c>
+      <c r="T10" s="90">
+        <v>0</v>
+      </c>
+      <c r="U10" s="90">
+        <v>0</v>
+      </c>
       <c r="V10" s="90">
         <v>99</v>
       </c>
@@ -7175,19 +7199,19 @@
       <c r="C12" s="5"/>
       <c r="D12" s="110">
         <f t="shared" si="0"/>
-        <v>10.678391959798994</v>
+        <v>12.788944723618091</v>
       </c>
       <c r="E12" s="22">
         <f t="shared" si="1"/>
-        <v>11.7578125</v>
+        <v>13.6328125</v>
       </c>
       <c r="F12" s="15">
         <f t="shared" si="2"/>
-        <v>37.625</v>
+        <v>43.625</v>
       </c>
       <c r="G12" s="15">
         <f t="shared" si="3"/>
-        <v>106.25</v>
+        <v>127.25</v>
       </c>
       <c r="H12" s="112"/>
       <c r="I12" s="70"/>
@@ -7197,12 +7221,24 @@
       <c r="M12" s="9"/>
       <c r="N12" s="53"/>
       <c r="O12" s="8"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
+      <c r="P12" s="71">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="71">
+        <v>1</v>
+      </c>
+      <c r="R12" s="70">
+        <v>1</v>
+      </c>
+      <c r="S12" s="70">
+        <v>1</v>
+      </c>
+      <c r="T12" s="70">
+        <v>1</v>
+      </c>
+      <c r="U12" s="70">
+        <v>1</v>
+      </c>
       <c r="V12" s="9">
         <v>99</v>
       </c>
@@ -9836,7 +9872,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="110">
         <f t="shared" si="0"/>
-        <v>0.10050251256281408</v>
+        <v>0</v>
       </c>
       <c r="E24" s="22">
         <f t="shared" si="1"/>
@@ -9848,7 +9884,7 @@
       </c>
       <c r="G24" s="89">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="112"/>
       <c r="I24" s="90"/>
@@ -9907,9 +9943,7 @@
       <c r="AT24" s="93">
         <v>99</v>
       </c>
-      <c r="AU24" s="90">
-        <v>1</v>
-      </c>
+      <c r="AU24" s="90"/>
       <c r="AV24" s="90"/>
       <c r="AW24" s="90"/>
       <c r="AX24" s="90"/>
@@ -10301,29 +10335,29 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P26" s="72" t="e">
+      <c r="P26" s="72">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q26" s="72" t="e">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="72">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R26" s="72" t="e">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R26" s="72">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S26" s="72" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S26" s="72">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T26" s="72" t="e">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T26" s="72">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U26" s="72" t="e">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U26" s="72">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="V26" s="72">
         <f t="shared" si="4"/>
@@ -10629,7 +10663,7 @@
     <row r="28" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G28" s="2">
         <f t="shared" ref="G28:G45" si="9">SUM(H28:CP28)</f>
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" ref="H28:AK28" si="10">H9*H$6</f>
@@ -10665,11 +10699,11 @@
       </c>
       <c r="P28" s="72">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="72">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R28" s="72">
         <f t="shared" si="10"/>
@@ -10677,15 +10711,15 @@
       </c>
       <c r="S28" s="72">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T28" s="72">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U28" s="72">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V28" s="72">
         <f t="shared" si="10"/>
@@ -10991,7 +11025,7 @@
     <row r="29" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G29" s="2">
         <f t="shared" si="9"/>
-        <v>93.7</v>
+        <v>94.7</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" ref="H29:AK29" si="21">H10*H$6</f>
@@ -11027,7 +11061,7 @@
       </c>
       <c r="P29" s="72">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="72">
         <f t="shared" si="21"/>
@@ -11715,7 +11749,7 @@
     <row r="31" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G31" s="2">
         <f t="shared" si="9"/>
-        <v>106.25</v>
+        <v>127.25</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" ref="H31:AK31" si="31">H12*H$6</f>
@@ -11751,27 +11785,27 @@
       </c>
       <c r="P31" s="72">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="72">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R31" s="69">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S31" s="72">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T31" s="72">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U31" s="72">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V31" s="69">
         <f t="shared" si="31"/>
@@ -16063,7 +16097,7 @@
       <c r="E43" s="19"/>
       <c r="G43" s="69">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="69">
         <f t="shared" ref="H43:AK43" si="91">H24*H$6</f>
@@ -16223,7 +16257,7 @@
       </c>
       <c r="AU43" s="69">
         <f t="shared" si="92"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV43" s="98">
         <f t="shared" si="92"/>
@@ -17269,7 +17303,7 @@
     <row r="50" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G50" s="2">
         <f t="shared" ref="G50:G67" si="102">SUM(H50:CP50)</f>
-        <v>38.5</v>
+        <v>43.5</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" ref="H50:AK50" si="103">H9*H$7</f>
@@ -17305,11 +17339,11 @@
       </c>
       <c r="P50" s="72">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="72">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="69">
         <f t="shared" si="103"/>
@@ -17317,15 +17351,15 @@
       </c>
       <c r="S50" s="72">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" s="72">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" s="72">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" s="2">
         <f t="shared" si="103"/>
@@ -17631,7 +17665,7 @@
     <row r="51" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G51" s="2">
         <f t="shared" si="102"/>
-        <v>33.15</v>
+        <v>34.15</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" ref="H51:AK51" si="114">H10*H$7</f>
@@ -17667,7 +17701,7 @@
       </c>
       <c r="P51" s="72">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51" s="72">
         <f t="shared" si="114"/>
@@ -18355,7 +18389,7 @@
     <row r="53" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G53" s="2">
         <f t="shared" si="102"/>
-        <v>37.625</v>
+        <v>43.625</v>
       </c>
       <c r="H53" s="2">
         <f t="shared" ref="H53:AK53" si="124">H12*H$7</f>
@@ -18391,27 +18425,27 @@
       </c>
       <c r="P53" s="72">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="72">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="69">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" s="72">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" s="72">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53" s="72">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V53" s="69">
         <f t="shared" si="124"/>

--- a/BaremeJavaBaseTest2_GJ52.xlsx
+++ b/BaremeJavaBaseTest2_GJ52.xlsx
@@ -5069,14 +5069,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CR68"/>
+  <dimension ref="A1:DI68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3600" ySplit="2910" topLeftCell="G9" activePane="bottomRight"/>
+      <pane xSplit="3600" ySplit="2910" topLeftCell="G9" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="topRight" activeCell="BU7" sqref="BU7"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
-      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
+      <selection pane="topRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
+      <selection pane="bottomRight" activeCell="CQ9" sqref="CQ9:CQ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -5121,7 +5121,7 @@
     <col min="97" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="111" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:113" s="111" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
       <c r="H1" s="138" t="s">
@@ -5222,7 +5222,7 @@
       <c r="CO1" s="182"/>
       <c r="CP1" s="114"/>
     </row>
-    <row r="2" spans="1:96" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:113" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5342,7 +5342,7 @@
       <c r="CQ2" s="133"/>
       <c r="CR2" s="133"/>
     </row>
-    <row r="3" spans="1:96" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:113" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -5486,7 +5486,7 @@
       <c r="CQ3" s="133"/>
       <c r="CR3" s="133"/>
     </row>
-    <row r="4" spans="1:96" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:113" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -5498,7 +5498,7 @@
       </c>
       <c r="D4" s="17" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G6,")")</f>
-        <v>Note/20 ( sur 199)</v>
+        <v>Note/20 ( sur 158)</v>
       </c>
       <c r="E4" s="18" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G7,")")</f>
@@ -5510,7 +5510,7 @@
       </c>
       <c r="G4" s="7" t="str">
         <f>CONCATENATE("Note/",G6)</f>
-        <v>Note/199</v>
+        <v>Note/158</v>
       </c>
       <c r="H4" s="194"/>
       <c r="I4" s="166"/>
@@ -5734,7 +5734,7 @@
       <c r="CQ4" s="133"/>
       <c r="CR4" s="133"/>
     </row>
-    <row r="5" spans="1:96" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:113" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5852,7 +5852,7 @@
       <c r="CQ5" s="133"/>
       <c r="CR5" s="133"/>
     </row>
-    <row r="6" spans="1:96" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:113" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -5861,19 +5861,19 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7">
         <f>SUM(H6:CP6)</f>
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="H6" s="60">
+        <v>0</v>
+      </c>
+      <c r="I6" s="60">
+        <v>0</v>
+      </c>
+      <c r="J6" s="60">
+        <v>0</v>
+      </c>
+      <c r="K6" s="55">
         <v>2</v>
-      </c>
-      <c r="I6" s="60">
-        <v>0</v>
-      </c>
-      <c r="J6" s="60">
-        <v>0</v>
-      </c>
-      <c r="K6" s="55">
-        <v>5</v>
       </c>
       <c r="L6" s="63">
         <v>0</v>
@@ -6083,43 +6083,43 @@
         <v>0</v>
       </c>
       <c r="CC6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD6" s="16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CE6" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CF6" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CG6" s="16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CH6" s="16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CI6" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CJ6" s="16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CK6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL6" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM6" s="16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CN6" s="16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CO6" s="16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CP6" s="54">
         <v>0</v>
@@ -6130,8 +6130,47 @@
       <c r="CR6" s="2">
         <v>1</v>
       </c>
+      <c r="CW6" s="16">
+        <v>1</v>
+      </c>
+      <c r="CX6" s="16">
+        <v>4</v>
+      </c>
+      <c r="CY6" s="16">
+        <v>2</v>
+      </c>
+      <c r="CZ6" s="16">
+        <v>5</v>
+      </c>
+      <c r="DA6" s="16">
+        <v>4</v>
+      </c>
+      <c r="DB6" s="16">
+        <v>4</v>
+      </c>
+      <c r="DC6" s="16">
+        <v>2</v>
+      </c>
+      <c r="DD6" s="16">
+        <v>3</v>
+      </c>
+      <c r="DE6" s="16">
+        <v>1</v>
+      </c>
+      <c r="DF6" s="16">
+        <v>1</v>
+      </c>
+      <c r="DG6" s="16">
+        <v>3</v>
+      </c>
+      <c r="DH6" s="16">
+        <v>3</v>
+      </c>
+      <c r="DI6" s="16">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:96" s="19" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:113" s="19" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -6410,7 +6449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:96" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:113" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -6520,7 +6559,7 @@
       <c r="CB8" s="150"/>
       <c r="CC8" s="149">
         <f>SUM(CC6:CO6)</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="CD8" s="150"/>
       <c r="CE8" s="150"/>
@@ -6539,7 +6578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>152</v>
       </c>
@@ -6549,28 +6588,44 @@
       <c r="C9" s="4"/>
       <c r="D9" s="110">
         <f t="shared" ref="D9:D25" si="0">G9/$G$6*20+CR9*$CR$6</f>
-        <v>12.964824120603016</v>
+        <v>18.860759493670887</v>
       </c>
       <c r="E9" s="22">
         <f t="shared" ref="E9:E25" si="1">F9/$G$7*20+CR9*$CR$7</f>
-        <v>13.59375</v>
+        <v>45.46875</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" ref="F9:F24" si="2">G50</f>
-        <v>43.5</v>
+        <v>145.5</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" ref="G9:G24" si="3">G28</f>
-        <v>129</v>
-      </c>
-      <c r="H9" s="112"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="H9" s="112">
+        <v>99</v>
+      </c>
+      <c r="I9" s="9">
+        <v>99</v>
+      </c>
+      <c r="J9" s="9">
+        <v>99</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>99</v>
+      </c>
+      <c r="M9" s="9">
+        <v>1</v>
+      </c>
+      <c r="N9" s="51">
+        <v>1</v>
+      </c>
+      <c r="O9" s="9">
+        <v>1</v>
+      </c>
       <c r="P9" s="70">
         <v>1</v>
       </c>
@@ -6787,7 +6842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>154</v>
       </c>
@@ -6797,26 +6852,36 @@
       <c r="C10" s="88"/>
       <c r="D10" s="110">
         <f t="shared" si="0"/>
-        <v>9.5175879396984939</v>
+        <v>12.303797468354432</v>
       </c>
       <c r="E10" s="22">
         <f t="shared" si="1"/>
-        <v>10.671875</v>
+        <v>41.765625</v>
       </c>
       <c r="F10" s="89">
         <f t="shared" si="2"/>
-        <v>34.15</v>
+        <v>133.65</v>
       </c>
       <c r="G10" s="89">
         <f t="shared" si="3"/>
-        <v>94.7</v>
-      </c>
-      <c r="H10" s="112"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
+        <v>97.2</v>
+      </c>
+      <c r="H10" s="112">
+        <v>99</v>
+      </c>
+      <c r="I10" s="90">
+        <v>99</v>
+      </c>
+      <c r="J10" s="90">
+        <v>99</v>
+      </c>
       <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
+      <c r="L10" s="90">
+        <v>99</v>
+      </c>
+      <c r="M10" s="90">
+        <v>0.5</v>
+      </c>
       <c r="N10" s="91"/>
       <c r="O10" s="90"/>
       <c r="P10" s="90">
@@ -7035,7 +7100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>156</v>
       </c>
@@ -7049,21 +7114,29 @@
       </c>
       <c r="E11" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30.9375</v>
       </c>
       <c r="F11" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G11" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127"/>
+      <c r="H11" s="127">
+        <v>99</v>
+      </c>
+      <c r="I11" s="127">
+        <v>99</v>
+      </c>
+      <c r="J11" s="127">
+        <v>99</v>
+      </c>
       <c r="K11" s="127"/>
-      <c r="L11" s="127"/>
+      <c r="L11" s="127">
+        <v>99</v>
+      </c>
       <c r="M11" s="127"/>
       <c r="N11" s="128"/>
       <c r="O11" s="127"/>
@@ -7182,14 +7255,12 @@
       <c r="CN11" s="127"/>
       <c r="CO11" s="127"/>
       <c r="CP11" s="127"/>
-      <c r="CQ11" s="131">
-        <v>0</v>
-      </c>
+      <c r="CQ11" s="131"/>
       <c r="CR11" s="131">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>158</v>
       </c>
@@ -7199,26 +7270,36 @@
       <c r="C12" s="5"/>
       <c r="D12" s="110">
         <f t="shared" si="0"/>
-        <v>12.788944723618091</v>
+        <v>16.740506329113924</v>
       </c>
       <c r="E12" s="22">
         <f t="shared" si="1"/>
-        <v>13.6328125</v>
+        <v>44.8828125</v>
       </c>
       <c r="F12" s="15">
         <f t="shared" si="2"/>
-        <v>43.625</v>
+        <v>143.625</v>
       </c>
       <c r="G12" s="15">
         <f t="shared" si="3"/>
-        <v>127.25</v>
-      </c>
-      <c r="H12" s="112"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
+        <v>132.25</v>
+      </c>
+      <c r="H12" s="112">
+        <v>99</v>
+      </c>
+      <c r="I12" s="70">
+        <v>99</v>
+      </c>
+      <c r="J12" s="70">
+        <v>99</v>
+      </c>
       <c r="K12" s="9"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="9"/>
+      <c r="L12" s="70">
+        <v>99</v>
+      </c>
+      <c r="M12" s="9">
+        <v>1</v>
+      </c>
       <c r="N12" s="53"/>
       <c r="O12" s="8"/>
       <c r="P12" s="71">
@@ -7431,13 +7512,13 @@
       <c r="CO12" s="70"/>
       <c r="CP12" s="70"/>
       <c r="CQ12" s="102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>160</v>
       </c>
@@ -7447,34 +7528,56 @@
       <c r="C13" s="88"/>
       <c r="D13" s="110">
         <f t="shared" si="0"/>
-        <v>8.6633165829145735</v>
+        <v>13.88607594936709</v>
       </c>
       <c r="E13" s="22">
         <f t="shared" si="1"/>
-        <v>10.359375</v>
+        <v>43.328125</v>
       </c>
       <c r="F13" s="89">
         <f t="shared" si="2"/>
-        <v>33.15</v>
+        <v>138.65</v>
       </c>
       <c r="G13" s="89">
         <f t="shared" si="3"/>
-        <v>86.2</v>
-      </c>
-      <c r="H13" s="112"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
+        <v>109.7</v>
+      </c>
+      <c r="H13" s="112">
+        <v>99</v>
+      </c>
+      <c r="I13" s="90">
+        <v>99</v>
+      </c>
+      <c r="J13" s="90">
+        <v>99</v>
+      </c>
       <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
+      <c r="L13" s="90">
+        <v>99</v>
+      </c>
+      <c r="M13" s="90">
+        <v>1</v>
+      </c>
       <c r="N13" s="108"/>
       <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
+      <c r="P13" s="90">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="90">
+        <v>0.5</v>
+      </c>
+      <c r="R13" s="90">
+        <v>1</v>
+      </c>
+      <c r="S13" s="90">
+        <v>1</v>
+      </c>
+      <c r="T13" s="90">
+        <v>1</v>
+      </c>
+      <c r="U13" s="90">
+        <v>1</v>
+      </c>
       <c r="V13" s="90">
         <v>99</v>
       </c>
@@ -7667,13 +7770,13 @@
       <c r="CO13" s="90"/>
       <c r="CP13" s="70"/>
       <c r="CQ13" s="102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>162</v>
       </c>
@@ -7683,34 +7786,56 @@
       <c r="C14" s="4"/>
       <c r="D14" s="110">
         <f t="shared" si="0"/>
-        <v>10.653266331658291</v>
+        <v>16.708860759493671</v>
       </c>
       <c r="E14" s="22">
         <f t="shared" si="1"/>
-        <v>11.171875</v>
+        <v>44.296875</v>
       </c>
       <c r="F14" s="15">
         <f t="shared" si="2"/>
-        <v>35.75</v>
+        <v>141.75</v>
       </c>
       <c r="G14" s="15">
         <f t="shared" si="3"/>
-        <v>106</v>
-      </c>
-      <c r="H14" s="112"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
+        <v>132</v>
+      </c>
+      <c r="H14" s="112">
+        <v>99</v>
+      </c>
+      <c r="I14" s="70">
+        <v>99</v>
+      </c>
+      <c r="J14" s="70">
+        <v>99</v>
+      </c>
       <c r="K14" s="9"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="9"/>
+      <c r="L14" s="70">
+        <v>99</v>
+      </c>
+      <c r="M14" s="9">
+        <v>1</v>
+      </c>
       <c r="N14" s="51"/>
       <c r="O14" s="9"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
+      <c r="P14" s="70">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="70">
+        <v>1</v>
+      </c>
+      <c r="R14" s="70">
+        <v>1</v>
+      </c>
+      <c r="S14" s="70">
+        <v>1</v>
+      </c>
+      <c r="T14" s="70">
+        <v>1</v>
+      </c>
+      <c r="U14" s="70">
+        <v>1</v>
+      </c>
       <c r="V14" s="9">
         <v>99</v>
       </c>
@@ -7903,13 +8028,13 @@
       <c r="CO14" s="70"/>
       <c r="CP14" s="70"/>
       <c r="CQ14" s="102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>164</v>
       </c>
@@ -7919,34 +8044,56 @@
       <c r="C15" s="4"/>
       <c r="D15" s="110">
         <f t="shared" si="0"/>
-        <v>8.1206030150753765</v>
+        <v>12.063291139240507</v>
       </c>
       <c r="E15" s="22">
         <f t="shared" si="1"/>
-        <v>10.0078125</v>
+        <v>42.3125</v>
       </c>
       <c r="F15" s="15">
         <f t="shared" si="2"/>
-        <v>32.024999999999999</v>
+        <v>135.4</v>
       </c>
       <c r="G15" s="15">
         <f t="shared" si="3"/>
-        <v>80.8</v>
-      </c>
-      <c r="H15" s="112"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
+        <v>95.3</v>
+      </c>
+      <c r="H15" s="112">
+        <v>99</v>
+      </c>
+      <c r="I15" s="70">
+        <v>99</v>
+      </c>
+      <c r="J15" s="70">
+        <v>99</v>
+      </c>
       <c r="K15" s="9"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="9"/>
+      <c r="L15" s="70">
+        <v>99</v>
+      </c>
+      <c r="M15" s="9">
+        <v>1</v>
+      </c>
       <c r="N15" s="100"/>
       <c r="O15" s="109"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
+      <c r="P15" s="70">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="70">
+        <v>0</v>
+      </c>
+      <c r="R15" s="70">
+        <v>0.125</v>
+      </c>
+      <c r="S15" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="T15" s="70">
+        <v>0.75</v>
+      </c>
+      <c r="U15" s="70">
+        <v>1</v>
+      </c>
       <c r="V15" s="9">
         <v>99</v>
       </c>
@@ -8139,13 +8286,13 @@
       <c r="CO15" s="70"/>
       <c r="CP15" s="70"/>
       <c r="CQ15" s="102">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="CR15" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>166</v>
       </c>
@@ -8159,21 +8306,29 @@
       </c>
       <c r="E16" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30.9375</v>
       </c>
       <c r="F16" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G16" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
+      <c r="H16" s="127">
+        <v>99</v>
+      </c>
+      <c r="I16" s="127">
+        <v>99</v>
+      </c>
+      <c r="J16" s="127">
+        <v>99</v>
+      </c>
       <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
+      <c r="L16" s="127">
+        <v>99</v>
+      </c>
       <c r="M16" s="127"/>
       <c r="N16" s="128"/>
       <c r="O16" s="132"/>
@@ -8292,9 +8447,7 @@
       <c r="CN16" s="127"/>
       <c r="CO16" s="127"/>
       <c r="CP16" s="127"/>
-      <c r="CQ16" s="131">
-        <v>0</v>
-      </c>
+      <c r="CQ16" s="131"/>
       <c r="CR16" s="131">
         <v>0</v>
       </c>
@@ -8313,21 +8466,29 @@
       </c>
       <c r="E17" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30.9375</v>
       </c>
       <c r="F17" s="15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G17" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
+      <c r="H17" s="127">
+        <v>99</v>
+      </c>
+      <c r="I17" s="127">
+        <v>99</v>
+      </c>
+      <c r="J17" s="127">
+        <v>99</v>
+      </c>
       <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
+      <c r="L17" s="127">
+        <v>99</v>
+      </c>
       <c r="M17" s="127"/>
       <c r="N17" s="128"/>
       <c r="O17" s="132"/>
@@ -8446,9 +8607,7 @@
       <c r="CN17" s="127"/>
       <c r="CO17" s="127"/>
       <c r="CP17" s="127"/>
-      <c r="CQ17" s="131">
-        <v>0</v>
-      </c>
+      <c r="CQ17" s="131"/>
       <c r="CR17" s="131">
         <v>0</v>
       </c>
@@ -8463,34 +8622,56 @@
       <c r="C18" s="4"/>
       <c r="D18" s="110">
         <f t="shared" si="0"/>
-        <v>10.959798994974875</v>
+        <v>16.778481012658229</v>
       </c>
       <c r="E18" s="22">
         <f t="shared" si="1"/>
-        <v>12.078125</v>
+        <v>45.046875</v>
       </c>
       <c r="F18" s="15">
         <f t="shared" si="2"/>
-        <v>38.65</v>
+        <v>144.15</v>
       </c>
       <c r="G18" s="15">
         <f t="shared" si="3"/>
-        <v>109.05</v>
-      </c>
-      <c r="H18" s="112"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
+        <v>132.55000000000001</v>
+      </c>
+      <c r="H18" s="112">
+        <v>99</v>
+      </c>
+      <c r="I18" s="70">
+        <v>99</v>
+      </c>
+      <c r="J18" s="70">
+        <v>99</v>
+      </c>
       <c r="K18" s="9"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="9"/>
+      <c r="L18" s="70">
+        <v>99</v>
+      </c>
+      <c r="M18" s="9">
+        <v>1</v>
+      </c>
       <c r="N18" s="51"/>
       <c r="O18" s="109"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
+      <c r="P18" s="70">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="R18" s="70">
+        <v>1</v>
+      </c>
+      <c r="S18" s="70">
+        <v>1</v>
+      </c>
+      <c r="T18" s="70">
+        <v>1</v>
+      </c>
+      <c r="U18" s="70">
+        <v>1</v>
+      </c>
       <c r="V18" s="9">
         <v>99</v>
       </c>
@@ -8683,7 +8864,7 @@
       <c r="CO18" s="70"/>
       <c r="CP18" s="70"/>
       <c r="CQ18" s="102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:96" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8696,34 +8877,56 @@
       <c r="C19" s="4"/>
       <c r="D19" s="110">
         <f t="shared" si="0"/>
-        <v>9.9497487437185921</v>
+        <v>15</v>
       </c>
       <c r="E19" s="22">
         <f t="shared" si="1"/>
-        <v>11.25</v>
+        <v>43.90625</v>
       </c>
       <c r="F19" s="89">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>140.5</v>
       </c>
       <c r="G19" s="89">
         <f t="shared" si="3"/>
-        <v>99</v>
-      </c>
-      <c r="H19" s="112"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
+        <v>118.5</v>
+      </c>
+      <c r="H19" s="112">
+        <v>99</v>
+      </c>
+      <c r="I19" s="90">
+        <v>99</v>
+      </c>
+      <c r="J19" s="90">
+        <v>99</v>
+      </c>
       <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
+      <c r="L19" s="90">
+        <v>99</v>
+      </c>
+      <c r="M19" s="90">
+        <v>1</v>
+      </c>
       <c r="N19" s="108"/>
       <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="90"/>
+      <c r="P19" s="90">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="90">
+        <v>0.5</v>
+      </c>
+      <c r="R19" s="90">
+        <v>0</v>
+      </c>
+      <c r="S19" s="90">
+        <v>1</v>
+      </c>
+      <c r="T19" s="90">
+        <v>1</v>
+      </c>
+      <c r="U19" s="90">
+        <v>1</v>
+      </c>
       <c r="V19" s="90">
         <v>99</v>
       </c>
@@ -8932,34 +9135,56 @@
       <c r="C20" s="4"/>
       <c r="D20" s="110">
         <f t="shared" si="0"/>
-        <v>10.649246231155781</v>
+        <v>16.387341772151895</v>
       </c>
       <c r="E20" s="22">
         <f t="shared" si="1"/>
-        <v>11.660937499999999</v>
+        <v>44.629687500000003</v>
       </c>
       <c r="F20" s="15">
         <f t="shared" si="2"/>
-        <v>37.314999999999998</v>
+        <v>142.815</v>
       </c>
       <c r="G20" s="15">
         <f t="shared" si="3"/>
-        <v>105.96000000000001</v>
-      </c>
-      <c r="H20" s="112"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
+        <v>129.45999999999998</v>
+      </c>
+      <c r="H20" s="112">
+        <v>99</v>
+      </c>
+      <c r="I20" s="70">
+        <v>99</v>
+      </c>
+      <c r="J20" s="70">
+        <v>99</v>
+      </c>
       <c r="K20" s="9"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="9"/>
+      <c r="L20" s="70">
+        <v>99</v>
+      </c>
+      <c r="M20" s="9">
+        <v>1</v>
+      </c>
       <c r="N20" s="108"/>
       <c r="O20" s="109"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
+      <c r="P20" s="70">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="R20" s="70">
+        <v>1</v>
+      </c>
+      <c r="S20" s="70">
+        <v>1</v>
+      </c>
+      <c r="T20" s="70">
+        <v>1</v>
+      </c>
+      <c r="U20" s="70">
+        <v>1</v>
+      </c>
       <c r="V20" s="9">
         <v>99</v>
       </c>
@@ -9152,7 +9377,7 @@
       <c r="CO20" s="70"/>
       <c r="CP20" s="70"/>
       <c r="CQ20" s="102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR20" s="2">
         <v>0</v>
@@ -9168,34 +9393,56 @@
       <c r="C21" s="5"/>
       <c r="D21" s="110">
         <f t="shared" si="0"/>
-        <v>8.9457286432160803</v>
+        <v>14.083544303797469</v>
       </c>
       <c r="E21" s="22">
         <f t="shared" si="1"/>
-        <v>10.431249999999999</v>
+        <v>43.321874999999999</v>
       </c>
       <c r="F21" s="15">
         <f t="shared" si="2"/>
-        <v>33.379999999999995</v>
+        <v>138.63</v>
       </c>
       <c r="G21" s="15">
         <f t="shared" si="3"/>
-        <v>89.009999999999991</v>
-      </c>
-      <c r="H21" s="112"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
+        <v>111.26</v>
+      </c>
+      <c r="H21" s="112">
+        <v>99</v>
+      </c>
+      <c r="I21" s="70">
+        <v>99</v>
+      </c>
+      <c r="J21" s="70">
+        <v>99</v>
+      </c>
       <c r="K21" s="9"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="9"/>
+      <c r="L21" s="70">
+        <v>99</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0.75</v>
+      </c>
       <c r="N21" s="51"/>
       <c r="O21" s="109"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
+      <c r="P21" s="70">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="R21" s="70">
+        <v>1</v>
+      </c>
+      <c r="S21" s="70">
+        <v>1</v>
+      </c>
+      <c r="T21" s="70">
+        <v>1</v>
+      </c>
+      <c r="U21" s="70">
+        <v>1</v>
+      </c>
       <c r="V21" s="9">
         <v>99</v>
       </c>
@@ -9388,7 +9635,7 @@
       <c r="CO21" s="70"/>
       <c r="CP21" s="70"/>
       <c r="CQ21" s="102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR21" s="2">
         <v>0</v>
@@ -9404,34 +9651,56 @@
       <c r="C22" s="4"/>
       <c r="D22" s="110">
         <f t="shared" si="0"/>
-        <v>10.427135678391959</v>
+        <v>16.10759493670886</v>
       </c>
       <c r="E22" s="22">
         <f t="shared" si="1"/>
-        <v>11.71875</v>
+        <v>44.6875</v>
       </c>
       <c r="F22" s="15">
         <f t="shared" si="2"/>
-        <v>37.5</v>
+        <v>143</v>
       </c>
       <c r="G22" s="15">
         <f t="shared" si="3"/>
-        <v>103.75</v>
-      </c>
-      <c r="H22" s="112"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
+        <v>127.25</v>
+      </c>
+      <c r="H22" s="112">
+        <v>99</v>
+      </c>
+      <c r="I22" s="70">
+        <v>99</v>
+      </c>
+      <c r="J22" s="70">
+        <v>99</v>
+      </c>
       <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
+      <c r="L22" s="70">
+        <v>99</v>
+      </c>
+      <c r="M22" s="70">
+        <v>1</v>
+      </c>
       <c r="N22" s="67"/>
       <c r="O22" s="109"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="70"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
+      <c r="P22" s="70">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="R22" s="70">
+        <v>1</v>
+      </c>
+      <c r="S22" s="70">
+        <v>1</v>
+      </c>
+      <c r="T22" s="70">
+        <v>1</v>
+      </c>
+      <c r="U22" s="70">
+        <v>1</v>
+      </c>
       <c r="V22" s="70">
         <v>99</v>
       </c>
@@ -9624,7 +9893,7 @@
       <c r="CO22" s="70"/>
       <c r="CP22" s="70"/>
       <c r="CQ22" s="111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR22" s="111">
         <v>0</v>
@@ -9640,34 +9909,56 @@
       <c r="C23" s="4"/>
       <c r="D23" s="110">
         <f t="shared" si="0"/>
-        <v>11.055276381909547</v>
+        <v>17.215189873417721</v>
       </c>
       <c r="E23" s="22">
         <f t="shared" si="1"/>
-        <v>12.03125</v>
+        <v>45.15625</v>
       </c>
       <c r="F23" s="89">
         <f t="shared" si="2"/>
-        <v>38.5</v>
+        <v>144.5</v>
       </c>
       <c r="G23" s="89">
         <f t="shared" si="3"/>
-        <v>110</v>
-      </c>
-      <c r="H23" s="112"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
+        <v>136</v>
+      </c>
+      <c r="H23" s="112">
+        <v>99</v>
+      </c>
+      <c r="I23" s="90">
+        <v>99</v>
+      </c>
+      <c r="J23" s="90">
+        <v>99</v>
+      </c>
       <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
+      <c r="L23" s="90">
+        <v>99</v>
+      </c>
+      <c r="M23" s="90">
+        <v>1</v>
+      </c>
       <c r="N23" s="91"/>
       <c r="O23" s="109"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="90"/>
-      <c r="T23" s="90"/>
-      <c r="U23" s="90"/>
+      <c r="P23" s="90">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="90">
+        <v>1</v>
+      </c>
+      <c r="R23" s="90">
+        <v>1</v>
+      </c>
+      <c r="S23" s="90">
+        <v>1</v>
+      </c>
+      <c r="T23" s="90">
+        <v>1</v>
+      </c>
+      <c r="U23" s="90">
+        <v>1</v>
+      </c>
       <c r="V23" s="90">
         <v>99</v>
       </c>
@@ -9860,7 +10151,7 @@
       <c r="CO23" s="90"/>
       <c r="CP23" s="70"/>
       <c r="CQ23" s="111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR23" s="111">
         <v>0</v>
@@ -9876,21 +10167,29 @@
       </c>
       <c r="E24" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30.9375</v>
       </c>
       <c r="F24" s="89">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G24" s="89">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H24" s="112"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
+      <c r="H24" s="112">
+        <v>99</v>
+      </c>
+      <c r="I24" s="90">
+        <v>99</v>
+      </c>
+      <c r="J24" s="90">
+        <v>99</v>
+      </c>
       <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
+      <c r="L24" s="90">
+        <v>99</v>
+      </c>
       <c r="M24" s="90"/>
       <c r="N24" s="91"/>
       <c r="O24" s="109"/>
@@ -10007,9 +10306,7 @@
       <c r="CN24" s="90"/>
       <c r="CO24" s="90"/>
       <c r="CP24" s="70"/>
-      <c r="CQ24" s="111">
-        <v>0</v>
-      </c>
+      <c r="CQ24" s="111"/>
       <c r="CR24" s="111">
         <v>0</v>
       </c>
@@ -10032,7 +10329,7 @@
       </c>
       <c r="G25" s="15">
         <f>G45</f>
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="H25" s="70">
         <v>1</v>
@@ -10303,37 +10600,37 @@
       </c>
     </row>
     <row r="26" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="H26" s="2" t="e">
+      <c r="H26" s="2">
         <f t="shared" ref="H26:AK26" si="4">AVERAGE(H9:H24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="2" t="e">
+        <v>99</v>
+      </c>
+      <c r="I26" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="2" t="e">
+        <v>99</v>
+      </c>
+      <c r="J26" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="2" t="e">
+        <v>99</v>
+      </c>
+      <c r="K26" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L26" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26" s="2" t="e">
+        <v>99</v>
+      </c>
+      <c r="M26" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N26" s="2" t="e">
+        <v>0.9375</v>
+      </c>
+      <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O26" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="O26" s="2">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="P26" s="72">
         <f t="shared" si="4"/>
@@ -10341,23 +10638,23 @@
       </c>
       <c r="Q26" s="72">
         <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="R26" s="72">
         <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="S26" s="72">
         <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="T26" s="72">
         <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="U26" s="72">
         <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="V26" s="72">
         <f t="shared" si="4"/>
@@ -10653,7 +10950,7 @@
       </c>
       <c r="CQ26" s="102">
         <f>AVERAGE(CQ9:CQ25)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="CR26" s="2">
         <f>AVERAGE(CR9:CR25)</f>
@@ -10663,7 +10960,7 @@
     <row r="28" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G28" s="2">
         <f t="shared" ref="G28:G45" si="9">SUM(H28:CP28)</f>
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" ref="H28:AK28" si="10">H9*H$6</f>
@@ -10687,15 +10984,15 @@
       </c>
       <c r="M28" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P28" s="72">
         <f t="shared" si="10"/>
@@ -11025,7 +11322,7 @@
     <row r="29" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G29" s="2">
         <f t="shared" si="9"/>
-        <v>94.7</v>
+        <v>97.2</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" ref="H29:AK29" si="21">H10*H$6</f>
@@ -11049,7 +11346,7 @@
       </c>
       <c r="M29" s="2">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="21"/>
@@ -11749,7 +12046,7 @@
     <row r="31" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G31" s="2">
         <f t="shared" si="9"/>
-        <v>127.25</v>
+        <v>132.25</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" ref="H31:AK31" si="31">H12*H$6</f>
@@ -11773,7 +12070,7 @@
       </c>
       <c r="M31" s="2">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="31"/>
@@ -12101,7 +12398,7 @@
       </c>
       <c r="CQ31" s="102">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CR31" s="69">
         <f t="shared" si="35"/>
@@ -12111,7 +12408,7 @@
     <row r="32" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G32" s="2">
         <f t="shared" si="9"/>
-        <v>86.2</v>
+        <v>109.7</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" ref="H32:AK32" si="36">H13*H$6</f>
@@ -12135,7 +12432,7 @@
       </c>
       <c r="M32" s="2">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="36"/>
@@ -12147,27 +12444,27 @@
       </c>
       <c r="P32" s="72">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="72">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R32" s="69">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S32" s="72">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T32" s="72">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U32" s="72">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V32" s="69">
         <f t="shared" si="36"/>
@@ -12463,7 +12760,7 @@
       </c>
       <c r="CQ32" s="102">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CR32" s="69">
         <f t="shared" si="40"/>
@@ -12473,7 +12770,7 @@
     <row r="33" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G33" s="2">
         <f t="shared" si="9"/>
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" ref="H33:AK33" si="41">H14*H$6</f>
@@ -12497,7 +12794,7 @@
       </c>
       <c r="M33" s="2">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="41"/>
@@ -12509,27 +12806,27 @@
       </c>
       <c r="P33" s="72">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="72">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R33" s="69">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S33" s="72">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T33" s="72">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U33" s="72">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V33" s="69">
         <f t="shared" si="41"/>
@@ -12825,7 +13122,7 @@
       </c>
       <c r="CQ33" s="102">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CR33" s="69">
         <f t="shared" si="45"/>
@@ -12835,7 +13132,7 @@
     <row r="34" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G34" s="2">
         <f t="shared" si="9"/>
-        <v>80.8</v>
+        <v>95.3</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" ref="H34:AK34" si="46">H15*H$6</f>
@@ -12859,7 +13156,7 @@
       </c>
       <c r="M34" s="2">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="46"/>
@@ -12871,7 +13168,7 @@
       </c>
       <c r="P34" s="72">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="72">
         <f t="shared" si="46"/>
@@ -12879,19 +13176,19 @@
       </c>
       <c r="R34" s="69">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S34" s="72">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T34" s="72">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U34" s="72">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V34" s="69">
         <f t="shared" si="46"/>
@@ -13187,7 +13484,7 @@
       </c>
       <c r="CQ34" s="102">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="CR34" s="69">
         <f t="shared" si="50"/>
@@ -13921,7 +14218,7 @@
     <row r="37" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G37" s="2">
         <f t="shared" si="9"/>
-        <v>109.05</v>
+        <v>132.55000000000001</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" ref="H37:AK37" si="61">H18*H$6</f>
@@ -13945,7 +14242,7 @@
       </c>
       <c r="M37" s="2">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="61"/>
@@ -13957,27 +14254,27 @@
       </c>
       <c r="P37" s="72">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="72">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R37" s="69">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S37" s="72">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T37" s="72">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U37" s="72">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V37" s="69">
         <f t="shared" si="61"/>
@@ -14273,7 +14570,7 @@
       </c>
       <c r="CQ37" s="102">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CR37" s="69">
         <f t="shared" si="65"/>
@@ -14283,7 +14580,7 @@
     <row r="38" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G38" s="2">
         <f t="shared" si="9"/>
-        <v>99</v>
+        <v>118.5</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" ref="H38:AK38" si="66">H19*H$6</f>
@@ -14307,7 +14604,7 @@
       </c>
       <c r="M38" s="2">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="66"/>
@@ -14319,11 +14616,11 @@
       </c>
       <c r="P38" s="72">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="72">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R38" s="69">
         <f t="shared" si="66"/>
@@ -14331,15 +14628,15 @@
       </c>
       <c r="S38" s="72">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T38" s="72">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U38" s="72">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V38" s="69">
         <f t="shared" si="66"/>
@@ -14645,7 +14942,7 @@
     <row r="39" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G39" s="2">
         <f t="shared" si="9"/>
-        <v>105.96000000000001</v>
+        <v>129.45999999999998</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" ref="H39:AK39" si="71">H20*H$6</f>
@@ -14669,7 +14966,7 @@
       </c>
       <c r="M39" s="2">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="71"/>
@@ -14681,27 +14978,27 @@
       </c>
       <c r="P39" s="72">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="72">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R39" s="69">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S39" s="72">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T39" s="72">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U39" s="72">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V39" s="69">
         <f t="shared" si="71"/>
@@ -14997,7 +15294,7 @@
       </c>
       <c r="CQ39" s="102">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CR39" s="69">
         <f t="shared" si="75"/>
@@ -15007,7 +15304,7 @@
     <row r="40" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G40" s="2">
         <f t="shared" si="9"/>
-        <v>89.009999999999991</v>
+        <v>111.26</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" ref="H40:AK40" si="76">H21*H$6</f>
@@ -15031,7 +15328,7 @@
       </c>
       <c r="M40" s="2">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="76"/>
@@ -15043,27 +15340,27 @@
       </c>
       <c r="P40" s="72">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="72">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R40" s="69">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S40" s="72">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T40" s="72">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U40" s="72">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V40" s="69">
         <f t="shared" si="76"/>
@@ -15359,7 +15656,7 @@
       </c>
       <c r="CQ40" s="102">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CR40" s="69">
         <f t="shared" si="80"/>
@@ -15369,7 +15666,7 @@
     <row r="41" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G41" s="69">
         <f t="shared" si="9"/>
-        <v>103.75</v>
+        <v>127.25</v>
       </c>
       <c r="H41" s="69">
         <f t="shared" ref="H41:AK41" si="81">H22*H$6</f>
@@ -15393,7 +15690,7 @@
       </c>
       <c r="M41" s="69">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N41" s="69">
         <f t="shared" si="81"/>
@@ -15405,27 +15702,27 @@
       </c>
       <c r="P41" s="72">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="72">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R41" s="69">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S41" s="72">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T41" s="72">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U41" s="72">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V41" s="69">
         <f t="shared" si="81"/>
@@ -15721,7 +16018,7 @@
       </c>
       <c r="CQ41" s="102">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CR41" s="69">
         <f t="shared" si="85"/>
@@ -15733,7 +16030,7 @@
       <c r="E42" s="19"/>
       <c r="G42" s="69">
         <f t="shared" si="9"/>
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="H42" s="69">
         <f t="shared" ref="H42:AK42" si="86">H23*H$6</f>
@@ -15757,7 +16054,7 @@
       </c>
       <c r="M42" s="69">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N42" s="69">
         <f t="shared" si="86"/>
@@ -15769,27 +16066,27 @@
       </c>
       <c r="P42" s="72">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="72">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R42" s="69">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S42" s="72">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T42" s="72">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U42" s="72">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V42" s="69">
         <f t="shared" si="86"/>
@@ -16085,7 +16382,7 @@
       </c>
       <c r="CQ42" s="102">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CR42" s="69">
         <f t="shared" si="90"/>
@@ -16825,11 +17122,11 @@
       <c r="E45" s="19"/>
       <c r="G45" s="72">
         <f t="shared" si="9"/>
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="H45" s="72">
         <f t="shared" ref="H45:N45" si="96">H25*H$6</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" s="72">
         <f t="shared" si="96"/>
@@ -16841,7 +17138,7 @@
       </c>
       <c r="K45" s="72">
         <f t="shared" si="96"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L45" s="72">
         <f t="shared" si="96"/>
@@ -17121,55 +17418,55 @@
       </c>
       <c r="CC45" s="72">
         <f t="shared" ref="CC45:CR45" si="101">CC25*CC$6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD45" s="80">
         <f t="shared" si="101"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CE45" s="80">
         <f t="shared" si="101"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CF45" s="80">
         <f t="shared" si="101"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CG45" s="80">
         <f t="shared" si="101"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CH45" s="80">
         <f t="shared" si="101"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CI45" s="111">
         <f t="shared" si="101"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CJ45" s="111">
         <f t="shared" si="101"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CK45" s="111">
         <f t="shared" si="101"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL45" s="111">
         <f t="shared" si="101"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM45" s="111">
         <f t="shared" si="101"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CN45" s="80">
         <f t="shared" si="101"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CO45" s="72">
         <f t="shared" si="101"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CP45" s="72">
         <f t="shared" si="101"/>
@@ -17303,11 +17600,11 @@
     <row r="50" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G50" s="2">
         <f t="shared" ref="G50:G67" si="102">SUM(H50:CP50)</f>
-        <v>43.5</v>
+        <v>145.5</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" ref="H50:AK50" si="103">H9*H$7</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I50" s="2">
         <f t="shared" si="103"/>
@@ -17327,15 +17624,15 @@
       </c>
       <c r="M50" s="2">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" s="72">
         <f t="shared" si="103"/>
@@ -17665,11 +17962,11 @@
     <row r="51" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G51" s="2">
         <f t="shared" si="102"/>
-        <v>34.15</v>
+        <v>133.65</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" ref="H51:AK51" si="114">H10*H$7</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I51" s="2">
         <f t="shared" si="114"/>
@@ -17689,7 +17986,7 @@
       </c>
       <c r="M51" s="2">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="114"/>
@@ -18027,11 +18324,11 @@
     <row r="52" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G52" s="2">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="H52" s="2">
         <f t="shared" ref="H52:AK52" si="119">H11*H$7</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I52" s="2">
         <f t="shared" si="119"/>
@@ -18389,11 +18686,11 @@
     <row r="53" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G53" s="2">
         <f t="shared" si="102"/>
-        <v>43.625</v>
+        <v>143.625</v>
       </c>
       <c r="H53" s="2">
         <f t="shared" ref="H53:AK53" si="124">H12*H$7</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I53" s="2">
         <f t="shared" si="124"/>
@@ -18413,7 +18710,7 @@
       </c>
       <c r="M53" s="2">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="124"/>
@@ -18741,7 +19038,7 @@
       </c>
       <c r="CQ53" s="102">
         <f t="shared" si="128"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR53" s="69">
         <f t="shared" si="128"/>
@@ -18751,11 +19048,11 @@
     <row r="54" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G54" s="2">
         <f t="shared" si="102"/>
-        <v>33.15</v>
+        <v>138.65</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" ref="H54:AK54" si="129">H13*H$7</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I54" s="2">
         <f t="shared" si="129"/>
@@ -18775,7 +19072,7 @@
       </c>
       <c r="M54" s="2">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="129"/>
@@ -18787,27 +19084,27 @@
       </c>
       <c r="P54" s="72">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="72">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R54" s="69">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S54" s="72">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" s="72">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54" s="72">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V54" s="69">
         <f t="shared" si="129"/>
@@ -19103,7 +19400,7 @@
       </c>
       <c r="CQ54" s="102">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR54" s="69">
         <f t="shared" si="133"/>
@@ -19113,11 +19410,11 @@
     <row r="55" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G55" s="2">
         <f t="shared" si="102"/>
-        <v>35.75</v>
+        <v>141.75</v>
       </c>
       <c r="H55" s="2">
         <f t="shared" ref="H55:AK55" si="134">H14*H$7</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I55" s="2">
         <f t="shared" si="134"/>
@@ -19137,7 +19434,7 @@
       </c>
       <c r="M55" s="2">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="134"/>
@@ -19149,27 +19446,27 @@
       </c>
       <c r="P55" s="72">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" s="72">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" s="69">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55" s="72">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T55" s="72">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55" s="72">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V55" s="69">
         <f t="shared" si="134"/>
@@ -19465,7 +19762,7 @@
       </c>
       <c r="CQ55" s="102">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR55" s="69">
         <f t="shared" si="138"/>
@@ -19475,11 +19772,11 @@
     <row r="56" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G56" s="2">
         <f t="shared" si="102"/>
-        <v>32.024999999999999</v>
+        <v>135.4</v>
       </c>
       <c r="H56" s="2">
         <f t="shared" ref="H56:AK56" si="139">H15*H$7</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I56" s="2">
         <f t="shared" si="139"/>
@@ -19499,7 +19796,7 @@
       </c>
       <c r="M56" s="2">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="139"/>
@@ -19511,7 +19808,7 @@
       </c>
       <c r="P56" s="72">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="72">
         <f t="shared" si="139"/>
@@ -19519,19 +19816,19 @@
       </c>
       <c r="R56" s="69">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="S56" s="72">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T56" s="72">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="U56" s="72">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V56" s="69">
         <f t="shared" si="139"/>
@@ -19827,7 +20124,7 @@
       </c>
       <c r="CQ56" s="102">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="CR56" s="69">
         <f t="shared" si="143"/>
@@ -19837,11 +20134,11 @@
     <row r="57" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G57" s="2">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="H57" s="2">
         <f t="shared" ref="H57:AK57" si="144">H16*H$7</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I57" s="2">
         <f t="shared" si="144"/>
@@ -20199,11 +20496,11 @@
     <row r="58" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G58" s="2">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="H58" s="2">
         <f t="shared" ref="H58:AK58" si="149">H17*H$7</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I58" s="2">
         <f t="shared" si="149"/>
@@ -20561,11 +20858,11 @@
     <row r="59" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G59" s="2">
         <f t="shared" si="102"/>
-        <v>38.65</v>
+        <v>144.15</v>
       </c>
       <c r="H59" s="2">
         <f t="shared" ref="H59:AK59" si="154">H18*H$7</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I59" s="2">
         <f t="shared" si="154"/>
@@ -20585,7 +20882,7 @@
       </c>
       <c r="M59" s="2">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="154"/>
@@ -20597,27 +20894,27 @@
       </c>
       <c r="P59" s="72">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59" s="72">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R59" s="69">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S59" s="72">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59" s="72">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U59" s="72">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V59" s="69">
         <f t="shared" si="154"/>
@@ -20913,7 +21210,7 @@
       </c>
       <c r="CQ59" s="102">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR59" s="69">
         <f t="shared" si="158"/>
@@ -20923,11 +21220,11 @@
     <row r="60" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G60" s="2">
         <f t="shared" si="102"/>
-        <v>36</v>
+        <v>140.5</v>
       </c>
       <c r="H60" s="2">
         <f t="shared" ref="H60:AK60" si="159">H19*H$7</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I60" s="2">
         <f t="shared" si="159"/>
@@ -20947,7 +21244,7 @@
       </c>
       <c r="M60" s="2">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="159"/>
@@ -20959,11 +21256,11 @@
       </c>
       <c r="P60" s="72">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="72">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R60" s="69">
         <f t="shared" si="159"/>
@@ -20971,15 +21268,15 @@
       </c>
       <c r="S60" s="72">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60" s="72">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U60" s="72">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V60" s="69">
         <f t="shared" si="159"/>
@@ -21285,11 +21582,11 @@
     <row r="61" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G61" s="2">
         <f t="shared" si="102"/>
-        <v>37.314999999999998</v>
+        <v>142.815</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" ref="H61:AK61" si="164">H20*H$7</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I61" s="2">
         <f t="shared" si="164"/>
@@ -21309,7 +21606,7 @@
       </c>
       <c r="M61" s="2">
         <f t="shared" si="164"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="164"/>
@@ -21321,27 +21618,27 @@
       </c>
       <c r="P61" s="72">
         <f t="shared" si="164"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61" s="72">
         <f t="shared" si="164"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R61" s="69">
         <f t="shared" si="164"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S61" s="72">
         <f t="shared" si="164"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61" s="72">
         <f t="shared" si="164"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U61" s="72">
         <f t="shared" si="164"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V61" s="69">
         <f t="shared" si="164"/>
@@ -21637,7 +21934,7 @@
       </c>
       <c r="CQ61" s="102">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR61" s="69">
         <f t="shared" si="168"/>
@@ -21647,11 +21944,11 @@
     <row r="62" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G62" s="2">
         <f t="shared" si="102"/>
-        <v>33.379999999999995</v>
+        <v>138.63</v>
       </c>
       <c r="H62" s="2">
         <f t="shared" ref="H62:AK62" si="169">H21*H$7</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I62" s="2">
         <f t="shared" si="169"/>
@@ -21671,7 +21968,7 @@
       </c>
       <c r="M62" s="2">
         <f t="shared" si="169"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="169"/>
@@ -21683,27 +21980,27 @@
       </c>
       <c r="P62" s="72">
         <f t="shared" si="169"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" s="72">
         <f t="shared" si="169"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R62" s="69">
         <f t="shared" si="169"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S62" s="72">
         <f t="shared" si="169"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" s="72">
         <f t="shared" si="169"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62" s="72">
         <f t="shared" si="169"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V62" s="69">
         <f t="shared" si="169"/>
@@ -21999,7 +22296,7 @@
       </c>
       <c r="CQ62" s="102">
         <f t="shared" si="173"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR62" s="69">
         <f t="shared" si="173"/>
@@ -22009,11 +22306,11 @@
     <row r="63" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G63" s="69">
         <f t="shared" si="102"/>
-        <v>37.5</v>
+        <v>143</v>
       </c>
       <c r="H63" s="69">
         <f t="shared" ref="H63:AK63" si="174">H22*H$7</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I63" s="69">
         <f t="shared" si="174"/>
@@ -22033,7 +22330,7 @@
       </c>
       <c r="M63" s="69">
         <f t="shared" si="174"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" s="69">
         <f t="shared" si="174"/>
@@ -22045,27 +22342,27 @@
       </c>
       <c r="P63" s="72">
         <f t="shared" si="174"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63" s="72">
         <f t="shared" si="174"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R63" s="69">
         <f t="shared" si="174"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63" s="72">
         <f t="shared" si="174"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63" s="72">
         <f t="shared" si="174"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U63" s="72">
         <f t="shared" si="174"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V63" s="69">
         <f t="shared" si="174"/>
@@ -22361,7 +22658,7 @@
       </c>
       <c r="CQ63" s="102">
         <f t="shared" si="178"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR63" s="69">
         <f t="shared" si="178"/>
@@ -22371,11 +22668,11 @@
     <row r="64" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G64" s="69">
         <f t="shared" si="102"/>
-        <v>38.5</v>
+        <v>144.5</v>
       </c>
       <c r="H64" s="69">
         <f t="shared" ref="H64:AK64" si="179">H23*H$7</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I64" s="69">
         <f t="shared" si="179"/>
@@ -22395,7 +22692,7 @@
       </c>
       <c r="M64" s="69">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" s="69">
         <f t="shared" si="179"/>
@@ -22407,27 +22704,27 @@
       </c>
       <c r="P64" s="72">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64" s="72">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64" s="69">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S64" s="72">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64" s="72">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U64" s="72">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V64" s="69">
         <f t="shared" si="179"/>
@@ -22723,7 +23020,7 @@
       </c>
       <c r="CQ64" s="102">
         <f t="shared" si="183"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR64" s="69">
         <f t="shared" si="183"/>
@@ -22733,11 +23030,11 @@
     <row r="65" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G65" s="69">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="H65" s="69">
         <f t="shared" ref="H65:AK65" si="184">H24*H$7</f>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I65" s="69">
         <f t="shared" si="184"/>

--- a/BaremeJavaBaseTest2_GJ52.xlsx
+++ b/BaremeJavaBaseTest2_GJ52.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="7980" windowWidth="25050" windowHeight="7785"/>
+    <workbookView xWindow="45" yWindow="8550" windowWidth="25050" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -384,6 +384,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="N15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+pas e.printStackTrace !!!</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AD15" authorId="0" shapeId="0">
       <text>
         <r>
@@ -453,6 +477,30 @@
           </rPr>
           <t xml:space="preserve">
 manque les controles</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+pas e.printStackTrace !!!</t>
         </r>
       </text>
     </comment>
@@ -694,6 +742,30 @@
           </rPr>
           <t xml:space="preserve">
 manque les Collections.unmodifable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+pas e.printStackTrace !!!</t>
         </r>
       </text>
     </comment>
@@ -2511,7 +2583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2886,6 +2958,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5072,11 +5147,11 @@
   <dimension ref="A1:DI68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3600" ySplit="2910" topLeftCell="G9" activePane="bottomLeft"/>
+      <pane xSplit="3600" ySplit="2910" topLeftCell="G17" activePane="bottomRight"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="topRight" activeCell="L6" sqref="L6"/>
+      <selection pane="topRight" activeCell="K6" sqref="K6"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
-      <selection pane="bottomRight" activeCell="CQ9" sqref="CQ9:CQ24"/>
+      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -5124,102 +5199,102 @@
     <row r="1" spans="1:113" s="111" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
-      <c r="H1" s="138" t="s">
+      <c r="H1" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="169" t="s">
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="169"/>
-      <c r="T1" s="169"/>
-      <c r="U1" s="169"/>
-      <c r="V1" s="182" t="s">
+      <c r="Q1" s="170"/>
+      <c r="R1" s="170"/>
+      <c r="S1" s="170"/>
+      <c r="T1" s="170"/>
+      <c r="U1" s="170"/>
+      <c r="V1" s="183" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="182"/>
-      <c r="X1" s="182"/>
-      <c r="Y1" s="182"/>
-      <c r="Z1" s="182"/>
-      <c r="AA1" s="182"/>
-      <c r="AB1" s="182"/>
-      <c r="AC1" s="182"/>
-      <c r="AD1" s="182"/>
-      <c r="AE1" s="182"/>
-      <c r="AF1" s="182"/>
-      <c r="AG1" s="182"/>
-      <c r="AH1" s="182"/>
-      <c r="AI1" s="182"/>
-      <c r="AJ1" s="182"/>
-      <c r="AK1" s="182"/>
-      <c r="AL1" s="182"/>
-      <c r="AM1" s="182"/>
-      <c r="AN1" s="182"/>
-      <c r="AO1" s="182"/>
-      <c r="AP1" s="182"/>
-      <c r="AQ1" s="182"/>
-      <c r="AR1" s="182"/>
-      <c r="AS1" s="182"/>
-      <c r="AT1" s="182"/>
-      <c r="AU1" s="182"/>
-      <c r="AV1" s="182"/>
-      <c r="AW1" s="182"/>
-      <c r="AX1" s="182"/>
-      <c r="AY1" s="182"/>
-      <c r="AZ1" s="182"/>
-      <c r="BA1" s="182"/>
-      <c r="BB1" s="182"/>
-      <c r="BC1" s="182"/>
-      <c r="BD1" s="182"/>
-      <c r="BE1" s="182"/>
-      <c r="BF1" s="182"/>
-      <c r="BG1" s="182"/>
-      <c r="BH1" s="182"/>
-      <c r="BI1" s="182"/>
-      <c r="BJ1" s="182"/>
-      <c r="BK1" s="182"/>
-      <c r="BL1" s="182"/>
-      <c r="BM1" s="182"/>
-      <c r="BN1" s="182"/>
-      <c r="BO1" s="182"/>
-      <c r="BP1" s="182"/>
-      <c r="BQ1" s="182"/>
-      <c r="BR1" s="182"/>
-      <c r="BS1" s="182"/>
-      <c r="BT1" s="182"/>
-      <c r="BU1" s="182"/>
-      <c r="BV1" s="182"/>
-      <c r="BW1" s="182" t="s">
+      <c r="W1" s="183"/>
+      <c r="X1" s="183"/>
+      <c r="Y1" s="183"/>
+      <c r="Z1" s="183"/>
+      <c r="AA1" s="183"/>
+      <c r="AB1" s="183"/>
+      <c r="AC1" s="183"/>
+      <c r="AD1" s="183"/>
+      <c r="AE1" s="183"/>
+      <c r="AF1" s="183"/>
+      <c r="AG1" s="183"/>
+      <c r="AH1" s="183"/>
+      <c r="AI1" s="183"/>
+      <c r="AJ1" s="183"/>
+      <c r="AK1" s="183"/>
+      <c r="AL1" s="183"/>
+      <c r="AM1" s="183"/>
+      <c r="AN1" s="183"/>
+      <c r="AO1" s="183"/>
+      <c r="AP1" s="183"/>
+      <c r="AQ1" s="183"/>
+      <c r="AR1" s="183"/>
+      <c r="AS1" s="183"/>
+      <c r="AT1" s="183"/>
+      <c r="AU1" s="183"/>
+      <c r="AV1" s="183"/>
+      <c r="AW1" s="183"/>
+      <c r="AX1" s="183"/>
+      <c r="AY1" s="183"/>
+      <c r="AZ1" s="183"/>
+      <c r="BA1" s="183"/>
+      <c r="BB1" s="183"/>
+      <c r="BC1" s="183"/>
+      <c r="BD1" s="183"/>
+      <c r="BE1" s="183"/>
+      <c r="BF1" s="183"/>
+      <c r="BG1" s="183"/>
+      <c r="BH1" s="183"/>
+      <c r="BI1" s="183"/>
+      <c r="BJ1" s="183"/>
+      <c r="BK1" s="183"/>
+      <c r="BL1" s="183"/>
+      <c r="BM1" s="183"/>
+      <c r="BN1" s="183"/>
+      <c r="BO1" s="183"/>
+      <c r="BP1" s="183"/>
+      <c r="BQ1" s="183"/>
+      <c r="BR1" s="183"/>
+      <c r="BS1" s="183"/>
+      <c r="BT1" s="183"/>
+      <c r="BU1" s="183"/>
+      <c r="BV1" s="183"/>
+      <c r="BW1" s="183" t="s">
         <v>97</v>
       </c>
-      <c r="BX1" s="182"/>
-      <c r="BY1" s="182"/>
-      <c r="BZ1" s="182"/>
-      <c r="CA1" s="182"/>
-      <c r="CB1" s="182"/>
-      <c r="CC1" s="182" t="s">
-        <v>99</v>
-      </c>
-      <c r="CD1" s="182"/>
-      <c r="CE1" s="182"/>
-      <c r="CF1" s="182"/>
-      <c r="CG1" s="182"/>
-      <c r="CH1" s="182"/>
-      <c r="CI1" s="182"/>
-      <c r="CJ1" s="182"/>
-      <c r="CK1" s="182"/>
-      <c r="CL1" s="182"/>
-      <c r="CM1" s="182"/>
-      <c r="CN1" s="182"/>
-      <c r="CO1" s="182"/>
+      <c r="BX1" s="183"/>
+      <c r="BY1" s="183"/>
+      <c r="BZ1" s="183"/>
+      <c r="CA1" s="183"/>
+      <c r="CB1" s="183"/>
+      <c r="CC1" s="183" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD1" s="183"/>
+      <c r="CE1" s="183"/>
+      <c r="CF1" s="183"/>
+      <c r="CG1" s="183"/>
+      <c r="CH1" s="183"/>
+      <c r="CI1" s="183"/>
+      <c r="CJ1" s="183"/>
+      <c r="CK1" s="183"/>
+      <c r="CL1" s="183"/>
+      <c r="CM1" s="183"/>
+      <c r="CN1" s="183"/>
+      <c r="CO1" s="183"/>
       <c r="CP1" s="114"/>
     </row>
     <row r="2" spans="1:113" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5230,117 +5305,117 @@
       <c r="E2" s="52"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="174" t="s">
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="139"/>
+      <c r="V2" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="198"/>
-      <c r="X2" s="198"/>
-      <c r="Y2" s="177"/>
-      <c r="Z2" s="177"/>
-      <c r="AA2" s="177"/>
-      <c r="AB2" s="177"/>
-      <c r="AC2" s="177"/>
-      <c r="AD2" s="177"/>
-      <c r="AE2" s="177"/>
-      <c r="AF2" s="177"/>
-      <c r="AG2" s="177"/>
-      <c r="AH2" s="177"/>
-      <c r="AI2" s="177"/>
-      <c r="AJ2" s="177"/>
-      <c r="AK2" s="177"/>
-      <c r="AL2" s="177"/>
-      <c r="AM2" s="177"/>
-      <c r="AN2" s="177"/>
-      <c r="AO2" s="177"/>
-      <c r="AP2" s="177"/>
-      <c r="AQ2" s="186"/>
-      <c r="AR2" s="183" t="s">
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="178"/>
+      <c r="Z2" s="178"/>
+      <c r="AA2" s="178"/>
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="178"/>
+      <c r="AD2" s="178"/>
+      <c r="AE2" s="178"/>
+      <c r="AF2" s="178"/>
+      <c r="AG2" s="178"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="178"/>
+      <c r="AJ2" s="178"/>
+      <c r="AK2" s="178"/>
+      <c r="AL2" s="178"/>
+      <c r="AM2" s="178"/>
+      <c r="AN2" s="178"/>
+      <c r="AO2" s="178"/>
+      <c r="AP2" s="178"/>
+      <c r="AQ2" s="187"/>
+      <c r="AR2" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="AS2" s="181"/>
-      <c r="AT2" s="181"/>
-      <c r="AU2" s="184"/>
-      <c r="AV2" s="189" t="s">
+      <c r="AS2" s="182"/>
+      <c r="AT2" s="182"/>
+      <c r="AU2" s="185"/>
+      <c r="AV2" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="AW2" s="181"/>
-      <c r="AX2" s="181"/>
-      <c r="AY2" s="181"/>
-      <c r="AZ2" s="181"/>
-      <c r="BA2" s="181"/>
-      <c r="BB2" s="137" t="s">
+      <c r="AW2" s="182"/>
+      <c r="AX2" s="182"/>
+      <c r="AY2" s="182"/>
+      <c r="AZ2" s="182"/>
+      <c r="BA2" s="182"/>
+      <c r="BB2" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="BC2" s="138"/>
-      <c r="BD2" s="138"/>
-      <c r="BE2" s="138"/>
-      <c r="BF2" s="138"/>
-      <c r="BG2" s="138"/>
-      <c r="BH2" s="138"/>
-      <c r="BI2" s="138"/>
-      <c r="BJ2" s="138"/>
-      <c r="BK2" s="138"/>
-      <c r="BL2" s="138"/>
-      <c r="BM2" s="139"/>
-      <c r="BN2" s="137" t="s">
+      <c r="BC2" s="139"/>
+      <c r="BD2" s="139"/>
+      <c r="BE2" s="139"/>
+      <c r="BF2" s="139"/>
+      <c r="BG2" s="139"/>
+      <c r="BH2" s="139"/>
+      <c r="BI2" s="139"/>
+      <c r="BJ2" s="139"/>
+      <c r="BK2" s="139"/>
+      <c r="BL2" s="139"/>
+      <c r="BM2" s="140"/>
+      <c r="BN2" s="138" t="s">
         <v>100</v>
       </c>
-      <c r="BO2" s="138"/>
-      <c r="BP2" s="138"/>
-      <c r="BQ2" s="138"/>
-      <c r="BR2" s="138"/>
-      <c r="BS2" s="138"/>
-      <c r="BT2" s="138"/>
-      <c r="BU2" s="138"/>
-      <c r="BV2" s="139"/>
-      <c r="BW2" s="173" t="s">
+      <c r="BO2" s="139"/>
+      <c r="BP2" s="139"/>
+      <c r="BQ2" s="139"/>
+      <c r="BR2" s="139"/>
+      <c r="BS2" s="139"/>
+      <c r="BT2" s="139"/>
+      <c r="BU2" s="139"/>
+      <c r="BV2" s="140"/>
+      <c r="BW2" s="174" t="s">
         <v>101</v>
       </c>
-      <c r="BX2" s="177" t="s">
+      <c r="BX2" s="178" t="s">
         <v>102</v>
       </c>
-      <c r="BY2" s="177"/>
-      <c r="BZ2" s="176" t="s">
+      <c r="BY2" s="178"/>
+      <c r="BZ2" s="177" t="s">
         <v>103</v>
       </c>
-      <c r="CA2" s="177" t="s">
+      <c r="CA2" s="178" t="s">
         <v>104</v>
       </c>
-      <c r="CB2" s="186"/>
-      <c r="CC2" s="137" t="s">
+      <c r="CB2" s="187"/>
+      <c r="CC2" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="CD2" s="138"/>
-      <c r="CE2" s="138"/>
-      <c r="CF2" s="138"/>
-      <c r="CG2" s="138"/>
-      <c r="CH2" s="138"/>
-      <c r="CI2" s="138"/>
-      <c r="CJ2" s="138"/>
-      <c r="CK2" s="138"/>
-      <c r="CL2" s="138"/>
-      <c r="CM2" s="138"/>
-      <c r="CN2" s="138"/>
-      <c r="CO2" s="139"/>
+      <c r="CD2" s="139"/>
+      <c r="CE2" s="139"/>
+      <c r="CF2" s="139"/>
+      <c r="CG2" s="139"/>
+      <c r="CH2" s="139"/>
+      <c r="CI2" s="139"/>
+      <c r="CJ2" s="139"/>
+      <c r="CK2" s="139"/>
+      <c r="CL2" s="139"/>
+      <c r="CM2" s="139"/>
+      <c r="CN2" s="139"/>
+      <c r="CO2" s="140"/>
       <c r="CP2" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="CQ2" s="133"/>
-      <c r="CR2" s="133"/>
+      <c r="CQ2" s="134"/>
+      <c r="CR2" s="134"/>
     </row>
     <row r="3" spans="1:113" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -5350,141 +5425,141 @@
       <c r="E3" s="52"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="193" t="s">
+      <c r="H3" s="194" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="196" t="s">
+      <c r="I3" s="197" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="196" t="s">
+      <c r="J3" s="197" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="193" t="s">
+      <c r="K3" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="193" t="s">
+      <c r="L3" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="196" t="s">
+      <c r="M3" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="190" t="s">
+      <c r="N3" s="191" t="s">
         <v>71</v>
       </c>
-      <c r="O3" s="196" t="s">
+      <c r="O3" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="138"/>
-      <c r="U3" s="138"/>
-      <c r="V3" s="159" t="s">
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="139"/>
+      <c r="T3" s="139"/>
+      <c r="U3" s="139"/>
+      <c r="V3" s="160" t="s">
         <v>92</v>
       </c>
-      <c r="W3" s="160"/>
-      <c r="X3" s="160"/>
-      <c r="Y3" s="160"/>
-      <c r="Z3" s="160"/>
-      <c r="AA3" s="160"/>
-      <c r="AB3" s="156" t="s">
+      <c r="W3" s="161"/>
+      <c r="X3" s="161"/>
+      <c r="Y3" s="161"/>
+      <c r="Z3" s="161"/>
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="157" t="s">
         <v>107</v>
       </c>
-      <c r="AC3" s="161"/>
-      <c r="AD3" s="141"/>
-      <c r="AE3" s="141"/>
-      <c r="AF3" s="141"/>
-      <c r="AG3" s="141"/>
-      <c r="AH3" s="141"/>
-      <c r="AI3" s="141"/>
-      <c r="AJ3" s="141"/>
-      <c r="AK3" s="199" t="s">
+      <c r="AC3" s="162"/>
+      <c r="AD3" s="142"/>
+      <c r="AE3" s="142"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="142"/>
+      <c r="AH3" s="142"/>
+      <c r="AI3" s="142"/>
+      <c r="AJ3" s="142"/>
+      <c r="AK3" s="200" t="s">
         <v>108</v>
       </c>
-      <c r="AL3" s="160"/>
-      <c r="AM3" s="160"/>
-      <c r="AN3" s="160"/>
-      <c r="AO3" s="160"/>
-      <c r="AP3" s="160"/>
-      <c r="AQ3" s="188"/>
-      <c r="AR3" s="159" t="s">
+      <c r="AL3" s="161"/>
+      <c r="AM3" s="161"/>
+      <c r="AN3" s="161"/>
+      <c r="AO3" s="161"/>
+      <c r="AP3" s="161"/>
+      <c r="AQ3" s="189"/>
+      <c r="AR3" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="AS3" s="160"/>
-      <c r="AT3" s="160"/>
-      <c r="AU3" s="156" t="s">
+      <c r="AS3" s="161"/>
+      <c r="AT3" s="161"/>
+      <c r="AU3" s="157" t="s">
         <v>148</v>
       </c>
-      <c r="AV3" s="196" t="s">
+      <c r="AV3" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="AW3" s="169"/>
-      <c r="AX3" s="169"/>
-      <c r="AY3" s="169" t="s">
+      <c r="AW3" s="170"/>
+      <c r="AX3" s="170"/>
+      <c r="AY3" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="AZ3" s="169" t="s">
+      <c r="AZ3" s="170" t="s">
         <v>149</v>
       </c>
-      <c r="BA3" s="171" t="s">
+      <c r="BA3" s="172" t="s">
         <v>48</v>
       </c>
-      <c r="BB3" s="179" t="s">
+      <c r="BB3" s="180" t="s">
         <v>181</v>
       </c>
-      <c r="BC3" s="180" t="s">
+      <c r="BC3" s="181" t="s">
         <v>182</v>
       </c>
-      <c r="BD3" s="178" t="s">
+      <c r="BD3" s="179" t="s">
         <v>116</v>
       </c>
-      <c r="BE3" s="160"/>
-      <c r="BF3" s="160"/>
-      <c r="BG3" s="160"/>
-      <c r="BH3" s="161"/>
-      <c r="BI3" s="178" t="s">
+      <c r="BE3" s="161"/>
+      <c r="BF3" s="161"/>
+      <c r="BG3" s="161"/>
+      <c r="BH3" s="162"/>
+      <c r="BI3" s="179" t="s">
         <v>118</v>
       </c>
-      <c r="BJ3" s="160"/>
-      <c r="BK3" s="160"/>
-      <c r="BL3" s="160"/>
-      <c r="BM3" s="188"/>
-      <c r="BN3" s="140" t="s">
+      <c r="BJ3" s="161"/>
+      <c r="BK3" s="161"/>
+      <c r="BL3" s="161"/>
+      <c r="BM3" s="189"/>
+      <c r="BN3" s="141" t="s">
         <v>70</v>
       </c>
-      <c r="BO3" s="141"/>
-      <c r="BP3" s="141"/>
-      <c r="BQ3" s="141"/>
-      <c r="BR3" s="141"/>
-      <c r="BS3" s="141"/>
-      <c r="BT3" s="141"/>
-      <c r="BU3" s="178"/>
-      <c r="BV3" s="142"/>
-      <c r="BW3" s="174"/>
-      <c r="BX3" s="185"/>
-      <c r="BY3" s="185"/>
-      <c r="BZ3" s="177"/>
-      <c r="CA3" s="185"/>
-      <c r="CB3" s="187"/>
-      <c r="CC3" s="140" t="s">
+      <c r="BO3" s="142"/>
+      <c r="BP3" s="142"/>
+      <c r="BQ3" s="142"/>
+      <c r="BR3" s="142"/>
+      <c r="BS3" s="142"/>
+      <c r="BT3" s="142"/>
+      <c r="BU3" s="179"/>
+      <c r="BV3" s="143"/>
+      <c r="BW3" s="175"/>
+      <c r="BX3" s="186"/>
+      <c r="BY3" s="186"/>
+      <c r="BZ3" s="178"/>
+      <c r="CA3" s="186"/>
+      <c r="CB3" s="188"/>
+      <c r="CC3" s="141" t="s">
         <v>106</v>
       </c>
-      <c r="CD3" s="141"/>
-      <c r="CE3" s="141"/>
-      <c r="CF3" s="141"/>
-      <c r="CG3" s="141"/>
-      <c r="CH3" s="141"/>
-      <c r="CI3" s="141"/>
-      <c r="CJ3" s="141"/>
-      <c r="CK3" s="141"/>
-      <c r="CL3" s="141"/>
-      <c r="CM3" s="141"/>
-      <c r="CN3" s="141"/>
-      <c r="CO3" s="142"/>
-      <c r="CP3" s="134"/>
-      <c r="CQ3" s="133"/>
-      <c r="CR3" s="133"/>
+      <c r="CD3" s="142"/>
+      <c r="CE3" s="142"/>
+      <c r="CF3" s="142"/>
+      <c r="CG3" s="142"/>
+      <c r="CH3" s="142"/>
+      <c r="CI3" s="142"/>
+      <c r="CJ3" s="142"/>
+      <c r="CK3" s="142"/>
+      <c r="CL3" s="142"/>
+      <c r="CM3" s="142"/>
+      <c r="CN3" s="142"/>
+      <c r="CO3" s="143"/>
+      <c r="CP3" s="135"/>
+      <c r="CQ3" s="134"/>
+      <c r="CR3" s="134"/>
     </row>
     <row r="4" spans="1:113" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -5498,29 +5573,29 @@
       </c>
       <c r="D4" s="17" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G6,")")</f>
-        <v>Note/20 ( sur 158)</v>
+        <v>Note/20 ( sur 156)</v>
       </c>
       <c r="E4" s="18" t="str">
         <f>CONCATENATE("Note/20 ( sur ",G7,")")</f>
-        <v>Note/20 ( sur 64)</v>
+        <v>Note/20 ( sur 63)</v>
       </c>
       <c r="F4" s="7" t="str">
         <f>CONCATENATE("Note/",G7)</f>
-        <v>Note/64</v>
+        <v>Note/63</v>
       </c>
       <c r="G4" s="7" t="str">
         <f>CONCATENATE("Note/",G6)</f>
-        <v>Note/158</v>
-      </c>
-      <c r="H4" s="194"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="194"/>
-      <c r="L4" s="194"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="191"/>
-      <c r="O4" s="166"/>
-      <c r="P4" s="167" t="s">
+        <v>Note/156</v>
+      </c>
+      <c r="H4" s="195"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="195"/>
+      <c r="L4" s="195"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="192"/>
+      <c r="O4" s="167"/>
+      <c r="P4" s="168" t="s">
         <v>131</v>
       </c>
       <c r="Q4" s="82" t="s">
@@ -5538,201 +5613,201 @@
       <c r="U4" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="V4" s="162" t="s">
+      <c r="V4" s="163" t="s">
         <v>144</v>
       </c>
-      <c r="W4" s="154" t="s">
+      <c r="W4" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="X4" s="154" t="s">
+      <c r="X4" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="Y4" s="145" t="s">
+      <c r="Y4" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="152" t="s">
+      <c r="Z4" s="153" t="s">
         <v>69</v>
       </c>
-      <c r="AA4" s="145" t="s">
+      <c r="AA4" s="146" t="s">
         <v>73</v>
       </c>
-      <c r="AB4" s="164" t="s">
+      <c r="AB4" s="165" t="s">
         <v>51</v>
       </c>
-      <c r="AC4" s="154" t="s">
+      <c r="AC4" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="AD4" s="154" t="s">
+      <c r="AD4" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="AE4" s="152" t="s">
+      <c r="AE4" s="153" t="s">
         <v>145</v>
       </c>
-      <c r="AF4" s="152" t="s">
+      <c r="AF4" s="153" t="s">
         <v>146</v>
       </c>
-      <c r="AG4" s="152" t="s">
+      <c r="AG4" s="153" t="s">
         <v>147</v>
       </c>
-      <c r="AH4" s="152" t="s">
+      <c r="AH4" s="153" t="s">
         <v>69</v>
       </c>
-      <c r="AI4" s="152" t="s">
+      <c r="AI4" s="153" t="s">
         <v>73</v>
       </c>
-      <c r="AJ4" s="145" t="s">
+      <c r="AJ4" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="AK4" s="164" t="s">
+      <c r="AK4" s="165" t="s">
         <v>51</v>
       </c>
-      <c r="AL4" s="154" t="s">
+      <c r="AL4" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="AM4" s="154" t="s">
+      <c r="AM4" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="AN4" s="152" t="s">
+      <c r="AN4" s="153" t="s">
         <v>146</v>
       </c>
-      <c r="AO4" s="152" t="s">
+      <c r="AO4" s="153" t="s">
         <v>69</v>
       </c>
-      <c r="AP4" s="145" t="s">
+      <c r="AP4" s="146" t="s">
         <v>73</v>
       </c>
-      <c r="AQ4" s="147" t="s">
+      <c r="AQ4" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="AR4" s="143" t="s">
+      <c r="AR4" s="144" t="s">
         <v>109</v>
       </c>
-      <c r="AS4" s="149" t="s">
+      <c r="AS4" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="AT4" s="150"/>
-      <c r="AU4" s="157"/>
-      <c r="AV4" s="166"/>
-      <c r="AW4" s="138"/>
-      <c r="AX4" s="138"/>
-      <c r="AY4" s="138"/>
-      <c r="AZ4" s="138"/>
-      <c r="BA4" s="139"/>
-      <c r="BB4" s="174"/>
-      <c r="BC4" s="177"/>
-      <c r="BD4" s="145" t="s">
+      <c r="AT4" s="151"/>
+      <c r="AU4" s="158"/>
+      <c r="AV4" s="167"/>
+      <c r="AW4" s="139"/>
+      <c r="AX4" s="139"/>
+      <c r="AY4" s="139"/>
+      <c r="AZ4" s="139"/>
+      <c r="BA4" s="140"/>
+      <c r="BB4" s="175"/>
+      <c r="BC4" s="178"/>
+      <c r="BD4" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="BE4" s="145" t="s">
+      <c r="BE4" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="BF4" s="145" t="s">
+      <c r="BF4" s="146" t="s">
         <v>117</v>
       </c>
-      <c r="BG4" s="145" t="s">
+      <c r="BG4" s="146" t="s">
         <v>183</v>
       </c>
-      <c r="BH4" s="145" t="s">
+      <c r="BH4" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="BI4" s="145" t="s">
+      <c r="BI4" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="BJ4" s="145" t="s">
+      <c r="BJ4" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="BK4" s="145" t="s">
+      <c r="BK4" s="146" t="s">
         <v>117</v>
       </c>
-      <c r="BL4" s="145" t="s">
+      <c r="BL4" s="146" t="s">
         <v>183</v>
       </c>
-      <c r="BM4" s="145" t="s">
+      <c r="BM4" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="BN4" s="143" t="s">
+      <c r="BN4" s="144" t="s">
         <v>119</v>
       </c>
-      <c r="BO4" s="145" t="s">
+      <c r="BO4" s="146" t="s">
         <v>126</v>
       </c>
-      <c r="BP4" s="145" t="s">
+      <c r="BP4" s="146" t="s">
         <v>120</v>
       </c>
-      <c r="BQ4" s="145" t="s">
+      <c r="BQ4" s="146" t="s">
         <v>121</v>
       </c>
-      <c r="BR4" s="145" t="s">
+      <c r="BR4" s="146" t="s">
         <v>122</v>
       </c>
-      <c r="BS4" s="145" t="s">
+      <c r="BS4" s="146" t="s">
         <v>123</v>
       </c>
-      <c r="BT4" s="145" t="s">
+      <c r="BT4" s="146" t="s">
         <v>124</v>
       </c>
-      <c r="BU4" s="145" t="s">
+      <c r="BU4" s="146" t="s">
         <v>111</v>
       </c>
-      <c r="BV4" s="147" t="s">
+      <c r="BV4" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="BW4" s="174"/>
-      <c r="BX4" s="145" t="s">
+      <c r="BW4" s="175"/>
+      <c r="BX4" s="146" t="s">
         <v>150</v>
       </c>
-      <c r="BY4" s="145" t="s">
+      <c r="BY4" s="146" t="s">
         <v>151</v>
       </c>
-      <c r="BZ4" s="177"/>
-      <c r="CA4" s="145" t="s">
+      <c r="BZ4" s="178"/>
+      <c r="CA4" s="146" t="s">
         <v>150</v>
       </c>
-      <c r="CB4" s="145" t="s">
+      <c r="CB4" s="146" t="s">
         <v>151</v>
       </c>
-      <c r="CC4" s="143" t="s">
+      <c r="CC4" s="144" t="s">
         <v>132</v>
       </c>
-      <c r="CD4" s="145" t="s">
+      <c r="CD4" s="146" t="s">
         <v>133</v>
       </c>
-      <c r="CE4" s="145" t="s">
+      <c r="CE4" s="146" t="s">
         <v>134</v>
       </c>
-      <c r="CF4" s="145" t="s">
+      <c r="CF4" s="146" t="s">
         <v>135</v>
       </c>
-      <c r="CG4" s="145" t="s">
+      <c r="CG4" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="CH4" s="145" t="s">
+      <c r="CH4" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="CI4" s="145" t="s">
+      <c r="CI4" s="146" t="s">
         <v>138</v>
       </c>
-      <c r="CJ4" s="145" t="s">
+      <c r="CJ4" s="146" t="s">
         <v>128</v>
       </c>
-      <c r="CK4" s="145" t="s">
+      <c r="CK4" s="146" t="s">
         <v>139</v>
       </c>
-      <c r="CL4" s="145" t="s">
+      <c r="CL4" s="146" t="s">
         <v>140</v>
       </c>
-      <c r="CM4" s="145" t="s">
+      <c r="CM4" s="146" t="s">
         <v>141</v>
       </c>
-      <c r="CN4" s="145" t="s">
+      <c r="CN4" s="146" t="s">
         <v>142</v>
       </c>
-      <c r="CO4" s="147" t="s">
+      <c r="CO4" s="148" t="s">
         <v>143</v>
       </c>
-      <c r="CP4" s="135"/>
-      <c r="CQ4" s="133"/>
-      <c r="CR4" s="133"/>
+      <c r="CP4" s="136"/>
+      <c r="CQ4" s="134"/>
+      <c r="CR4" s="134"/>
     </row>
     <row r="5" spans="1:113" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -5742,15 +5817,15 @@
       <c r="E5" s="18"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="195"/>
-      <c r="I5" s="197"/>
-      <c r="J5" s="197"/>
-      <c r="K5" s="195"/>
-      <c r="L5" s="195"/>
-      <c r="M5" s="197"/>
-      <c r="N5" s="192"/>
-      <c r="O5" s="189"/>
-      <c r="P5" s="168"/>
+      <c r="H5" s="196"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="198"/>
+      <c r="K5" s="196"/>
+      <c r="L5" s="196"/>
+      <c r="M5" s="198"/>
+      <c r="N5" s="193"/>
+      <c r="O5" s="190"/>
+      <c r="P5" s="169"/>
       <c r="Q5" s="95" t="s">
         <v>127</v>
       </c>
@@ -5766,36 +5841,36 @@
       <c r="U5" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="V5" s="163"/>
-      <c r="W5" s="155"/>
-      <c r="X5" s="155"/>
-      <c r="Y5" s="146"/>
-      <c r="Z5" s="153"/>
-      <c r="AA5" s="146"/>
-      <c r="AB5" s="165"/>
-      <c r="AC5" s="155"/>
-      <c r="AD5" s="155"/>
-      <c r="AE5" s="153"/>
-      <c r="AF5" s="153"/>
-      <c r="AG5" s="153"/>
-      <c r="AH5" s="153"/>
-      <c r="AI5" s="153"/>
-      <c r="AJ5" s="146"/>
-      <c r="AK5" s="165"/>
-      <c r="AL5" s="155"/>
-      <c r="AM5" s="155"/>
-      <c r="AN5" s="153"/>
-      <c r="AO5" s="153"/>
-      <c r="AP5" s="146"/>
-      <c r="AQ5" s="148"/>
-      <c r="AR5" s="144"/>
+      <c r="V5" s="164"/>
+      <c r="W5" s="156"/>
+      <c r="X5" s="156"/>
+      <c r="Y5" s="147"/>
+      <c r="Z5" s="154"/>
+      <c r="AA5" s="147"/>
+      <c r="AB5" s="166"/>
+      <c r="AC5" s="156"/>
+      <c r="AD5" s="156"/>
+      <c r="AE5" s="154"/>
+      <c r="AF5" s="154"/>
+      <c r="AG5" s="154"/>
+      <c r="AH5" s="154"/>
+      <c r="AI5" s="154"/>
+      <c r="AJ5" s="147"/>
+      <c r="AK5" s="166"/>
+      <c r="AL5" s="156"/>
+      <c r="AM5" s="156"/>
+      <c r="AN5" s="154"/>
+      <c r="AO5" s="154"/>
+      <c r="AP5" s="147"/>
+      <c r="AQ5" s="149"/>
+      <c r="AR5" s="145"/>
       <c r="AS5" s="96" t="s">
         <v>93</v>
       </c>
       <c r="AT5" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="AU5" s="158"/>
+      <c r="AU5" s="159"/>
       <c r="AV5" s="104" t="s">
         <v>95</v>
       </c>
@@ -5805,52 +5880,52 @@
       <c r="AX5" s="105" t="s">
         <v>113</v>
       </c>
-      <c r="AY5" s="170"/>
-      <c r="AZ5" s="170"/>
-      <c r="BA5" s="172"/>
-      <c r="BB5" s="175"/>
-      <c r="BC5" s="153"/>
-      <c r="BD5" s="146"/>
-      <c r="BE5" s="146"/>
-      <c r="BF5" s="146"/>
-      <c r="BG5" s="146"/>
-      <c r="BH5" s="146"/>
-      <c r="BI5" s="146"/>
-      <c r="BJ5" s="146"/>
-      <c r="BK5" s="146"/>
-      <c r="BL5" s="146"/>
-      <c r="BM5" s="146"/>
-      <c r="BN5" s="144"/>
-      <c r="BO5" s="146"/>
-      <c r="BP5" s="146"/>
-      <c r="BQ5" s="146"/>
-      <c r="BR5" s="146"/>
-      <c r="BS5" s="146"/>
-      <c r="BT5" s="146"/>
-      <c r="BU5" s="146"/>
-      <c r="BV5" s="148"/>
-      <c r="BW5" s="175"/>
-      <c r="BX5" s="146"/>
-      <c r="BY5" s="146"/>
-      <c r="BZ5" s="153"/>
-      <c r="CA5" s="146"/>
-      <c r="CB5" s="146"/>
-      <c r="CC5" s="144"/>
-      <c r="CD5" s="146"/>
-      <c r="CE5" s="146"/>
-      <c r="CF5" s="146"/>
-      <c r="CG5" s="146"/>
-      <c r="CH5" s="146"/>
-      <c r="CI5" s="146"/>
-      <c r="CJ5" s="146"/>
-      <c r="CK5" s="146"/>
-      <c r="CL5" s="146"/>
-      <c r="CM5" s="146"/>
-      <c r="CN5" s="146"/>
-      <c r="CO5" s="148"/>
-      <c r="CP5" s="136"/>
-      <c r="CQ5" s="133"/>
-      <c r="CR5" s="133"/>
+      <c r="AY5" s="171"/>
+      <c r="AZ5" s="171"/>
+      <c r="BA5" s="173"/>
+      <c r="BB5" s="176"/>
+      <c r="BC5" s="154"/>
+      <c r="BD5" s="147"/>
+      <c r="BE5" s="147"/>
+      <c r="BF5" s="147"/>
+      <c r="BG5" s="147"/>
+      <c r="BH5" s="147"/>
+      <c r="BI5" s="147"/>
+      <c r="BJ5" s="147"/>
+      <c r="BK5" s="147"/>
+      <c r="BL5" s="147"/>
+      <c r="BM5" s="147"/>
+      <c r="BN5" s="145"/>
+      <c r="BO5" s="147"/>
+      <c r="BP5" s="147"/>
+      <c r="BQ5" s="147"/>
+      <c r="BR5" s="147"/>
+      <c r="BS5" s="147"/>
+      <c r="BT5" s="147"/>
+      <c r="BU5" s="147"/>
+      <c r="BV5" s="149"/>
+      <c r="BW5" s="176"/>
+      <c r="BX5" s="147"/>
+      <c r="BY5" s="147"/>
+      <c r="BZ5" s="154"/>
+      <c r="CA5" s="147"/>
+      <c r="CB5" s="147"/>
+      <c r="CC5" s="145"/>
+      <c r="CD5" s="147"/>
+      <c r="CE5" s="147"/>
+      <c r="CF5" s="147"/>
+      <c r="CG5" s="147"/>
+      <c r="CH5" s="147"/>
+      <c r="CI5" s="147"/>
+      <c r="CJ5" s="147"/>
+      <c r="CK5" s="147"/>
+      <c r="CL5" s="147"/>
+      <c r="CM5" s="147"/>
+      <c r="CN5" s="147"/>
+      <c r="CO5" s="149"/>
+      <c r="CP5" s="137"/>
+      <c r="CQ5" s="134"/>
+      <c r="CR5" s="134"/>
     </row>
     <row r="6" spans="1:113" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -5861,7 +5936,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7">
         <f>SUM(H6:CP6)</f>
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H6" s="60">
         <v>0</v>
@@ -5873,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6" s="63">
         <v>0</v>
@@ -6179,7 +6254,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="7">
         <f>SUM(H7:CP7)</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" s="61">
         <v>1</v>
@@ -6191,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="58">
         <v>0</v>
@@ -6465,114 +6540,114 @@
       <c r="M8" s="9"/>
       <c r="N8" s="51"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="166">
+      <c r="P8" s="167">
         <f>SUM(P6:U6)</f>
         <v>21</v>
       </c>
-      <c r="Q8" s="138"/>
-      <c r="R8" s="138"/>
-      <c r="S8" s="138"/>
-      <c r="T8" s="138"/>
-      <c r="U8" s="138"/>
-      <c r="V8" s="149">
+      <c r="Q8" s="139"/>
+      <c r="R8" s="139"/>
+      <c r="S8" s="139"/>
+      <c r="T8" s="139"/>
+      <c r="U8" s="139"/>
+      <c r="V8" s="150">
         <f>SUM(V6:AA6)</f>
         <v>0</v>
       </c>
-      <c r="W8" s="150"/>
-      <c r="X8" s="150"/>
-      <c r="Y8" s="150"/>
-      <c r="Z8" s="150"/>
-      <c r="AA8" s="150"/>
-      <c r="AB8" s="149">
+      <c r="W8" s="151"/>
+      <c r="X8" s="151"/>
+      <c r="Y8" s="151"/>
+      <c r="Z8" s="151"/>
+      <c r="AA8" s="151"/>
+      <c r="AB8" s="150">
         <f>SUM(AB6:AJ6)</f>
         <v>31</v>
       </c>
-      <c r="AC8" s="150"/>
-      <c r="AD8" s="150"/>
-      <c r="AE8" s="150"/>
-      <c r="AF8" s="150"/>
-      <c r="AG8" s="150"/>
-      <c r="AH8" s="150"/>
-      <c r="AI8" s="150"/>
-      <c r="AJ8" s="150"/>
-      <c r="AK8" s="149">
+      <c r="AC8" s="151"/>
+      <c r="AD8" s="151"/>
+      <c r="AE8" s="151"/>
+      <c r="AF8" s="151"/>
+      <c r="AG8" s="151"/>
+      <c r="AH8" s="151"/>
+      <c r="AI8" s="151"/>
+      <c r="AJ8" s="151"/>
+      <c r="AK8" s="150">
         <f>SUM(AK6:AQ6)</f>
         <v>14</v>
       </c>
-      <c r="AL8" s="150"/>
-      <c r="AM8" s="150"/>
-      <c r="AN8" s="150"/>
-      <c r="AO8" s="150"/>
-      <c r="AP8" s="150"/>
-      <c r="AQ8" s="151"/>
-      <c r="AR8" s="149">
+      <c r="AL8" s="151"/>
+      <c r="AM8" s="151"/>
+      <c r="AN8" s="151"/>
+      <c r="AO8" s="151"/>
+      <c r="AP8" s="151"/>
+      <c r="AQ8" s="152"/>
+      <c r="AR8" s="150">
         <f>SUM(AR6:AT6)</f>
         <v>3</v>
       </c>
-      <c r="AS8" s="150"/>
-      <c r="AT8" s="150"/>
+      <c r="AS8" s="151"/>
+      <c r="AT8" s="151"/>
       <c r="AU8" s="103"/>
-      <c r="AV8" s="149">
+      <c r="AV8" s="150">
         <f>SUM(AV6:BA6)</f>
         <v>13</v>
       </c>
-      <c r="AW8" s="150"/>
-      <c r="AX8" s="150"/>
-      <c r="AY8" s="150"/>
-      <c r="AZ8" s="150"/>
-      <c r="BA8" s="150"/>
-      <c r="BB8" s="149">
+      <c r="AW8" s="151"/>
+      <c r="AX8" s="151"/>
+      <c r="AY8" s="151"/>
+      <c r="AZ8" s="151"/>
+      <c r="BA8" s="151"/>
+      <c r="BB8" s="150">
         <f>SUM(BB6:BM6)</f>
         <v>27</v>
       </c>
-      <c r="BC8" s="150"/>
-      <c r="BD8" s="150"/>
-      <c r="BE8" s="150"/>
-      <c r="BF8" s="150"/>
-      <c r="BG8" s="150"/>
-      <c r="BH8" s="150"/>
-      <c r="BI8" s="150"/>
-      <c r="BJ8" s="150"/>
-      <c r="BK8" s="150"/>
-      <c r="BL8" s="150"/>
-      <c r="BM8" s="150"/>
-      <c r="BN8" s="149">
+      <c r="BC8" s="151"/>
+      <c r="BD8" s="151"/>
+      <c r="BE8" s="151"/>
+      <c r="BF8" s="151"/>
+      <c r="BG8" s="151"/>
+      <c r="BH8" s="151"/>
+      <c r="BI8" s="151"/>
+      <c r="BJ8" s="151"/>
+      <c r="BK8" s="151"/>
+      <c r="BL8" s="151"/>
+      <c r="BM8" s="151"/>
+      <c r="BN8" s="150">
         <f>SUM(BN6:BV6)</f>
         <v>26</v>
       </c>
-      <c r="BO8" s="150"/>
-      <c r="BP8" s="150"/>
-      <c r="BQ8" s="150"/>
-      <c r="BR8" s="150"/>
-      <c r="BS8" s="150"/>
-      <c r="BT8" s="150"/>
-      <c r="BU8" s="150"/>
-      <c r="BV8" s="150"/>
-      <c r="BW8" s="149">
+      <c r="BO8" s="151"/>
+      <c r="BP8" s="151"/>
+      <c r="BQ8" s="151"/>
+      <c r="BR8" s="151"/>
+      <c r="BS8" s="151"/>
+      <c r="BT8" s="151"/>
+      <c r="BU8" s="151"/>
+      <c r="BV8" s="151"/>
+      <c r="BW8" s="150">
         <f>SUM(BW6:CB6)</f>
         <v>0</v>
       </c>
-      <c r="BX8" s="150"/>
-      <c r="BY8" s="150"/>
-      <c r="BZ8" s="150"/>
-      <c r="CA8" s="150"/>
-      <c r="CB8" s="150"/>
-      <c r="CC8" s="149">
+      <c r="BX8" s="151"/>
+      <c r="BY8" s="151"/>
+      <c r="BZ8" s="151"/>
+      <c r="CA8" s="151"/>
+      <c r="CB8" s="151"/>
+      <c r="CC8" s="150">
         <f>SUM(CC6:CO6)</f>
         <v>0</v>
       </c>
-      <c r="CD8" s="150"/>
-      <c r="CE8" s="150"/>
-      <c r="CF8" s="150"/>
-      <c r="CG8" s="150"/>
-      <c r="CH8" s="150"/>
-      <c r="CI8" s="150"/>
-      <c r="CJ8" s="150"/>
-      <c r="CK8" s="150"/>
-      <c r="CL8" s="150"/>
-      <c r="CM8" s="150"/>
-      <c r="CN8" s="150"/>
-      <c r="CO8" s="150"/>
+      <c r="CD8" s="151"/>
+      <c r="CE8" s="151"/>
+      <c r="CF8" s="151"/>
+      <c r="CG8" s="151"/>
+      <c r="CH8" s="151"/>
+      <c r="CI8" s="151"/>
+      <c r="CJ8" s="151"/>
+      <c r="CK8" s="151"/>
+      <c r="CL8" s="151"/>
+      <c r="CM8" s="151"/>
+      <c r="CN8" s="151"/>
+      <c r="CO8" s="151"/>
       <c r="CP8" s="2">
         <f>CP6</f>
         <v>0</v>
@@ -6588,11 +6663,11 @@
       <c r="C9" s="4"/>
       <c r="D9" s="110">
         <f t="shared" ref="D9:D25" si="0">G9/$G$6*20+CR9*$CR$6</f>
-        <v>18.860759493670887</v>
+        <v>19.102564102564102</v>
       </c>
       <c r="E9" s="22">
         <f t="shared" ref="E9:E25" si="1">F9/$G$7*20+CR9*$CR$7</f>
-        <v>45.46875</v>
+        <v>46.19047619047619</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" ref="F9:F24" si="2">G50</f>
@@ -6612,7 +6687,7 @@
         <v>99</v>
       </c>
       <c r="K9" s="9">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L9" s="9">
         <v>99</v>
@@ -6852,19 +6927,19 @@
       <c r="C10" s="88"/>
       <c r="D10" s="110">
         <f t="shared" si="0"/>
-        <v>12.303797468354432</v>
+        <v>14.320512820512821</v>
       </c>
       <c r="E10" s="22">
         <f t="shared" si="1"/>
-        <v>41.765625</v>
+        <v>43.031746031746039</v>
       </c>
       <c r="F10" s="89">
         <f t="shared" si="2"/>
-        <v>133.65</v>
+        <v>135.55000000000001</v>
       </c>
       <c r="G10" s="89">
         <f t="shared" si="3"/>
-        <v>97.2</v>
+        <v>111.7</v>
       </c>
       <c r="H10" s="112">
         <v>99</v>
@@ -6875,15 +6950,21 @@
       <c r="J10" s="90">
         <v>99</v>
       </c>
-      <c r="K10" s="90"/>
+      <c r="K10" s="90">
+        <v>99</v>
+      </c>
       <c r="L10" s="90">
         <v>99</v>
       </c>
       <c r="M10" s="90">
         <v>0.5</v>
       </c>
-      <c r="N10" s="91"/>
-      <c r="O10" s="90"/>
+      <c r="N10" s="91">
+        <v>0.9</v>
+      </c>
+      <c r="O10" s="90">
+        <v>1</v>
+      </c>
       <c r="P10" s="90">
         <v>1</v>
       </c>
@@ -7114,7 +7195,7 @@
       </c>
       <c r="E11" s="22">
         <f t="shared" si="1"/>
-        <v>30.9375</v>
+        <v>31.428571428571427</v>
       </c>
       <c r="F11" s="15">
         <f t="shared" si="2"/>
@@ -7124,139 +7205,141 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H11" s="127">
-        <v>99</v>
-      </c>
-      <c r="I11" s="127">
-        <v>99</v>
-      </c>
-      <c r="J11" s="127">
-        <v>99</v>
-      </c>
-      <c r="K11" s="127"/>
-      <c r="L11" s="127">
-        <v>99</v>
-      </c>
-      <c r="M11" s="127"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="127"/>
-      <c r="P11" s="127"/>
-      <c r="Q11" s="127"/>
-      <c r="R11" s="127"/>
-      <c r="S11" s="127"/>
-      <c r="T11" s="127"/>
-      <c r="U11" s="127"/>
-      <c r="V11" s="127">
-        <v>99</v>
-      </c>
-      <c r="W11" s="129">
-        <v>99</v>
-      </c>
-      <c r="X11" s="129">
-        <v>99</v>
-      </c>
-      <c r="Y11" s="130">
-        <v>99</v>
-      </c>
-      <c r="Z11" s="130">
-        <v>99</v>
-      </c>
-      <c r="AA11" s="130">
-        <v>99</v>
-      </c>
-      <c r="AB11" s="127"/>
-      <c r="AC11" s="129"/>
-      <c r="AD11" s="130"/>
-      <c r="AE11" s="130"/>
-      <c r="AF11" s="130"/>
-      <c r="AG11" s="130"/>
-      <c r="AH11" s="130"/>
-      <c r="AI11" s="130"/>
-      <c r="AJ11" s="130">
-        <v>99</v>
-      </c>
-      <c r="AK11" s="127"/>
-      <c r="AL11" s="129"/>
-      <c r="AM11" s="130"/>
-      <c r="AN11" s="130"/>
-      <c r="AO11" s="130"/>
-      <c r="AP11" s="130"/>
-      <c r="AQ11" s="130">
-        <v>99</v>
-      </c>
-      <c r="AR11" s="127"/>
-      <c r="AS11" s="127"/>
-      <c r="AT11" s="130">
-        <v>99</v>
-      </c>
-      <c r="AU11" s="127"/>
-      <c r="AV11" s="127"/>
-      <c r="AW11" s="127"/>
-      <c r="AX11" s="127"/>
-      <c r="AY11" s="127"/>
-      <c r="AZ11" s="127"/>
-      <c r="BA11" s="127"/>
-      <c r="BB11" s="127"/>
-      <c r="BC11" s="127"/>
-      <c r="BD11" s="127"/>
-      <c r="BE11" s="127">
-        <v>99</v>
-      </c>
-      <c r="BF11" s="127"/>
-      <c r="BG11" s="127"/>
-      <c r="BH11" s="127"/>
-      <c r="BI11" s="127"/>
-      <c r="BJ11" s="127">
-        <v>99</v>
-      </c>
-      <c r="BK11" s="127"/>
-      <c r="BL11" s="127"/>
-      <c r="BM11" s="127"/>
-      <c r="BN11" s="127"/>
-      <c r="BO11" s="127"/>
-      <c r="BP11" s="127"/>
-      <c r="BQ11" s="127"/>
-      <c r="BR11" s="127"/>
-      <c r="BS11" s="127"/>
-      <c r="BT11" s="127"/>
-      <c r="BU11" s="127">
-        <v>99</v>
-      </c>
-      <c r="BV11" s="127"/>
-      <c r="BW11" s="127">
-        <v>99</v>
-      </c>
-      <c r="BX11" s="127">
-        <v>99</v>
-      </c>
-      <c r="BY11" s="127">
-        <v>99</v>
-      </c>
-      <c r="BZ11" s="127">
-        <v>99</v>
-      </c>
-      <c r="CA11" s="127">
-        <v>99</v>
-      </c>
-      <c r="CB11" s="127">
-        <v>99</v>
-      </c>
-      <c r="CC11" s="127"/>
-      <c r="CD11" s="127"/>
-      <c r="CE11" s="127"/>
-      <c r="CF11" s="127"/>
-      <c r="CG11" s="127"/>
-      <c r="CH11" s="127"/>
-      <c r="CI11" s="127"/>
-      <c r="CJ11" s="127"/>
-      <c r="CK11" s="127"/>
-      <c r="CL11" s="127"/>
-      <c r="CM11" s="127"/>
-      <c r="CN11" s="127"/>
-      <c r="CO11" s="127"/>
-      <c r="CP11" s="127"/>
-      <c r="CQ11" s="131"/>
-      <c r="CR11" s="131">
+      <c r="H11" s="128">
+        <v>99</v>
+      </c>
+      <c r="I11" s="128">
+        <v>99</v>
+      </c>
+      <c r="J11" s="128">
+        <v>99</v>
+      </c>
+      <c r="K11" s="128">
+        <v>99</v>
+      </c>
+      <c r="L11" s="128">
+        <v>99</v>
+      </c>
+      <c r="M11" s="128"/>
+      <c r="N11" s="129"/>
+      <c r="O11" s="128"/>
+      <c r="P11" s="128"/>
+      <c r="Q11" s="128"/>
+      <c r="R11" s="128"/>
+      <c r="S11" s="128"/>
+      <c r="T11" s="128"/>
+      <c r="U11" s="128"/>
+      <c r="V11" s="128">
+        <v>99</v>
+      </c>
+      <c r="W11" s="130">
+        <v>99</v>
+      </c>
+      <c r="X11" s="130">
+        <v>99</v>
+      </c>
+      <c r="Y11" s="131">
+        <v>99</v>
+      </c>
+      <c r="Z11" s="131">
+        <v>99</v>
+      </c>
+      <c r="AA11" s="131">
+        <v>99</v>
+      </c>
+      <c r="AB11" s="128"/>
+      <c r="AC11" s="130"/>
+      <c r="AD11" s="131"/>
+      <c r="AE11" s="131"/>
+      <c r="AF11" s="131"/>
+      <c r="AG11" s="131"/>
+      <c r="AH11" s="131"/>
+      <c r="AI11" s="131"/>
+      <c r="AJ11" s="131">
+        <v>99</v>
+      </c>
+      <c r="AK11" s="128"/>
+      <c r="AL11" s="130"/>
+      <c r="AM11" s="131"/>
+      <c r="AN11" s="131"/>
+      <c r="AO11" s="131"/>
+      <c r="AP11" s="131"/>
+      <c r="AQ11" s="131">
+        <v>99</v>
+      </c>
+      <c r="AR11" s="128"/>
+      <c r="AS11" s="128"/>
+      <c r="AT11" s="131">
+        <v>99</v>
+      </c>
+      <c r="AU11" s="128"/>
+      <c r="AV11" s="128"/>
+      <c r="AW11" s="128"/>
+      <c r="AX11" s="128"/>
+      <c r="AY11" s="128"/>
+      <c r="AZ11" s="128"/>
+      <c r="BA11" s="128"/>
+      <c r="BB11" s="128"/>
+      <c r="BC11" s="128"/>
+      <c r="BD11" s="128"/>
+      <c r="BE11" s="128">
+        <v>99</v>
+      </c>
+      <c r="BF11" s="128"/>
+      <c r="BG11" s="128"/>
+      <c r="BH11" s="128"/>
+      <c r="BI11" s="128"/>
+      <c r="BJ11" s="128">
+        <v>99</v>
+      </c>
+      <c r="BK11" s="128"/>
+      <c r="BL11" s="128"/>
+      <c r="BM11" s="128"/>
+      <c r="BN11" s="128"/>
+      <c r="BO11" s="128"/>
+      <c r="BP11" s="128"/>
+      <c r="BQ11" s="128"/>
+      <c r="BR11" s="128"/>
+      <c r="BS11" s="128"/>
+      <c r="BT11" s="128"/>
+      <c r="BU11" s="128">
+        <v>99</v>
+      </c>
+      <c r="BV11" s="128"/>
+      <c r="BW11" s="128">
+        <v>99</v>
+      </c>
+      <c r="BX11" s="128">
+        <v>99</v>
+      </c>
+      <c r="BY11" s="128">
+        <v>99</v>
+      </c>
+      <c r="BZ11" s="128">
+        <v>99</v>
+      </c>
+      <c r="CA11" s="128">
+        <v>99</v>
+      </c>
+      <c r="CB11" s="128">
+        <v>99</v>
+      </c>
+      <c r="CC11" s="128"/>
+      <c r="CD11" s="128"/>
+      <c r="CE11" s="128"/>
+      <c r="CF11" s="128"/>
+      <c r="CG11" s="128"/>
+      <c r="CH11" s="128"/>
+      <c r="CI11" s="128"/>
+      <c r="CJ11" s="128"/>
+      <c r="CK11" s="128"/>
+      <c r="CL11" s="128"/>
+      <c r="CM11" s="128"/>
+      <c r="CN11" s="128"/>
+      <c r="CO11" s="128"/>
+      <c r="CP11" s="128"/>
+      <c r="CQ11" s="132"/>
+      <c r="CR11" s="132">
         <v>0</v>
       </c>
     </row>
@@ -7270,19 +7353,19 @@
       <c r="C12" s="5"/>
       <c r="D12" s="110">
         <f t="shared" si="0"/>
-        <v>16.740506329113924</v>
+        <v>18.878205128205128</v>
       </c>
       <c r="E12" s="22">
         <f t="shared" si="1"/>
-        <v>44.8828125</v>
+        <v>46.230158730158728</v>
       </c>
       <c r="F12" s="15">
         <f t="shared" si="2"/>
-        <v>143.625</v>
+        <v>145.625</v>
       </c>
       <c r="G12" s="15">
         <f t="shared" si="3"/>
-        <v>132.25</v>
+        <v>147.25</v>
       </c>
       <c r="H12" s="112">
         <v>99</v>
@@ -7293,15 +7376,21 @@
       <c r="J12" s="70">
         <v>99</v>
       </c>
-      <c r="K12" s="9"/>
+      <c r="K12" s="9">
+        <v>99</v>
+      </c>
       <c r="L12" s="70">
         <v>99</v>
       </c>
       <c r="M12" s="9">
         <v>1</v>
       </c>
-      <c r="N12" s="53"/>
-      <c r="O12" s="8"/>
+      <c r="N12" s="53">
+        <v>1</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1</v>
+      </c>
       <c r="P12" s="71">
         <v>1</v>
       </c>
@@ -7392,7 +7481,7 @@
       <c r="AS12" s="81">
         <v>1</v>
       </c>
-      <c r="AT12" s="130">
+      <c r="AT12" s="131">
         <v>99</v>
       </c>
       <c r="AU12" s="70">
@@ -7528,19 +7617,19 @@
       <c r="C13" s="88"/>
       <c r="D13" s="110">
         <f t="shared" si="0"/>
-        <v>13.88607594936709</v>
+        <v>15.858974358974361</v>
       </c>
       <c r="E13" s="22">
         <f t="shared" si="1"/>
-        <v>43.328125</v>
+        <v>44.61904761904762</v>
       </c>
       <c r="F13" s="89">
         <f t="shared" si="2"/>
-        <v>138.65</v>
+        <v>140.55000000000001</v>
       </c>
       <c r="G13" s="89">
         <f t="shared" si="3"/>
-        <v>109.7</v>
+        <v>123.7</v>
       </c>
       <c r="H13" s="112">
         <v>99</v>
@@ -7551,15 +7640,21 @@
       <c r="J13" s="90">
         <v>99</v>
       </c>
-      <c r="K13" s="90"/>
+      <c r="K13" s="90">
+        <v>99</v>
+      </c>
       <c r="L13" s="90">
         <v>99</v>
       </c>
       <c r="M13" s="90">
         <v>1</v>
       </c>
-      <c r="N13" s="108"/>
-      <c r="O13" s="90"/>
+      <c r="N13" s="108">
+        <v>1</v>
+      </c>
+      <c r="O13" s="90">
+        <v>0.9</v>
+      </c>
       <c r="P13" s="90">
         <v>1</v>
       </c>
@@ -7623,7 +7718,7 @@
       <c r="AJ13" s="93">
         <v>99</v>
       </c>
-      <c r="AK13" s="126">
+      <c r="AK13" s="127">
         <v>0.75</v>
       </c>
       <c r="AL13" s="92">
@@ -7786,19 +7881,19 @@
       <c r="C14" s="4"/>
       <c r="D14" s="110">
         <f t="shared" si="0"/>
-        <v>16.708860759493671</v>
+        <v>18.717948717948719</v>
       </c>
       <c r="E14" s="22">
         <f t="shared" si="1"/>
-        <v>44.296875</v>
+        <v>45.603174603174601</v>
       </c>
       <c r="F14" s="15">
         <f t="shared" si="2"/>
-        <v>141.75</v>
+        <v>143.65</v>
       </c>
       <c r="G14" s="15">
         <f t="shared" si="3"/>
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H14" s="112">
         <v>99</v>
@@ -7809,15 +7904,21 @@
       <c r="J14" s="70">
         <v>99</v>
       </c>
-      <c r="K14" s="9"/>
+      <c r="K14" s="9">
+        <v>99</v>
+      </c>
       <c r="L14" s="70">
         <v>99</v>
       </c>
       <c r="M14" s="9">
         <v>1</v>
       </c>
-      <c r="N14" s="51"/>
-      <c r="O14" s="9"/>
+      <c r="N14" s="51">
+        <v>1</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0.9</v>
+      </c>
       <c r="P14" s="70">
         <v>1</v>
       </c>
@@ -8044,19 +8145,19 @@
       <c r="C15" s="4"/>
       <c r="D15" s="110">
         <f t="shared" si="0"/>
-        <v>12.063291139240507</v>
+        <v>13.692307692307693</v>
       </c>
       <c r="E15" s="22">
         <f t="shared" si="1"/>
-        <v>42.3125</v>
+        <v>43.476190476190474</v>
       </c>
       <c r="F15" s="15">
         <f t="shared" si="2"/>
-        <v>135.4</v>
+        <v>136.94999999999999</v>
       </c>
       <c r="G15" s="15">
         <f t="shared" si="3"/>
-        <v>95.3</v>
+        <v>106.8</v>
       </c>
       <c r="H15" s="112">
         <v>99</v>
@@ -8067,15 +8168,21 @@
       <c r="J15" s="70">
         <v>99</v>
       </c>
-      <c r="K15" s="9"/>
+      <c r="K15" s="9">
+        <v>99</v>
+      </c>
       <c r="L15" s="70">
         <v>99</v>
       </c>
       <c r="M15" s="9">
         <v>1</v>
       </c>
-      <c r="N15" s="100"/>
-      <c r="O15" s="109"/>
+      <c r="N15" s="100">
+        <v>0.8</v>
+      </c>
+      <c r="O15" s="109">
+        <v>0.75</v>
+      </c>
       <c r="P15" s="70">
         <v>1</v>
       </c>
@@ -8306,7 +8413,7 @@
       </c>
       <c r="E16" s="22">
         <f t="shared" si="1"/>
-        <v>30.9375</v>
+        <v>31.428571428571427</v>
       </c>
       <c r="F16" s="15">
         <f t="shared" si="2"/>
@@ -8316,139 +8423,141 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H16" s="127">
-        <v>99</v>
-      </c>
-      <c r="I16" s="127">
-        <v>99</v>
-      </c>
-      <c r="J16" s="127">
-        <v>99</v>
-      </c>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127">
-        <v>99</v>
-      </c>
-      <c r="M16" s="127"/>
-      <c r="N16" s="128"/>
-      <c r="O16" s="132"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127">
-        <v>99</v>
-      </c>
-      <c r="W16" s="129">
-        <v>99</v>
-      </c>
-      <c r="X16" s="129">
-        <v>99</v>
-      </c>
-      <c r="Y16" s="130">
-        <v>99</v>
-      </c>
-      <c r="Z16" s="130">
-        <v>99</v>
-      </c>
-      <c r="AA16" s="130">
-        <v>99</v>
-      </c>
-      <c r="AB16" s="127"/>
-      <c r="AC16" s="129"/>
-      <c r="AD16" s="130"/>
-      <c r="AE16" s="130"/>
-      <c r="AF16" s="130"/>
-      <c r="AG16" s="130"/>
-      <c r="AH16" s="130"/>
-      <c r="AI16" s="130"/>
-      <c r="AJ16" s="130">
-        <v>99</v>
-      </c>
-      <c r="AK16" s="127"/>
-      <c r="AL16" s="129"/>
-      <c r="AM16" s="130"/>
-      <c r="AN16" s="130"/>
-      <c r="AO16" s="130"/>
-      <c r="AP16" s="130"/>
-      <c r="AQ16" s="130">
-        <v>99</v>
-      </c>
-      <c r="AR16" s="127"/>
-      <c r="AS16" s="127"/>
+      <c r="H16" s="128">
+        <v>99</v>
+      </c>
+      <c r="I16" s="128">
+        <v>99</v>
+      </c>
+      <c r="J16" s="128">
+        <v>99</v>
+      </c>
+      <c r="K16" s="128">
+        <v>99</v>
+      </c>
+      <c r="L16" s="128">
+        <v>99</v>
+      </c>
+      <c r="M16" s="128"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="133"/>
+      <c r="P16" s="128"/>
+      <c r="Q16" s="128"/>
+      <c r="R16" s="128"/>
+      <c r="S16" s="128"/>
+      <c r="T16" s="128"/>
+      <c r="U16" s="128"/>
+      <c r="V16" s="128">
+        <v>99</v>
+      </c>
+      <c r="W16" s="130">
+        <v>99</v>
+      </c>
+      <c r="X16" s="130">
+        <v>99</v>
+      </c>
+      <c r="Y16" s="131">
+        <v>99</v>
+      </c>
+      <c r="Z16" s="131">
+        <v>99</v>
+      </c>
+      <c r="AA16" s="131">
+        <v>99</v>
+      </c>
+      <c r="AB16" s="128"/>
+      <c r="AC16" s="130"/>
+      <c r="AD16" s="131"/>
+      <c r="AE16" s="131"/>
+      <c r="AF16" s="131"/>
+      <c r="AG16" s="131"/>
+      <c r="AH16" s="131"/>
+      <c r="AI16" s="131"/>
+      <c r="AJ16" s="131">
+        <v>99</v>
+      </c>
+      <c r="AK16" s="128"/>
+      <c r="AL16" s="130"/>
+      <c r="AM16" s="131"/>
+      <c r="AN16" s="131"/>
+      <c r="AO16" s="131"/>
+      <c r="AP16" s="131"/>
+      <c r="AQ16" s="131">
+        <v>99</v>
+      </c>
+      <c r="AR16" s="128"/>
+      <c r="AS16" s="128"/>
       <c r="AT16" s="125">
         <v>99</v>
       </c>
-      <c r="AU16" s="127"/>
-      <c r="AV16" s="127"/>
-      <c r="AW16" s="127"/>
-      <c r="AX16" s="127"/>
-      <c r="AY16" s="127"/>
-      <c r="AZ16" s="127"/>
-      <c r="BA16" s="127"/>
-      <c r="BB16" s="127"/>
-      <c r="BC16" s="127"/>
-      <c r="BD16" s="127"/>
-      <c r="BE16" s="127">
-        <v>99</v>
-      </c>
-      <c r="BF16" s="127"/>
-      <c r="BG16" s="127"/>
-      <c r="BH16" s="127"/>
-      <c r="BI16" s="127"/>
-      <c r="BJ16" s="127">
-        <v>99</v>
-      </c>
-      <c r="BK16" s="127"/>
-      <c r="BL16" s="127"/>
-      <c r="BM16" s="127"/>
-      <c r="BN16" s="127"/>
-      <c r="BO16" s="127"/>
-      <c r="BP16" s="127"/>
-      <c r="BQ16" s="127"/>
-      <c r="BR16" s="127"/>
-      <c r="BS16" s="127"/>
-      <c r="BT16" s="127"/>
-      <c r="BU16" s="127">
-        <v>99</v>
-      </c>
-      <c r="BV16" s="127"/>
-      <c r="BW16" s="127">
-        <v>99</v>
-      </c>
-      <c r="BX16" s="127">
-        <v>99</v>
-      </c>
-      <c r="BY16" s="127">
-        <v>99</v>
-      </c>
-      <c r="BZ16" s="127">
-        <v>99</v>
-      </c>
-      <c r="CA16" s="127">
-        <v>99</v>
-      </c>
-      <c r="CB16" s="127">
-        <v>99</v>
-      </c>
-      <c r="CC16" s="127"/>
-      <c r="CD16" s="127"/>
-      <c r="CE16" s="127"/>
-      <c r="CF16" s="127"/>
-      <c r="CG16" s="127"/>
-      <c r="CH16" s="127"/>
-      <c r="CI16" s="127"/>
-      <c r="CJ16" s="127"/>
-      <c r="CK16" s="127"/>
-      <c r="CL16" s="127"/>
-      <c r="CM16" s="127"/>
-      <c r="CN16" s="127"/>
-      <c r="CO16" s="127"/>
-      <c r="CP16" s="127"/>
-      <c r="CQ16" s="131"/>
-      <c r="CR16" s="131">
+      <c r="AU16" s="128"/>
+      <c r="AV16" s="128"/>
+      <c r="AW16" s="128"/>
+      <c r="AX16" s="128"/>
+      <c r="AY16" s="128"/>
+      <c r="AZ16" s="128"/>
+      <c r="BA16" s="128"/>
+      <c r="BB16" s="128"/>
+      <c r="BC16" s="128"/>
+      <c r="BD16" s="128"/>
+      <c r="BE16" s="128">
+        <v>99</v>
+      </c>
+      <c r="BF16" s="128"/>
+      <c r="BG16" s="128"/>
+      <c r="BH16" s="128"/>
+      <c r="BI16" s="128"/>
+      <c r="BJ16" s="128">
+        <v>99</v>
+      </c>
+      <c r="BK16" s="128"/>
+      <c r="BL16" s="128"/>
+      <c r="BM16" s="128"/>
+      <c r="BN16" s="128"/>
+      <c r="BO16" s="128"/>
+      <c r="BP16" s="128"/>
+      <c r="BQ16" s="128"/>
+      <c r="BR16" s="128"/>
+      <c r="BS16" s="128"/>
+      <c r="BT16" s="128"/>
+      <c r="BU16" s="128">
+        <v>99</v>
+      </c>
+      <c r="BV16" s="128"/>
+      <c r="BW16" s="128">
+        <v>99</v>
+      </c>
+      <c r="BX16" s="128">
+        <v>99</v>
+      </c>
+      <c r="BY16" s="128">
+        <v>99</v>
+      </c>
+      <c r="BZ16" s="128">
+        <v>99</v>
+      </c>
+      <c r="CA16" s="128">
+        <v>99</v>
+      </c>
+      <c r="CB16" s="128">
+        <v>99</v>
+      </c>
+      <c r="CC16" s="128"/>
+      <c r="CD16" s="128"/>
+      <c r="CE16" s="128"/>
+      <c r="CF16" s="128"/>
+      <c r="CG16" s="128"/>
+      <c r="CH16" s="128"/>
+      <c r="CI16" s="128"/>
+      <c r="CJ16" s="128"/>
+      <c r="CK16" s="128"/>
+      <c r="CL16" s="128"/>
+      <c r="CM16" s="128"/>
+      <c r="CN16" s="128"/>
+      <c r="CO16" s="128"/>
+      <c r="CP16" s="128"/>
+      <c r="CQ16" s="132"/>
+      <c r="CR16" s="132">
         <v>0</v>
       </c>
     </row>
@@ -8466,7 +8575,7 @@
       </c>
       <c r="E17" s="22">
         <f t="shared" si="1"/>
-        <v>30.9375</v>
+        <v>31.428571428571427</v>
       </c>
       <c r="F17" s="15">
         <f t="shared" si="2"/>
@@ -8476,139 +8585,141 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H17" s="127">
-        <v>99</v>
-      </c>
-      <c r="I17" s="127">
-        <v>99</v>
-      </c>
-      <c r="J17" s="127">
-        <v>99</v>
-      </c>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127">
-        <v>99</v>
-      </c>
-      <c r="M17" s="127"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="127"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="127">
-        <v>99</v>
-      </c>
-      <c r="W17" s="129">
-        <v>99</v>
-      </c>
-      <c r="X17" s="129">
-        <v>99</v>
-      </c>
-      <c r="Y17" s="130">
-        <v>99</v>
-      </c>
-      <c r="Z17" s="130">
-        <v>99</v>
-      </c>
-      <c r="AA17" s="130">
-        <v>99</v>
-      </c>
-      <c r="AB17" s="127"/>
-      <c r="AC17" s="129"/>
-      <c r="AD17" s="130"/>
-      <c r="AE17" s="130"/>
-      <c r="AF17" s="130"/>
-      <c r="AG17" s="130"/>
-      <c r="AH17" s="130"/>
-      <c r="AI17" s="130"/>
-      <c r="AJ17" s="130">
-        <v>99</v>
-      </c>
-      <c r="AK17" s="127"/>
-      <c r="AL17" s="129"/>
-      <c r="AM17" s="130"/>
-      <c r="AN17" s="130"/>
-      <c r="AO17" s="130"/>
-      <c r="AP17" s="130"/>
-      <c r="AQ17" s="130">
-        <v>99</v>
-      </c>
-      <c r="AR17" s="127"/>
-      <c r="AS17" s="127"/>
+      <c r="H17" s="128">
+        <v>99</v>
+      </c>
+      <c r="I17" s="128">
+        <v>99</v>
+      </c>
+      <c r="J17" s="128">
+        <v>99</v>
+      </c>
+      <c r="K17" s="128">
+        <v>99</v>
+      </c>
+      <c r="L17" s="128">
+        <v>99</v>
+      </c>
+      <c r="M17" s="128"/>
+      <c r="N17" s="129"/>
+      <c r="O17" s="133"/>
+      <c r="P17" s="128"/>
+      <c r="Q17" s="128"/>
+      <c r="R17" s="128"/>
+      <c r="S17" s="128"/>
+      <c r="T17" s="128"/>
+      <c r="U17" s="128"/>
+      <c r="V17" s="128">
+        <v>99</v>
+      </c>
+      <c r="W17" s="130">
+        <v>99</v>
+      </c>
+      <c r="X17" s="130">
+        <v>99</v>
+      </c>
+      <c r="Y17" s="131">
+        <v>99</v>
+      </c>
+      <c r="Z17" s="131">
+        <v>99</v>
+      </c>
+      <c r="AA17" s="131">
+        <v>99</v>
+      </c>
+      <c r="AB17" s="128"/>
+      <c r="AC17" s="130"/>
+      <c r="AD17" s="131"/>
+      <c r="AE17" s="131"/>
+      <c r="AF17" s="131"/>
+      <c r="AG17" s="131"/>
+      <c r="AH17" s="131"/>
+      <c r="AI17" s="131"/>
+      <c r="AJ17" s="131">
+        <v>99</v>
+      </c>
+      <c r="AK17" s="128"/>
+      <c r="AL17" s="130"/>
+      <c r="AM17" s="131"/>
+      <c r="AN17" s="131"/>
+      <c r="AO17" s="131"/>
+      <c r="AP17" s="131"/>
+      <c r="AQ17" s="131">
+        <v>99</v>
+      </c>
+      <c r="AR17" s="128"/>
+      <c r="AS17" s="128"/>
       <c r="AT17" s="125">
         <v>99</v>
       </c>
-      <c r="AU17" s="127"/>
-      <c r="AV17" s="127"/>
-      <c r="AW17" s="127"/>
-      <c r="AX17" s="127"/>
-      <c r="AY17" s="127"/>
-      <c r="AZ17" s="127"/>
-      <c r="BA17" s="127"/>
-      <c r="BB17" s="127"/>
-      <c r="BC17" s="127"/>
-      <c r="BD17" s="127"/>
-      <c r="BE17" s="127">
-        <v>99</v>
-      </c>
-      <c r="BF17" s="127"/>
-      <c r="BG17" s="127"/>
-      <c r="BH17" s="127"/>
-      <c r="BI17" s="127"/>
-      <c r="BJ17" s="127">
-        <v>99</v>
-      </c>
-      <c r="BK17" s="127"/>
-      <c r="BL17" s="127"/>
-      <c r="BM17" s="127"/>
-      <c r="BN17" s="127"/>
-      <c r="BO17" s="127"/>
-      <c r="BP17" s="127"/>
-      <c r="BQ17" s="127"/>
-      <c r="BR17" s="127"/>
-      <c r="BS17" s="127"/>
-      <c r="BT17" s="127"/>
-      <c r="BU17" s="127">
-        <v>99</v>
-      </c>
-      <c r="BV17" s="127"/>
-      <c r="BW17" s="127">
-        <v>99</v>
-      </c>
-      <c r="BX17" s="127">
-        <v>99</v>
-      </c>
-      <c r="BY17" s="127">
-        <v>99</v>
-      </c>
-      <c r="BZ17" s="127">
-        <v>99</v>
-      </c>
-      <c r="CA17" s="127">
-        <v>99</v>
-      </c>
-      <c r="CB17" s="127">
-        <v>99</v>
-      </c>
-      <c r="CC17" s="127"/>
-      <c r="CD17" s="127"/>
-      <c r="CE17" s="127"/>
-      <c r="CF17" s="127"/>
-      <c r="CG17" s="127"/>
-      <c r="CH17" s="127"/>
-      <c r="CI17" s="127"/>
-      <c r="CJ17" s="127"/>
-      <c r="CK17" s="127"/>
-      <c r="CL17" s="127"/>
-      <c r="CM17" s="127"/>
-      <c r="CN17" s="127"/>
-      <c r="CO17" s="127"/>
-      <c r="CP17" s="127"/>
-      <c r="CQ17" s="131"/>
-      <c r="CR17" s="131">
+      <c r="AU17" s="128"/>
+      <c r="AV17" s="128"/>
+      <c r="AW17" s="128"/>
+      <c r="AX17" s="128"/>
+      <c r="AY17" s="128"/>
+      <c r="AZ17" s="128"/>
+      <c r="BA17" s="128"/>
+      <c r="BB17" s="128"/>
+      <c r="BC17" s="128"/>
+      <c r="BD17" s="128"/>
+      <c r="BE17" s="128">
+        <v>99</v>
+      </c>
+      <c r="BF17" s="128"/>
+      <c r="BG17" s="128"/>
+      <c r="BH17" s="128"/>
+      <c r="BI17" s="128"/>
+      <c r="BJ17" s="128">
+        <v>99</v>
+      </c>
+      <c r="BK17" s="128"/>
+      <c r="BL17" s="128"/>
+      <c r="BM17" s="128"/>
+      <c r="BN17" s="128"/>
+      <c r="BO17" s="128"/>
+      <c r="BP17" s="128"/>
+      <c r="BQ17" s="128"/>
+      <c r="BR17" s="128"/>
+      <c r="BS17" s="128"/>
+      <c r="BT17" s="128"/>
+      <c r="BU17" s="128">
+        <v>99</v>
+      </c>
+      <c r="BV17" s="128"/>
+      <c r="BW17" s="128">
+        <v>99</v>
+      </c>
+      <c r="BX17" s="128">
+        <v>99</v>
+      </c>
+      <c r="BY17" s="128">
+        <v>99</v>
+      </c>
+      <c r="BZ17" s="128">
+        <v>99</v>
+      </c>
+      <c r="CA17" s="128">
+        <v>99</v>
+      </c>
+      <c r="CB17" s="128">
+        <v>99</v>
+      </c>
+      <c r="CC17" s="128"/>
+      <c r="CD17" s="128"/>
+      <c r="CE17" s="128"/>
+      <c r="CF17" s="128"/>
+      <c r="CG17" s="128"/>
+      <c r="CH17" s="128"/>
+      <c r="CI17" s="128"/>
+      <c r="CJ17" s="128"/>
+      <c r="CK17" s="128"/>
+      <c r="CL17" s="128"/>
+      <c r="CM17" s="128"/>
+      <c r="CN17" s="128"/>
+      <c r="CO17" s="128"/>
+      <c r="CP17" s="128"/>
+      <c r="CQ17" s="132"/>
+      <c r="CR17" s="132">
         <v>0</v>
       </c>
     </row>
@@ -8622,19 +8733,19 @@
       <c r="C18" s="4"/>
       <c r="D18" s="110">
         <f t="shared" si="0"/>
-        <v>16.778481012658229</v>
+        <v>18.78846153846154</v>
       </c>
       <c r="E18" s="22">
         <f t="shared" si="1"/>
-        <v>45.046875</v>
+        <v>46.333333333333329</v>
       </c>
       <c r="F18" s="15">
         <f t="shared" si="2"/>
-        <v>144.15</v>
+        <v>145.94999999999999</v>
       </c>
       <c r="G18" s="15">
         <f t="shared" si="3"/>
-        <v>132.55000000000001</v>
+        <v>146.55000000000001</v>
       </c>
       <c r="H18" s="112">
         <v>99</v>
@@ -8645,15 +8756,21 @@
       <c r="J18" s="70">
         <v>99</v>
       </c>
-      <c r="K18" s="9"/>
+      <c r="K18" s="9">
+        <v>99</v>
+      </c>
       <c r="L18" s="70">
         <v>99</v>
       </c>
       <c r="M18" s="9">
         <v>1</v>
       </c>
-      <c r="N18" s="51"/>
-      <c r="O18" s="109"/>
+      <c r="N18" s="126">
+        <v>0.8</v>
+      </c>
+      <c r="O18" s="109">
+        <v>1</v>
+      </c>
       <c r="P18" s="70">
         <v>1</v>
       </c>
@@ -8877,19 +8994,19 @@
       <c r="C19" s="4"/>
       <c r="D19" s="110">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16.987179487179485</v>
       </c>
       <c r="E19" s="22">
         <f t="shared" si="1"/>
-        <v>43.90625</v>
+        <v>45.206349206349202</v>
       </c>
       <c r="F19" s="89">
         <f t="shared" si="2"/>
-        <v>140.5</v>
+        <v>142.4</v>
       </c>
       <c r="G19" s="89">
         <f t="shared" si="3"/>
-        <v>118.5</v>
+        <v>132.5</v>
       </c>
       <c r="H19" s="112">
         <v>99</v>
@@ -8900,15 +9017,21 @@
       <c r="J19" s="90">
         <v>99</v>
       </c>
-      <c r="K19" s="90"/>
+      <c r="K19" s="90">
+        <v>99</v>
+      </c>
       <c r="L19" s="90">
         <v>99</v>
       </c>
       <c r="M19" s="90">
         <v>1</v>
       </c>
-      <c r="N19" s="108"/>
-      <c r="O19" s="90"/>
+      <c r="N19" s="108">
+        <v>1</v>
+      </c>
+      <c r="O19" s="90">
+        <v>0.9</v>
+      </c>
       <c r="P19" s="90">
         <v>1</v>
       </c>
@@ -9135,19 +9258,19 @@
       <c r="C20" s="4"/>
       <c r="D20" s="110">
         <f t="shared" si="0"/>
-        <v>16.387341772151895</v>
+        <v>18.520512820512817</v>
       </c>
       <c r="E20" s="22">
         <f t="shared" si="1"/>
-        <v>44.629687500000003</v>
+        <v>45.973015873015875</v>
       </c>
       <c r="F20" s="15">
         <f t="shared" si="2"/>
-        <v>142.815</v>
+        <v>144.815</v>
       </c>
       <c r="G20" s="15">
         <f t="shared" si="3"/>
-        <v>129.45999999999998</v>
+        <v>144.45999999999998</v>
       </c>
       <c r="H20" s="112">
         <v>99</v>
@@ -9158,15 +9281,21 @@
       <c r="J20" s="70">
         <v>99</v>
       </c>
-      <c r="K20" s="9"/>
+      <c r="K20" s="9">
+        <v>99</v>
+      </c>
       <c r="L20" s="70">
         <v>99</v>
       </c>
       <c r="M20" s="9">
         <v>1</v>
       </c>
-      <c r="N20" s="108"/>
-      <c r="O20" s="109"/>
+      <c r="N20" s="108">
+        <v>1</v>
+      </c>
+      <c r="O20" s="109">
+        <v>1</v>
+      </c>
       <c r="P20" s="70">
         <v>1</v>
       </c>
@@ -9393,19 +9522,19 @@
       <c r="C21" s="5"/>
       <c r="D21" s="110">
         <f t="shared" si="0"/>
-        <v>14.083544303797469</v>
+        <v>16.026923076923079</v>
       </c>
       <c r="E21" s="22">
         <f t="shared" si="1"/>
-        <v>43.321874999999999</v>
+        <v>44.565079365079363</v>
       </c>
       <c r="F21" s="15">
         <f t="shared" si="2"/>
-        <v>138.63</v>
+        <v>140.38</v>
       </c>
       <c r="G21" s="15">
         <f t="shared" si="3"/>
-        <v>111.26</v>
+        <v>125.01</v>
       </c>
       <c r="H21" s="112">
         <v>99</v>
@@ -9416,15 +9545,21 @@
       <c r="J21" s="70">
         <v>99</v>
       </c>
-      <c r="K21" s="9"/>
+      <c r="K21" s="9">
+        <v>99</v>
+      </c>
       <c r="L21" s="70">
         <v>99</v>
       </c>
       <c r="M21" s="9">
         <v>0.75</v>
       </c>
-      <c r="N21" s="51"/>
-      <c r="O21" s="109"/>
+      <c r="N21" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="O21" s="109">
+        <v>1</v>
+      </c>
       <c r="P21" s="70">
         <v>1</v>
       </c>
@@ -9651,19 +9786,19 @@
       <c r="C22" s="4"/>
       <c r="D22" s="110">
         <f t="shared" si="0"/>
-        <v>16.10759493670886</v>
+        <v>18.044871794871796</v>
       </c>
       <c r="E22" s="22">
         <f t="shared" si="1"/>
-        <v>44.6875</v>
+        <v>45.936507936507937</v>
       </c>
       <c r="F22" s="15">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>144.69999999999999</v>
       </c>
       <c r="G22" s="15">
         <f t="shared" si="3"/>
-        <v>127.25</v>
+        <v>140.75</v>
       </c>
       <c r="H22" s="112">
         <v>99</v>
@@ -9674,15 +9809,21 @@
       <c r="J22" s="70">
         <v>99</v>
       </c>
-      <c r="K22" s="70"/>
+      <c r="K22" s="70">
+        <v>99</v>
+      </c>
       <c r="L22" s="70">
         <v>99</v>
       </c>
       <c r="M22" s="70">
         <v>1</v>
       </c>
-      <c r="N22" s="67"/>
-      <c r="O22" s="109"/>
+      <c r="N22" s="126">
+        <v>0.7</v>
+      </c>
+      <c r="O22" s="109">
+        <v>1</v>
+      </c>
       <c r="P22" s="70">
         <v>1</v>
       </c>
@@ -9746,7 +9887,7 @@
       <c r="AJ22" s="68">
         <v>99</v>
       </c>
-      <c r="AK22" s="126">
+      <c r="AK22" s="127">
         <v>1</v>
       </c>
       <c r="AL22" s="92">
@@ -9909,19 +10050,19 @@
       <c r="C23" s="4"/>
       <c r="D23" s="110">
         <f t="shared" si="0"/>
-        <v>17.215189873417721</v>
+        <v>19.358974358974358</v>
       </c>
       <c r="E23" s="22">
         <f t="shared" si="1"/>
-        <v>45.15625</v>
+        <v>46.507936507936513</v>
       </c>
       <c r="F23" s="89">
         <f t="shared" si="2"/>
-        <v>144.5</v>
+        <v>146.5</v>
       </c>
       <c r="G23" s="89">
         <f t="shared" si="3"/>
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="H23" s="112">
         <v>99</v>
@@ -9932,15 +10073,21 @@
       <c r="J23" s="90">
         <v>99</v>
       </c>
-      <c r="K23" s="90"/>
+      <c r="K23" s="90">
+        <v>99</v>
+      </c>
       <c r="L23" s="90">
         <v>99</v>
       </c>
       <c r="M23" s="90">
         <v>1</v>
       </c>
-      <c r="N23" s="91"/>
-      <c r="O23" s="109"/>
+      <c r="N23" s="91">
+        <v>1</v>
+      </c>
+      <c r="O23" s="109">
+        <v>1</v>
+      </c>
       <c r="P23" s="90">
         <v>1</v>
       </c>
@@ -10004,7 +10151,7 @@
       <c r="AJ23" s="93">
         <v>99</v>
       </c>
-      <c r="AK23" s="126">
+      <c r="AK23" s="127">
         <v>1</v>
       </c>
       <c r="AL23" s="92">
@@ -10167,7 +10314,7 @@
       </c>
       <c r="E24" s="22">
         <f t="shared" si="1"/>
-        <v>30.9375</v>
+        <v>31.428571428571427</v>
       </c>
       <c r="F24" s="89">
         <f t="shared" si="2"/>
@@ -10186,7 +10333,9 @@
       <c r="J24" s="90">
         <v>99</v>
       </c>
-      <c r="K24" s="90"/>
+      <c r="K24" s="90">
+        <v>99</v>
+      </c>
       <c r="L24" s="90">
         <v>99</v>
       </c>
@@ -10325,11 +10474,11 @@
       </c>
       <c r="F25" s="15">
         <f>G67</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G25" s="15">
         <f>G45</f>
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H25" s="70">
         <v>1</v>
@@ -10614,7 +10763,7 @@
       </c>
       <c r="K26" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="4"/>
@@ -10626,11 +10775,11 @@
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.91249999999999998</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.95416666666666661</v>
       </c>
       <c r="P26" s="72">
         <f t="shared" si="4"/>
@@ -11322,7 +11471,7 @@
     <row r="29" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G29" s="2">
         <f t="shared" si="9"/>
-        <v>97.2</v>
+        <v>111.7</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" ref="H29:AK29" si="21">H10*H$6</f>
@@ -11350,11 +11499,11 @@
       </c>
       <c r="N29" s="2">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P29" s="72">
         <f t="shared" si="21"/>
@@ -12046,7 +12195,7 @@
     <row r="31" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G31" s="2">
         <f t="shared" si="9"/>
-        <v>132.25</v>
+        <v>147.25</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" ref="H31:AK31" si="31">H12*H$6</f>
@@ -12074,11 +12223,11 @@
       </c>
       <c r="N31" s="2">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P31" s="72">
         <f t="shared" si="31"/>
@@ -12408,7 +12557,7 @@
     <row r="32" spans="1:96" x14ac:dyDescent="0.25">
       <c r="G32" s="2">
         <f t="shared" si="9"/>
-        <v>109.7</v>
+        <v>123.7</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" ref="H32:AK32" si="36">H13*H$6</f>
@@ -12436,11 +12585,11 @@
       </c>
       <c r="N32" s="2">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P32" s="72">
         <f t="shared" si="36"/>
@@ -12770,7 +12919,7 @@
     <row r="33" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G33" s="2">
         <f t="shared" si="9"/>
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" ref="H33:AK33" si="41">H14*H$6</f>
@@ -12798,11 +12947,11 @@
       </c>
       <c r="N33" s="2">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P33" s="72">
         <f t="shared" si="41"/>
@@ -13132,7 +13281,7 @@
     <row r="34" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G34" s="2">
         <f t="shared" si="9"/>
-        <v>95.3</v>
+        <v>106.8</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" ref="H34:AK34" si="46">H15*H$6</f>
@@ -13160,11 +13309,11 @@
       </c>
       <c r="N34" s="2">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="P34" s="72">
         <f t="shared" si="46"/>
@@ -14218,7 +14367,7 @@
     <row r="37" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G37" s="2">
         <f t="shared" si="9"/>
-        <v>132.55000000000001</v>
+        <v>146.55000000000001</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" ref="H37:AK37" si="61">H18*H$6</f>
@@ -14246,11 +14395,11 @@
       </c>
       <c r="N37" s="2">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P37" s="72">
         <f t="shared" si="61"/>
@@ -14580,7 +14729,7 @@
     <row r="38" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G38" s="2">
         <f t="shared" si="9"/>
-        <v>118.5</v>
+        <v>132.5</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" ref="H38:AK38" si="66">H19*H$6</f>
@@ -14608,11 +14757,11 @@
       </c>
       <c r="N38" s="2">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P38" s="72">
         <f t="shared" si="66"/>
@@ -14942,7 +15091,7 @@
     <row r="39" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G39" s="2">
         <f t="shared" si="9"/>
-        <v>129.45999999999998</v>
+        <v>144.45999999999998</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" ref="H39:AK39" si="71">H20*H$6</f>
@@ -14970,11 +15119,11 @@
       </c>
       <c r="N39" s="2">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P39" s="72">
         <f t="shared" si="71"/>
@@ -15304,7 +15453,7 @@
     <row r="40" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G40" s="2">
         <f t="shared" si="9"/>
-        <v>111.26</v>
+        <v>125.01</v>
       </c>
       <c r="H40" s="2">
         <f t="shared" ref="H40:AK40" si="76">H21*H$6</f>
@@ -15332,11 +15481,11 @@
       </c>
       <c r="N40" s="2">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P40" s="72">
         <f t="shared" si="76"/>
@@ -15666,7 +15815,7 @@
     <row r="41" spans="4:96" x14ac:dyDescent="0.25">
       <c r="G41" s="69">
         <f t="shared" si="9"/>
-        <v>127.25</v>
+        <v>140.75</v>
       </c>
       <c r="H41" s="69">
         <f t="shared" ref="H41:AK41" si="81">H22*H$6</f>
@@ -15694,11 +15843,11 @@
       </c>
       <c r="N41" s="69">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O41" s="69">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P41" s="72">
         <f t="shared" si="81"/>
@@ -16030,7 +16179,7 @@
       <c r="E42" s="19"/>
       <c r="G42" s="69">
         <f t="shared" si="9"/>
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="H42" s="69">
         <f t="shared" ref="H42:AK42" si="86">H23*H$6</f>
@@ -16058,11 +16207,11 @@
       </c>
       <c r="N42" s="69">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O42" s="69">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P42" s="72">
         <f t="shared" si="86"/>
@@ -17122,7 +17271,7 @@
       <c r="E45" s="19"/>
       <c r="G45" s="72">
         <f t="shared" si="9"/>
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H45" s="72">
         <f t="shared" ref="H45:N45" si="96">H25*H$6</f>
@@ -17138,7 +17287,7 @@
       </c>
       <c r="K45" s="72">
         <f t="shared" si="96"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L45" s="72">
         <f t="shared" si="96"/>
@@ -17962,7 +18111,7 @@
     <row r="51" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G51" s="2">
         <f t="shared" si="102"/>
-        <v>133.65</v>
+        <v>135.55000000000001</v>
       </c>
       <c r="H51" s="2">
         <f t="shared" ref="H51:AK51" si="114">H10*H$7</f>
@@ -17990,11 +18139,11 @@
       </c>
       <c r="N51" s="2">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="114"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" s="72">
         <f t="shared" si="114"/>
@@ -18686,7 +18835,7 @@
     <row r="53" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G53" s="2">
         <f t="shared" si="102"/>
-        <v>143.625</v>
+        <v>145.625</v>
       </c>
       <c r="H53" s="2">
         <f t="shared" ref="H53:AK53" si="124">H12*H$7</f>
@@ -18714,11 +18863,11 @@
       </c>
       <c r="N53" s="2">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" s="72">
         <f t="shared" si="124"/>
@@ -19048,7 +19197,7 @@
     <row r="54" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G54" s="2">
         <f t="shared" si="102"/>
-        <v>138.65</v>
+        <v>140.55000000000001</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" ref="H54:AK54" si="129">H13*H$7</f>
@@ -19076,11 +19225,11 @@
       </c>
       <c r="N54" s="2">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P54" s="72">
         <f t="shared" si="129"/>
@@ -19410,7 +19559,7 @@
     <row r="55" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G55" s="2">
         <f t="shared" si="102"/>
-        <v>141.75</v>
+        <v>143.65</v>
       </c>
       <c r="H55" s="2">
         <f t="shared" ref="H55:AK55" si="134">H14*H$7</f>
@@ -19438,11 +19587,11 @@
       </c>
       <c r="N55" s="2">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P55" s="72">
         <f t="shared" si="134"/>
@@ -19772,7 +19921,7 @@
     <row r="56" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G56" s="2">
         <f t="shared" si="102"/>
-        <v>135.4</v>
+        <v>136.94999999999999</v>
       </c>
       <c r="H56" s="2">
         <f t="shared" ref="H56:AK56" si="139">H15*H$7</f>
@@ -19800,11 +19949,11 @@
       </c>
       <c r="N56" s="2">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="P56" s="72">
         <f t="shared" si="139"/>
@@ -20858,7 +21007,7 @@
     <row r="59" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G59" s="2">
         <f t="shared" si="102"/>
-        <v>144.15</v>
+        <v>145.94999999999999</v>
       </c>
       <c r="H59" s="2">
         <f t="shared" ref="H59:AK59" si="154">H18*H$7</f>
@@ -20886,11 +21035,11 @@
       </c>
       <c r="N59" s="2">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" s="72">
         <f t="shared" si="154"/>
@@ -21220,7 +21369,7 @@
     <row r="60" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G60" s="2">
         <f t="shared" si="102"/>
-        <v>140.5</v>
+        <v>142.4</v>
       </c>
       <c r="H60" s="2">
         <f t="shared" ref="H60:AK60" si="159">H19*H$7</f>
@@ -21248,11 +21397,11 @@
       </c>
       <c r="N60" s="2">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P60" s="72">
         <f t="shared" si="159"/>
@@ -21582,7 +21731,7 @@
     <row r="61" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G61" s="2">
         <f t="shared" si="102"/>
-        <v>142.815</v>
+        <v>144.815</v>
       </c>
       <c r="H61" s="2">
         <f t="shared" ref="H61:AK61" si="164">H20*H$7</f>
@@ -21610,11 +21759,11 @@
       </c>
       <c r="N61" s="2">
         <f t="shared" si="164"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="164"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" s="72">
         <f t="shared" si="164"/>
@@ -21944,7 +22093,7 @@
     <row r="62" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G62" s="2">
         <f t="shared" si="102"/>
-        <v>138.63</v>
+        <v>140.38</v>
       </c>
       <c r="H62" s="2">
         <f t="shared" ref="H62:AK62" si="169">H21*H$7</f>
@@ -21972,11 +22121,11 @@
       </c>
       <c r="N62" s="2">
         <f t="shared" si="169"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="169"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" s="72">
         <f t="shared" si="169"/>
@@ -22306,7 +22455,7 @@
     <row r="63" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G63" s="69">
         <f t="shared" si="102"/>
-        <v>143</v>
+        <v>144.69999999999999</v>
       </c>
       <c r="H63" s="69">
         <f t="shared" ref="H63:AK63" si="174">H22*H$7</f>
@@ -22334,11 +22483,11 @@
       </c>
       <c r="N63" s="69">
         <f t="shared" si="174"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O63" s="69">
         <f t="shared" si="174"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" s="72">
         <f t="shared" si="174"/>
@@ -22668,7 +22817,7 @@
     <row r="64" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G64" s="69">
         <f t="shared" si="102"/>
-        <v>144.5</v>
+        <v>146.5</v>
       </c>
       <c r="H64" s="69">
         <f t="shared" ref="H64:AK64" si="179">H23*H$7</f>
@@ -22696,11 +22845,11 @@
       </c>
       <c r="N64" s="69">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" s="69">
         <f t="shared" si="179"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" s="72">
         <f t="shared" si="179"/>
@@ -23754,7 +23903,7 @@
     <row r="67" spans="7:96" x14ac:dyDescent="0.25">
       <c r="G67" s="72">
         <f t="shared" si="102"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H67" s="72">
         <f t="shared" ref="H67:N67" si="189">H25*H$7</f>
@@ -23770,7 +23919,7 @@
       </c>
       <c r="K67" s="72">
         <f t="shared" si="189"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" s="72">
         <f t="shared" si="189"/>
@@ -24265,7 +24414,7 @@
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CR9:CR21 CF9:CH25 AR22:AR25 AU9:AW25 I9:V25 CN9:CP25 AP9:AQ21 BA9:BA25 CC9:CD25 X9:AD25 AI9:AM21 AI24:AM25 AP24:AQ25 AQ22:AQ23 AI22:AJ23">
+  <conditionalFormatting sqref="CR9:CR21 CF9:CH25 AR22:AR25 AU9:AW25 CN9:CP25 AP9:AQ21 BA9:BA25 CC9:CD25 X9:AD25 AI9:AM21 AI24:AM25 AP24:AQ25 AQ22:AQ23 AI22:AJ23 I9:V25">
     <cfRule type="cellIs" dxfId="224" priority="340" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -25347,144 +25496,144 @@
       <c r="C1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="200" t="s">
+      <c r="D1" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="201"/>
-      <c r="F1" s="200" t="s">
+      <c r="E1" s="202"/>
+      <c r="F1" s="201" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
-      <c r="P1" s="210"/>
-      <c r="Q1" s="210"/>
-      <c r="R1" s="210"/>
-      <c r="S1" s="210"/>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="210"/>
-      <c r="X1" s="210"/>
-      <c r="Y1" s="210"/>
-      <c r="Z1" s="210"/>
-      <c r="AA1" s="210"/>
-      <c r="AB1" s="210"/>
-      <c r="AC1" s="211"/>
-      <c r="AD1" s="211"/>
-      <c r="AE1" s="211"/>
-      <c r="AF1" s="211"/>
-      <c r="AG1" s="211"/>
-      <c r="AH1" s="211"/>
-      <c r="AI1" s="211"/>
-      <c r="AJ1" s="212"/>
-      <c r="AK1" s="207" t="s">
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="211"/>
+      <c r="O1" s="211"/>
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
+      <c r="R1" s="211"/>
+      <c r="S1" s="211"/>
+      <c r="T1" s="211"/>
+      <c r="U1" s="211"/>
+      <c r="V1" s="211"/>
+      <c r="W1" s="211"/>
+      <c r="X1" s="211"/>
+      <c r="Y1" s="211"/>
+      <c r="Z1" s="211"/>
+      <c r="AA1" s="211"/>
+      <c r="AB1" s="211"/>
+      <c r="AC1" s="212"/>
+      <c r="AD1" s="212"/>
+      <c r="AE1" s="212"/>
+      <c r="AF1" s="212"/>
+      <c r="AG1" s="212"/>
+      <c r="AH1" s="212"/>
+      <c r="AI1" s="212"/>
+      <c r="AJ1" s="213"/>
+      <c r="AK1" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="AL1" s="208"/>
-      <c r="AM1" s="208"/>
-      <c r="AN1" s="208"/>
-      <c r="AO1" s="208"/>
-      <c r="AP1" s="208"/>
-      <c r="AQ1" s="209"/>
-      <c r="AR1" s="200" t="s">
+      <c r="AL1" s="209"/>
+      <c r="AM1" s="209"/>
+      <c r="AN1" s="209"/>
+      <c r="AO1" s="209"/>
+      <c r="AP1" s="209"/>
+      <c r="AQ1" s="210"/>
+      <c r="AR1" s="201" t="s">
         <v>49</v>
       </c>
-      <c r="AS1" s="201"/>
+      <c r="AS1" s="202"/>
     </row>
     <row r="2" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="29"/>
       <c r="C2" s="33"/>
       <c r="D2" s="36"/>
       <c r="E2" s="37"/>
-      <c r="F2" s="219" t="s">
+      <c r="F2" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="220"/>
-      <c r="M2" s="220"/>
-      <c r="N2" s="220"/>
-      <c r="O2" s="220"/>
-      <c r="P2" s="220"/>
-      <c r="Q2" s="220"/>
-      <c r="R2" s="220"/>
-      <c r="S2" s="220"/>
-      <c r="T2" s="220"/>
-      <c r="U2" s="220"/>
-      <c r="V2" s="220"/>
-      <c r="W2" s="220"/>
-      <c r="X2" s="220"/>
-      <c r="Y2" s="220"/>
-      <c r="Z2" s="220"/>
-      <c r="AA2" s="220"/>
-      <c r="AB2" s="220"/>
-      <c r="AC2" s="217" t="s">
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="221"/>
+      <c r="O2" s="221"/>
+      <c r="P2" s="221"/>
+      <c r="Q2" s="221"/>
+      <c r="R2" s="221"/>
+      <c r="S2" s="221"/>
+      <c r="T2" s="221"/>
+      <c r="U2" s="221"/>
+      <c r="V2" s="221"/>
+      <c r="W2" s="221"/>
+      <c r="X2" s="221"/>
+      <c r="Y2" s="221"/>
+      <c r="Z2" s="221"/>
+      <c r="AA2" s="221"/>
+      <c r="AB2" s="221"/>
+      <c r="AC2" s="218" t="s">
         <v>35</v>
       </c>
-      <c r="AD2" s="221"/>
-      <c r="AE2" s="217" t="s">
+      <c r="AD2" s="222"/>
+      <c r="AE2" s="218" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="221"/>
-      <c r="AG2" s="217" t="s">
+      <c r="AF2" s="222"/>
+      <c r="AG2" s="218" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" s="218"/>
-      <c r="AI2" s="221"/>
+      <c r="AH2" s="219"/>
+      <c r="AI2" s="222"/>
       <c r="AJ2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" s="217" t="s">
+      <c r="AK2" s="218" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="218"/>
-      <c r="AM2" s="221"/>
+      <c r="AL2" s="219"/>
+      <c r="AM2" s="222"/>
       <c r="AN2" s="32"/>
       <c r="AO2" s="32"/>
       <c r="AP2" s="32"/>
       <c r="AQ2" s="44"/>
-      <c r="AR2" s="213" t="s">
+      <c r="AR2" s="214" t="s">
         <v>47</v>
       </c>
-      <c r="AS2" s="215" t="s">
+      <c r="AS2" s="216" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B3" s="29"/>
-      <c r="C3" s="202" t="s">
+      <c r="C3" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="206" t="s">
+      <c r="D3" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="203" t="s">
+      <c r="E3" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="200" t="s">
+      <c r="F3" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="210"/>
-      <c r="J3" s="210"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="200" t="s">
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="210"/>
-      <c r="N3" s="210"/>
-      <c r="O3" s="201"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="211"/>
+      <c r="O3" s="202"/>
       <c r="P3" s="32" t="s">
         <v>26</v>
       </c>
@@ -25494,20 +25643,20 @@
       <c r="R3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="217" t="s">
+      <c r="S3" s="218" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="218"/>
-      <c r="U3" s="218"/>
-      <c r="V3" s="218"/>
-      <c r="W3" s="218"/>
-      <c r="X3" s="221"/>
-      <c r="Y3" s="217" t="s">
+      <c r="T3" s="219"/>
+      <c r="U3" s="219"/>
+      <c r="V3" s="219"/>
+      <c r="W3" s="219"/>
+      <c r="X3" s="222"/>
+      <c r="Y3" s="218" t="s">
         <v>28</v>
       </c>
-      <c r="Z3" s="218"/>
-      <c r="AA3" s="218"/>
-      <c r="AB3" s="218"/>
+      <c r="Z3" s="219"/>
+      <c r="AA3" s="219"/>
+      <c r="AB3" s="219"/>
       <c r="AC3" s="36" t="s">
         <v>36</v>
       </c>
@@ -25520,11 +25669,11 @@
       <c r="AF3" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AG3" s="206" t="s">
+      <c r="AG3" s="207" t="s">
         <v>34</v>
       </c>
-      <c r="AH3" s="204"/>
-      <c r="AI3" s="203"/>
+      <c r="AH3" s="205"/>
+      <c r="AI3" s="204"/>
       <c r="AJ3" s="33" t="s">
         <v>7</v>
       </c>
@@ -25549,77 +25698,77 @@
       <c r="AQ3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AR3" s="214"/>
-      <c r="AS3" s="216"/>
+      <c r="AR3" s="215"/>
+      <c r="AS3" s="217"/>
     </row>
     <row r="4" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="29"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="203"/>
-      <c r="F4" s="206" t="s">
+      <c r="C4" s="203"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="207" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="204" t="s">
+      <c r="G4" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="204" t="s">
+      <c r="H4" s="205" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="204" t="s">
+      <c r="I4" s="205" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="204" t="s">
+      <c r="J4" s="205" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="203"/>
-      <c r="L4" s="206" t="s">
+      <c r="K4" s="204"/>
+      <c r="L4" s="207" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="204" t="s">
+      <c r="M4" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="204" t="s">
+      <c r="N4" s="205" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="203" t="s">
+      <c r="O4" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="202" t="s">
+      <c r="P4" s="203" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="202" t="s">
+      <c r="Q4" s="203" t="s">
         <v>55</v>
       </c>
-      <c r="R4" s="202" t="s">
+      <c r="R4" s="203" t="s">
         <v>55</v>
       </c>
-      <c r="S4" s="206" t="s">
+      <c r="S4" s="207" t="s">
         <v>51</v>
       </c>
-      <c r="T4" s="204" t="s">
+      <c r="T4" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="204" t="s">
+      <c r="U4" s="205" t="s">
         <v>52</v>
       </c>
-      <c r="V4" s="204" t="s">
+      <c r="V4" s="205" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="222" t="s">
+      <c r="W4" s="223" t="s">
         <v>54</v>
       </c>
-      <c r="X4" s="203"/>
-      <c r="Y4" s="206" t="s">
+      <c r="X4" s="204"/>
+      <c r="Y4" s="207" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="204" t="s">
+      <c r="Z4" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="AA4" s="204" t="s">
+      <c r="AA4" s="205" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="205" t="s">
+      <c r="AB4" s="206" t="s">
         <v>53</v>
       </c>
       <c r="AC4" s="36"/>
@@ -25648,40 +25797,40 @@
     </row>
     <row r="5" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="29"/>
-      <c r="C5" s="202"/>
-      <c r="D5" s="206"/>
-      <c r="E5" s="203"/>
-      <c r="F5" s="206"/>
-      <c r="G5" s="204"/>
-      <c r="H5" s="204"/>
-      <c r="I5" s="204"/>
+      <c r="C5" s="203"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="204"/>
+      <c r="F5" s="207"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="205"/>
+      <c r="I5" s="205"/>
       <c r="J5" s="27" t="s">
         <v>56</v>
       </c>
       <c r="K5" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="206"/>
-      <c r="M5" s="204"/>
-      <c r="N5" s="204"/>
-      <c r="O5" s="203"/>
-      <c r="P5" s="202"/>
-      <c r="Q5" s="202"/>
-      <c r="R5" s="202"/>
-      <c r="S5" s="206"/>
-      <c r="T5" s="204"/>
-      <c r="U5" s="204"/>
-      <c r="V5" s="204"/>
+      <c r="L5" s="207"/>
+      <c r="M5" s="205"/>
+      <c r="N5" s="205"/>
+      <c r="O5" s="204"/>
+      <c r="P5" s="203"/>
+      <c r="Q5" s="203"/>
+      <c r="R5" s="203"/>
+      <c r="S5" s="207"/>
+      <c r="T5" s="205"/>
+      <c r="U5" s="205"/>
+      <c r="V5" s="205"/>
       <c r="W5" s="30" t="s">
         <v>58</v>
       </c>
       <c r="X5" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="Y5" s="206"/>
-      <c r="Z5" s="204"/>
-      <c r="AA5" s="204"/>
-      <c r="AB5" s="205"/>
+      <c r="Y5" s="207"/>
+      <c r="Z5" s="205"/>
+      <c r="AA5" s="205"/>
+      <c r="AB5" s="206"/>
       <c r="AC5" s="36"/>
       <c r="AD5" s="37"/>
       <c r="AE5" s="36"/>
